--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="197">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -775,12 +775,24 @@
   <si>
     <t>Increase</t>
   </si>
+  <si>
+    <t>nt_EPT_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>pi_NonInsArachDecaClump_BCG_att456</t>
+  </si>
+  <si>
+    <t>pt_NonInsArachDeca_BCG_att456</t>
+  </si>
+  <si>
+    <t>pi_NonInsArachDeca_BCG_att456</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,8 +888,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,6 +951,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -983,10 +1013,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1014,15 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1066,9 +1088,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1108,67 +1127,107 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1446,21 +1505,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="27" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="38" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="61.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="61.42578125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1470,38 +1529,38 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="G2" s="27" t="s">
+      <c r="B2" s="15"/>
+      <c r="G2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="G3" s="24" t="s">
+      <c r="B3" s="26"/>
+      <c r="G3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="G4" s="21" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="G4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1509,7 +1568,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1521,34 +1580,34 @@
       <c r="D5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="36"/>
-      <c r="G6" s="21" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="32"/>
+      <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="28" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1556,40 +1615,40 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="37"/>
-      <c r="G7" s="21" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="37"/>
-      <c r="G8" s="21" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="33"/>
+      <c r="G8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="18" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1600,22 +1659,22 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="18" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1626,18 +1685,18 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="37"/>
-      <c r="G10" s="23" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="33"/>
+      <c r="G10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1648,18 +1707,18 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="37"/>
-      <c r="G11" s="21" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1670,21 +1729,21 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="37"/>
-      <c r="G12" s="23" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="28" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1692,21 +1751,21 @@
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="37"/>
-      <c r="G13" s="23" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="33"/>
+      <c r="G13" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1714,20 +1773,20 @@
       <c r="A14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1738,42 +1797,42 @@
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="20" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="23" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="20" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1781,35 +1840,35 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="39"/>
-      <c r="I17" s="28"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="35"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="40"/>
-      <c r="G18" s="34" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="36"/>
+      <c r="G18" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="30" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1817,14 +1876,14 @@
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
       </c>
@@ -1839,14 +1898,14 @@
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
       </c>
@@ -1861,14 +1920,14 @@
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
       </c>
@@ -1883,16 +1942,16 @@
       <c r="A22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="34" t="s">
         <v>110</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1909,14 +1968,14 @@
       <c r="A23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
       </c>
@@ -1928,15 +1987,15 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="35" t="s">
         <v>111</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1953,16 +2012,16 @@
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="35"/>
       <c r="G25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1974,19 +2033,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="46" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2000,13 +2059,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="56"/>
+      <c r="E27" s="47"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2018,13 +2077,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="36"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
       </c>
@@ -2039,14 +2098,14 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
       </c>
@@ -2061,70 +2120,70 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="39"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="61"/>
+      <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2132,64 +2191,64 @@
       <c r="A35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="42" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="43"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="36"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="31"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="40" t="s">
+      <c r="D39" s="49"/>
+      <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2197,45 +2256,61 @@
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="39"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="39"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="40" t="s">
+      <c r="D42" s="49"/>
+      <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2252,22 +2327,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2284,9 +2343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7:I49"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,34 +2359,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="41" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2356,7 +2415,7 @@
       <c r="H2">
         <v>35</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -2388,7 +2447,7 @@
       <c r="H3">
         <v>8</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -2420,7 +2479,7 @@
       <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -2452,7 +2511,7 @@
       <c r="H5">
         <v>25</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
@@ -2484,7 +2543,7 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -2516,7 +2575,7 @@
       <c r="H7">
         <v>7</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -2533,8 +2592,8 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
+      <c r="D8" s="63" t="s">
+        <v>193</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -2548,7 +2607,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="s">
@@ -2565,8 +2624,8 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
+      <c r="D9" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -2580,7 +2639,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
@@ -2597,7 +2656,7 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="65" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
@@ -2612,7 +2671,7 @@
       <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
@@ -2644,7 +2703,7 @@
       <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J11" t="s">
@@ -2676,7 +2735,7 @@
       <c r="H12">
         <v>30</v>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
@@ -2708,7 +2767,7 @@
       <c r="H13">
         <v>15</v>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
@@ -2740,7 +2799,7 @@
       <c r="H14">
         <v>15</v>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
@@ -2772,7 +2831,7 @@
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
@@ -2789,8 +2848,8 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
+      <c r="D16" s="63" t="s">
+        <v>193</v>
       </c>
       <c r="E16" t="s">
         <v>135</v>
@@ -2804,7 +2863,7 @@
       <c r="H16">
         <v>10</v>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="s">
@@ -2821,8 +2880,8 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
+      <c r="D17" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -2836,7 +2895,7 @@
       <c r="H17">
         <v>30</v>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
@@ -2853,7 +2912,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="65" t="s">
         <v>42</v>
       </c>
       <c r="E18" t="s">
@@ -2868,7 +2927,7 @@
       <c r="H18">
         <v>65</v>
       </c>
-      <c r="I18" t="b">
+      <c r="I18" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
@@ -2900,7 +2959,7 @@
       <c r="H19">
         <v>40</v>
       </c>
-      <c r="I19" t="b">
+      <c r="I19" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
@@ -2923,7 +2982,7 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" t="b">
+      <c r="I20" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J20" t="s">
@@ -2955,7 +3014,7 @@
       <c r="H21">
         <v>25</v>
       </c>
-      <c r="I21" t="b">
+      <c r="I21" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
@@ -2987,7 +3046,7 @@
       <c r="H22">
         <v>15</v>
       </c>
-      <c r="I22" t="b">
+      <c r="I22" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J22" t="s">
@@ -3019,7 +3078,7 @@
       <c r="H23">
         <v>25</v>
       </c>
-      <c r="I23" t="b">
+      <c r="I23" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
@@ -3051,7 +3110,7 @@
       <c r="H24">
         <v>30</v>
       </c>
-      <c r="I24" t="b">
+      <c r="I24" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
@@ -3068,8 +3127,8 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>40</v>
+      <c r="D25" s="63" t="s">
+        <v>193</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
@@ -3083,7 +3142,7 @@
       <c r="H25">
         <v>3</v>
       </c>
-      <c r="I25" t="b">
+      <c r="I25" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
@@ -3100,8 +3159,8 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
-        <v>55</v>
+      <c r="D26" s="64" t="s">
+        <v>195</v>
       </c>
       <c r="E26" t="s">
         <v>137</v>
@@ -3115,7 +3174,7 @@
       <c r="H26">
         <v>35</v>
       </c>
-      <c r="I26" t="b">
+      <c r="I26" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
@@ -3132,8 +3191,8 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>41</v>
+      <c r="D27" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
@@ -3147,7 +3206,7 @@
       <c r="H27">
         <v>55</v>
       </c>
-      <c r="I27" t="b">
+      <c r="I27" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -3164,7 +3223,7 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="65" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
@@ -3179,7 +3238,7 @@
       <c r="H28">
         <v>85</v>
       </c>
-      <c r="I28" t="b">
+      <c r="I28" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
@@ -3211,7 +3270,7 @@
       <c r="H29">
         <v>18</v>
       </c>
-      <c r="I29" t="b">
+      <c r="I29" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J29" t="s">
@@ -3243,7 +3302,7 @@
       <c r="H30">
         <v>410</v>
       </c>
-      <c r="I30" t="b">
+      <c r="I30" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
@@ -3275,7 +3334,7 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" t="b">
+      <c r="I31" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
@@ -3307,7 +3366,7 @@
       <c r="H32">
         <v>40</v>
       </c>
-      <c r="I32" t="b">
+      <c r="I32" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -3324,8 +3383,8 @@
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
-        <v>61</v>
+      <c r="D33" s="64" t="s">
+        <v>196</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
@@ -3339,7 +3398,7 @@
       <c r="H33">
         <v>80</v>
       </c>
-      <c r="I33" t="b">
+      <c r="I33" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
@@ -3359,7 +3418,7 @@
       <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="I34" t="b">
+      <c r="I34" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J34" t="s">
@@ -3379,7 +3438,7 @@
       <c r="D35" t="s">
         <v>37</v>
       </c>
-      <c r="I35" t="b">
+      <c r="I35" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="s">
@@ -3399,7 +3458,7 @@
       <c r="D36" t="s">
         <v>39</v>
       </c>
-      <c r="I36" t="b">
+      <c r="I36" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J36" t="s">
@@ -3419,7 +3478,7 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="I37" t="b">
+      <c r="I37" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J37" t="s">
@@ -3436,10 +3495,10 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="b">
+      <c r="D38" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J38" t="s">
@@ -3456,8 +3515,8 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
-        <v>41</v>
+      <c r="D39" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -3471,7 +3530,7 @@
       <c r="H39">
         <v>25</v>
       </c>
-      <c r="I39" t="b">
+      <c r="I39" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
@@ -3488,7 +3547,7 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="65" t="s">
         <v>42</v>
       </c>
       <c r="G40">
@@ -3497,7 +3556,7 @@
       <c r="H40">
         <v>30</v>
       </c>
-      <c r="I40" t="b">
+      <c r="I40" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J40" t="s">
@@ -3523,7 +3582,7 @@
       <c r="F41" t="s">
         <v>188</v>
       </c>
-      <c r="I41" t="b">
+      <c r="I41" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J41" t="s">
@@ -3555,7 +3614,7 @@
       <c r="H42">
         <v>3</v>
       </c>
-      <c r="I42" t="b">
+      <c r="I42" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
@@ -3575,7 +3634,7 @@
       <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="I43" t="b">
+      <c r="I43" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
@@ -3598,7 +3657,7 @@
       <c r="G44">
         <v>20</v>
       </c>
-      <c r="I44" t="b">
+      <c r="I44" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J44" t="s">
@@ -3627,7 +3686,7 @@
       <c r="G45">
         <v>10</v>
       </c>
-      <c r="I45" t="b">
+      <c r="I45" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J45" t="s">
@@ -3659,7 +3718,7 @@
       <c r="H46">
         <v>25</v>
       </c>
-      <c r="I46" t="b">
+      <c r="I46" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="s">
@@ -3676,10 +3735,10 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" t="b">
+      <c r="D47" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J47" t="s">
@@ -3696,10 +3755,10 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" t="b">
+      <c r="D48" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J48" t="s">
@@ -3716,8 +3775,8 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
-        <v>41</v>
+      <c r="D49" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
@@ -3731,7 +3790,7 @@
       <c r="H49">
         <v>40</v>
       </c>
-      <c r="I49" t="b">
+      <c r="I49" s="66" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
@@ -3748,10 +3807,10 @@
       <c r="C50">
         <v>4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I50" t="b">
+      <c r="I50" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J50" t="s">
@@ -3771,7 +3830,7 @@
       <c r="D51" t="s">
         <v>34</v>
       </c>
-      <c r="I51" t="b">
+      <c r="I51" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J51" t="s">
@@ -3791,7 +3850,7 @@
       <c r="D52" t="s">
         <v>59</v>
       </c>
-      <c r="I52" t="b">
+      <c r="I52" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J52" t="s">
@@ -3811,7 +3870,7 @@
       <c r="D53" t="s">
         <v>60</v>
       </c>
-      <c r="I53" t="b">
+      <c r="I53" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
@@ -3831,7 +3890,7 @@
       <c r="D54" t="s">
         <v>39</v>
       </c>
-      <c r="I54" t="b">
+      <c r="I54" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J54" t="s">
@@ -3848,10 +3907,10 @@
       <c r="C55">
         <v>5</v>
       </c>
-      <c r="D55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55" t="b">
+      <c r="D55" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="66" t="b">
         <v>1</v>
       </c>
       <c r="J55" t="s">
@@ -3860,6 +3919,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J55"/>
+  <conditionalFormatting sqref="I2:I55">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
     <sheet name="BCG_PacNW_2018" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$J$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev2!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="202">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -787,12 +787,27 @@
   <si>
     <t>pi_NonInsArachDeca_BCG_att456</t>
   </si>
+  <si>
+    <t>LevelRule</t>
+  </si>
+  <si>
+    <t>Rule0</t>
+  </si>
+  <si>
+    <t>Alt1</t>
+  </si>
+  <si>
+    <t>Alt2</t>
+  </si>
+  <si>
+    <t>pt_att1i2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +904,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1017,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1137,57 +1160,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -1205,18 +1177,100 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1505,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E42"/>
     </sheetView>
   </sheetViews>
@@ -1594,12 +1648,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -1615,13 +1669,13 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -1637,13 +1691,13 @@
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -1659,7 +1713,7 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="50" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -1685,13 +1739,13 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -1707,13 +1761,13 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -1729,13 +1783,13 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -1751,13 +1805,13 @@
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -1773,13 +1827,13 @@
       <c r="A14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -1797,13 +1851,13 @@
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -1818,12 +1872,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -1840,13 +1894,13 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -1854,13 +1908,13 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="62"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -1876,13 +1930,13 @@
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -1898,13 +1952,13 @@
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -1920,13 +1974,13 @@
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -1942,7 +1996,7 @@
       <c r="A22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="44" t="s">
@@ -1968,13 +2022,13 @@
       <c r="A23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -2012,7 +2066,7 @@
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="50" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="42" t="s">
@@ -2033,19 +2087,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="59" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="63" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2059,13 +2113,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="47"/>
+      <c r="E27" s="64"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2077,12 +2131,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2098,13 +2152,13 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="49"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2120,20 +2174,20 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="42" t="s">
@@ -2148,7 +2202,7 @@
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="42" t="s">
@@ -2163,26 +2217,26 @@
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="61"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -2191,7 +2245,7 @@
       <c r="A35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="42" t="s">
@@ -2206,48 +2260,48 @@
       <c r="A36" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -2256,61 +2310,45 @@
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="49"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2327,6 +2365,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2341,24 +2395,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="70.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
@@ -2389,8 +2444,11 @@
       <c r="J1" s="41" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -2415,14 +2473,17 @@
       <c r="H2">
         <v>35</v>
       </c>
-      <c r="I2" s="66" t="b">
+      <c r="I2" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -2447,14 +2508,17 @@
       <c r="H3">
         <v>8</v>
       </c>
-      <c r="I3" s="66" t="b">
+      <c r="I3" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2479,14 +2543,17 @@
       <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" s="66" t="b">
+      <c r="I4" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -2511,14 +2578,17 @@
       <c r="H5">
         <v>25</v>
       </c>
-      <c r="I5" s="66" t="b">
+      <c r="I5" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2543,14 +2613,17 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6" s="66" t="b">
+      <c r="I6" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -2575,14 +2648,17 @@
       <c r="H7">
         <v>7</v>
       </c>
-      <c r="I7" s="66" t="b">
+      <c r="I7" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -2592,7 +2668,7 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="46" t="s">
         <v>193</v>
       </c>
       <c r="E8" t="s">
@@ -2607,14 +2683,17 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="66" t="b">
+      <c r="I8" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -2624,7 +2703,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="47" t="s">
         <v>194</v>
       </c>
       <c r="E9" t="s">
@@ -2639,14 +2718,17 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="66" t="b">
+      <c r="I9" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -2656,7 +2738,7 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="48" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
@@ -2671,46 +2753,17 @@
       <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10" s="66" t="b">
+      <c r="I10" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-      <c r="H11">
-        <v>45</v>
-      </c>
-      <c r="I11" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -2735,14 +2788,17 @@
       <c r="H12">
         <v>30</v>
       </c>
-      <c r="I12" s="66" t="b">
+      <c r="I12" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -2767,14 +2823,17 @@
       <c r="H13">
         <v>15</v>
       </c>
-      <c r="I13" s="66" t="b">
+      <c r="I13" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -2799,14 +2858,17 @@
       <c r="H14">
         <v>15</v>
       </c>
-      <c r="I14" s="66" t="b">
+      <c r="I14" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -2831,14 +2893,17 @@
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" s="66" t="b">
+      <c r="I15" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -2848,7 +2913,7 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="46" t="s">
         <v>193</v>
       </c>
       <c r="E16" t="s">
@@ -2863,14 +2928,17 @@
       <c r="H16">
         <v>10</v>
       </c>
-      <c r="I16" s="66" t="b">
+      <c r="I16" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2880,7 +2948,7 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="47" t="s">
         <v>194</v>
       </c>
       <c r="E17" t="s">
@@ -2895,14 +2963,17 @@
       <c r="H17">
         <v>30</v>
       </c>
-      <c r="I17" s="66" t="b">
+      <c r="I17" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -2912,7 +2983,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="48" t="s">
         <v>42</v>
       </c>
       <c r="E18" t="s">
@@ -2927,14 +2998,17 @@
       <c r="H18">
         <v>65</v>
       </c>
-      <c r="I18" s="66" t="b">
+      <c r="I18" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -2959,14 +3033,17 @@
       <c r="H19">
         <v>40</v>
       </c>
-      <c r="I19" s="66" t="b">
+      <c r="I19" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -2982,48 +3059,57 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="66" t="b">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
         <v>132</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>188</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>25</v>
-      </c>
-      <c r="I21" s="66" t="b">
+        <v>30</v>
+      </c>
+      <c r="I21" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
         <v>132</v>
@@ -3032,30 +3118,33 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>188</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>15</v>
-      </c>
-      <c r="I22" s="66" t="b">
+        <v>25</v>
+      </c>
+      <c r="I22" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>132</v>
@@ -3064,30 +3153,33 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
         <v>15</v>
       </c>
-      <c r="H23">
-        <v>25</v>
-      </c>
-      <c r="I23" s="66" t="b">
-        <v>0</v>
+      <c r="I23" s="49" t="b">
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
         <v>132</v>
@@ -3096,30 +3188,33 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
         <v>190</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24" s="66" t="b">
+        <v>25</v>
+      </c>
+      <c r="I24" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
         <v>132</v>
@@ -3127,31 +3222,34 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>193</v>
+      <c r="D25" t="s">
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25" s="66" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="I25" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
         <v>132</v>
@@ -3159,31 +3257,34 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>195</v>
+      <c r="D26" s="46" t="s">
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
-      </c>
-      <c r="I26" s="66" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I26" s="49" t="b">
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
         <v>132</v>
@@ -3191,31 +3292,34 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="64" t="s">
-        <v>194</v>
+      <c r="D27" s="47" t="s">
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
         <v>190</v>
       </c>
       <c r="G27">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>55</v>
-      </c>
-      <c r="I27" s="66" t="b">
+        <v>35</v>
+      </c>
+      <c r="I27" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
         <v>132</v>
@@ -3223,63 +3327,69 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="65" t="s">
-        <v>42</v>
+      <c r="D28" s="47" t="s">
+        <v>194</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
       </c>
       <c r="G28">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>85</v>
-      </c>
-      <c r="I28" s="66" t="b">
+        <v>55</v>
+      </c>
+      <c r="I28" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
         <v>132</v>
       </c>
       <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H29">
-        <v>18</v>
-      </c>
-      <c r="I29" s="66" t="b">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="I29" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="K29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>132</v>
@@ -3288,30 +3398,33 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>188</v>
       </c>
       <c r="G30">
-        <v>390</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>410</v>
-      </c>
-      <c r="I30" s="66" t="b">
+        <v>18</v>
+      </c>
+      <c r="I30" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
         <v>132</v>
@@ -3320,30 +3433,33 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H31">
+        <v>410</v>
+      </c>
+      <c r="I31" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="66" t="b">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
         <v>132</v>
@@ -3352,30 +3468,33 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>40</v>
-      </c>
-      <c r="I32" s="66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I32" s="49" t="b">
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
@@ -3383,544 +3502,1157 @@
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" s="64" t="s">
-        <v>196</v>
+      <c r="D33" t="s">
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
         <v>190</v>
       </c>
       <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34">
         <v>70</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>80</v>
       </c>
-      <c r="I33" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I34" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="66" t="b">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
         <v>1</v>
       </c>
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35" s="49" t="b">
+        <v>1</v>
+      </c>
       <c r="J35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
         <v>134</v>
       </c>
       <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="66" t="b">
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
         <v>134</v>
       </c>
       <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>45</v>
+      </c>
+      <c r="I37" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
         <v>134</v>
       </c>
       <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" s="66" t="b">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>25</v>
+      </c>
+      <c r="I38" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
         <v>134</v>
       </c>
       <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>194</v>
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>25</v>
-      </c>
-      <c r="I39" s="66" t="b">
+        <v>7</v>
+      </c>
+      <c r="I39" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
         <v>134</v>
       </c>
       <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40">
         <v>3</v>
       </c>
-      <c r="D40" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40">
-        <v>20</v>
-      </c>
       <c r="H40">
-        <v>30</v>
-      </c>
-      <c r="I40" s="66" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I40" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
         <v>134</v>
       </c>
       <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
         <v>188</v>
       </c>
-      <c r="I41" s="66" t="b">
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="K41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
         <v>134</v>
       </c>
       <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42" s="66" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I42" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="K42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
         <v>134</v>
       </c>
       <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="66" t="b">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>60</v>
+      </c>
+      <c r="I43" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44">
-        <v>20</v>
-      </c>
-      <c r="I44" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-      <c r="I45" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>190</v>
-      </c>
-      <c r="G46">
-        <v>15</v>
-      </c>
-      <c r="H46">
-        <v>25</v>
-      </c>
-      <c r="I46" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="I47" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="I48" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49">
-        <v>30</v>
-      </c>
-      <c r="H49">
-        <v>40</v>
-      </c>
-      <c r="I49" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="K43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="47"/>
+      <c r="I44" s="49"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="47"/>
+      <c r="I45" s="49"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="47"/>
+      <c r="I46" s="49"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="47"/>
+      <c r="I47" s="49"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="47"/>
+      <c r="I48" s="49"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="47"/>
+      <c r="I49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
       </c>
       <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="66" t="b">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
         <v>134</v>
       </c>
       <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="66" t="b">
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>134</v>
       </c>
       <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52">
         <v>5</v>
       </c>
-      <c r="D52" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" s="66" t="b">
-        <v>1</v>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
         <v>134</v>
       </c>
       <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53">
         <v>5</v>
       </c>
-      <c r="D53" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" s="66" t="b">
-        <v>1</v>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
         <v>134</v>
       </c>
       <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>39</v>
-      </c>
-      <c r="I54" s="66" t="b">
+        <v>3</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="K54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
         <v>134</v>
       </c>
       <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>25</v>
+      </c>
+      <c r="I55" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>116</v>
+      </c>
+      <c r="K55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56">
+        <v>65</v>
+      </c>
+      <c r="I56" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>40</v>
+      </c>
+      <c r="I57" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>25</v>
+      </c>
+      <c r="I60" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61">
         <v>5</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="H61">
+        <v>15</v>
+      </c>
+      <c r="I61" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>25</v>
+      </c>
+      <c r="I63" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65">
+        <v>25</v>
+      </c>
+      <c r="H65">
+        <v>35</v>
+      </c>
+      <c r="I65" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>119</v>
+      </c>
+      <c r="K65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>190</v>
+      </c>
+      <c r="G66">
+        <v>30</v>
+      </c>
+      <c r="H66">
+        <v>40</v>
+      </c>
+      <c r="I66" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>116</v>
+      </c>
+      <c r="K66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67">
+        <v>75</v>
+      </c>
+      <c r="H67">
+        <v>85</v>
+      </c>
+      <c r="I67" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>117</v>
+      </c>
+      <c r="K67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>18</v>
+      </c>
+      <c r="I68" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69">
+        <v>390</v>
+      </c>
+      <c r="H69">
+        <v>410</v>
+      </c>
+      <c r="I69" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>40</v>
+      </c>
+      <c r="I71" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="I55" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+      <c r="H72">
+        <v>80</v>
+      </c>
+      <c r="I72" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
         <v>118</v>
       </c>
+      <c r="K72" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J55"/>
-  <conditionalFormatting sqref="I2:I55">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <autoFilter ref="A1:J73"/>
+  <conditionalFormatting sqref="I2:I10 I12:I34 I44:I57 I59:I72">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I43">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
     <sheet name="BCG_PacNW_2018" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$J$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev2!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -587,9 +587,6 @@
     <t>Index_Name</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -801,6 +798,9 @@
   </si>
   <si>
     <t>pt_att1i2</t>
+  </si>
+  <si>
+    <t>SiteType</t>
   </si>
 </sst>
 </file>
@@ -1177,64 +1177,64 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1648,12 +1648,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -1672,10 +1672,10 @@
       <c r="B7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -1694,10 +1694,10 @@
       <c r="B8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -1742,10 +1742,10 @@
       <c r="B10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="71"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -1764,10 +1764,10 @@
       <c r="B11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="71"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -1786,10 +1786,10 @@
       <c r="B12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -1808,10 +1808,10 @@
       <c r="B13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -1830,10 +1830,10 @@
       <c r="B14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -1854,10 +1854,10 @@
       <c r="B15" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -1872,12 +1872,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -1897,10 +1897,10 @@
       <c r="B17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -1911,10 +1911,10 @@
       <c r="B18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -1933,10 +1933,10 @@
       <c r="B19" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -1955,10 +1955,10 @@
       <c r="B20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -1977,10 +1977,10 @@
       <c r="B21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -2025,10 +2025,10 @@
       <c r="B23" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -2087,19 +2087,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="68" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="55" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2113,13 +2113,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="64"/>
+      <c r="E27" s="56"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2131,12 +2131,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2155,10 +2155,10 @@
       <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2177,10 +2177,10 @@
       <c r="B30" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="61"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2220,10 +2220,10 @@
       <c r="B33" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2233,10 +2233,10 @@
       <c r="B34" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -2263,19 +2263,19 @@
       <c r="B36" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2285,10 +2285,10 @@
       <c r="B38" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="68"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -2298,10 +2298,10 @@
       <c r="B39" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -2313,10 +2313,10 @@
       <c r="B40" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,10 +2326,10 @@
       <c r="B41" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2339,16 +2339,32 @@
       <c r="B42" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2365,22 +2381,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2395,11 +2395,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,42 +2418,42 @@
         <v>129</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>186</v>
-      </c>
       <c r="I1" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -2480,15 +2480,15 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2500,7 +2500,7 @@
         <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2515,15 +2515,15 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2535,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -2550,15 +2550,15 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2585,15 +2585,15 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2605,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2620,15 +2620,15 @@
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2640,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -2655,27 +2655,27 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -2690,27 +2690,27 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -2725,15 +2725,15 @@
         <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2745,7 +2745,7 @@
         <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -2760,7 +2760,42 @@
         <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2768,34 +2803,34 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I12" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2803,19 +2838,19 @@
         <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2824,13 +2859,13 @@
         <v>15</v>
       </c>
       <c r="I13" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2838,16 +2873,16 @@
         <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>190</v>
@@ -2856,16 +2891,16 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I14" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2873,34 +2908,34 @@
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>38</v>
+      <c r="D15" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2908,34 +2943,34 @@
         <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="47" t="s">
         <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I16" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2943,34 +2978,34 @@
         <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>194</v>
+      <c r="D17" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I17" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2978,31 +3013,31 @@
         <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>42</v>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G18">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I18" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
         <v>198</v>
@@ -3013,31 +3048,28 @@
         <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I19" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
         <v>199</v>
@@ -3045,66 +3077,69 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I20" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I21" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3112,34 +3147,34 @@
         <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
         <v>15</v>
-      </c>
-      <c r="H22">
-        <v>25</v>
       </c>
       <c r="I22" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3147,34 +3182,34 @@
         <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I23" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3182,34 +3217,34 @@
         <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I24" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3217,34 +3252,34 @@
         <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>38</v>
+      <c r="D25" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I25" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3252,34 +3287,34 @@
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>193</v>
+      <c r="D26" s="47" t="s">
+        <v>194</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
         <v>189</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I26" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3287,34 +3322,34 @@
         <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I27" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3322,34 +3357,34 @@
         <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>194</v>
+      <c r="D28" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H28">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I28" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3357,34 +3392,34 @@
         <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G29">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I29" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3392,34 +3427,34 @@
         <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>390</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="I30" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3427,34 +3462,34 @@
         <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
         <v>188</v>
       </c>
       <c r="G31">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="I31" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3462,34 +3497,34 @@
         <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
         <v>189</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I32" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3497,226 +3532,226 @@
         <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
-        <v>39</v>
+      <c r="D33" s="47" t="s">
+        <v>195</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I33" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>196</v>
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="I34" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" t="s">
-        <v>134</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
         <v>188</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I35" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
         <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
       <c r="H36">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I36" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
         <v>133</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I37" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
         <v>133</v>
-      </c>
-      <c r="B38" t="s">
-        <v>134</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38">
-        <v>15</v>
-      </c>
-      <c r="H38">
-        <v>25</v>
-      </c>
       <c r="I38" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
         <v>133</v>
-      </c>
-      <c r="B39" t="s">
-        <v>134</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3728,65 +3763,65 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
         <v>133</v>
-      </c>
-      <c r="B40" t="s">
-        <v>134</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>38</v>
+      <c r="D40" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I40" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
         <v>133</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="47" t="s">
         <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -3795,133 +3830,289 @@
         <v>20</v>
       </c>
       <c r="I41" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
         <v>133</v>
-      </c>
-      <c r="B42" t="s">
-        <v>134</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="47" t="s">
-        <v>194</v>
+      <c r="D42" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I42" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
       <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" t="s">
-        <v>190</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-      <c r="H43">
-        <v>60</v>
-      </c>
-      <c r="I43" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="G49">
+        <v>55</v>
+      </c>
+      <c r="H49">
+        <v>65</v>
+      </c>
+      <c r="I49" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
         <v>117</v>
       </c>
-      <c r="K43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="47"/>
-      <c r="I44" s="49"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="47"/>
-      <c r="I45" s="49"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="47"/>
-      <c r="I46" s="49"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="47"/>
-      <c r="I47" s="49"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="47"/>
-      <c r="I48" s="49"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D49" s="47"/>
-      <c r="I49" s="49"/>
+      <c r="K49" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>187</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I50" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K50" t="s">
         <v>198</v>
@@ -3929,730 +4120,515 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I51" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>188</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I52" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H53">
-        <v>10</v>
-      </c>
-      <c r="I53" s="49" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I53" s="54" t="b">
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>15</v>
+      </c>
+      <c r="I54" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="I54" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>11</v>
-      </c>
       <c r="K54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>194</v>
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I55" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>189</v>
       </c>
       <c r="G56">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H56">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I56" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="K56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" t="s">
-        <v>188</v>
-      </c>
-      <c r="G57">
-        <v>30</v>
-      </c>
-      <c r="H57">
-        <v>40</v>
-      </c>
-      <c r="I57" s="49" t="b">
+      <c r="I57" s="54" t="b">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58">
+        <v>25</v>
+      </c>
+      <c r="H58">
         <v>35</v>
       </c>
-      <c r="E58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" t="s">
-        <v>189</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
       <c r="I58" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="K58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>201</v>
+        <v>4</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
         <v>189</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I59" s="49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>116</v>
       </c>
       <c r="K59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="D60" t="s">
-        <v>34</v>
+      <c r="D60" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="G60">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H60">
-        <v>25</v>
-      </c>
-      <c r="I60" s="73" t="b">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="I60" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>187</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>15</v>
-      </c>
-      <c r="I61" s="73" t="b">
+        <v>18</v>
+      </c>
+      <c r="I61" s="49" t="b">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="I62" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G63">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I63" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64">
-        <v>4</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>193</v>
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>189</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64" s="73" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="I64" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>195</v>
       </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>189</v>
+      </c>
       <c r="G65">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H65">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I65" s="49" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K65" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" t="s">
-        <v>190</v>
-      </c>
-      <c r="G66">
-        <v>30</v>
-      </c>
-      <c r="H66">
-        <v>40</v>
-      </c>
-      <c r="I66" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>116</v>
-      </c>
-      <c r="K66" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67">
-        <v>75</v>
-      </c>
-      <c r="H67">
-        <v>85</v>
-      </c>
-      <c r="I67" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>117</v>
-      </c>
-      <c r="K67" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" t="s">
-        <v>188</v>
-      </c>
-      <c r="G68">
-        <v>8</v>
-      </c>
-      <c r="H68">
-        <v>18</v>
-      </c>
-      <c r="I68" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69">
-        <v>390</v>
-      </c>
-      <c r="H69">
-        <v>410</v>
-      </c>
-      <c r="I69" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-      <c r="D70" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" t="s">
-        <v>189</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>183</v>
-      </c>
-      <c r="B71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" t="s">
-        <v>190</v>
-      </c>
-      <c r="G71">
-        <v>30</v>
-      </c>
-      <c r="H71">
-        <v>40</v>
-      </c>
-      <c r="I71" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
-        <v>8</v>
-      </c>
-      <c r="K71" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" t="s">
-        <v>190</v>
-      </c>
-      <c r="G72">
-        <v>70</v>
-      </c>
-      <c r="H72">
-        <v>80</v>
-      </c>
-      <c r="I72" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>118</v>
-      </c>
-      <c r="K72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J73"/>
-  <conditionalFormatting sqref="I2:I10 I12:I34 I44:I57 I59:I72">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <autoFilter ref="A1:J66"/>
+  <conditionalFormatting sqref="I2:I33 I52:I65 I43:I50">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I43">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="I34:I42">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
     <sheet name="BCG_PacNW_2018" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$J$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$J$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev2!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="164">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -617,138 +617,6 @@
     <t>Metric.Name</t>
   </si>
   <si>
-    <t>BCG_PacNW_2019</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2020</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2021</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2022</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2023</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2024</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2025</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2026</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2027</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2028</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2029</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2030</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2031</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2032</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2033</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2034</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2035</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2036</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2037</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2038</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2039</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2040</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2041</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2042</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2043</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2044</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2045</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2046</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2047</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2048</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2049</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2050</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2051</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2052</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2053</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2054</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2055</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2056</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2057</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2058</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2059</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2060</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2061</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_2062</t>
-  </si>
-  <si>
     <t>Lower</t>
   </si>
   <si>
@@ -785,9 +653,6 @@
     <t>pi_NonInsArachDeca_BCG_att456</t>
   </si>
   <si>
-    <t>LevelRule</t>
-  </si>
-  <si>
     <t>Rule0</t>
   </si>
   <si>
@@ -797,10 +662,31 @@
     <t>Alt2</t>
   </si>
   <si>
-    <t>pt_att1i2</t>
-  </si>
-  <si>
     <t>SiteType</t>
+  </si>
+  <si>
+    <t>nt_BCG_att1i2</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>pi_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>pt_BCG_att56</t>
+  </si>
+  <si>
+    <t>pi_BCG_att56</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i2</t>
+  </si>
+  <si>
+    <t>pi_dom02_BCG_att456_nonclump</t>
+  </si>
+  <si>
+    <t>RuleType</t>
   </si>
 </sst>
 </file>
@@ -2397,9 +2283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD48"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,7 +2304,7 @@
         <v>129</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>130</v>
@@ -2430,22 +2316,22 @@
         <v>62</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>138</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2465,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -2480,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2494,13 +2380,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2515,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2529,19 +2415,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="49" t="b">
         <v>1</v>
@@ -2550,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2564,19 +2450,19 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="I5" s="49" t="b">
         <v>1</v>
@@ -2585,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2599,19 +2485,19 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I6" s="49" t="b">
         <v>0</v>
@@ -2620,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2634,19 +2520,19 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I7" s="49" t="b">
         <v>0</v>
@@ -2655,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2669,13 +2555,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -2690,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2704,19 +2590,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="49" t="b">
         <v>0</v>
@@ -2725,7 +2611,7 @@
         <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2739,19 +2625,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="I10" s="49" t="b">
         <v>0</v>
@@ -2760,12 +2646,12 @@
         <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>131</v>
@@ -2780,7 +2666,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -2795,12 +2681,12 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>131</v>
@@ -2809,19 +2695,19 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="I12" s="49" t="b">
         <v>1</v>
@@ -2830,12 +2716,12 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
@@ -2844,19 +2730,19 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="I13" s="49" t="b">
         <v>0</v>
@@ -2865,12 +2751,12 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
@@ -2879,19 +2765,19 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="49" t="b">
         <v>0</v>
@@ -2900,12 +2786,12 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -2914,13 +2800,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
         <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -2935,12 +2821,12 @@
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
@@ -2949,19 +2835,19 @@
         <v>3</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="49" t="b">
         <v>0</v>
@@ -2970,12 +2856,12 @@
         <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
@@ -2984,19 +2870,19 @@
         <v>3</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
         <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G17">
-        <v>55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="I17" s="49" t="b">
         <v>0</v>
@@ -3005,12 +2891,12 @@
         <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
@@ -3019,19 +2905,19 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="I18" s="49" t="b">
         <v>1</v>
@@ -3040,12 +2926,12 @@
         <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -3054,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -3072,12 +2958,12 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
@@ -3086,16 +2972,16 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="I20" s="49" t="b">
         <v>1</v>
@@ -3104,12 +2990,12 @@
         <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
@@ -3124,7 +3010,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G21">
         <v>15</v>
@@ -3139,12 +3025,12 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -3153,19 +3039,19 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="I22" s="49" t="b">
         <v>1</v>
@@ -3174,12 +3060,12 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
@@ -3188,19 +3074,19 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="I23" s="49" t="b">
         <v>0</v>
@@ -3209,12 +3095,12 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -3223,19 +3109,19 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="I24" s="49" t="b">
         <v>0</v>
@@ -3244,12 +3130,12 @@
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
@@ -3258,13 +3144,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3279,12 +3165,12 @@
         <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
@@ -3293,19 +3179,19 @@
         <v>4</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I26" s="49" t="b">
         <v>0</v>
@@ -3314,12 +3200,12 @@
         <v>119</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
@@ -3328,19 +3214,19 @@
         <v>4</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G27">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I27" s="49" t="b">
         <v>0</v>
@@ -3349,12 +3235,12 @@
         <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -3363,19 +3249,19 @@
         <v>4</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
         <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G28">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="H28">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I28" s="49" t="b">
         <v>0</v>
@@ -3384,12 +3270,12 @@
         <v>117</v>
       </c>
       <c r="K28" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>131</v>
@@ -3404,7 +3290,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -3419,12 +3305,12 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
         <v>131</v>
@@ -3439,7 +3325,7 @@
         <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G30">
         <v>390</v>
@@ -3454,12 +3340,12 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>131</v>
@@ -3474,7 +3360,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3489,12 +3375,12 @@
         <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
         <v>131</v>
@@ -3503,19 +3389,19 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="I32" s="49" t="b">
         <v>0</v>
@@ -3524,12 +3410,12 @@
         <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
@@ -3538,19 +3424,19 @@
         <v>5</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G33">
-        <v>70</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="I33" s="49" t="b">
         <v>0</v>
@@ -3559,7 +3445,7 @@
         <v>118</v>
       </c>
       <c r="K33" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -3594,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3608,13 +3494,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
         <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3629,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3643,16 +3529,16 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="I36" s="49" t="b">
         <v>1</v>
@@ -3661,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3675,19 +3561,19 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="I37" s="49" t="b">
         <v>1</v>
@@ -3696,7 +3582,7 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3710,19 +3596,19 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I38" s="49" t="b">
         <v>0</v>
@@ -3731,7 +3617,7 @@
         <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3745,19 +3631,19 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I39" s="49" t="b">
         <v>0</v>
@@ -3766,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3780,13 +3666,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -3801,7 +3687,7 @@
         <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3815,19 +3701,19 @@
         <v>2</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="I41" s="49" t="b">
         <v>0</v>
@@ -3836,7 +3722,7 @@
         <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3850,19 +3736,19 @@
         <v>2</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
         <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="H42">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="I42" s="49" t="b">
         <v>0</v>
@@ -3871,12 +3757,12 @@
         <v>117</v>
       </c>
       <c r="K42" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
@@ -3900,12 +3786,12 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -3914,13 +3800,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="I44" s="49" t="b">
         <v>1</v>
@@ -3929,12 +3815,12 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -3943,13 +3829,13 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="I45" s="49" t="b">
         <v>0</v>
@@ -3958,12 +3844,12 @@
         <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -3972,13 +3858,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I46" s="49" t="b">
         <v>0</v>
@@ -3987,12 +3873,12 @@
         <v>10</v>
       </c>
       <c r="K46" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
@@ -4001,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -4016,12 +3902,12 @@
         <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -4030,19 +3916,19 @@
         <v>3</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="H48">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="I48" s="49" t="b">
         <v>0</v>
@@ -4051,12 +3937,12 @@
         <v>116</v>
       </c>
       <c r="K48" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
@@ -4065,13 +3951,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="G49">
-        <v>55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H49">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="I49" s="49" t="b">
         <v>0</v>
@@ -4080,12 +3966,12 @@
         <v>117</v>
       </c>
       <c r="K49" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -4094,19 +3980,19 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="I50" s="49" t="b">
         <v>1</v>
@@ -4115,12 +4001,12 @@
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
@@ -4129,13 +4015,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
         <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4150,12 +4036,12 @@
         <v>2</v>
       </c>
       <c r="K51" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -4164,30 +4050,30 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
         <v>54</v>
       </c>
       <c r="F52" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="I52" s="49" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -4211,12 +4097,12 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -4225,13 +4111,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="I54" s="54" t="b">
         <v>1</v>
@@ -4240,12 +4126,12 @@
         <v>3</v>
       </c>
       <c r="K54" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -4254,19 +4140,19 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H55">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="I55" s="49" t="b">
         <v>0</v>
@@ -4275,12 +4161,12 @@
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -4289,19 +4175,19 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G56">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="H56">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="I56" s="49" t="b">
         <v>0</v>
@@ -4310,12 +4196,12 @@
         <v>10</v>
       </c>
       <c r="K56" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
         <v>133</v>
@@ -4324,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4339,12 +4225,12 @@
         <v>11</v>
       </c>
       <c r="K57" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
         <v>133</v>
@@ -4353,13 +4239,13 @@
         <v>4</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="G58">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="H58">
-        <v>35</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I58" s="49" t="b">
         <v>0</v>
@@ -4368,12 +4254,12 @@
         <v>119</v>
       </c>
       <c r="K58" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
         <v>133</v>
@@ -4382,19 +4268,19 @@
         <v>4</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="H59">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="I59" s="49" t="b">
         <v>0</v>
@@ -4403,12 +4289,12 @@
         <v>116</v>
       </c>
       <c r="K59" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
         <v>133</v>
@@ -4417,13 +4303,13 @@
         <v>4</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="G60">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="H60">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I60" s="49" t="b">
         <v>0</v>
@@ -4432,12 +4318,12 @@
         <v>117</v>
       </c>
       <c r="K60" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
         <v>133</v>
@@ -4452,7 +4338,7 @@
         <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G61">
         <v>8</v>
@@ -4467,12 +4353,12 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
         <v>133</v>
@@ -4487,7 +4373,7 @@
         <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G62">
         <v>390</v>
@@ -4502,12 +4388,12 @@
         <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
         <v>133</v>
@@ -4522,7 +4408,7 @@
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4537,12 +4423,12 @@
         <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
         <v>133</v>
@@ -4551,19 +4437,19 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="H64">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="I64" s="49" t="b">
         <v>0</v>
@@ -4572,12 +4458,12 @@
         <v>8</v>
       </c>
       <c r="K64" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
         <v>133</v>
@@ -4586,19 +4472,19 @@
         <v>5</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G65">
-        <v>70</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H65">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="I65" s="49" t="b">
         <v>0</v>
@@ -4607,11 +4493,11 @@
         <v>118</v>
       </c>
       <c r="K65" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J66"/>
+  <autoFilter ref="A1:J65"/>
   <conditionalFormatting sqref="I2:I33 I52:I65 I43:I50">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
@@ -1064,6 +1064,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,9 +1106,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,32 +1118,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,12 +1534,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -1558,10 +1558,10 @@
       <c r="B7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -1580,10 +1580,10 @@
       <c r="B8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -1628,10 +1628,10 @@
       <c r="B10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -1650,10 +1650,10 @@
       <c r="B11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -1672,10 +1672,10 @@
       <c r="B12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -1694,10 +1694,10 @@
       <c r="B13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -1716,10 +1716,10 @@
       <c r="B14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -1740,10 +1740,10 @@
       <c r="B15" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -1758,12 +1758,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -1783,10 +1783,10 @@
       <c r="B17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -1797,10 +1797,10 @@
       <c r="B18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -1819,10 +1819,10 @@
       <c r="B19" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -1841,10 +1841,10 @@
       <c r="B20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -1863,10 +1863,10 @@
       <c r="B21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -1911,10 +1911,10 @@
       <c r="B23" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -1973,19 +1973,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="60" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="64" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1999,13 +1999,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="68"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="56"/>
+      <c r="E27" s="65"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2017,12 +2017,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2041,10 +2041,10 @@
       <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2063,10 +2063,10 @@
       <c r="B30" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2106,10 +2106,10 @@
       <c r="B33" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2119,10 +2119,10 @@
       <c r="B34" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="72"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -2149,19 +2149,19 @@
       <c r="B36" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,10 +2171,10 @@
       <c r="B38" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="61"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -2184,10 +2184,10 @@
       <c r="B39" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="60"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -2199,10 +2199,10 @@
       <c r="B40" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="60"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2212,10 +2212,10 @@
       <c r="B41" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="60"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2225,32 +2225,16 @@
       <c r="B42" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="60"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2267,6 +2251,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2285,7 +2285,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,10 +4024,10 @@
         <v>144</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51" s="49" t="b">
         <v>1</v>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
@@ -926,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1047,9 +1047,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1064,63 +1061,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1534,12 +1533,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -1555,13 +1554,13 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -1577,13 +1576,13 @@
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -1599,7 +1598,7 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -1625,13 +1624,13 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -1647,13 +1646,13 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -1669,13 +1668,13 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -1691,13 +1690,13 @@
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -1713,13 +1712,13 @@
       <c r="A14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -1737,13 +1736,13 @@
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -1758,12 +1757,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -1780,13 +1779,13 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -1794,13 +1793,13 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -1816,13 +1815,13 @@
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="56"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -1838,13 +1837,13 @@
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -1860,13 +1859,13 @@
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -1882,7 +1881,7 @@
       <c r="A22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="44" t="s">
@@ -1908,13 +1907,13 @@
       <c r="A23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -1952,7 +1951,7 @@
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="42" t="s">
@@ -1973,19 +1972,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="65" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="52" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1999,13 +1998,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="53"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2017,12 +2016,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2038,13 +2037,13 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="56"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2060,20 +2059,20 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="42" t="s">
@@ -2088,7 +2087,7 @@
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="42" t="s">
@@ -2103,26 +2102,26 @@
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="58"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -2131,7 +2130,7 @@
       <c r="A35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="42" t="s">
@@ -2146,48 +2145,48 @@
       <c r="A36" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="58"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="69"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -2196,45 +2195,61 @@
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="56"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="56"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2251,22 +2266,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2285,16 +2284,17 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="70.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2359,7 +2359,7 @@
       <c r="H2">
         <v>35</v>
       </c>
-      <c r="I2" s="49" t="b">
+      <c r="I2" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -2394,7 +2394,7 @@
       <c r="H3">
         <v>8</v>
       </c>
-      <c r="I3" s="49" t="b">
+      <c r="I3" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -2429,7 +2429,7 @@
       <c r="H4">
         <v>0.4</v>
       </c>
-      <c r="I4" s="49" t="b">
+      <c r="I4" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -2464,7 +2464,7 @@
       <c r="H5">
         <v>0.25</v>
       </c>
-      <c r="I5" s="49" t="b">
+      <c r="I5" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
@@ -2499,7 +2499,7 @@
       <c r="H6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I6" s="49" t="b">
+      <c r="I6" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -2534,7 +2534,7 @@
       <c r="H7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I7" s="49" t="b">
+      <c r="I7" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -2554,7 +2554,7 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="72" t="s">
         <v>148</v>
       </c>
       <c r="E8" t="s">
@@ -2569,7 +2569,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="49" t="b">
+      <c r="I8" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="s">
@@ -2589,7 +2589,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="72" t="s">
         <v>149</v>
       </c>
       <c r="E9" t="s">
@@ -2604,7 +2604,7 @@
       <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9" s="49" t="b">
+      <c r="I9" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
@@ -2624,7 +2624,7 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="72" t="s">
         <v>162</v>
       </c>
       <c r="E10" t="s">
@@ -2639,7 +2639,7 @@
       <c r="H10">
         <v>0.6</v>
       </c>
-      <c r="I10" s="49" t="b">
+      <c r="I10" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
@@ -2659,7 +2659,7 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="72" t="s">
         <v>34</v>
       </c>
       <c r="E11" t="s">
@@ -2674,7 +2674,7 @@
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="49" t="b">
+      <c r="I11" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J11" t="s">
@@ -2694,7 +2694,7 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="72" t="s">
         <v>158</v>
       </c>
       <c r="E12" t="s">
@@ -2709,7 +2709,7 @@
       <c r="H12">
         <v>0.15</v>
       </c>
-      <c r="I12" s="49" t="b">
+      <c r="I12" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
@@ -2729,7 +2729,7 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="72" t="s">
         <v>159</v>
       </c>
       <c r="E13" t="s">
@@ -2744,7 +2744,7 @@
       <c r="H13">
         <v>0.15</v>
       </c>
-      <c r="I13" s="49" t="b">
+      <c r="I13" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
@@ -2764,7 +2764,7 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E14" t="s">
@@ -2779,7 +2779,7 @@
       <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="I14" s="49" t="b">
+      <c r="I14" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
@@ -2799,7 +2799,7 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="72" t="s">
         <v>148</v>
       </c>
       <c r="E15" t="s">
@@ -2814,7 +2814,7 @@
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" s="49" t="b">
+      <c r="I15" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
@@ -2834,7 +2834,7 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="72" t="s">
         <v>149</v>
       </c>
       <c r="E16" t="s">
@@ -2849,7 +2849,7 @@
       <c r="H16">
         <v>0.3</v>
       </c>
-      <c r="I16" s="49" t="b">
+      <c r="I16" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
@@ -2869,7 +2869,7 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="72" t="s">
         <v>162</v>
       </c>
       <c r="E17" t="s">
@@ -2884,7 +2884,7 @@
       <c r="H17">
         <v>0.65</v>
       </c>
-      <c r="I17" s="49" t="b">
+      <c r="I17" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
@@ -2904,7 +2904,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="72" t="s">
         <v>157</v>
       </c>
       <c r="E18" t="s">
@@ -2919,7 +2919,7 @@
       <c r="H18">
         <v>0.4</v>
       </c>
-      <c r="I18" s="49" t="b">
+      <c r="I18" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="s">
@@ -2939,19 +2939,20 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
       </c>
+      <c r="F19" s="71"/>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="49" t="b">
+      <c r="I19" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
@@ -2971,7 +2972,7 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="72" t="s">
         <v>157</v>
       </c>
       <c r="F20" t="s">
@@ -2983,7 +2984,7 @@
       <c r="H20">
         <v>0.3</v>
       </c>
-      <c r="I20" s="49" t="b">
+      <c r="I20" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J20" t="s">
@@ -3003,7 +3004,7 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="72" t="s">
         <v>34</v>
       </c>
       <c r="E21" t="s">
@@ -3018,7 +3019,7 @@
       <c r="H21">
         <v>25</v>
       </c>
-      <c r="I21" s="49" t="b">
+      <c r="I21" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
@@ -3038,7 +3039,7 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="72" t="s">
         <v>157</v>
       </c>
       <c r="E22" t="s">
@@ -3053,7 +3054,7 @@
       <c r="H22">
         <v>0.15</v>
       </c>
-      <c r="I22" s="49" t="b">
+      <c r="I22" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J22" t="s">
@@ -3073,7 +3074,7 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="72" t="s">
         <v>159</v>
       </c>
       <c r="E23" t="s">
@@ -3088,7 +3089,7 @@
       <c r="H23">
         <v>0.25</v>
       </c>
-      <c r="I23" s="49" t="b">
+      <c r="I23" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
@@ -3108,7 +3109,7 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E24" t="s">
@@ -3123,7 +3124,7 @@
       <c r="H24">
         <v>0.3</v>
       </c>
-      <c r="I24" s="49" t="b">
+      <c r="I24" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
@@ -3143,7 +3144,7 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="72" t="s">
         <v>148</v>
       </c>
       <c r="E25" t="s">
@@ -3158,7 +3159,7 @@
       <c r="H25">
         <v>3</v>
       </c>
-      <c r="I25" s="49" t="b">
+      <c r="I25" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
@@ -3178,7 +3179,7 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="72" t="s">
         <v>150</v>
       </c>
       <c r="E26" t="s">
@@ -3193,7 +3194,7 @@
       <c r="H26">
         <v>0.35000000000000003</v>
       </c>
-      <c r="I26" s="49" t="b">
+      <c r="I26" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
@@ -3213,7 +3214,7 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="72" t="s">
         <v>149</v>
       </c>
       <c r="E27" t="s">
@@ -3228,7 +3229,7 @@
       <c r="H27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I27" s="49" t="b">
+      <c r="I27" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -3248,7 +3249,7 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="72" t="s">
         <v>162</v>
       </c>
       <c r="E28" t="s">
@@ -3263,7 +3264,7 @@
       <c r="H28">
         <v>0.85</v>
       </c>
-      <c r="I28" s="49" t="b">
+      <c r="I28" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
@@ -3283,7 +3284,7 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="72" t="s">
         <v>34</v>
       </c>
       <c r="E29" t="s">
@@ -3298,7 +3299,7 @@
       <c r="H29">
         <v>18</v>
       </c>
-      <c r="I29" s="49" t="b">
+      <c r="I29" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J29" t="s">
@@ -3318,7 +3319,7 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="72" t="s">
         <v>59</v>
       </c>
       <c r="E30" t="s">
@@ -3333,7 +3334,7 @@
       <c r="H30">
         <v>410</v>
       </c>
-      <c r="I30" s="49" t="b">
+      <c r="I30" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
@@ -3353,7 +3354,7 @@
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="72" t="s">
         <v>60</v>
       </c>
       <c r="E31" t="s">
@@ -3368,7 +3369,7 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="49" t="b">
+      <c r="I31" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
@@ -3388,7 +3389,7 @@
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="72" t="s">
         <v>159</v>
       </c>
       <c r="E32" t="s">
@@ -3403,7 +3404,7 @@
       <c r="H32">
         <v>0.4</v>
       </c>
-      <c r="I32" s="49" t="b">
+      <c r="I32" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -3423,7 +3424,7 @@
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="72" t="s">
         <v>151</v>
       </c>
       <c r="E33" t="s">
@@ -3438,7 +3439,7 @@
       <c r="H33">
         <v>0.8</v>
       </c>
-      <c r="I33" s="49" t="b">
+      <c r="I33" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
@@ -3458,7 +3459,7 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="72" t="s">
         <v>34</v>
       </c>
       <c r="E34" t="s">
@@ -3473,7 +3474,7 @@
       <c r="H34">
         <v>35</v>
       </c>
-      <c r="I34" s="49" t="b">
+      <c r="I34" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J34" t="s">
@@ -3493,7 +3494,7 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E35" t="s">
@@ -3508,7 +3509,7 @@
       <c r="H35">
         <v>8</v>
       </c>
-      <c r="I35" s="49" t="b">
+      <c r="I35" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="s">
@@ -3528,7 +3529,7 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="72" t="s">
         <v>157</v>
       </c>
       <c r="F36" t="s">
@@ -3540,7 +3541,7 @@
       <c r="H36">
         <v>0.45</v>
       </c>
-      <c r="I36" s="49" t="b">
+      <c r="I36" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J36" t="s">
@@ -3560,7 +3561,7 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="72" t="s">
         <v>158</v>
       </c>
       <c r="E37" t="s">
@@ -3575,7 +3576,7 @@
       <c r="H37">
         <v>0.25</v>
       </c>
-      <c r="I37" s="49" t="b">
+      <c r="I37" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J37" t="s">
@@ -3595,7 +3596,7 @@
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="72" t="s">
         <v>159</v>
       </c>
       <c r="E38" t="s">
@@ -3610,7 +3611,7 @@
       <c r="H38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I38" s="49" t="b">
+      <c r="I38" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J38" t="s">
@@ -3630,7 +3631,7 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E39" t="s">
@@ -3645,7 +3646,7 @@
       <c r="H39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I39" s="49" t="b">
+      <c r="I39" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
@@ -3665,7 +3666,7 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="72" t="s">
         <v>148</v>
       </c>
       <c r="E40" t="s">
@@ -3680,7 +3681,7 @@
       <c r="H40">
         <v>20</v>
       </c>
-      <c r="I40" s="49" t="b">
+      <c r="I40" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J40" t="s">
@@ -3700,7 +3701,7 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="72" t="s">
         <v>149</v>
       </c>
       <c r="E41" t="s">
@@ -3715,7 +3716,7 @@
       <c r="H41">
         <v>0.2</v>
       </c>
-      <c r="I41" s="49" t="b">
+      <c r="I41" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J41" t="s">
@@ -3735,7 +3736,7 @@
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="72" t="s">
         <v>162</v>
       </c>
       <c r="E42" t="s">
@@ -3750,7 +3751,7 @@
       <c r="H42">
         <v>0.6</v>
       </c>
-      <c r="I42" s="49" t="b">
+      <c r="I42" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J42" t="s">
@@ -3770,16 +3771,17 @@
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="72" t="s">
         <v>34</v>
       </c>
+      <c r="F43" s="71"/>
       <c r="G43">
         <v>20</v>
       </c>
       <c r="H43">
         <v>30</v>
       </c>
-      <c r="I43" s="49" t="b">
+      <c r="I43" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
@@ -3799,16 +3801,17 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="72" t="s">
         <v>158</v>
       </c>
+      <c r="F44" s="71"/>
       <c r="G44">
         <v>0.05</v>
       </c>
       <c r="H44">
         <v>0.15</v>
       </c>
-      <c r="I44" s="49" t="b">
+      <c r="I44" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J44" t="s">
@@ -3828,16 +3831,17 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="72" t="s">
         <v>159</v>
       </c>
+      <c r="F45" s="71"/>
       <c r="G45">
         <v>0.05</v>
       </c>
       <c r="H45">
         <v>0.15</v>
       </c>
-      <c r="I45" s="49" t="b">
+      <c r="I45" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J45" t="s">
@@ -3857,16 +3861,17 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="72" t="s">
         <v>160</v>
       </c>
+      <c r="F46" s="71"/>
       <c r="G46">
         <v>0.05</v>
       </c>
       <c r="H46">
         <v>0.1</v>
       </c>
-      <c r="I46" s="49" t="b">
+      <c r="I46" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="s">
@@ -3886,16 +3891,17 @@
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="72" t="s">
         <v>148</v>
       </c>
+      <c r="F47" s="71"/>
       <c r="G47">
         <v>4</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
-      <c r="I47" s="49" t="b">
+      <c r="I47" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J47" t="s">
@@ -3915,7 +3921,7 @@
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="72" t="s">
         <v>149</v>
       </c>
       <c r="E48" t="s">
@@ -3930,7 +3936,7 @@
       <c r="H48">
         <v>0.25</v>
       </c>
-      <c r="I48" s="49" t="b">
+      <c r="I48" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="s">
@@ -3950,16 +3956,17 @@
       <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="72" t="s">
         <v>162</v>
       </c>
+      <c r="F49" s="71"/>
       <c r="G49">
         <v>0.55000000000000004</v>
       </c>
       <c r="H49">
         <v>0.65</v>
       </c>
-      <c r="I49" s="49" t="b">
+      <c r="I49" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
@@ -3979,7 +3986,7 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="72" t="s">
         <v>157</v>
       </c>
       <c r="E50" t="s">
@@ -3994,7 +4001,7 @@
       <c r="H50">
         <v>0.4</v>
       </c>
-      <c r="I50" s="49" t="b">
+      <c r="I50" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J50" t="s">
@@ -4014,7 +4021,7 @@
       <c r="C51">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E51" t="s">
@@ -4029,7 +4036,7 @@
       <c r="H51">
         <v>5</v>
       </c>
-      <c r="I51" s="49" t="b">
+      <c r="I51" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J51" t="s">
@@ -4049,7 +4056,7 @@
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="72" t="s">
         <v>161</v>
       </c>
       <c r="E52" t="s">
@@ -4064,7 +4071,7 @@
       <c r="H52">
         <v>0.3</v>
       </c>
-      <c r="I52" s="49" t="b">
+      <c r="I52" s="46" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="s">
@@ -4081,16 +4088,17 @@
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="72" t="s">
         <v>34</v>
       </c>
+      <c r="F53" s="71"/>
       <c r="G53">
         <v>15</v>
       </c>
       <c r="H53">
         <v>25</v>
       </c>
-      <c r="I53" s="54" t="b">
+      <c r="I53" s="51" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
@@ -4110,16 +4118,17 @@
       <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="72" t="s">
         <v>157</v>
       </c>
+      <c r="F54" s="71"/>
       <c r="G54">
         <v>0.05</v>
       </c>
       <c r="H54">
         <v>0.15</v>
       </c>
-      <c r="I54" s="54" t="b">
+      <c r="I54" s="51" t="b">
         <v>1</v>
       </c>
       <c r="J54" t="s">
@@ -4139,7 +4148,7 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="72" t="s">
         <v>159</v>
       </c>
       <c r="E55" t="s">
@@ -4154,7 +4163,7 @@
       <c r="H55">
         <v>0.2</v>
       </c>
-      <c r="I55" s="49" t="b">
+      <c r="I55" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J55" t="s">
@@ -4174,7 +4183,7 @@
       <c r="C56">
         <v>4</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E56" t="s">
@@ -4189,7 +4198,7 @@
       <c r="H56">
         <v>0.25</v>
       </c>
-      <c r="I56" s="49" t="b">
+      <c r="I56" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J56" t="s">
@@ -4209,16 +4218,17 @@
       <c r="C57">
         <v>4</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="72" t="s">
         <v>148</v>
       </c>
+      <c r="F57" s="71"/>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
-      <c r="I57" s="54" t="b">
+      <c r="I57" s="51" t="b">
         <v>1</v>
       </c>
       <c r="J57" t="s">
@@ -4238,16 +4248,17 @@
       <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="72" t="s">
         <v>150</v>
       </c>
+      <c r="F58" s="71"/>
       <c r="G58">
         <v>0.25</v>
       </c>
       <c r="H58">
         <v>0.35000000000000003</v>
       </c>
-      <c r="I58" s="49" t="b">
+      <c r="I58" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J58" t="s">
@@ -4267,7 +4278,7 @@
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="47" t="s">
+      <c r="D59" s="72" t="s">
         <v>149</v>
       </c>
       <c r="E59" t="s">
@@ -4282,7 +4293,7 @@
       <c r="H59">
         <v>0.4</v>
       </c>
-      <c r="I59" s="49" t="b">
+      <c r="I59" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J59" t="s">
@@ -4302,16 +4313,17 @@
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="72" t="s">
         <v>162</v>
       </c>
+      <c r="F60" s="71"/>
       <c r="G60">
         <v>0.75</v>
       </c>
       <c r="H60">
         <v>0.85</v>
       </c>
-      <c r="I60" s="49" t="b">
+      <c r="I60" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="s">
@@ -4331,7 +4343,7 @@
       <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="72" t="s">
         <v>34</v>
       </c>
       <c r="E61" t="s">
@@ -4346,7 +4358,7 @@
       <c r="H61">
         <v>18</v>
       </c>
-      <c r="I61" s="49" t="b">
+      <c r="I61" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J61" t="s">
@@ -4366,7 +4378,7 @@
       <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="72" t="s">
         <v>59</v>
       </c>
       <c r="E62" t="s">
@@ -4381,7 +4393,7 @@
       <c r="H62">
         <v>410</v>
       </c>
-      <c r="I62" s="49" t="b">
+      <c r="I62" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J62" t="s">
@@ -4401,7 +4413,7 @@
       <c r="C63">
         <v>5</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="72" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
@@ -4416,7 +4428,7 @@
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" s="49" t="b">
+      <c r="I63" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J63" t="s">
@@ -4436,7 +4448,7 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="72" t="s">
         <v>159</v>
       </c>
       <c r="E64" t="s">
@@ -4451,7 +4463,7 @@
       <c r="H64">
         <v>0.4</v>
       </c>
-      <c r="I64" s="49" t="b">
+      <c r="I64" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J64" t="s">
@@ -4471,7 +4483,7 @@
       <c r="C65">
         <v>5</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="72" t="s">
         <v>151</v>
       </c>
       <c r="E65" t="s">
@@ -4486,7 +4498,7 @@
       <c r="H65">
         <v>0.8</v>
       </c>
-      <c r="I65" s="49" t="b">
+      <c r="I65" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="s">

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
     <sheet name="BCG_PacNW_2018" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$J$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$K$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev2!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="169">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -614,9 +614,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Metric.Name</t>
-  </si>
-  <si>
     <t>Lower</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
     <t>Alt2</t>
   </si>
   <si>
-    <t>SiteType</t>
-  </si>
-  <si>
     <t>nt_BCG_att1i2</t>
   </si>
   <si>
@@ -680,13 +674,34 @@
     <t>pi_BCG_att56</t>
   </si>
   <si>
-    <t>pt_BCG_att1i2</t>
-  </si>
-  <si>
     <t>pi_dom02_BCG_att456_nonclump</t>
   </si>
   <si>
-    <t>RuleType</t>
+    <t>≤ 20% (25-35)</t>
+  </si>
+  <si>
+    <t>≥ 1 (0-2)</t>
+  </si>
+  <si>
+    <t>≤ 8% (5-10)</t>
+  </si>
+  <si>
+    <t>&gt; 2 (0-3)</t>
+  </si>
+  <si>
+    <t>≥ 8 (6-10)</t>
+  </si>
+  <si>
+    <t>Numeric_Rules</t>
+  </si>
+  <si>
+    <t>Metric_Name</t>
+  </si>
+  <si>
+    <t>Site_Type</t>
+  </si>
+  <si>
+    <t>Rule_Type</t>
   </si>
 </sst>
 </file>
@@ -926,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1061,6 +1076,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1076,9 +1119,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,35 +1131,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1533,12 +1547,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -1557,10 +1571,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -1579,10 +1593,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -1627,10 +1641,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -1649,10 +1663,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -1671,10 +1685,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -1693,10 +1707,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -1715,10 +1729,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -1739,10 +1753,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -1757,12 +1771,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -1782,10 +1796,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -1796,10 +1810,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -1818,10 +1832,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -1840,10 +1854,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -1862,10 +1876,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -1910,10 +1924,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -1972,19 +1986,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="58" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="62" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1998,13 +2012,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="63"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2016,12 +2030,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2040,10 +2054,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2062,10 +2076,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="67"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2105,10 +2119,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,10 +2132,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="69"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -2148,19 +2162,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="69"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,10 +2184,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="58"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -2183,10 +2197,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="57"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -2198,10 +2212,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="57"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2211,10 +2225,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2224,32 +2238,16 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="57"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2266,6 +2264,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2284,7 +2298,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,34 +2318,34 @@
         <v>129</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>141</v>
-      </c>
       <c r="I1" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>138</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2351,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -2366,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2380,13 +2394,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2401,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2415,13 +2429,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4">
         <v>0.3</v>
@@ -2436,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2450,13 +2464,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5">
         <v>0.15</v>
@@ -2471,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2485,13 +2499,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6">
         <v>0.03</v>
@@ -2506,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2520,13 +2534,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7">
         <v>0.03</v>
@@ -2541,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2554,14 +2568,14 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="72" t="s">
-        <v>148</v>
+      <c r="D8" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -2576,7 +2590,7 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2589,14 +2603,14 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="72" t="s">
-        <v>149</v>
+      <c r="D9" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -2611,7 +2625,7 @@
         <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2624,14 +2638,14 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>162</v>
+      <c r="D10" s="52" t="s">
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -2646,7 +2660,7 @@
         <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2659,14 +2673,14 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -2681,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,14 +2708,14 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="72" t="s">
-        <v>158</v>
+      <c r="D12" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12">
         <v>0.05</v>
@@ -2716,7 +2730,7 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2729,14 +2743,14 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="72" t="s">
-        <v>159</v>
+      <c r="D13" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13">
         <v>0.05</v>
@@ -2751,7 +2765,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2764,14 +2778,14 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>160</v>
+      <c r="D14" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14">
         <v>0.05</v>
@@ -2786,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2799,14 +2813,14 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="72" t="s">
-        <v>148</v>
+      <c r="D15" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="E15" t="s">
         <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -2821,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,14 +2848,14 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="72" t="s">
-        <v>149</v>
+      <c r="D16" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16">
         <v>0.2</v>
@@ -2856,7 +2870,7 @@
         <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2869,14 +2883,14 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="72" t="s">
-        <v>162</v>
+      <c r="D17" s="52" t="s">
+        <v>159</v>
       </c>
       <c r="E17" t="s">
         <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17">
         <v>0.55000000000000004</v>
@@ -2891,7 +2905,7 @@
         <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2904,14 +2918,14 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="72" t="s">
-        <v>157</v>
+      <c r="D18" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18">
         <v>0.3</v>
@@ -2926,7 +2940,7 @@
         <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2939,13 +2953,15 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="72" t="s">
-        <v>156</v>
+      <c r="D19" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="71"/>
+        <v>161</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -2959,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2972,11 +2988,14 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" s="72" t="s">
-        <v>157</v>
+      <c r="D20" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20">
         <v>0.2</v>
@@ -2987,11 +3006,8 @@
       <c r="I20" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
-        <v>117</v>
-      </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3004,14 +3020,14 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21">
         <v>15</v>
@@ -3026,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3039,14 +3055,14 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="72" t="s">
-        <v>157</v>
+      <c r="D22" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>0.05</v>
@@ -3061,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3074,14 +3090,14 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="72" t="s">
-        <v>159</v>
+      <c r="D23" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23">
         <v>0.15</v>
@@ -3096,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3109,14 +3125,14 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="72" t="s">
-        <v>160</v>
+      <c r="D24" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24">
         <v>0.2</v>
@@ -3131,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3144,14 +3160,14 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="72" t="s">
-        <v>148</v>
+      <c r="D25" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3166,7 +3182,7 @@
         <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3179,14 +3195,14 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="72" t="s">
-        <v>150</v>
+      <c r="D26" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="E26" t="s">
         <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G26">
         <v>0.25</v>
@@ -3201,7 +3217,7 @@
         <v>119</v>
       </c>
       <c r="K26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3214,14 +3230,14 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="72" t="s">
-        <v>149</v>
+      <c r="D27" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27">
         <v>0.45</v>
@@ -3236,7 +3252,7 @@
         <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3249,14 +3265,14 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>162</v>
+      <c r="D28" s="52" t="s">
+        <v>159</v>
       </c>
       <c r="E28" t="s">
         <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28">
         <v>0.75</v>
@@ -3271,7 +3287,7 @@
         <v>117</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3284,14 +3300,14 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -3306,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3319,14 +3335,14 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="52" t="s">
         <v>59</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30">
         <v>390</v>
@@ -3341,7 +3357,7 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3354,14 +3370,14 @@
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="52" t="s">
         <v>60</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3376,7 +3392,7 @@
         <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3389,14 +3405,14 @@
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="72" t="s">
-        <v>159</v>
+      <c r="D32" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32">
         <v>0.3</v>
@@ -3411,7 +3427,7 @@
         <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3424,14 +3440,14 @@
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" s="72" t="s">
-        <v>151</v>
+      <c r="D33" s="52" t="s">
+        <v>150</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G33">
         <v>0.70000000000000007</v>
@@ -3446,7 +3462,7 @@
         <v>118</v>
       </c>
       <c r="K33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3459,14 +3475,14 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -3481,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3494,14 +3510,14 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="72" t="s">
-        <v>156</v>
+      <c r="D35" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="E35" t="s">
         <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3516,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3529,11 +3545,14 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="72" t="s">
-        <v>157</v>
+      <c r="D36" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36">
         <v>0.35000000000000003</v>
@@ -3548,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3561,14 +3580,14 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="72" t="s">
-        <v>158</v>
+      <c r="D37" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37">
         <v>0.15</v>
@@ -3583,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3596,14 +3615,14 @@
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="72" t="s">
-        <v>159</v>
+      <c r="D38" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G38">
         <v>0.03</v>
@@ -3618,7 +3637,7 @@
         <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3631,14 +3650,14 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="72" t="s">
-        <v>160</v>
+      <c r="D39" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G39">
         <v>0.03</v>
@@ -3653,7 +3672,7 @@
         <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3666,14 +3685,14 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="72" t="s">
-        <v>148</v>
+      <c r="D40" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -3688,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3701,14 +3720,14 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="72" t="s">
-        <v>149</v>
+      <c r="D41" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41">
         <v>0.1</v>
@@ -3723,7 +3742,7 @@
         <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,14 +3755,14 @@
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="72" t="s">
-        <v>162</v>
+      <c r="D42" s="52" t="s">
+        <v>159</v>
       </c>
       <c r="E42" t="s">
         <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42">
         <v>0.5</v>
@@ -3758,7 +3777,7 @@
         <v>117</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3771,10 +3790,15 @@
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="71"/>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
       <c r="G43">
         <v>20</v>
       </c>
@@ -3788,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3801,10 +3825,15 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="F44" s="71"/>
+      <c r="D44" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
       <c r="G44">
         <v>0.05</v>
       </c>
@@ -3818,7 +3847,7 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3831,10 +3860,15 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" s="71"/>
+      <c r="D45" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>144</v>
+      </c>
       <c r="G45">
         <v>0.05</v>
       </c>
@@ -3848,7 +3882,7 @@
         <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3861,10 +3895,15 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="71"/>
+      <c r="D46" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
       <c r="G46">
         <v>0.05</v>
       </c>
@@ -3878,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="K46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3891,10 +3930,15 @@
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="71"/>
+      <c r="D47" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
       <c r="G47">
         <v>4</v>
       </c>
@@ -3908,7 +3952,7 @@
         <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3921,14 +3965,14 @@
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="D48" s="72" t="s">
-        <v>149</v>
+      <c r="D48" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G48">
         <v>0.15</v>
@@ -3943,7 +3987,7 @@
         <v>116</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3956,10 +4000,15 @@
       <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="71"/>
+      <c r="D49" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" t="s">
+        <v>144</v>
+      </c>
       <c r="G49">
         <v>0.55000000000000004</v>
       </c>
@@ -3973,7 +4022,7 @@
         <v>117</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3986,14 +4035,14 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="72" t="s">
-        <v>157</v>
+      <c r="D50" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50">
         <v>0.3</v>
@@ -4008,7 +4057,7 @@
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4021,14 +4070,14 @@
       <c r="C51">
         <v>3</v>
       </c>
-      <c r="D51" s="72" t="s">
-        <v>156</v>
+      <c r="D51" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="E51" t="s">
         <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4043,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="K51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4056,14 +4105,14 @@
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52" s="72" t="s">
-        <v>161</v>
+      <c r="D52" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="E52" t="s">
         <v>54</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G52">
         <v>0.2</v>
@@ -4075,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4088,10 +4137,15 @@
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53" s="72" t="s">
+      <c r="D53" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="71"/>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
       <c r="G53">
         <v>15</v>
       </c>
@@ -4105,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4118,10 +4172,15 @@
       <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="71"/>
+      <c r="D54" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
       <c r="G54">
         <v>0.05</v>
       </c>
@@ -4135,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="K54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4148,14 +4207,14 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" s="72" t="s">
-        <v>159</v>
+      <c r="D55" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="E55" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G55">
         <v>0.1</v>
@@ -4170,7 +4229,7 @@
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4183,14 +4242,14 @@
       <c r="C56">
         <v>4</v>
       </c>
-      <c r="D56" s="72" t="s">
-        <v>160</v>
+      <c r="D56" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G56">
         <v>0.15</v>
@@ -4205,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4218,10 +4277,15 @@
       <c r="C57">
         <v>4</v>
       </c>
-      <c r="D57" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="71"/>
+      <c r="D57" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -4235,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="K57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4248,10 +4312,15 @@
       <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="71"/>
+      <c r="D58" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" t="s">
+        <v>144</v>
+      </c>
       <c r="G58">
         <v>0.25</v>
       </c>
@@ -4265,7 +4334,7 @@
         <v>119</v>
       </c>
       <c r="K58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4278,14 +4347,14 @@
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="72" t="s">
-        <v>149</v>
+      <c r="D59" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G59">
         <v>0.3</v>
@@ -4300,7 +4369,7 @@
         <v>116</v>
       </c>
       <c r="K59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4313,10 +4382,15 @@
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="D60" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="F60" s="71"/>
+      <c r="D60" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" t="s">
+        <v>144</v>
+      </c>
       <c r="G60">
         <v>0.75</v>
       </c>
@@ -4330,7 +4404,7 @@
         <v>117</v>
       </c>
       <c r="K60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4343,14 +4417,14 @@
       <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G61">
         <v>8</v>
@@ -4365,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,14 +4452,14 @@
       <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="72" t="s">
+      <c r="D62" s="52" t="s">
         <v>59</v>
       </c>
       <c r="E62" t="s">
         <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G62">
         <v>390</v>
@@ -4400,7 +4474,7 @@
         <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4413,14 +4487,14 @@
       <c r="C63">
         <v>5</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="D63" s="52" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4435,7 +4509,7 @@
         <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4448,14 +4522,14 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" s="72" t="s">
-        <v>159</v>
+      <c r="D64" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G64">
         <v>0.3</v>
@@ -4470,7 +4544,7 @@
         <v>8</v>
       </c>
       <c r="K64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,14 +4557,14 @@
       <c r="C65">
         <v>5</v>
       </c>
-      <c r="D65" s="72" t="s">
-        <v>151</v>
+      <c r="D65" s="52" t="s">
+        <v>150</v>
       </c>
       <c r="E65" t="s">
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G65">
         <v>0.70000000000000007</v>
@@ -4505,11 +4579,11 @@
         <v>118</v>
       </c>
       <c r="K65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J65"/>
+  <autoFilter ref="A1:K65"/>
   <conditionalFormatting sqref="I2:I33 I52:I65 I43:I50">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="abbrev2" sheetId="3" r:id="rId1"/>
-    <sheet name="BCG_PacNW_2018" sheetId="4" r:id="rId2"/>
+    <sheet name="abbrev_v1" sheetId="3" r:id="rId1"/>
+    <sheet name="v2_edits" sheetId="6" r:id="rId2"/>
+    <sheet name="BCG_PacNW_2018" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BCG_PacNW_2018!$A$1:$K$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev2!$A$1:$E$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BCG_PacNW_2018!$A$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">v2_edits!$A$2:$V$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev_v1!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="190">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -680,18 +682,9 @@
     <t>≤ 20% (25-35)</t>
   </si>
   <si>
-    <t>≥ 1 (0-2)</t>
-  </si>
-  <si>
     <t>≤ 8% (5-10)</t>
   </si>
   <si>
-    <t>&gt; 2 (0-3)</t>
-  </si>
-  <si>
-    <t>≥ 8 (6-10)</t>
-  </si>
-  <si>
     <t>Numeric_Rules</t>
   </si>
   <si>
@@ -702,13 +695,85 @@
   </si>
   <si>
     <t>Rule_Type</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>NEW.FINAL (6/8/2018)</t>
+  </si>
+  <si>
+    <t>SiteType</t>
+  </si>
+  <si>
+    <t>Metric.Name</t>
+  </si>
+  <si>
+    <t>RuleType</t>
+  </si>
+  <si>
+    <t>pi_NonIns_att456_NC</t>
+  </si>
+  <si>
+    <t>% Attribute IV+V+VI non-insect individuals, excluding Juga and Rissooidea (assumes Mites are collapsed to Order-level (Trombidiformes))</t>
+  </si>
+  <si>
+    <t>pi_dom02…</t>
+  </si>
+  <si>
+    <t>≥ 9 (6-12)</t>
+  </si>
+  <si>
+    <t>pt_NonIns_att456</t>
+  </si>
+  <si>
+    <t>% Attribute IV+V+VI non-insect taxa (assumes Mites are collapsed to Order-level (Trombidiformes))</t>
+  </si>
+  <si>
+    <t>pi_NonIns_att456</t>
+  </si>
+  <si>
+    <t>% Attribute IV+V+VI non-insect individuals (assumes Mites are collapsed to Order-level (Trombidiformes))</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i2</t>
+  </si>
+  <si>
+    <t>pi_NonInsJugaRiss_BCG_att456</t>
+  </si>
+  <si>
+    <t>≤ 30% (25-55)</t>
+  </si>
+  <si>
+    <t>pi_NonIns_BCG_att456</t>
+  </si>
+  <si>
+    <t>pt_NonIns_BCG_att456</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>Color, no change</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>numeric rule only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,8 +884,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,8 +974,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -936,12 +1030,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1077,69 +1180,465 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1456,6 +1955,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
@@ -1547,12 +2049,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -1571,10 +2073,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="70"/>
+      <c r="C7" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="62"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -1593,10 +2095,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -1641,10 +2143,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -1663,10 +2165,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="70"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -1685,10 +2187,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -1707,10 +2209,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -1729,10 +2231,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -1753,10 +2255,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -1771,12 +2273,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -1796,10 +2298,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -1810,10 +2312,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -1832,10 +2334,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="54"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -1854,10 +2356,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="54"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -1876,10 +2378,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -1924,10 +2426,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -1986,19 +2488,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="66" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="53" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2012,13 +2514,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="54"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2030,12 +2532,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2054,10 +2556,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2076,10 +2578,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="60"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,10 +2621,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2132,10 +2634,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -2162,19 +2664,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="56"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,10 +2686,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="67"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -2197,10 +2699,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -2212,10 +2714,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,10 +2727,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2238,16 +2740,32 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2264,22 +2782,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2294,11 +2796,4326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:V66"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="73"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="10" max="10" width="36.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="74" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="73"/>
+    <col min="15" max="15" width="21.42578125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="73" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="73"/>
+    <col min="21" max="21" width="35.140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D1" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2" s="78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="73">
+        <v>25</v>
+      </c>
+      <c r="H3" s="73">
+        <v>35</v>
+      </c>
+      <c r="I3" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="73">
+        <v>2</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" s="73">
+        <v>25</v>
+      </c>
+      <c r="S3" s="73">
+        <v>35</v>
+      </c>
+      <c r="T3" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="73">
+        <v>3</v>
+      </c>
+      <c r="H4" s="73">
+        <v>8</v>
+      </c>
+      <c r="I4" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="73">
+        <v>2</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="R4" s="73">
+        <v>3</v>
+      </c>
+      <c r="S4" s="73">
+        <v>8</v>
+      </c>
+      <c r="T4" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="73">
+        <v>2</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="S5" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="T5" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="73">
+        <v>2</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="73">
+        <v>2</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="S7" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T7" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I8" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="73">
+        <v>2</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="S8" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T8" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="73">
+        <v>10</v>
+      </c>
+      <c r="H9" s="73">
+        <v>20</v>
+      </c>
+      <c r="I9" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="73">
+        <v>2</v>
+      </c>
+      <c r="O9" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" s="73">
+        <v>10</v>
+      </c>
+      <c r="S9" s="73">
+        <v>20</v>
+      </c>
+      <c r="T9" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="73">
+        <v>2</v>
+      </c>
+      <c r="O10" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R10" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="85">
+        <v>2</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="87">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="73">
+        <v>20</v>
+      </c>
+      <c r="H12" s="73">
+        <v>30</v>
+      </c>
+      <c r="I12" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="73">
+        <v>3</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" s="73">
+        <v>20</v>
+      </c>
+      <c r="S12" s="73">
+        <v>30</v>
+      </c>
+      <c r="T12" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="I13" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="73">
+        <v>3</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="T13" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="73">
+        <v>3</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R14" s="92">
+        <v>0.05</v>
+      </c>
+      <c r="S14" s="92">
+        <v>0.15</v>
+      </c>
+      <c r="T14" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M15" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="73">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R15" s="92">
+        <v>0.05</v>
+      </c>
+      <c r="S15" s="92">
+        <v>0.15</v>
+      </c>
+      <c r="T15" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="73">
+        <v>4</v>
+      </c>
+      <c r="H16" s="73">
+        <v>10</v>
+      </c>
+      <c r="I16" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="73">
+        <v>3</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="R16" s="92">
+        <v>0.05</v>
+      </c>
+      <c r="S16" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="T16" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="73">
+        <v>3</v>
+      </c>
+      <c r="O17" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R17" s="93">
+        <v>6</v>
+      </c>
+      <c r="S17" s="93">
+        <v>12</v>
+      </c>
+      <c r="T17" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H18" s="73">
+        <v>0.65</v>
+      </c>
+      <c r="I18" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="73">
+        <v>3</v>
+      </c>
+      <c r="O18" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R18" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="S18" s="93">
+        <v>0.35</v>
+      </c>
+      <c r="T18" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="V19" s="95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="73">
+        <v>0</v>
+      </c>
+      <c r="H20" s="73">
+        <v>2</v>
+      </c>
+      <c r="I20" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="V20" s="95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="85">
+        <v>3</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="V21" s="90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="73">
+        <v>15</v>
+      </c>
+      <c r="H22" s="73">
+        <v>25</v>
+      </c>
+      <c r="I22" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="73">
+        <v>4</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R22" s="73">
+        <v>15</v>
+      </c>
+      <c r="S22" s="73">
+        <v>25</v>
+      </c>
+      <c r="T22" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="11">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H23" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="I23" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="73">
+        <v>4</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R23" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="S23" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="T23" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="H24" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="73">
+        <v>4</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R24" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="S24" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="T24" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="11">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="I25" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="73">
+        <v>4</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R25" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="S25" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="T25" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="11">
+        <v>4</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="73">
+        <v>0</v>
+      </c>
+      <c r="H26" s="73">
+        <v>3</v>
+      </c>
+      <c r="I26" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="73">
+        <v>4</v>
+      </c>
+      <c r="O26" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="R26" s="73">
+        <v>0</v>
+      </c>
+      <c r="S26" s="73">
+        <v>3</v>
+      </c>
+      <c r="T26" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="11">
+        <v>4</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="73">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I27" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="73">
+        <v>4</v>
+      </c>
+      <c r="O27" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q27" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R27" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="S27" s="73">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="T27" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="11">
+        <v>4</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="73">
+        <v>0.45</v>
+      </c>
+      <c r="H28" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I28" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="73">
+        <v>4</v>
+      </c>
+      <c r="O28" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" s="73">
+        <v>0.45</v>
+      </c>
+      <c r="S28" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T28" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="85">
+        <v>4</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="87">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="87">
+        <v>0.85</v>
+      </c>
+      <c r="I29" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="V29" s="85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="11">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="73">
+        <v>8</v>
+      </c>
+      <c r="H30" s="73">
+        <v>18</v>
+      </c>
+      <c r="I30" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="73">
+        <v>5</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R30" s="73">
+        <v>8</v>
+      </c>
+      <c r="S30" s="73">
+        <v>18</v>
+      </c>
+      <c r="T30" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="11">
+        <v>5</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="73">
+        <v>390</v>
+      </c>
+      <c r="H31" s="73">
+        <v>410</v>
+      </c>
+      <c r="I31" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="73">
+        <v>5</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R31" s="73">
+        <v>390</v>
+      </c>
+      <c r="S31" s="73">
+        <v>410</v>
+      </c>
+      <c r="T31" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="11">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="73">
+        <v>0</v>
+      </c>
+      <c r="H32" s="73">
+        <v>1</v>
+      </c>
+      <c r="I32" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="73">
+        <v>5</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="R32" s="73">
+        <v>0</v>
+      </c>
+      <c r="S32" s="73">
+        <v>1</v>
+      </c>
+      <c r="T32" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="11">
+        <v>5</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="I33" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L33" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M33" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="73">
+        <v>5</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R33" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="S33" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="T33" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="85" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="85">
+        <v>5</v>
+      </c>
+      <c r="D34" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="87">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H34" s="87">
+        <v>0.8</v>
+      </c>
+      <c r="I34" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" s="87">
+        <v>5</v>
+      </c>
+      <c r="O34" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="P34" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="R34" s="87">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="S34" s="87">
+        <v>0.8</v>
+      </c>
+      <c r="T34" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="V34" s="85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="73">
+        <v>25</v>
+      </c>
+      <c r="H35" s="73">
+        <v>35</v>
+      </c>
+      <c r="I35" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M35" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" s="73">
+        <v>2</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R35" s="73">
+        <v>25</v>
+      </c>
+      <c r="S35" s="73">
+        <v>35</v>
+      </c>
+      <c r="T35" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="73">
+        <v>3</v>
+      </c>
+      <c r="H36" s="73">
+        <v>8</v>
+      </c>
+      <c r="I36" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M36" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="73">
+        <v>2</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q36" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="R36" s="73">
+        <v>3</v>
+      </c>
+      <c r="S36" s="73">
+        <v>8</v>
+      </c>
+      <c r="T36" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="73">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H37" s="73">
+        <v>0.45</v>
+      </c>
+      <c r="I37" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M37" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37" s="73">
+        <v>2</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R37" s="73">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="S37" s="73">
+        <v>0.45</v>
+      </c>
+      <c r="T37" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="H38" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="I38" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L38" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M38" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38" s="73">
+        <v>2</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R38" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="S38" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="T38" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="H39" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I39" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L39" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M39" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N39" s="73">
+        <v>2</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R39" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="S39" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T39" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="H40" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I40" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M40" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N40" s="73">
+        <v>2</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R40" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="S40" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T40" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="11">
+        <v>2</v>
+      </c>
+      <c r="D41" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="73">
+        <v>10</v>
+      </c>
+      <c r="H41" s="73">
+        <v>20</v>
+      </c>
+      <c r="I41" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="M41" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" s="73">
+        <v>2</v>
+      </c>
+      <c r="O41" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R41" s="73">
+        <v>10</v>
+      </c>
+      <c r="S41" s="73">
+        <v>20</v>
+      </c>
+      <c r="T41" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2</v>
+      </c>
+      <c r="D42" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="I42" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L42" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M42" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" s="73">
+        <v>2</v>
+      </c>
+      <c r="O42" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R42" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="S42" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="U42" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="85">
+        <v>2</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="87">
+        <v>0.6</v>
+      </c>
+      <c r="I43" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="K43" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="O43" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="V43" s="85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="73">
+        <v>20</v>
+      </c>
+      <c r="H44" s="73">
+        <v>30</v>
+      </c>
+      <c r="I44" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L44" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M44" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N44" s="73">
+        <v>3</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R44" s="73">
+        <v>20</v>
+      </c>
+      <c r="S44" s="73">
+        <v>30</v>
+      </c>
+      <c r="T44" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="11">
+        <v>3</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="I45" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L45" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M45" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" s="73">
+        <v>3</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R45" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="S45" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="T45" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="11">
+        <v>3</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H46" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="I46" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L46" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M46" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N46" s="73">
+        <v>3</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R46" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="S46" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="T46" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="11">
+        <v>3</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H47" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L47" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M47" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47" s="73">
+        <v>3</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R47" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="S47" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="T47" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="11">
+        <v>3</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="73">
+        <v>4</v>
+      </c>
+      <c r="H48" s="73">
+        <v>10</v>
+      </c>
+      <c r="I48" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N48" s="73">
+        <v>3</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="R48" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="S48" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="T48" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="11">
+        <v>3</v>
+      </c>
+      <c r="D49" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="H49" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="I49" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L49" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M49" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N49" s="73">
+        <v>3</v>
+      </c>
+      <c r="O49" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q49" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R49" s="73">
+        <v>6</v>
+      </c>
+      <c r="S49" s="73">
+        <v>12</v>
+      </c>
+      <c r="T49" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
+      <c r="D50" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H50" s="73">
+        <v>0.65</v>
+      </c>
+      <c r="I50" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M50" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N50" s="73">
+        <v>3</v>
+      </c>
+      <c r="O50" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P50" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q50" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R50" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="S50" s="76">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="T50" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="V50" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="11">
+        <v>3</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="H51" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="I51" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="V51" s="95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="11">
+        <v>3</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="73">
+        <v>2</v>
+      </c>
+      <c r="H52" s="73">
+        <v>5</v>
+      </c>
+      <c r="I52" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="O52" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="V52" s="95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="85">
+        <v>3</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="H53" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="I53" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="L53" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="87"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="87"/>
+      <c r="V53" s="90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="11">
+        <v>4</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="73">
+        <v>15</v>
+      </c>
+      <c r="H54" s="73">
+        <v>25</v>
+      </c>
+      <c r="I54" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M54" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="N54" s="73">
+        <v>4</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R54" s="73">
+        <v>15</v>
+      </c>
+      <c r="S54" s="73">
+        <v>25</v>
+      </c>
+      <c r="T54" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="11">
+        <v>4</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="H55" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="I55" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M55" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="N55" s="73">
+        <v>4</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R55" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="S55" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="T55" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V55" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="11">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="I56" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L56" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M56" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="N56" s="73">
+        <v>4</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R56" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="S56" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="T56" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="11">
+        <v>4</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="H57" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="I57" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L57" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M57" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="N57" s="73">
+        <v>4</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R57" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="S57" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="T57" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V57" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="11">
+        <v>4</v>
+      </c>
+      <c r="D58" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="73">
+        <v>0</v>
+      </c>
+      <c r="H58" s="73">
+        <v>3</v>
+      </c>
+      <c r="I58" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L58" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="M58" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="N58" s="73">
+        <v>4</v>
+      </c>
+      <c r="O58" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q58" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="R58" s="73">
+        <v>0</v>
+      </c>
+      <c r="S58" s="73">
+        <v>3</v>
+      </c>
+      <c r="T58" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="11">
+        <v>4</v>
+      </c>
+      <c r="D59" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="H59" s="73">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I59" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L59" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M59" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="N59" s="73">
+        <v>4</v>
+      </c>
+      <c r="O59" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q59" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R59" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="S59" s="73">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="T59" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U59" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="11">
+        <v>4</v>
+      </c>
+      <c r="D60" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="H60" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="I60" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L60" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="N60" s="73">
+        <v>4</v>
+      </c>
+      <c r="O60" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R60" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="S60" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="T60" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U60" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="V60" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="85">
+        <v>4</v>
+      </c>
+      <c r="D61" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87">
+        <v>0.75</v>
+      </c>
+      <c r="H61" s="87">
+        <v>0.85</v>
+      </c>
+      <c r="I61" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="K61" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L61" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="O61" s="90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="11">
+        <v>5</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="73">
+        <v>8</v>
+      </c>
+      <c r="H62" s="73">
+        <v>18</v>
+      </c>
+      <c r="I62" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L62" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M62" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N62" s="73">
+        <v>5</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q62" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R62" s="73">
+        <v>8</v>
+      </c>
+      <c r="S62" s="73">
+        <v>18</v>
+      </c>
+      <c r="T62" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V62" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="11">
+        <v>5</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" s="73">
+        <v>390</v>
+      </c>
+      <c r="H63" s="73">
+        <v>410</v>
+      </c>
+      <c r="I63" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L63" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M63" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N63" s="73">
+        <v>5</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q63" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="R63" s="73">
+        <v>390</v>
+      </c>
+      <c r="S63" s="73">
+        <v>410</v>
+      </c>
+      <c r="T63" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V63" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="11">
+        <v>5</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="73">
+        <v>0</v>
+      </c>
+      <c r="H64" s="73">
+        <v>1</v>
+      </c>
+      <c r="I64" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M64" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N64" s="73">
+        <v>5</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="R64" s="73">
+        <v>0</v>
+      </c>
+      <c r="S64" s="73">
+        <v>1</v>
+      </c>
+      <c r="T64" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="U64" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="V64" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="11">
+        <v>5</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="H65" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="I65" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="M65" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N65" s="73">
+        <v>5</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="R65" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="S65" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="T65" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V65" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" s="85" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="85">
+        <v>5</v>
+      </c>
+      <c r="D66" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="87">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H66" s="87">
+        <v>0.8</v>
+      </c>
+      <c r="I66" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="K66" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="M66" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="N66" s="87">
+        <v>5</v>
+      </c>
+      <c r="O66" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="P66" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q66" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="R66" s="87">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="S66" s="87">
+        <v>0.8</v>
+      </c>
+      <c r="T66" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="V66" s="85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:V66"/>
+  <conditionalFormatting sqref="I3:I34 I53:I66 I44:I51">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I43">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T9">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T14">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15:T16">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22:T28">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30:T32">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T33">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T34">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35:T38">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T40">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T41">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44:T46">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T49">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54:T55">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T60">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T59">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T62:T64">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T66">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,16 +7135,16 @@
         <v>129</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>141</v>
@@ -2345,7 +7162,7 @@
         <v>138</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2604,7 +7421,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -2622,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
         <v>151</v>
@@ -2636,28 +7453,28 @@
         <v>131</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>0.6</v>
+        <v>30</v>
       </c>
       <c r="I10" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>151</v>
@@ -2674,25 +7491,25 @@
         <v>3</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>0.15</v>
       </c>
       <c r="I11" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>151</v>
@@ -2709,13 +7526,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G12">
         <v>0.05</v>
@@ -2724,10 +7541,10 @@
         <v>0.15</v>
       </c>
       <c r="I12" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
         <v>151</v>
@@ -2744,25 +7561,25 @@
         <v>3</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G13">
         <v>0.05</v>
       </c>
       <c r="H13">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
         <v>151</v>
@@ -2817,16 +7634,16 @@
         <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="46" t="b">
         <v>1</v>
@@ -2849,25 +7666,25 @@
         <v>3</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
         <v>144</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H16">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I16" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
         <v>151</v>
@@ -2881,28 +7698,28 @@
         <v>131</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G17">
-        <v>0.55000000000000004</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>0.65</v>
+        <v>25</v>
       </c>
       <c r="I17" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>151</v>
@@ -2916,31 +7733,31 @@
         <v>131</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>142</v>
       </c>
       <c r="G18">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H18">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="I18" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2951,31 +7768,31 @@
         <v>131</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="I19" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2986,16 +7803,16 @@
         <v>131</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20">
         <v>0.2</v>
@@ -3004,10 +7821,13 @@
         <v>0.3</v>
       </c>
       <c r="I20" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3021,25 +7841,25 @@
         <v>4</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I21" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
         <v>151</v>
@@ -3056,25 +7876,25 @@
         <v>4</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="H22">
-        <v>0.15</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I22" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
         <v>151</v>
@@ -3091,25 +7911,25 @@
         <v>4</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
         <v>144</v>
       </c>
       <c r="G23">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="H23">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I23" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
         <v>151</v>
@@ -3123,28 +7943,28 @@
         <v>131</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G24">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>0.3</v>
+        <v>18</v>
       </c>
       <c r="I24" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
         <v>151</v>
@@ -3158,28 +7978,28 @@
         <v>131</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="I25" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
         <v>151</v>
@@ -3193,28 +8013,28 @@
         <v>131</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.35000000000000003</v>
+        <v>1</v>
       </c>
       <c r="I26" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
         <v>151</v>
@@ -3228,28 +8048,28 @@
         <v>131</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
       </c>
       <c r="G27">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="H27">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="I27" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
         <v>151</v>
@@ -3263,28 +8083,28 @@
         <v>131</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
       </c>
       <c r="G28">
-        <v>0.75</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H28">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="K28" t="s">
         <v>151</v>
@@ -3295,25 +8115,25 @@
         <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>142</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I29" s="46" t="b">
         <v>1</v>
@@ -3330,31 +8150,31 @@
         <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G30">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="I30" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
         <v>151</v>
@@ -3365,31 +8185,31 @@
         <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="I31" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="K31" t="s">
         <v>151</v>
@@ -3400,31 +8220,31 @@
         <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G32">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="H32">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I32" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K32" t="s">
         <v>151</v>
@@ -3435,31 +8255,31 @@
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>144</v>
       </c>
       <c r="G33">
-        <v>0.70000000000000007</v>
+        <v>0.03</v>
       </c>
       <c r="H33">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I33" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
         <v>151</v>
@@ -3476,25 +8296,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G34">
-        <v>25</v>
+        <v>0.03</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I34" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K34" t="s">
         <v>151</v>
@@ -3511,25 +8331,25 @@
         <v>2</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I35" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K35" t="s">
         <v>151</v>
@@ -3546,25 +8366,25 @@
         <v>2</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G36">
-        <v>0.35000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="H36">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="I36" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="K36" t="s">
         <v>151</v>
@@ -3578,28 +8398,28 @@
         <v>133</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
         <v>142</v>
       </c>
       <c r="G37">
-        <v>0.15</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>0.25</v>
+        <v>30</v>
       </c>
       <c r="I37" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>151</v>
@@ -3613,28 +8433,28 @@
         <v>133</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G38">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H38">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="I38" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
         <v>151</v>
@@ -3648,28 +8468,28 @@
         <v>133</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
         <v>144</v>
       </c>
       <c r="G39">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H39">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="I39" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K39" t="s">
         <v>151</v>
@@ -3683,28 +8503,28 @@
         <v>133</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G40">
+        <v>0.05</v>
+      </c>
+      <c r="H40">
+        <v>0.1</v>
+      </c>
+      <c r="I40" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>10</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>11</v>
       </c>
       <c r="K40" t="s">
         <v>151</v>
@@ -3718,28 +8538,28 @@
         <v>133</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G41">
+        <v>0.05</v>
+      </c>
+      <c r="H41">
         <v>0.1</v>
       </c>
-      <c r="H41">
-        <v>0.2</v>
-      </c>
       <c r="I41" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="K41" t="s">
         <v>151</v>
@@ -3753,28 +8573,28 @@
         <v>133</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="I42" s="46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="K42" t="s">
         <v>151</v>
@@ -3791,25 +8611,25 @@
         <v>3</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>0.25</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>0.35</v>
       </c>
       <c r="I43" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="K43" t="s">
         <v>151</v>
@@ -3823,28 +8643,28 @@
         <v>133</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
         <v>142</v>
       </c>
       <c r="G44">
-        <v>0.05</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>0.15</v>
-      </c>
-      <c r="I44" s="46" t="b">
+        <v>25</v>
+      </c>
+      <c r="I44" s="51" t="b">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>151</v>
@@ -3858,16 +8678,16 @@
         <v>133</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G45">
         <v>0.05</v>
@@ -3875,11 +8695,11 @@
       <c r="H45">
         <v>0.15</v>
       </c>
-      <c r="I45" s="46" t="b">
-        <v>0</v>
+      <c r="I45" s="51" t="b">
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K45" t="s">
         <v>151</v>
@@ -3893,28 +8713,28 @@
         <v>133</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
         <v>144</v>
       </c>
       <c r="G46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H46">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K46" t="s">
         <v>151</v>
@@ -3928,28 +8748,28 @@
         <v>133</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>0.15</v>
       </c>
       <c r="H47">
+        <v>0.25</v>
+      </c>
+      <c r="I47" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
         <v>10</v>
-      </c>
-      <c r="I47" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>11</v>
       </c>
       <c r="K47" t="s">
         <v>151</v>
@@ -3963,28 +8783,28 @@
         <v>133</v>
       </c>
       <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="D48" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48">
-        <v>0.15</v>
-      </c>
-      <c r="H48">
-        <v>0.25</v>
-      </c>
-      <c r="I48" s="46" t="b">
-        <v>0</v>
+      <c r="I48" s="51" t="b">
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="K48" t="s">
         <v>151</v>
@@ -3998,28 +8818,28 @@
         <v>133</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F49" t="s">
         <v>144</v>
       </c>
       <c r="G49">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="H49">
-        <v>0.65</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I49" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="K49" t="s">
         <v>151</v>
@@ -4033,16 +8853,16 @@
         <v>133</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G50">
         <v>0.3</v>
@@ -4051,13 +8871,13 @@
         <v>0.4</v>
       </c>
       <c r="I50" s="46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4068,31 +8888,31 @@
         <v>133</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I51" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4103,28 +8923,31 @@
         <v>133</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52">
-        <v>0.2</v>
+        <v>390</v>
       </c>
       <c r="H52">
-        <v>0.3</v>
+        <v>410</v>
       </c>
       <c r="I52" s="46" t="b">
         <v>1</v>
       </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4135,28 +8958,28 @@
         <v>133</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>25</v>
-      </c>
-      <c r="I53" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="46" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K53" t="s">
         <v>151</v>
@@ -4170,28 +8993,28 @@
         <v>133</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G54">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="H54">
-        <v>0.15</v>
-      </c>
-      <c r="I54" s="51" t="b">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="I54" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K54" t="s">
         <v>151</v>
@@ -4205,402 +9028,42 @@
         <v>133</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
         <v>144</v>
       </c>
       <c r="G55">
-        <v>0.1</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H55">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I55" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56">
-        <v>0.15</v>
-      </c>
-      <c r="H56">
-        <v>0.25</v>
-      </c>
-      <c r="I56" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58">
-        <v>0.25</v>
-      </c>
-      <c r="H58">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="I58" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>119</v>
-      </c>
-      <c r="K58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59">
-        <v>0.3</v>
-      </c>
-      <c r="H59">
-        <v>0.4</v>
-      </c>
-      <c r="I59" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>116</v>
-      </c>
-      <c r="K59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60">
-        <v>0.75</v>
-      </c>
-      <c r="H60">
-        <v>0.85</v>
-      </c>
-      <c r="I60" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>117</v>
-      </c>
-      <c r="K60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61">
-        <v>5</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61">
-        <v>8</v>
-      </c>
-      <c r="H61">
-        <v>18</v>
-      </c>
-      <c r="I61" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62">
-        <v>390</v>
-      </c>
-      <c r="H62">
-        <v>410</v>
-      </c>
-      <c r="I62" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" t="s">
-        <v>144</v>
-      </c>
-      <c r="G64">
-        <v>0.3</v>
-      </c>
-      <c r="H64">
-        <v>0.4</v>
-      </c>
-      <c r="I64" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H65">
-        <v>0.8</v>
-      </c>
-      <c r="I65" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>118</v>
-      </c>
-      <c r="K65" t="s">
-        <v>151</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K65"/>
-  <conditionalFormatting sqref="I2:I33 I52:I65 I43:I50">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <autoFilter ref="A1:K55"/>
+  <conditionalFormatting sqref="I2:I28 I37:I55">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="I29:I36">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\R\R-3.4.4\library\BCGcalc\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev_v1" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BCG_PacNW_2018!$A$1:$K$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">v2_edits!$A$2:$V$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">v2_edits!$A$2:$W$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev_v1!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="193">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -767,6 +767,15 @@
   </si>
   <si>
     <t>numeric rule only</t>
+  </si>
+  <si>
+    <t>ErikCheck</t>
+  </si>
+  <si>
+    <t>bad row</t>
+  </si>
+  <si>
+    <t>change Final name</t>
   </si>
 </sst>
 </file>
@@ -908,7 +917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,6 +989,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1044,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1180,63 +1213,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1333,12 +1309,417 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2049,12 +2430,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -2073,10 +2454,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="62"/>
+      <c r="C7" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="102"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -2095,10 +2476,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -2143,10 +2524,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -2165,10 +2546,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -2187,10 +2568,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="62"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -2209,10 +2590,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -2231,10 +2612,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -2255,10 +2636,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -2273,12 +2654,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -2298,10 +2679,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -2312,10 +2693,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="71"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -2334,10 +2715,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -2356,10 +2737,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -2378,10 +2759,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -2426,10 +2807,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -2488,19 +2869,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="90" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="94" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2514,13 +2895,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="66"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="95"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2532,12 +2913,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2556,10 +2937,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="58"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2578,10 +2959,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="68"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,10 +3002,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="58"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2634,10 +3015,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="70"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -2664,19 +3045,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="70"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,10 +3067,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="59"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -2699,10 +3080,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="58"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -2714,10 +3095,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="58"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,10 +3108,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="58"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2740,32 +3121,16 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="58"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -2782,6 +3147,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -2796,14 +3177,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,101 +3194,104 @@
     <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="73" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="73" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="73"/>
+    <col min="6" max="6" width="7.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="54"/>
     <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="36.7109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="74" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="73"/>
-    <col min="15" max="15" width="21.42578125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="73" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="73"/>
-    <col min="21" max="21" width="35.140625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="11"/>
+    <col min="12" max="13" width="7.85546875" style="55" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="54"/>
+    <col min="16" max="16" width="21.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="54" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" style="54"/>
+    <col min="22" max="22" width="35.140625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D1" s="72" t="s">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="D1" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="N1" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="58"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="O2" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="P2" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="Q2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="R2" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="S2" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="T2" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="U2" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="U2" s="78" t="s">
+      <c r="V2" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="W2" s="59" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>132</v>
       </c>
@@ -2923,16 +3307,16 @@
       <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="54">
         <v>25</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="54">
         <v>35</v>
       </c>
-      <c r="I3" s="80" t="b">
+      <c r="I3" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -2941,41 +3325,45 @@
       <c r="K3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="61" t="b">
+        <f>D3=P3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="73">
+      <c r="O3" s="54">
         <v>2</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R3" s="73">
+      <c r="S3" s="54">
         <v>25</v>
       </c>
-      <c r="S3" s="73">
+      <c r="T3" s="54">
         <v>35</v>
       </c>
-      <c r="T3" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>0</v>
+      <c r="U3" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>132</v>
       </c>
@@ -2991,16 +3379,16 @@
       <c r="E4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="54">
         <v>3</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="54">
         <v>8</v>
       </c>
-      <c r="I4" s="80" t="b">
+      <c r="I4" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3009,41 +3397,45 @@
       <c r="K4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="61" t="b">
+        <f t="shared" ref="M4:M66" si="0">D4=P4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="73">
+      <c r="O4" s="54">
         <v>2</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="R4" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="73">
+      <c r="S4" s="54">
         <v>3</v>
       </c>
-      <c r="S4" s="73">
+      <c r="T4" s="54">
         <v>8</v>
       </c>
-      <c r="T4" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>132</v>
       </c>
@@ -3059,16 +3451,16 @@
       <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="54">
         <v>0.3</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="54">
         <v>0.4</v>
       </c>
-      <c r="I5" s="80" t="b">
+      <c r="I5" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
@@ -3077,41 +3469,45 @@
       <c r="K5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="73">
+      <c r="O5" s="54">
         <v>2</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="73" t="s">
+      <c r="R5" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R5" s="73">
+      <c r="S5" s="54">
         <v>0.3</v>
       </c>
-      <c r="S5" s="73">
+      <c r="T5" s="54">
         <v>0.4</v>
       </c>
-      <c r="T5" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>132</v>
       </c>
@@ -3127,16 +3523,16 @@
       <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="54">
         <v>0.15</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="54">
         <v>0.25</v>
       </c>
-      <c r="I6" s="80" t="b">
+      <c r="I6" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
@@ -3145,41 +3541,45 @@
       <c r="K6" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="73" t="s">
+      <c r="M6" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N6" s="73">
+      <c r="O6" s="54">
         <v>2</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="73" t="s">
+      <c r="R6" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="73">
+      <c r="S6" s="54">
         <v>0.15</v>
       </c>
-      <c r="S6" s="73">
+      <c r="T6" s="54">
         <v>0.25</v>
       </c>
-      <c r="T6" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>132</v>
       </c>
@@ -3195,16 +3595,16 @@
       <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="54">
         <v>0.03</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I7" s="80" t="b">
+      <c r="I7" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3213,41 +3613,45 @@
       <c r="K7" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N7" s="73">
+      <c r="O7" s="54">
         <v>2</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="R7" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R7" s="73">
+      <c r="S7" s="54">
         <v>0.03</v>
       </c>
-      <c r="S7" s="73">
+      <c r="T7" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T7" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>132</v>
       </c>
@@ -3263,16 +3667,16 @@
       <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="54">
         <v>0.03</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="80" t="b">
+      <c r="I8" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="11" t="s">
@@ -3281,41 +3685,45 @@
       <c r="K8" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M8" s="73" t="s">
+      <c r="M8" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="73">
+      <c r="O8" s="54">
         <v>2</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="R8" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R8" s="73">
+      <c r="S8" s="54">
         <v>0.03</v>
       </c>
-      <c r="S8" s="73">
+      <c r="T8" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T8" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>132</v>
       </c>
@@ -3325,22 +3733,22 @@
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="62" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="54">
         <v>10</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="54">
         <v>20</v>
       </c>
-      <c r="I9" s="80" t="b">
+      <c r="I9" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -3349,41 +3757,45 @@
       <c r="K9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N9" s="73">
+      <c r="O9" s="54">
         <v>2</v>
       </c>
-      <c r="O9" s="82" t="s">
+      <c r="P9" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="73" t="s">
+      <c r="R9" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R9" s="73">
+      <c r="S9" s="54">
         <v>10</v>
       </c>
-      <c r="S9" s="73">
+      <c r="T9" s="54">
         <v>20</v>
       </c>
-      <c r="T9" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="W9" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>132</v>
       </c>
@@ -3393,22 +3805,22 @@
       <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="64" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="54">
         <v>0.1</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="54">
         <v>0.2</v>
       </c>
-      <c r="I10" s="80" t="b">
+      <c r="I10" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -3417,88 +3829,96 @@
       <c r="K10" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="73" t="s">
+      <c r="M10" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N10" s="73">
+      <c r="O10" s="54">
         <v>2</v>
       </c>
-      <c r="O10" s="77" t="s">
+      <c r="P10" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="73" t="s">
+      <c r="R10" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R10" s="73">
+      <c r="S10" s="54">
         <v>0.1</v>
       </c>
-      <c r="S10" s="73">
+      <c r="T10" s="54">
         <v>0.2</v>
       </c>
-      <c r="T10" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="84" t="s">
+      <c r="U10" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="V10" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="85" t="s">
+      <c r="W10" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="66">
         <v>2</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="68">
         <v>0.5</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="68">
         <v>0.6</v>
       </c>
-      <c r="I11" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="85" t="s">
+      <c r="I11" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="K11" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="89" t="s">
+      <c r="K11" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="90" t="s">
+      <c r="M11" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>132</v>
       </c>
@@ -3514,16 +3934,16 @@
       <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="54">
         <v>20</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="54">
         <v>30</v>
       </c>
-      <c r="I12" s="80" t="b">
+      <c r="I12" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="11" t="s">
@@ -3532,41 +3952,45 @@
       <c r="K12" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="L12" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M12" s="91" t="s">
+      <c r="M12" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N12" s="73">
+      <c r="O12" s="54">
         <v>3</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="P12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="Q12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="73" t="s">
+      <c r="R12" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R12" s="73">
+      <c r="S12" s="54">
         <v>20</v>
       </c>
-      <c r="S12" s="73">
+      <c r="T12" s="54">
         <v>30</v>
       </c>
-      <c r="T12" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>0</v>
+      <c r="U12" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>132</v>
       </c>
@@ -3576,22 +4000,22 @@
       <c r="C13" s="11">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="105" t="s">
         <v>156</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="54">
         <v>0.05</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="54">
         <v>0.15</v>
       </c>
-      <c r="I13" s="80" t="b">
+      <c r="I13" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
@@ -3600,41 +4024,45 @@
       <c r="K13" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="91" t="s">
+      <c r="L13" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N13" s="73">
+      <c r="O13" s="54">
         <v>3</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="P13" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="Q13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="73" t="s">
+      <c r="R13" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R13" s="92">
+      <c r="S13" s="73">
         <v>0.2</v>
       </c>
-      <c r="S13" s="92">
+      <c r="T13" s="73">
         <v>0.3</v>
       </c>
-      <c r="T13" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>132</v>
       </c>
@@ -3644,22 +4072,22 @@
       <c r="C14" s="11">
         <v>3</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="104" t="s">
         <v>157</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="54">
         <v>0.05</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="54">
         <v>0.15</v>
       </c>
-      <c r="I14" s="80" t="b">
+      <c r="I14" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -3668,41 +4096,45 @@
       <c r="K14" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="M14" s="91" t="s">
+      <c r="L14" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N14" s="73">
+      <c r="O14" s="54">
         <v>3</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="P14" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="73" t="s">
+      <c r="R14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R14" s="92">
+      <c r="S14" s="73">
         <v>0.05</v>
       </c>
-      <c r="S14" s="92">
+      <c r="T14" s="73">
         <v>0.15</v>
       </c>
-      <c r="T14" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V14" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>132</v>
       </c>
@@ -3712,22 +4144,22 @@
       <c r="C15" s="11">
         <v>3</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="107" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="54">
         <v>0.05</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="54">
         <v>0.1</v>
       </c>
-      <c r="I15" s="80" t="b">
+      <c r="I15" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -3736,41 +4168,45 @@
       <c r="K15" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="M15" s="91" t="s">
+      <c r="L15" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N15" s="73">
+      <c r="O15" s="54">
         <v>3</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="P15" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="73" t="s">
+      <c r="R15" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="92">
+      <c r="S15" s="73">
         <v>0.05</v>
       </c>
-      <c r="S15" s="92">
+      <c r="T15" s="73">
         <v>0.15</v>
       </c>
-      <c r="T15" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -3780,22 +4216,22 @@
       <c r="C16" s="11">
         <v>3</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="62" t="s">
         <v>147</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="54">
         <v>4</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="54">
         <v>10</v>
       </c>
-      <c r="I16" s="80" t="b">
+      <c r="I16" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -3804,41 +4240,45 @@
       <c r="K16" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N16" s="73">
+      <c r="O16" s="54">
         <v>3</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="P16" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="73" t="s">
+      <c r="R16" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="R16" s="92">
+      <c r="S16" s="73">
         <v>0.05</v>
       </c>
-      <c r="S16" s="92">
+      <c r="T16" s="73">
         <v>0.1</v>
       </c>
-      <c r="T16" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>132</v>
       </c>
@@ -3848,22 +4288,22 @@
       <c r="C17" s="11">
         <v>3</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="64" t="s">
         <v>148</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="54">
         <v>0.2</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="54">
         <v>0.3</v>
       </c>
-      <c r="I17" s="80" t="b">
+      <c r="I17" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -3872,41 +4312,45 @@
       <c r="K17" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M17" s="91" t="s">
+      <c r="M17" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N17" s="73">
+      <c r="O17" s="54">
         <v>3</v>
       </c>
-      <c r="O17" s="82" t="s">
+      <c r="P17" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="Q17" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="Q17" s="73" t="s">
+      <c r="R17" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R17" s="93">
+      <c r="S17" s="74">
         <v>6</v>
       </c>
-      <c r="S17" s="93">
+      <c r="T17" s="74">
         <v>12</v>
       </c>
-      <c r="T17" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="W17" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>132</v>
       </c>
@@ -3916,22 +4360,22 @@
       <c r="C18" s="11">
         <v>3</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="75" t="s">
         <v>159</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="54">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="54">
         <v>0.65</v>
       </c>
-      <c r="I18" s="80" t="b">
+      <c r="I18" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
@@ -3940,41 +4384,45 @@
       <c r="K18" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L18" s="74" t="s">
+      <c r="L18" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M18" s="91" t="s">
+      <c r="M18" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="73">
+      <c r="O18" s="54">
         <v>3</v>
       </c>
-      <c r="O18" s="76" t="s">
+      <c r="P18" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="P18" s="76" t="s">
+      <c r="Q18" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="Q18" s="73" t="s">
+      <c r="R18" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R18" s="93">
+      <c r="S18" s="74">
         <v>0.25</v>
       </c>
-      <c r="S18" s="93">
+      <c r="T18" s="74">
         <v>0.35</v>
       </c>
-      <c r="T18" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="84" t="s">
+      <c r="U18" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="V18" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>132</v>
       </c>
@@ -3990,16 +4438,16 @@
       <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="54">
         <v>0.3</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="54">
         <v>0.4</v>
       </c>
-      <c r="I19" s="80" t="b">
+      <c r="I19" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="11" t="s">
@@ -4008,14 +4456,18 @@
       <c r="K19" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="L19" s="74" t="s">
+      <c r="L19" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="V19" s="95" t="s">
+      <c r="M19" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>132</v>
       </c>
@@ -4031,13 +4483,13 @@
       <c r="E20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="73">
-        <v>0</v>
-      </c>
-      <c r="H20" s="73">
+      <c r="G20" s="54">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54">
         <v>2</v>
       </c>
-      <c r="I20" s="80" t="b">
+      <c r="I20" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -4046,61 +4498,69 @@
       <c r="K20" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="O20" s="96" t="s">
+      <c r="M20" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="V20" s="95" t="s">
+      <c r="W20" s="76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="85" t="s">
+    <row r="21" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="66">
         <v>3</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F21" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="68">
         <v>0.2</v>
       </c>
-      <c r="H21" s="87">
+      <c r="H21" s="68">
         <v>0.3</v>
       </c>
-      <c r="I21" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="85" t="s">
+      <c r="I21" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="85" t="s">
+      <c r="K21" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="V21" s="90" t="s">
+      <c r="M21" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="W21" s="71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>132</v>
       </c>
@@ -4116,16 +4576,16 @@
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="73">
+      <c r="G22" s="54">
         <v>15</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="54">
         <v>25</v>
       </c>
-      <c r="I22" s="80" t="b">
+      <c r="I22" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="11" t="s">
@@ -4134,41 +4594,45 @@
       <c r="K22" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M22" s="73" t="s">
+      <c r="M22" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N22" s="73">
+      <c r="O22" s="54">
         <v>4</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="P22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="Q22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="73" t="s">
+      <c r="R22" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R22" s="73">
+      <c r="S22" s="54">
         <v>15</v>
       </c>
-      <c r="S22" s="73">
+      <c r="T22" s="54">
         <v>25</v>
       </c>
-      <c r="T22" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>0</v>
+      <c r="U22" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>132</v>
       </c>
@@ -4184,16 +4648,16 @@
       <c r="E23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="54">
         <v>0.05</v>
       </c>
-      <c r="H23" s="73">
+      <c r="H23" s="54">
         <v>0.15</v>
       </c>
-      <c r="I23" s="80" t="b">
+      <c r="I23" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="11" t="s">
@@ -4202,41 +4666,45 @@
       <c r="K23" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L23" s="74" t="s">
+      <c r="L23" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M23" s="73" t="s">
+      <c r="M23" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N23" s="73">
+      <c r="O23" s="54">
         <v>4</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="P23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="Q23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="73" t="s">
+      <c r="R23" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R23" s="73">
+      <c r="S23" s="54">
         <v>0.05</v>
       </c>
-      <c r="S23" s="73">
+      <c r="T23" s="54">
         <v>0.15</v>
       </c>
-      <c r="T23" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" s="11" t="s">
+      <c r="U23" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>132</v>
       </c>
@@ -4252,16 +4720,16 @@
       <c r="E24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="54">
         <v>0.15</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="54">
         <v>0.25</v>
       </c>
-      <c r="I24" s="80" t="b">
+      <c r="I24" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="11" t="s">
@@ -4270,41 +4738,45 @@
       <c r="K24" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L24" s="74" t="s">
+      <c r="L24" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M24" s="73" t="s">
+      <c r="M24" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N24" s="73">
+      <c r="O24" s="54">
         <v>4</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="Q24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="73" t="s">
+      <c r="R24" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R24" s="73">
+      <c r="S24" s="54">
         <v>0.15</v>
       </c>
-      <c r="S24" s="73">
+      <c r="T24" s="54">
         <v>0.25</v>
       </c>
-      <c r="T24" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>132</v>
       </c>
@@ -4320,16 +4792,16 @@
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="54">
         <v>0.2</v>
       </c>
-      <c r="H25" s="73">
+      <c r="H25" s="54">
         <v>0.3</v>
       </c>
-      <c r="I25" s="80" t="b">
+      <c r="I25" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
@@ -4338,41 +4810,45 @@
       <c r="K25" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L25" s="74" t="s">
+      <c r="L25" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M25" s="73" t="s">
+      <c r="M25" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N25" s="73">
+      <c r="O25" s="54">
         <v>4</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="P25" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="Q25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="73" t="s">
+      <c r="R25" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R25" s="73">
+      <c r="S25" s="54">
         <v>0.2</v>
       </c>
-      <c r="S25" s="73">
+      <c r="T25" s="54">
         <v>0.3</v>
       </c>
-      <c r="T25" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U25" s="11" t="s">
+      <c r="U25" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V25" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>132</v>
       </c>
@@ -4382,22 +4858,22 @@
       <c r="C26" s="11">
         <v>4</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="62" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="73">
-        <v>0</v>
-      </c>
-      <c r="H26" s="73">
+      <c r="G26" s="54">
+        <v>0</v>
+      </c>
+      <c r="H26" s="54">
         <v>3</v>
       </c>
-      <c r="I26" s="80" t="b">
+      <c r="I26" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="11" t="s">
@@ -4406,41 +4882,45 @@
       <c r="K26" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L26" s="74" t="s">
+      <c r="L26" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="M26" s="73" t="s">
+      <c r="M26" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N26" s="73">
+      <c r="O26" s="54">
         <v>4</v>
       </c>
-      <c r="O26" s="82" t="s">
+      <c r="P26" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="Q26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="73" t="s">
+      <c r="R26" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R26" s="73">
-        <v>0</v>
-      </c>
-      <c r="S26" s="73">
+      <c r="S26" s="54">
+        <v>0</v>
+      </c>
+      <c r="T26" s="54">
         <v>3</v>
       </c>
-      <c r="T26" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" s="11" t="s">
+      <c r="U26" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V26" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="W26" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>132</v>
       </c>
@@ -4450,22 +4930,22 @@
       <c r="C27" s="11">
         <v>4</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="64" t="s">
         <v>149</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="54">
         <v>0.25</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="54">
         <v>0.35000000000000003</v>
       </c>
-      <c r="I27" s="80" t="b">
+      <c r="I27" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
@@ -4474,41 +4954,45 @@
       <c r="K27" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M27" s="73" t="s">
+      <c r="M27" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="73">
+      <c r="O27" s="54">
         <v>4</v>
       </c>
-      <c r="O27" s="77" t="s">
+      <c r="P27" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="Q27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="Q27" s="73" t="s">
+      <c r="R27" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R27" s="73">
+      <c r="S27" s="54">
         <v>0.25</v>
       </c>
-      <c r="S27" s="73">
+      <c r="T27" s="54">
         <v>0.35000000000000003</v>
       </c>
-      <c r="T27" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U27" s="97" t="s">
+      <c r="U27" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="V27" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="W27" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>132</v>
       </c>
@@ -4518,22 +5002,22 @@
       <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="64" t="s">
         <v>148</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G28" s="54">
         <v>0.45</v>
       </c>
-      <c r="H28" s="73">
+      <c r="H28" s="54">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I28" s="80" t="b">
+      <c r="I28" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
@@ -4542,85 +5026,93 @@
       <c r="K28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L28" s="74" t="s">
+      <c r="L28" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M28" s="73" t="s">
+      <c r="M28" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N28" s="73">
+      <c r="O28" s="54">
         <v>4</v>
       </c>
-      <c r="O28" s="77" t="s">
+      <c r="P28" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="73" t="s">
+      <c r="R28" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R28" s="73">
+      <c r="S28" s="54">
         <v>0.45</v>
       </c>
-      <c r="S28" s="73">
+      <c r="T28" s="54">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T28" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U28" s="84" t="s">
+      <c r="U28" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="V28" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="85" t="s">
+      <c r="W28" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="66">
         <v>4</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="87">
+      <c r="G29" s="68">
         <v>0.75</v>
       </c>
-      <c r="H29" s="87">
+      <c r="H29" s="68">
         <v>0.85</v>
       </c>
-      <c r="I29" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="85" t="s">
+      <c r="I29" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="89" t="s">
+      <c r="K29" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="O29" s="90" t="s">
+      <c r="M29" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="V29" s="85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>132</v>
       </c>
@@ -4636,16 +5128,16 @@
       <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="54">
         <v>8</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="54">
         <v>18</v>
       </c>
-      <c r="I30" s="80" t="b">
+      <c r="I30" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="11" t="s">
@@ -4654,41 +5146,45 @@
       <c r="K30" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L30" s="74" t="s">
+      <c r="L30" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M30" s="91" t="s">
+      <c r="M30" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N30" s="73">
+      <c r="O30" s="54">
         <v>5</v>
       </c>
-      <c r="O30" s="11" t="s">
+      <c r="P30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="Q30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q30" s="73" t="s">
+      <c r="R30" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R30" s="73">
+      <c r="S30" s="54">
         <v>8</v>
       </c>
-      <c r="S30" s="73">
+      <c r="T30" s="54">
         <v>18</v>
       </c>
-      <c r="T30" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>0</v>
+      <c r="U30" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>132</v>
       </c>
@@ -4704,16 +5200,16 @@
       <c r="E31" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="54">
         <v>390</v>
       </c>
-      <c r="H31" s="73">
+      <c r="H31" s="54">
         <v>410</v>
       </c>
-      <c r="I31" s="80" t="b">
+      <c r="I31" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="11" t="s">
@@ -4722,41 +5218,45 @@
       <c r="K31" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N31" s="73">
+      <c r="O31" s="54">
         <v>5</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="P31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="Q31" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="Q31" s="73" t="s">
+      <c r="R31" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R31" s="73">
+      <c r="S31" s="54">
         <v>390</v>
       </c>
-      <c r="S31" s="73">
+      <c r="T31" s="54">
         <v>410</v>
       </c>
-      <c r="T31" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U31" s="11" t="s">
+      <c r="U31" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V31" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>132</v>
       </c>
@@ -4772,16 +5272,16 @@
       <c r="E32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="73">
-        <v>0</v>
-      </c>
-      <c r="H32" s="73">
-        <v>1</v>
-      </c>
-      <c r="I32" s="80" t="b">
+      <c r="G32" s="54">
+        <v>0</v>
+      </c>
+      <c r="H32" s="54">
+        <v>1</v>
+      </c>
+      <c r="I32" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="11" t="s">
@@ -4790,41 +5290,45 @@
       <c r="K32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L32" s="74" t="s">
+      <c r="L32" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M32" s="91" t="s">
+      <c r="M32" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N32" s="73">
+      <c r="O32" s="54">
         <v>5</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="P32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="Q32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q32" s="73" t="s">
+      <c r="R32" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R32" s="73">
-        <v>0</v>
-      </c>
-      <c r="S32" s="73">
-        <v>1</v>
-      </c>
-      <c r="T32" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U32" s="11" t="s">
+      <c r="S32" s="54">
+        <v>0</v>
+      </c>
+      <c r="T32" s="54">
+        <v>1</v>
+      </c>
+      <c r="U32" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V32" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>132</v>
       </c>
@@ -4840,16 +5344,16 @@
       <c r="E33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="54">
         <v>0.3</v>
       </c>
-      <c r="H33" s="73">
+      <c r="H33" s="54">
         <v>0.4</v>
       </c>
-      <c r="I33" s="80" t="b">
+      <c r="I33" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="11" t="s">
@@ -4858,109 +5362,117 @@
       <c r="K33" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L33" s="74" t="s">
+      <c r="L33" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M33" s="91" t="s">
+      <c r="M33" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="73">
+      <c r="O33" s="54">
         <v>5</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="P33" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="Q33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="73" t="s">
+      <c r="R33" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R33" s="73">
+      <c r="S33" s="54">
         <v>0.3</v>
       </c>
-      <c r="S33" s="73">
+      <c r="T33" s="54">
         <v>0.4</v>
       </c>
-      <c r="T33" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U33" s="11" t="s">
+      <c r="U33" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" s="85" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="85" t="s">
+      <c r="W33" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="66" customFormat="1" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="85">
+      <c r="C34" s="66">
         <v>5</v>
       </c>
-      <c r="D34" s="98" t="s">
+      <c r="D34" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="87">
+      <c r="G34" s="68">
         <v>0.70000000000000007</v>
       </c>
-      <c r="H34" s="87">
+      <c r="H34" s="68">
         <v>0.8</v>
       </c>
-      <c r="I34" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="85" t="s">
+      <c r="I34" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="K34" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="L34" s="89" t="s">
+      <c r="K34" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="M34" s="99" t="s">
+      <c r="M34" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="N34" s="87">
+      <c r="O34" s="68">
         <v>5</v>
       </c>
-      <c r="O34" s="100" t="s">
+      <c r="P34" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="P34" s="85" t="s">
+      <c r="Q34" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" s="87" t="s">
+      <c r="R34" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="R34" s="87">
+      <c r="S34" s="68">
         <v>0.70000000000000007</v>
       </c>
-      <c r="S34" s="87">
+      <c r="T34" s="68">
         <v>0.8</v>
       </c>
-      <c r="T34" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="U34" s="101" t="s">
+      <c r="U34" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="V34" s="85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>132</v>
       </c>
@@ -4976,16 +5488,16 @@
       <c r="E35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="73">
+      <c r="G35" s="54">
         <v>25</v>
       </c>
-      <c r="H35" s="73">
+      <c r="H35" s="54">
         <v>35</v>
       </c>
-      <c r="I35" s="80" t="b">
+      <c r="I35" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="11" t="s">
@@ -4994,41 +5506,45 @@
       <c r="K35" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L35" s="74" t="s">
+      <c r="L35" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M35" s="91" t="s">
+      <c r="M35" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N35" s="73">
+      <c r="O35" s="54">
         <v>2</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="P35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="73" t="s">
+      <c r="Q35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R35" s="73">
+      <c r="S35" s="54">
         <v>25</v>
       </c>
-      <c r="S35" s="73">
+      <c r="T35" s="54">
         <v>35</v>
       </c>
-      <c r="T35" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>0</v>
+      <c r="U35" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>132</v>
       </c>
@@ -5044,16 +5560,16 @@
       <c r="E36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="54">
         <v>3</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="54">
         <v>8</v>
       </c>
-      <c r="I36" s="80" t="b">
+      <c r="I36" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="11" t="s">
@@ -5062,41 +5578,45 @@
       <c r="K36" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L36" s="74" t="s">
+      <c r="L36" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M36" s="91" t="s">
+      <c r="M36" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N36" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N36" s="73">
+      <c r="O36" s="54">
         <v>2</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="P36" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="Q36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q36" s="73" t="s">
+      <c r="R36" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R36" s="73">
+      <c r="S36" s="54">
         <v>3</v>
       </c>
-      <c r="S36" s="73">
+      <c r="T36" s="54">
         <v>8</v>
       </c>
-      <c r="T36" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V36" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>132</v>
       </c>
@@ -5109,16 +5629,16 @@
       <c r="D37" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="73" t="s">
+      <c r="F37" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="73">
+      <c r="G37" s="54">
         <v>0.35000000000000003</v>
       </c>
-      <c r="H37" s="73">
+      <c r="H37" s="54">
         <v>0.45</v>
       </c>
-      <c r="I37" s="80" t="b">
+      <c r="I37" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="11" t="s">
@@ -5127,41 +5647,45 @@
       <c r="K37" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L37" s="74" t="s">
+      <c r="L37" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M37" s="91" t="s">
+      <c r="M37" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N37" s="73">
+      <c r="O37" s="54">
         <v>2</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="P37" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="Q37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="73" t="s">
+      <c r="R37" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R37" s="73">
+      <c r="S37" s="54">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S37" s="73">
+      <c r="T37" s="54">
         <v>0.45</v>
       </c>
-      <c r="T37" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>132</v>
       </c>
@@ -5177,16 +5701,16 @@
       <c r="E38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="73" t="s">
+      <c r="F38" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="73">
+      <c r="G38" s="54">
         <v>0.15</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="54">
         <v>0.25</v>
       </c>
-      <c r="I38" s="80" t="b">
+      <c r="I38" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J38" s="11" t="s">
@@ -5195,41 +5719,45 @@
       <c r="K38" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L38" s="74" t="s">
+      <c r="L38" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M38" s="91" t="s">
+      <c r="M38" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N38" s="73">
+      <c r="O38" s="54">
         <v>2</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="P38" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="Q38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q38" s="73" t="s">
+      <c r="R38" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R38" s="73">
+      <c r="S38" s="54">
         <v>0.15</v>
       </c>
-      <c r="S38" s="73">
+      <c r="T38" s="54">
         <v>0.25</v>
       </c>
-      <c r="T38" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V38" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>132</v>
       </c>
@@ -5245,16 +5773,16 @@
       <c r="E39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="73" t="s">
+      <c r="F39" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="73">
+      <c r="G39" s="54">
         <v>0.03</v>
       </c>
-      <c r="H39" s="73">
+      <c r="H39" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I39" s="80" t="b">
+      <c r="I39" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="11" t="s">
@@ -5263,41 +5791,45 @@
       <c r="K39" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L39" s="74" t="s">
+      <c r="L39" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M39" s="91" t="s">
+      <c r="M39" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N39" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N39" s="73">
+      <c r="O39" s="54">
         <v>2</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="P39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="Q39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="73" t="s">
+      <c r="R39" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R39" s="73">
+      <c r="S39" s="54">
         <v>0.03</v>
       </c>
-      <c r="S39" s="73">
+      <c r="T39" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T39" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V39" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>132</v>
       </c>
@@ -5313,16 +5845,16 @@
       <c r="E40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="73">
+      <c r="G40" s="54">
         <v>0.03</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I40" s="80" t="b">
+      <c r="I40" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="11" t="s">
@@ -5331,41 +5863,45 @@
       <c r="K40" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L40" s="74" t="s">
+      <c r="L40" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M40" s="91" t="s">
+      <c r="M40" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N40" s="73">
+      <c r="O40" s="54">
         <v>2</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="P40" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="Q40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q40" s="73" t="s">
+      <c r="R40" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R40" s="73">
+      <c r="S40" s="54">
         <v>0.03</v>
       </c>
-      <c r="S40" s="73">
+      <c r="T40" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T40" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U40" s="11" t="s">
+      <c r="U40" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V40" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>132</v>
       </c>
@@ -5375,22 +5911,22 @@
       <c r="C41" s="11">
         <v>2</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="62" t="s">
         <v>147</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="73">
+      <c r="G41" s="54">
         <v>10</v>
       </c>
-      <c r="H41" s="73">
+      <c r="H41" s="54">
         <v>20</v>
       </c>
-      <c r="I41" s="80" t="b">
+      <c r="I41" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J41" s="11" t="s">
@@ -5399,41 +5935,45 @@
       <c r="K41" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L41" s="74" t="s">
+      <c r="L41" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="M41" s="91" t="s">
+      <c r="M41" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N41" s="73">
+      <c r="O41" s="54">
         <v>2</v>
       </c>
-      <c r="O41" s="82" t="s">
+      <c r="P41" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="Q41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q41" s="73" t="s">
+      <c r="R41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R41" s="73">
+      <c r="S41" s="54">
         <v>10</v>
       </c>
-      <c r="S41" s="73">
+      <c r="T41" s="54">
         <v>20</v>
       </c>
-      <c r="T41" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U41" s="11" t="s">
+      <c r="U41" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V41" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="W41" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>132</v>
       </c>
@@ -5443,22 +5983,22 @@
       <c r="C42" s="11">
         <v>2</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="64" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="54">
         <v>0.1</v>
       </c>
-      <c r="H42" s="73">
+      <c r="H42" s="54">
         <v>0.2</v>
       </c>
-      <c r="I42" s="80" t="b">
+      <c r="I42" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="11" t="s">
@@ -5467,82 +6007,90 @@
       <c r="K42" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L42" s="74" t="s">
+      <c r="L42" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M42" s="91" t="s">
+      <c r="M42" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N42" s="73">
+      <c r="O42" s="54">
         <v>2</v>
       </c>
-      <c r="O42" s="77" t="s">
+      <c r="P42" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="Q42" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="73" t="s">
+      <c r="R42" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R42" s="73">
+      <c r="S42" s="54">
         <v>0.1</v>
       </c>
-      <c r="S42" s="73">
+      <c r="T42" s="54">
         <v>0.2</v>
       </c>
-      <c r="U42" s="84" t="s">
+      <c r="V42" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="V42" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="85" t="s">
+      <c r="W42" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="85">
+      <c r="C43" s="66">
         <v>2</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="87">
+      <c r="G43" s="68">
         <v>0.5</v>
       </c>
-      <c r="H43" s="87">
+      <c r="H43" s="68">
         <v>0.6</v>
       </c>
-      <c r="I43" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="85" t="s">
+      <c r="I43" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="K43" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="L43" s="89" t="s">
+      <c r="K43" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="O43" s="90" t="s">
+      <c r="M43" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="V43" s="85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>132</v>
       </c>
@@ -5555,13 +6103,13 @@
       <c r="D44" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="73">
+      <c r="G44" s="54">
         <v>20</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="54">
         <v>30</v>
       </c>
-      <c r="I44" s="80" t="b">
+      <c r="I44" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="11" t="s">
@@ -5570,41 +6118,45 @@
       <c r="K44" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L44" s="74" t="s">
+      <c r="L44" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M44" s="91" t="s">
+      <c r="M44" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N44" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N44" s="73">
+      <c r="O44" s="54">
         <v>3</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="P44" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="Q44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q44" s="73" t="s">
+      <c r="R44" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R44" s="73">
+      <c r="S44" s="54">
         <v>20</v>
       </c>
-      <c r="S44" s="73">
+      <c r="T44" s="54">
         <v>30</v>
       </c>
-      <c r="T44" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U44" s="11" t="s">
-        <v>0</v>
+      <c r="U44" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>132</v>
       </c>
@@ -5614,16 +6166,16 @@
       <c r="C45" s="11">
         <v>3</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="73">
+      <c r="G45" s="54">
         <v>0.05</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="54">
         <v>0.15</v>
       </c>
-      <c r="I45" s="80" t="b">
+      <c r="I45" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -5632,41 +6184,45 @@
       <c r="K45" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L45" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="M45" s="91" t="s">
+      <c r="L45" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M45" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N45" s="73">
+      <c r="O45" s="54">
         <v>3</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="P45" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="Q45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="73" t="s">
+      <c r="R45" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R45" s="73">
+      <c r="S45" s="54">
         <v>0.2</v>
       </c>
-      <c r="S45" s="73">
+      <c r="T45" s="54">
         <v>0.3</v>
       </c>
-      <c r="T45" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U45" s="11" t="s">
+      <c r="U45" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V45" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>132</v>
       </c>
@@ -5676,16 +6232,16 @@
       <c r="C46" s="11">
         <v>3</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="73">
+      <c r="G46" s="54">
         <v>0.05</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="54">
         <v>0.15</v>
       </c>
-      <c r="I46" s="80" t="b">
+      <c r="I46" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J46" s="11" t="s">
@@ -5694,41 +6250,45 @@
       <c r="K46" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L46" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="M46" s="91" t="s">
+      <c r="L46" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M46" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N46" s="73">
+      <c r="O46" s="54">
         <v>3</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="P46" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="Q46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q46" s="73" t="s">
+      <c r="R46" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R46" s="73">
+      <c r="S46" s="54">
         <v>0.05</v>
       </c>
-      <c r="S46" s="73">
+      <c r="T46" s="54">
         <v>0.15</v>
       </c>
-      <c r="T46" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U46" s="11" t="s">
+      <c r="U46" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V46" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>132</v>
       </c>
@@ -5738,16 +6298,16 @@
       <c r="C47" s="11">
         <v>3</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="G47" s="73">
+      <c r="G47" s="54">
         <v>0.05</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="54">
         <v>0.1</v>
       </c>
-      <c r="I47" s="80" t="b">
+      <c r="I47" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J47" s="11" t="s">
@@ -5756,41 +6316,45 @@
       <c r="K47" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L47" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="M47" s="91" t="s">
+      <c r="L47" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M47" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N47" s="73">
+      <c r="O47" s="54">
         <v>3</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="P47" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="Q47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="73" t="s">
+      <c r="R47" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R47" s="73">
+      <c r="S47" s="54">
         <v>0.05</v>
       </c>
-      <c r="S47" s="73">
+      <c r="T47" s="54">
         <v>0.15</v>
       </c>
-      <c r="T47" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U47" s="11" t="s">
+      <c r="U47" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>132</v>
       </c>
@@ -5800,16 +6364,16 @@
       <c r="C48" s="11">
         <v>3</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="73">
+      <c r="G48" s="54">
         <v>4</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="54">
         <v>10</v>
       </c>
-      <c r="I48" s="80" t="b">
+      <c r="I48" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J48" s="11" t="s">
@@ -5818,41 +6382,45 @@
       <c r="K48" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L48" s="74" t="s">
+      <c r="L48" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M48" s="91" t="s">
+      <c r="M48" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N48" s="73">
+      <c r="O48" s="54">
         <v>3</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="P48" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="Q48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q48" s="73" t="s">
+      <c r="R48" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="R48" s="73">
+      <c r="S48" s="54">
         <v>0.05</v>
       </c>
-      <c r="S48" s="73">
+      <c r="T48" s="54">
         <v>0.1</v>
       </c>
-      <c r="T48" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U48" s="11" t="s">
+      <c r="U48" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V48" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>132</v>
       </c>
@@ -5862,22 +6430,22 @@
       <c r="C49" s="11">
         <v>3</v>
       </c>
-      <c r="D49" s="83" t="s">
+      <c r="D49" s="64" t="s">
         <v>148</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="73" t="s">
+      <c r="F49" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="73">
+      <c r="G49" s="54">
         <v>0.15</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H49" s="54">
         <v>0.25</v>
       </c>
-      <c r="I49" s="80" t="b">
+      <c r="I49" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -5886,41 +6454,45 @@
       <c r="K49" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L49" s="74" t="s">
+      <c r="L49" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M49" s="91" t="s">
+      <c r="M49" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N49" s="73">
+      <c r="O49" s="54">
         <v>3</v>
       </c>
-      <c r="O49" s="82" t="s">
+      <c r="P49" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="Q49" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="Q49" s="73" t="s">
+      <c r="R49" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R49" s="73">
+      <c r="S49" s="54">
         <v>6</v>
       </c>
-      <c r="S49" s="73">
+      <c r="T49" s="54">
         <v>12</v>
       </c>
-      <c r="T49" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U49" s="11" t="s">
+      <c r="U49" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V49" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="W49" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>132</v>
       </c>
@@ -5930,16 +6502,16 @@
       <c r="C50" s="11">
         <v>3</v>
       </c>
-      <c r="D50" s="94" t="s">
+      <c r="D50" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="73">
+      <c r="G50" s="54">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="54">
         <v>0.65</v>
       </c>
-      <c r="I50" s="80" t="b">
+      <c r="I50" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="11" t="s">
@@ -5948,41 +6520,45 @@
       <c r="K50" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L50" s="74" t="s">
+      <c r="L50" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M50" s="91" t="s">
+      <c r="M50" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N50" s="73">
+      <c r="O50" s="54">
         <v>3</v>
       </c>
-      <c r="O50" s="77" t="s">
+      <c r="P50" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="P50" s="77" t="s">
+      <c r="Q50" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="Q50" s="73" t="s">
+      <c r="R50" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R50" s="76">
+      <c r="S50" s="57">
         <v>0.25</v>
       </c>
-      <c r="S50" s="76">
+      <c r="T50" s="57">
         <v>0.35000000000000003</v>
       </c>
-      <c r="T50" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U50" s="84" t="s">
+      <c r="U50" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="V50" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>132</v>
       </c>
@@ -5998,16 +6574,16 @@
       <c r="E51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="73" t="s">
+      <c r="F51" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="73">
+      <c r="G51" s="54">
         <v>0.3</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="54">
         <v>0.4</v>
       </c>
-      <c r="I51" s="80" t="b">
+      <c r="I51" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J51" s="11" t="s">
@@ -6016,14 +6592,18 @@
       <c r="K51" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="L51" s="74" t="s">
+      <c r="L51" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="V51" s="95" t="s">
+      <c r="M51" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>132</v>
       </c>
@@ -6039,16 +6619,16 @@
       <c r="E52" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F52" s="73" t="s">
+      <c r="F52" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G52" s="73">
+      <c r="G52" s="54">
         <v>2</v>
       </c>
-      <c r="H52" s="73">
+      <c r="H52" s="54">
         <v>5</v>
       </c>
-      <c r="I52" s="80" t="b">
+      <c r="I52" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J52" s="11" t="s">
@@ -6057,61 +6637,69 @@
       <c r="K52" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L52" s="74" t="s">
+      <c r="L52" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="O52" s="96" t="s">
+      <c r="M52" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="V52" s="95" t="s">
+      <c r="W52" s="76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="85" t="s">
+    <row r="53" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="85">
+      <c r="C53" s="66">
         <v>3</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="E53" s="85" t="s">
+      <c r="E53" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="87" t="s">
+      <c r="F53" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="87">
+      <c r="G53" s="68">
         <v>0.2</v>
       </c>
-      <c r="H53" s="87">
+      <c r="H53" s="68">
         <v>0.3</v>
       </c>
-      <c r="I53" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53" s="85" t="s">
+      <c r="I53" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="L53" s="74" t="s">
+      <c r="L53" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="87"/>
-      <c r="S53" s="87"/>
-      <c r="T53" s="87"/>
-      <c r="V53" s="90" t="s">
+      <c r="M53" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="W53" s="71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>132</v>
       </c>
@@ -6124,13 +6712,13 @@
       <c r="D54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="54">
         <v>15</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="54">
         <v>25</v>
       </c>
-      <c r="I54" s="102" t="b">
+      <c r="I54" s="83" t="b">
         <v>1</v>
       </c>
       <c r="J54" s="11" t="s">
@@ -6139,41 +6727,45 @@
       <c r="K54" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L54" s="74" t="s">
+      <c r="L54" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M54" s="73" t="s">
+      <c r="M54" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N54" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N54" s="73">
+      <c r="O54" s="54">
         <v>4</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="P54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="Q54" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q54" s="73" t="s">
+      <c r="R54" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R54" s="73">
+      <c r="S54" s="54">
         <v>15</v>
       </c>
-      <c r="S54" s="73">
+      <c r="T54" s="54">
         <v>25</v>
       </c>
-      <c r="T54" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U54" s="11" t="s">
-        <v>0</v>
+      <c r="U54" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>132</v>
       </c>
@@ -6186,13 +6778,13 @@
       <c r="D55" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="73">
+      <c r="G55" s="54">
         <v>0.05</v>
       </c>
-      <c r="H55" s="73">
+      <c r="H55" s="54">
         <v>0.15</v>
       </c>
-      <c r="I55" s="102" t="b">
+      <c r="I55" s="83" t="b">
         <v>1</v>
       </c>
       <c r="J55" s="11" t="s">
@@ -6201,41 +6793,45 @@
       <c r="K55" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L55" s="74" t="s">
+      <c r="L55" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M55" s="73" t="s">
+      <c r="M55" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N55" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N55" s="73">
+      <c r="O55" s="54">
         <v>4</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="P55" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="Q55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q55" s="73" t="s">
+      <c r="R55" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R55" s="73">
+      <c r="S55" s="54">
         <v>0.05</v>
       </c>
-      <c r="S55" s="73">
+      <c r="T55" s="54">
         <v>0.15</v>
       </c>
-      <c r="T55" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U55" s="11" t="s">
+      <c r="U55" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V55" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>132</v>
       </c>
@@ -6251,16 +6847,16 @@
       <c r="E56" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="73" t="s">
+      <c r="F56" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="73">
+      <c r="G56" s="54">
         <v>0.1</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="54">
         <v>0.2</v>
       </c>
-      <c r="I56" s="80" t="b">
+      <c r="I56" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J56" s="11" t="s">
@@ -6269,41 +6865,45 @@
       <c r="K56" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L56" s="74" t="s">
+      <c r="L56" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M56" s="73" t="s">
+      <c r="M56" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N56" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N56" s="73">
+      <c r="O56" s="54">
         <v>4</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="P56" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="Q56" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="73" t="s">
+      <c r="R56" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R56" s="73">
+      <c r="S56" s="54">
         <v>0.1</v>
       </c>
-      <c r="S56" s="73">
+      <c r="T56" s="54">
         <v>0.2</v>
       </c>
-      <c r="T56" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U56" s="11" t="s">
+      <c r="U56" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V56" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>132</v>
       </c>
@@ -6319,16 +6919,16 @@
       <c r="E57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="73" t="s">
+      <c r="F57" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G57" s="73">
+      <c r="G57" s="54">
         <v>0.15</v>
       </c>
-      <c r="H57" s="73">
+      <c r="H57" s="54">
         <v>0.25</v>
       </c>
-      <c r="I57" s="80" t="b">
+      <c r="I57" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J57" s="11" t="s">
@@ -6337,41 +6937,45 @@
       <c r="K57" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L57" s="74" t="s">
+      <c r="L57" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M57" s="73" t="s">
+      <c r="M57" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N57" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N57" s="73">
+      <c r="O57" s="54">
         <v>4</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="P57" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="Q57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q57" s="73" t="s">
+      <c r="R57" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R57" s="73">
+      <c r="S57" s="54">
         <v>0.15</v>
       </c>
-      <c r="S57" s="73">
+      <c r="T57" s="54">
         <v>0.25</v>
       </c>
-      <c r="T57" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U57" s="11" t="s">
+      <c r="U57" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V57" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>132</v>
       </c>
@@ -6381,16 +6985,16 @@
       <c r="C58" s="11">
         <v>4</v>
       </c>
-      <c r="D58" s="81" t="s">
+      <c r="D58" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="73">
-        <v>0</v>
-      </c>
-      <c r="H58" s="73">
+      <c r="G58" s="54">
+        <v>0</v>
+      </c>
+      <c r="H58" s="54">
         <v>3</v>
       </c>
-      <c r="I58" s="102" t="b">
+      <c r="I58" s="83" t="b">
         <v>1</v>
       </c>
       <c r="J58" s="11" t="s">
@@ -6399,41 +7003,45 @@
       <c r="K58" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L58" s="74" t="s">
+      <c r="L58" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="M58" s="73" t="s">
+      <c r="M58" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N58" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N58" s="73">
+      <c r="O58" s="54">
         <v>4</v>
       </c>
-      <c r="O58" s="82" t="s">
+      <c r="P58" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="Q58" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q58" s="73" t="s">
+      <c r="R58" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R58" s="73">
-        <v>0</v>
-      </c>
-      <c r="S58" s="73">
+      <c r="S58" s="54">
+        <v>0</v>
+      </c>
+      <c r="T58" s="54">
         <v>3</v>
       </c>
-      <c r="T58" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U58" s="11" t="s">
+      <c r="U58" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V58" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="W58" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>132</v>
       </c>
@@ -6443,16 +7051,16 @@
       <c r="C59" s="11">
         <v>4</v>
       </c>
-      <c r="D59" s="83" t="s">
+      <c r="D59" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="G59" s="73">
+      <c r="G59" s="54">
         <v>0.25</v>
       </c>
-      <c r="H59" s="73">
+      <c r="H59" s="54">
         <v>0.35000000000000003</v>
       </c>
-      <c r="I59" s="80" t="b">
+      <c r="I59" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J59" s="11" t="s">
@@ -6461,41 +7069,45 @@
       <c r="K59" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L59" s="74" t="s">
+      <c r="L59" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M59" s="73" t="s">
+      <c r="M59" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N59" s="73">
+      <c r="O59" s="54">
         <v>4</v>
       </c>
-      <c r="O59" s="77" t="s">
+      <c r="P59" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="Q59" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="Q59" s="73" t="s">
+      <c r="R59" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R59" s="73">
+      <c r="S59" s="54">
         <v>0.25</v>
       </c>
-      <c r="S59" s="73">
+      <c r="T59" s="54">
         <v>0.35000000000000003</v>
       </c>
-      <c r="T59" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U59" s="97" t="s">
+      <c r="U59" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="V59" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="W59" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>132</v>
       </c>
@@ -6505,22 +7117,22 @@
       <c r="C60" s="11">
         <v>4</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="64" t="s">
         <v>148</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G60" s="73">
+      <c r="G60" s="54">
         <v>0.3</v>
       </c>
-      <c r="H60" s="73">
+      <c r="H60" s="54">
         <v>0.4</v>
       </c>
-      <c r="I60" s="80" t="b">
+      <c r="I60" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="11" t="s">
@@ -6529,77 +7141,85 @@
       <c r="K60" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L60" s="74" t="s">
+      <c r="L60" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M60" s="73" t="s">
+      <c r="M60" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N60" s="73">
+      <c r="O60" s="54">
         <v>4</v>
       </c>
-      <c r="O60" s="77" t="s">
+      <c r="P60" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="Q60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q60" s="73" t="s">
+      <c r="R60" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R60" s="73">
+      <c r="S60" s="54">
         <v>0.3</v>
       </c>
-      <c r="S60" s="73">
+      <c r="T60" s="54">
         <v>0.4</v>
       </c>
-      <c r="T60" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U60" s="84" t="s">
+      <c r="U60" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="V60" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="85" t="s">
+      <c r="W60" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C61" s="66">
         <v>4</v>
       </c>
-      <c r="D61" s="86" t="s">
+      <c r="D61" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87">
+      <c r="F61" s="68"/>
+      <c r="G61" s="68">
         <v>0.75</v>
       </c>
-      <c r="H61" s="87">
+      <c r="H61" s="68">
         <v>0.85</v>
       </c>
-      <c r="I61" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="85" t="s">
+      <c r="I61" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="K61" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="L61" s="89" t="s">
+      <c r="K61" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L61" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="O61" s="90" t="s">
+      <c r="M61" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="71" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>132</v>
       </c>
@@ -6615,16 +7235,16 @@
       <c r="E62" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="73" t="s">
+      <c r="F62" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="73">
+      <c r="G62" s="54">
         <v>8</v>
       </c>
-      <c r="H62" s="73">
+      <c r="H62" s="54">
         <v>18</v>
       </c>
-      <c r="I62" s="80" t="b">
+      <c r="I62" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J62" s="11" t="s">
@@ -6633,41 +7253,45 @@
       <c r="K62" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L62" s="74" t="s">
+      <c r="L62" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M62" s="91" t="s">
+      <c r="M62" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N62" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N62" s="73">
+      <c r="O62" s="54">
         <v>5</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="P62" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="Q62" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q62" s="73" t="s">
+      <c r="R62" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R62" s="73">
+      <c r="S62" s="54">
         <v>8</v>
       </c>
-      <c r="S62" s="73">
+      <c r="T62" s="54">
         <v>18</v>
       </c>
-      <c r="T62" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U62" s="11" t="s">
-        <v>0</v>
+      <c r="U62" s="61" t="b">
+        <v>1</v>
       </c>
       <c r="V62" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W62" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>132</v>
       </c>
@@ -6683,16 +7307,16 @@
       <c r="E63" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F63" s="73" t="s">
+      <c r="F63" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G63" s="73">
+      <c r="G63" s="54">
         <v>390</v>
       </c>
-      <c r="H63" s="73">
+      <c r="H63" s="54">
         <v>410</v>
       </c>
-      <c r="I63" s="80" t="b">
+      <c r="I63" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J63" s="11" t="s">
@@ -6701,41 +7325,45 @@
       <c r="K63" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L63" s="74" t="s">
+      <c r="L63" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M63" s="91" t="s">
+      <c r="M63" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N63" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N63" s="73">
+      <c r="O63" s="54">
         <v>5</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="P63" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="Q63" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="Q63" s="73" t="s">
+      <c r="R63" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="R63" s="73">
+      <c r="S63" s="54">
         <v>390</v>
       </c>
-      <c r="S63" s="73">
+      <c r="T63" s="54">
         <v>410</v>
       </c>
-      <c r="T63" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U63" s="11" t="s">
+      <c r="U63" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V63" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>132</v>
       </c>
@@ -6751,16 +7379,16 @@
       <c r="E64" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="73" t="s">
+      <c r="F64" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G64" s="73">
-        <v>0</v>
-      </c>
-      <c r="H64" s="73">
-        <v>1</v>
-      </c>
-      <c r="I64" s="80" t="b">
+      <c r="G64" s="54">
+        <v>0</v>
+      </c>
+      <c r="H64" s="54">
+        <v>1</v>
+      </c>
+      <c r="I64" s="61" t="b">
         <v>1</v>
       </c>
       <c r="J64" s="11" t="s">
@@ -6769,41 +7397,45 @@
       <c r="K64" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L64" s="74" t="s">
+      <c r="L64" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M64" s="91" t="s">
+      <c r="M64" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N64" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N64" s="73">
+      <c r="O64" s="54">
         <v>5</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="P64" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="Q64" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q64" s="73" t="s">
+      <c r="R64" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="R64" s="73">
-        <v>0</v>
-      </c>
-      <c r="S64" s="73">
-        <v>1</v>
-      </c>
-      <c r="T64" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="U64" s="11" t="s">
+      <c r="S64" s="54">
+        <v>0</v>
+      </c>
+      <c r="T64" s="54">
+        <v>1</v>
+      </c>
+      <c r="U64" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V64" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V64" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>132</v>
       </c>
@@ -6813,22 +7445,22 @@
       <c r="C65" s="11">
         <v>5</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="109" t="s">
         <v>157</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="73" t="s">
+      <c r="F65" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="73">
+      <c r="G65" s="54">
         <v>0.3</v>
       </c>
-      <c r="H65" s="73">
+      <c r="H65" s="54">
         <v>0.4</v>
       </c>
-      <c r="I65" s="80" t="b">
+      <c r="I65" s="61" t="b">
         <v>0</v>
       </c>
       <c r="J65" s="11" t="s">
@@ -6837,266 +7469,295 @@
       <c r="K65" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L65" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="M65" s="91" t="s">
+      <c r="L65" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="M65" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N65" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="N65" s="73">
+      <c r="O65" s="54">
         <v>5</v>
       </c>
-      <c r="O65" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q65" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q65" s="73" t="s">
+      <c r="R65" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R65" s="73">
+      <c r="S65" s="54">
         <v>0.3</v>
       </c>
-      <c r="S65" s="73">
+      <c r="T65" s="54">
         <v>0.4</v>
       </c>
-      <c r="T65" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="U65" s="11" t="s">
+      <c r="U65" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V65" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" s="85" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="85" t="s">
+      <c r="W65" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="66" customFormat="1" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="85">
+      <c r="C66" s="66">
         <v>5</v>
       </c>
-      <c r="D66" s="98" t="s">
+      <c r="D66" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="85" t="s">
+      <c r="E66" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G66" s="87">
+      <c r="G66" s="68">
         <v>0.70000000000000007</v>
       </c>
-      <c r="H66" s="87">
+      <c r="H66" s="68">
         <v>0.8</v>
       </c>
-      <c r="I66" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="85" t="s">
+      <c r="I66" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="K66" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="L66" s="89" t="s">
+      <c r="K66" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="M66" s="99" t="s">
+      <c r="M66" s="61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="N66" s="87">
+      <c r="O66" s="68">
         <v>5</v>
       </c>
-      <c r="O66" s="100" t="s">
+      <c r="P66" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="P66" s="85" t="s">
+      <c r="Q66" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="Q66" s="87" t="s">
+      <c r="R66" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="R66" s="87">
+      <c r="S66" s="68">
         <v>0.70000000000000007</v>
       </c>
-      <c r="S66" s="87">
+      <c r="T66" s="68">
         <v>0.8</v>
       </c>
-      <c r="T66" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="U66" s="101" t="s">
+      <c r="U66" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="V66" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="V66" s="85" t="s">
+      <c r="W66" s="66" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V66"/>
+  <autoFilter ref="A2:W66">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hi"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="no change"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="I3:I34 I53:I66 I44:I51">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I43">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T9">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+  <conditionalFormatting sqref="U3:U9">
+    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+  <conditionalFormatting sqref="U10">
+    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T14">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+  <conditionalFormatting sqref="U12:U14">
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15:T16">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+  <conditionalFormatting sqref="U15:U16">
+    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+  <conditionalFormatting sqref="U17">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+  <conditionalFormatting sqref="U18">
+    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22:T28">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+  <conditionalFormatting sqref="U22:U28">
+    <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30:T32">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+  <conditionalFormatting sqref="U30:U32">
+    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T33">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+  <conditionalFormatting sqref="U33">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="U34">
+    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T35:T38">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+  <conditionalFormatting sqref="U35:U38">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T39">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="U39">
+    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="U40">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T41">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+  <conditionalFormatting sqref="U41">
+    <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44:T46">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="U44:U46">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T47">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="U47">
+    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="U48">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T49">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="U49">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="U50">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T54:T55">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <conditionalFormatting sqref="U54:U55">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="U56">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T57">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="U57">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="U60">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T59">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="U59">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="U58">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T62:T64">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="U62:U64">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T65">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="U65">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T66">
+  <conditionalFormatting sqref="U66">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M66">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -7115,7 +7776,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7596,25 +8257,25 @@
         <v>3</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I14" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="K14" t="s">
         <v>151</v>
@@ -8541,25 +9202,25 @@
         <v>3</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G41">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H41">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I41" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="K41" t="s">
         <v>151</v>
@@ -9058,12 +9719,12 @@
   </sheetData>
   <autoFilter ref="A1:K55"/>
   <conditionalFormatting sqref="I2:I28 I37:I55">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\R\R-3.4.4\library\BCGcalc\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B623E01-2906-4D85-9FAD-6CA31ED76033}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="abbrev_v1" sheetId="3" r:id="rId1"/>
-    <sheet name="v2_edits" sheetId="6" r:id="rId2"/>
-    <sheet name="BCG_PacNW_2018" sheetId="4" r:id="rId3"/>
+    <sheet name="NOTES" sheetId="8" r:id="rId1"/>
+    <sheet name="abbrev_v1" sheetId="3" r:id="rId2"/>
+    <sheet name="v2_edits" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="BCG_PacNW_v1_500ct" sheetId="4" r:id="rId4"/>
+    <sheet name="BCG_PacNW_v1_300ct" sheetId="7" r:id="rId5"/>
+    <sheet name="MetricMetadata" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BCG_PacNW_2018!$A$1:$K$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">v2_edits!$A$2:$W$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">abbrev_v1!$A$1:$E$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BCG_PacNW_v1_300ct!$A$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BCG_PacNW_v1_500ct!$A$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MetricMetadata!$A$5:$F$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">v2_edits!$A$2:$W$66</definedName>
+    <definedName name="FileName" localSheetId="5">#REF!</definedName>
+    <definedName name="FileName">NOTES!$B$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">abbrev_v1!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +39,136 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Erik W. Leppo</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F211A308-FBD5-4BA7-8258-65B51BE54CAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Erik W. Leppo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is a formula and changes automatically.  This is needed for the hyperlinks below.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Leppo, Erik</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E1977202-9C76-4275-8C1D-AA39BF0E3657}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Does the metric increase with an increase in perturbation?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{BAD98A2D-1552-4AEB-ABC0-ABC06D79ED95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rule0 = base rule
+Rule1 = alternate 1
+Rule2 = alternate 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Stamp, Jen</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1F574BC8-6F05-4545-9B3B-051731947D3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stamp, Jen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+field in the input file that the R code references when calculating the metric</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="606">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -777,12 +914,1269 @@
   <si>
     <t>change Final name</t>
   </si>
+  <si>
+    <t>≥ 29 (24-34)</t>
+  </si>
+  <si>
+    <t>≥ 3 (1-5)</t>
+  </si>
+  <si>
+    <t>≥ 12 (7-17)</t>
+  </si>
+  <si>
+    <t>≥ 18 (13-23)</t>
+  </si>
+  <si>
+    <t>≥ 5 (3-7)</t>
+  </si>
+  <si>
+    <t>≥ 16 (11-21)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 (0-2)</t>
+    </r>
+  </si>
+  <si>
+    <t>≥ 10 (5-15)</t>
+  </si>
+  <si>
+    <t>≥ 240 (230-250)</t>
+  </si>
+  <si>
+    <t>BCG_PacNW_v1_500ct</t>
+  </si>
+  <si>
+    <t>BCG_PacNW_v1_300ct</t>
+  </si>
+  <si>
+    <t>Path &amp; FileName</t>
+  </si>
+  <si>
+    <t>FileName:</t>
+  </si>
+  <si>
+    <t>TabName:</t>
+  </si>
+  <si>
+    <t>Description of Work</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Description of work and other worksheets.</t>
+  </si>
+  <si>
+    <t>Model Rules</t>
+  </si>
+  <si>
+    <t>BCG and/or MMI</t>
+  </si>
+  <si>
+    <t>Jen.Stamp@tetratech.com</t>
+  </si>
+  <si>
+    <t>Rules for use with R package BCGcalc.</t>
+  </si>
+  <si>
+    <t>https://github.com/leppott/BCGcalc</t>
+  </si>
+  <si>
+    <t>abbrev_v1</t>
+  </si>
+  <si>
+    <t>BCG Pacific Northwest version 1</t>
+  </si>
+  <si>
+    <t>BCG Pacific Northwest version 1 (revised), 500 count</t>
+  </si>
+  <si>
+    <t>BCG Pacific Northwest version 1 (revised), 300 count (USGS)</t>
+  </si>
+  <si>
+    <t>BCGcalc  metric.values() output</t>
+  </si>
+  <si>
+    <t>metric.values R script</t>
+  </si>
+  <si>
+    <t>R code reference</t>
+  </si>
+  <si>
+    <t>BCG model</t>
+  </si>
+  <si>
+    <t>Thermal indicator</t>
+  </si>
+  <si>
+    <t>SAMPLEID</t>
+  </si>
+  <si>
+    <t>required field for calculation</t>
+  </si>
+  <si>
+    <t>INDEX_NAME</t>
+  </si>
+  <si>
+    <t>SITETYPE</t>
+  </si>
+  <si>
+    <t>number of individuals - total</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ni_Americo</t>
+  </si>
+  <si>
+    <t>number of individuals - Americorophium</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>ni_Gnorimo</t>
+  </si>
+  <si>
+    <t>number of individuals - Gnorimosphaeroma</t>
+  </si>
+  <si>
+    <t>ni_brackish</t>
+  </si>
+  <si>
+    <t>number of individuals - Americorophium or Gnorimosphaeroma</t>
+  </si>
+  <si>
+    <t>used to flag for brackish water</t>
+  </si>
+  <si>
+    <t>ni_Ramello</t>
+  </si>
+  <si>
+    <t>number of individuals - Ramellogammarus</t>
+  </si>
+  <si>
+    <t>pi_Amph</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Amphipoda</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>pi_Bival</t>
+  </si>
+  <si>
+    <t>percent individuals - Class Bivalvia</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>pi_Caen</t>
+  </si>
+  <si>
+    <t>percent individuals - Family Caenidae</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>pi_Coleo</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Coleoptera</t>
+  </si>
+  <si>
+    <t>pi_Corb</t>
+  </si>
+  <si>
+    <t>percent individuals - Genus Corbicula</t>
+  </si>
+  <si>
+    <t>pi_Deca</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Decapoda</t>
+  </si>
+  <si>
+    <t>pi_Dipt</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Diptera</t>
+  </si>
+  <si>
+    <t>pi_Ephem</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Ephemeroptera</t>
+  </si>
+  <si>
+    <t>pi_EPT</t>
+  </si>
+  <si>
+    <t>percent individuals - Orders Ephemeroptera, Plecoptera &amp; Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>pi_Gast</t>
+  </si>
+  <si>
+    <t>percent individuals - Class Gastropoda</t>
+  </si>
+  <si>
+    <t>pi_Iso</t>
+  </si>
+  <si>
+    <t>percent individuals - Class Isopoda</t>
+  </si>
+  <si>
+    <t>pi_NonIns</t>
+  </si>
+  <si>
+    <t>percent individuals - Class not Insecta</t>
+  </si>
+  <si>
+    <t>pi_Odon</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Odonata</t>
+  </si>
+  <si>
+    <t>pi_Oligo</t>
+  </si>
+  <si>
+    <t>percent individuals - Class Oligochaeta</t>
+  </si>
+  <si>
+    <t>pi_Pleco</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Plecoptera</t>
+  </si>
+  <si>
+    <t>pi_Trich</t>
+  </si>
+  <si>
+    <t>percent individuals - Order Trichoptera</t>
+  </si>
+  <si>
+    <t>number of taxa - total</t>
+  </si>
+  <si>
+    <t>TaxaID</t>
+  </si>
+  <si>
+    <t>nt_Amph</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Amphipoda</t>
+  </si>
+  <si>
+    <t>nt_Bival</t>
+  </si>
+  <si>
+    <t>number of taxa - Class Bivalvia</t>
+  </si>
+  <si>
+    <t>nt_Coleo</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Coleoptera</t>
+  </si>
+  <si>
+    <t>nt_CruMol</t>
+  </si>
+  <si>
+    <t>number of taxa - Phylum Mollusca and SubPhylum Crustacea</t>
+  </si>
+  <si>
+    <t>nt_Deca</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Decapoda</t>
+  </si>
+  <si>
+    <t>nt_Dipt</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Diptera</t>
+  </si>
+  <si>
+    <t>nt_Ephem</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Ephemeroptera</t>
+  </si>
+  <si>
+    <t>number of taxa - Orders Ephemeroptera, Plecoptera &amp; Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>nt_Gast</t>
+  </si>
+  <si>
+    <t>number of taxa - Class Gastropoda</t>
+  </si>
+  <si>
+    <t>nt_Insect</t>
+  </si>
+  <si>
+    <t>number of taxa - Class Insecta</t>
+  </si>
+  <si>
+    <t>nt_Isop</t>
+  </si>
+  <si>
+    <t>number of taxa - Class Isopoda</t>
+  </si>
+  <si>
+    <t>nt_Oligo</t>
+  </si>
+  <si>
+    <t>number of taxa - Class Oligochaeta</t>
+  </si>
+  <si>
+    <t>nt_Pleco</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Plecoptera</t>
+  </si>
+  <si>
+    <t>nt_Ptero</t>
+  </si>
+  <si>
+    <t>number of taxa - Genus Pteronarcys</t>
+  </si>
+  <si>
+    <t>nt_Trich</t>
+  </si>
+  <si>
+    <t>number of taxa - Order Trichoptera</t>
+  </si>
+  <si>
+    <t>ni_Chiro</t>
+  </si>
+  <si>
+    <t>number of individuals - Family Chironomidae</t>
+  </si>
+  <si>
+    <t>nt_Chiro</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Chironomidae</t>
+  </si>
+  <si>
+    <t>pi_Chiro</t>
+  </si>
+  <si>
+    <t>percent individuals - Family Chironomidae</t>
+  </si>
+  <si>
+    <t>pi_Tanyt</t>
+  </si>
+  <si>
+    <t>percent individuals - Tribe Tanytarsini</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>nt_NonInsArachDeca_BCG_att456</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
+  </si>
+  <si>
+    <t>BCG_Attr, Class, Order</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida &amp; Order Decapoda</t>
+  </si>
+  <si>
+    <t>nt_NonInsArachDecaJugaRiss_BCG_att456</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>BCG_Attr, Class, Order, Genus</t>
+  </si>
+  <si>
+    <t>pi_NonInsArachDecaJugaRiss_BCG_att456</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>pt_NonInsArachDecaJugaRiss_BCG_att456</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta, Class Arachnida, Order Decapoda &amp; Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>pi_dom02_BCG_att456_NoJugaRiss</t>
+  </si>
+  <si>
+    <t>percent individuals - most dominant two taxa, excluding Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>BCG_Attr, Order, Genus</t>
+  </si>
+  <si>
+    <t>nt_NonIns_BCG_att456</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta</t>
+  </si>
+  <si>
+    <t>nt_NonInsJugaRiss_BCG_att456</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>pt_NonInsJugaRiss_BCG_att456</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute IV + V + VI, excluding Class Insecta and Juga and Rissoidea ('clumpy' taxa)</t>
+  </si>
+  <si>
+    <t>pi_SimBtri</t>
+  </si>
+  <si>
+    <t>percent individuals - Family Simuliidae and Genus Baetis tricaudatus complex</t>
+  </si>
+  <si>
+    <t>Family, TaxaID</t>
+  </si>
+  <si>
+    <t>nt_ti_c</t>
+  </si>
+  <si>
+    <t>number of taxa - thermal indicator - cold</t>
+  </si>
+  <si>
+    <t>Thermal_Indicator</t>
+  </si>
+  <si>
+    <t>nt_ti_cc</t>
+  </si>
+  <si>
+    <t>number of taxa - thermal indicator - cold/cool</t>
+  </si>
+  <si>
+    <t>nt_ti_cw</t>
+  </si>
+  <si>
+    <t>number of taxa - thermal indicator - cool/warm</t>
+  </si>
+  <si>
+    <t>nt_ti_w</t>
+  </si>
+  <si>
+    <t>number of taxa - thermal indicator - warm</t>
+  </si>
+  <si>
+    <t>pi_ti_c</t>
+  </si>
+  <si>
+    <t>percent individuals - thermal indicator - cold</t>
+  </si>
+  <si>
+    <t>pi_ti_cc</t>
+  </si>
+  <si>
+    <t>percent individuals - thermal indicator - cold/cool</t>
+  </si>
+  <si>
+    <t>pi_ti_cw</t>
+  </si>
+  <si>
+    <t>percent individuals - thermal indicator - cool/warm</t>
+  </si>
+  <si>
+    <t>pi_ti_w</t>
+  </si>
+  <si>
+    <t>percent individuals - thermal indicator - warm</t>
+  </si>
+  <si>
+    <t>pt_ti_c</t>
+  </si>
+  <si>
+    <t>percent taxa - thermal indicator - cold</t>
+  </si>
+  <si>
+    <t>pt_ti_cc</t>
+  </si>
+  <si>
+    <t>percent taxa - thermal indicator - cold/cool</t>
+  </si>
+  <si>
+    <t>pt_ti_cw</t>
+  </si>
+  <si>
+    <t>percent taxa - thermal indicator - cool/warm</t>
+  </si>
+  <si>
+    <t>pt_ti_w</t>
+  </si>
+  <si>
+    <t>percent taxa - thermal indicator - warm</t>
+  </si>
+  <si>
+    <t>pt_Amph</t>
+  </si>
+  <si>
+    <t>percent taxa - Order Amphipoda</t>
+  </si>
+  <si>
+    <t>pt_Bival</t>
+  </si>
+  <si>
+    <t>percent taxa - Class Bivalvia</t>
+  </si>
+  <si>
+    <t>pt_Deca</t>
+  </si>
+  <si>
+    <t>percent taxa - Order Decapoda</t>
+  </si>
+  <si>
+    <t>pt_Dipt</t>
+  </si>
+  <si>
+    <t>percent taxa - Order Diptera</t>
+  </si>
+  <si>
+    <t>pt_EPT</t>
+  </si>
+  <si>
+    <t>percent taxa - Orders Ephemeroptera, Plecoptera &amp; Trichoptera (EPT)</t>
+  </si>
+  <si>
+    <t>pt_Gast</t>
+  </si>
+  <si>
+    <t>percent taxa - Class Gastropoda</t>
+  </si>
+  <si>
+    <t>pt_Isop</t>
+  </si>
+  <si>
+    <t>percent taxa - Class Isopoda</t>
+  </si>
+  <si>
+    <t>nt_tv_intol</t>
+  </si>
+  <si>
+    <t>number of taxa - tolerance value - intolerant ≤ 3</t>
+  </si>
+  <si>
+    <t>TolVal</t>
+  </si>
+  <si>
+    <t>nt_tv_toler</t>
+  </si>
+  <si>
+    <t>number of taxa - tolerance value -tolerant ≥ 7</t>
+  </si>
+  <si>
+    <t>nt_ffg_col</t>
+  </si>
+  <si>
+    <t>number of taxa - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
+  </si>
+  <si>
+    <t>FFG</t>
+  </si>
+  <si>
+    <t>nt_ffg_filt</t>
+  </si>
+  <si>
+    <t>number of taxa - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
+  </si>
+  <si>
+    <t>nt_ffg_pred</t>
+  </si>
+  <si>
+    <t>number of taxa - Functional Feeding Group (FFG) - predator (PR)</t>
+  </si>
+  <si>
+    <t>nt_ffg_scrap</t>
+  </si>
+  <si>
+    <t>number of taxa - Functional Feeding Group (FFG) - scraper (SC)</t>
+  </si>
+  <si>
+    <t>nt_ffg_shred</t>
+  </si>
+  <si>
+    <t>number of taxa - Functional Feeding Group (FFG) - shredder (SH)</t>
+  </si>
+  <si>
+    <t>pi_ffg_col</t>
+  </si>
+  <si>
+    <t>percent individuals - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
+  </si>
+  <si>
+    <t>pi_ffg_filt</t>
+  </si>
+  <si>
+    <t>percent individuals - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
+  </si>
+  <si>
+    <t>pi_ffg_pred</t>
+  </si>
+  <si>
+    <t>percent individuals - Functional Feeding Group (FFG) - predator (PR)</t>
+  </si>
+  <si>
+    <t>pi_ffg_scrap</t>
+  </si>
+  <si>
+    <t>percent individuals - Functional Feeding Group (FFG) - scraper (SC)</t>
+  </si>
+  <si>
+    <t>pi_ffg_shred</t>
+  </si>
+  <si>
+    <t>percent individuals - Functional Feeding Group (FFG) - shredder (SH)</t>
+  </si>
+  <si>
+    <t>pt_ffg_col</t>
+  </si>
+  <si>
+    <t>percent taxa - Functional Feeding Group (FFG) - collector-gatherer (CG)</t>
+  </si>
+  <si>
+    <t>pt_ffg_filt</t>
+  </si>
+  <si>
+    <t>percent taxa - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
+  </si>
+  <si>
+    <t>pt_ffg_pred</t>
+  </si>
+  <si>
+    <t>percent taxa - Functional Feeding Group (FFG) - predator (PR)</t>
+  </si>
+  <si>
+    <t>pt_ffg_scrap</t>
+  </si>
+  <si>
+    <t>percent taxa - Functional Feeding Group (FFG) - scraper (SC)</t>
+  </si>
+  <si>
+    <t>pt_ffg_shred</t>
+  </si>
+  <si>
+    <t>percent taxa - Functional Feeding Group (FFG) - shredder (SH)</t>
+  </si>
+  <si>
+    <t>nt_habit_burrow</t>
+  </si>
+  <si>
+    <t>number of taxa - Habit - burrowers (BU)</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>nt_habit_clmbrs</t>
+  </si>
+  <si>
+    <t>number of taxa - Habit - climbers (CB)</t>
+  </si>
+  <si>
+    <t>nt_habit_clngrs</t>
+  </si>
+  <si>
+    <t>number of taxa - Habit - clingers (CN)</t>
+  </si>
+  <si>
+    <t>nt_habit_sprawl</t>
+  </si>
+  <si>
+    <t>number of taxa - Habit - sprawlers (SP)</t>
+  </si>
+  <si>
+    <t>nt_habit_swmmrs</t>
+  </si>
+  <si>
+    <t>number of taxa - Habit - swimmers (SW)</t>
+  </si>
+  <si>
+    <t>pi_habit_burrow</t>
+  </si>
+  <si>
+    <t>percent individuals - Habit - burrowers (BU)</t>
+  </si>
+  <si>
+    <t>pi_habit_clmbrs</t>
+  </si>
+  <si>
+    <t>percent individuals - Habit - climbers (CB)</t>
+  </si>
+  <si>
+    <t>pi_habit_clngrs</t>
+  </si>
+  <si>
+    <t>percent individuals - Habit - clingers (CN)</t>
+  </si>
+  <si>
+    <t>pi_habit_sprawl</t>
+  </si>
+  <si>
+    <t>percent individuals - Habit - sprawlers (SP)</t>
+  </si>
+  <si>
+    <t>pi_habit_swmmrs</t>
+  </si>
+  <si>
+    <t>percent individuals - Habit - swimmers (SW)</t>
+  </si>
+  <si>
+    <t>pt_habit_burrow</t>
+  </si>
+  <si>
+    <t>percent taxa - Habit - burrowers (BU)</t>
+  </si>
+  <si>
+    <t>pt_habit_clmbrs</t>
+  </si>
+  <si>
+    <t>percent taxa - Habit - climbers (CB)</t>
+  </si>
+  <si>
+    <t>pt_habit_clngrs</t>
+  </si>
+  <si>
+    <t>percent taxa - Habit - clingers (CN)</t>
+  </si>
+  <si>
+    <t>pt_habit_sprawl</t>
+  </si>
+  <si>
+    <t>percent taxa - Habit - sprawlers (SP)</t>
+  </si>
+  <si>
+    <t>pt_habit_swmmrs</t>
+  </si>
+  <si>
+    <t>percent taxa - Habit - swimmers (SW)</t>
+  </si>
+  <si>
+    <t>nt_volt_multi</t>
+  </si>
+  <si>
+    <t>number of taxa - multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>Life_Cycle</t>
+  </si>
+  <si>
+    <t>nt_volt_semi</t>
+  </si>
+  <si>
+    <t>number of taxa - semivoltine (SEMI)</t>
+  </si>
+  <si>
+    <t>nt_volt_uni</t>
+  </si>
+  <si>
+    <t>number of taxa - univoltine (UNI)</t>
+  </si>
+  <si>
+    <t>pi_volt_multi</t>
+  </si>
+  <si>
+    <t>percent individuals - multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>pi_volt_semi</t>
+  </si>
+  <si>
+    <t>percent individuals - semivoltine (SEMI)</t>
+  </si>
+  <si>
+    <t>pi_volt_uni</t>
+  </si>
+  <si>
+    <t>percent individuals - univoltine (UNI)</t>
+  </si>
+  <si>
+    <t>pt_volt_multi</t>
+  </si>
+  <si>
+    <t>percent taxa - multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>pt_volt_semi</t>
+  </si>
+  <si>
+    <t>percent taxa - semivoltine (SEMI)</t>
+  </si>
+  <si>
+    <t>pt_volt_uni</t>
+  </si>
+  <si>
+    <t>percent taxa - univoltine (UNI)</t>
+  </si>
+  <si>
+    <t>pi_dom01</t>
+  </si>
+  <si>
+    <t>percent individuals - most dominant taxon [max(N_TAXA)]</t>
+  </si>
+  <si>
+    <t>N_TAXA</t>
+  </si>
+  <si>
+    <t>pi_dom02</t>
+  </si>
+  <si>
+    <t>percent individuals - two most dominant taxa</t>
+  </si>
+  <si>
+    <t>N_TAXA, TaxaID</t>
+  </si>
+  <si>
+    <t>pi_dom03</t>
+  </si>
+  <si>
+    <t>percent individuals - three most dominant taxa</t>
+  </si>
+  <si>
+    <t>pi_dom04</t>
+  </si>
+  <si>
+    <t>percent individuals - four most dominant taxa</t>
+  </si>
+  <si>
+    <t>pi_dom05</t>
+  </si>
+  <si>
+    <t>percent individuals - five most dominant taxa</t>
+  </si>
+  <si>
+    <t>pi_dom06</t>
+  </si>
+  <si>
+    <t>percent individuals - six most dominant taxa</t>
+  </si>
+  <si>
+    <t>pi_dom07</t>
+  </si>
+  <si>
+    <t>percent individuals - seven most dominant taxa</t>
+  </si>
+  <si>
+    <t>pi_dom08</t>
+  </si>
+  <si>
+    <t>percent individuals - eight most dominant taxa</t>
+  </si>
+  <si>
+    <t>pi_dom09</t>
+  </si>
+  <si>
+    <t>percent individuals - nine most dominant taxa</t>
+  </si>
+  <si>
+    <t>pi_dom10</t>
+  </si>
+  <si>
+    <t>percent individuals - ten most dominant taxa</t>
+  </si>
+  <si>
+    <t>x_Becks</t>
+  </si>
+  <si>
+    <t>Becks Biotic Index</t>
+  </si>
+  <si>
+    <t>N_TAXA, TolVal</t>
+  </si>
+  <si>
+    <t>x_HBI</t>
+  </si>
+  <si>
+    <t>Hilsenhoff Biotic Index (references the TolVal field)</t>
+  </si>
+  <si>
+    <t>x_Shan_Num</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (partial calculation) [sum(N_TAXA/log(ni_total)]</t>
+  </si>
+  <si>
+    <t>x_Shan_e</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (natural log) - x_Shan_Num/log (exp(1))</t>
+  </si>
+  <si>
+    <t>x_Shan_2</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (log base 2) - x_Shan_Num/log(2)</t>
+  </si>
+  <si>
+    <t>x_Shan_10</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (log base 10) - x_Shan_Num/log(10)</t>
+  </si>
+  <si>
+    <t>x_D</t>
+  </si>
+  <si>
+    <t>Simpson's Index</t>
+  </si>
+  <si>
+    <t>x_Evenness</t>
+  </si>
+  <si>
+    <t>Evenness=x_Shan_e/log(nt_total)</t>
+  </si>
+  <si>
+    <t>nt_BCG_att1i</t>
+  </si>
+  <si>
+    <t>number of taxa - intolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>BCG_Attr</t>
+  </si>
+  <si>
+    <t>nt_BCG_att1m</t>
+  </si>
+  <si>
+    <t>number of taxa - moderately tolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>nt_BCG_att12</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute I + II</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute Ii + II</t>
+  </si>
+  <si>
+    <t>nt_BCG_att123</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>nt_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute Ii + II + III</t>
+  </si>
+  <si>
+    <t>nt_BCG_att2</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute II</t>
+  </si>
+  <si>
+    <t>nt_BCG_att23</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute II + III</t>
+  </si>
+  <si>
+    <t>nt_BCG_att234</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute II + III + IV</t>
+  </si>
+  <si>
+    <t>nt_BCG_att3</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute III</t>
+  </si>
+  <si>
+    <t>nt_BCG_att4</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute IV</t>
+  </si>
+  <si>
+    <t>nt_BCG_att45</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute IV + V</t>
+  </si>
+  <si>
+    <t>nt_BCG_att5</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute V</t>
+  </si>
+  <si>
+    <t>nt_BCG_att56</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute V + VI</t>
+  </si>
+  <si>
+    <t>nt_BCG_att6</t>
+  </si>
+  <si>
+    <t>number of taxa - BCG Attribute VI</t>
+  </si>
+  <si>
+    <t>nt_EPT_BCG_att123</t>
+  </si>
+  <si>
+    <t>number of taxa - EPT BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>BCG_Attr, Order</t>
+  </si>
+  <si>
+    <t>number of taxa - EPT BCG Attribute Ii + II + III</t>
+  </si>
+  <si>
+    <t>pi_BCG_att1i</t>
+  </si>
+  <si>
+    <t>percent individuals - intolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>pi_BCG_att1m</t>
+  </si>
+  <si>
+    <t>percent individuals - moderately tolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>pi_BCG_att12</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute I + II</t>
+  </si>
+  <si>
+    <t>pi_BCG_att1i2</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute Ii + II</t>
+  </si>
+  <si>
+    <t>pi_BCG_att123</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute Ii + II + III</t>
+  </si>
+  <si>
+    <t>pi_BCG_att2</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute II</t>
+  </si>
+  <si>
+    <t>pi_BCG_att23</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute II + III</t>
+  </si>
+  <si>
+    <t>pi_BCG_att234</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute II + III + IV</t>
+  </si>
+  <si>
+    <t>pi_BCG_att3</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute III</t>
+  </si>
+  <si>
+    <t>pi_BCG_att4</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute IV</t>
+  </si>
+  <si>
+    <t>pi_BCG_att45</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute IV + V</t>
+  </si>
+  <si>
+    <t>pi_BCG_att5</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute V</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute V + VI</t>
+  </si>
+  <si>
+    <t>pi_BCG_att6</t>
+  </si>
+  <si>
+    <t>percent individuals - BCG Attribute VI</t>
+  </si>
+  <si>
+    <t>pi_EPT_BCG_att123</t>
+  </si>
+  <si>
+    <t>percent individuals - EPT BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i</t>
+  </si>
+  <si>
+    <t>percent taxa - intolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1m</t>
+  </si>
+  <si>
+    <t>percent taxa - moderately tolerant BCG Attribute I (Ii)</t>
+  </si>
+  <si>
+    <t>pt_BCG_att12</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute I + II</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute Ii + II</t>
+  </si>
+  <si>
+    <t>pt_BCG_att123</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute Ii + II + III</t>
+  </si>
+  <si>
+    <t>pt_BCG_att2</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute II</t>
+  </si>
+  <si>
+    <t>pt_BCG_att23</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute II + III</t>
+  </si>
+  <si>
+    <t>pt_BCG_att234</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute II + III + IV</t>
+  </si>
+  <si>
+    <t>pt_BCG_att3</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute III</t>
+  </si>
+  <si>
+    <t>pt_BCG_att4</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute IV</t>
+  </si>
+  <si>
+    <t>pt_BCG_att45</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute IV + V</t>
+  </si>
+  <si>
+    <t>pt_BCG_att5</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute V</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute V + VI</t>
+  </si>
+  <si>
+    <t>pt_BCG_att6</t>
+  </si>
+  <si>
+    <t>percent taxa - BCG Attribute VI</t>
+  </si>
+  <si>
+    <t>pt_EPT_BCG_att123</t>
+  </si>
+  <si>
+    <t>percent taxa - EPT BCG Attribute I + II + III</t>
+  </si>
+  <si>
+    <t>MetricMetadata</t>
+  </si>
+  <si>
+    <t>Metric names and abbreviations</t>
+  </si>
+  <si>
+    <t>N_Taxa</t>
+  </si>
+  <si>
+    <t>BCG_Attr, Class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,8 +2310,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,8 +2498,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1072,12 +2581,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1309,6 +2844,146 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,30 +3041,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{6AE34375-C906-4FD7-B1AC-73AED38CBD33}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title 2" xfId="5" xr:uid="{C35012B2-A608-49D3-B31A-F44D4D1CF5E0}"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1761,304 +3423,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2071,6 +3436,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CC360D6-FC84-45D1-BD8C-CEE32576C1BA}" name="Table1" displayName="Table1" ref="A15:C20" totalsRowShown="0">
+  <autoFilter ref="A15:C20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E96AF8E6-7602-4177-9608-6B2FAAB72D3A}" name="Worksheet"/>
+    <tableColumn id="2" xr3:uid="{7C883C9B-CDE7-4D2F-8A51-301FC729AAC5}" name="Descriptions"/>
+    <tableColumn id="3" xr3:uid="{5733210A-1B2C-42BE-BDA8-55CB7AD23932}" name="Link" dataDxfId="37">
+      <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,9 +3714,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5326BCD5-D9A7-412B-A8FC-2C1C6FFD2B80}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="99">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="101" t="str">
+        <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[Rules.xlsx]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="101" t="str">
+        <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
+        <v>[Rules.xlsx]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="102" t="str">
+        <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
+        <v>NOTES</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="103" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="105" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
+        <v>NOTES</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="136" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
+        <v>abbrev_v1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="137" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
+        <v>BCG_PacNW_v1_500ct</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="107" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
+        <v>BCG_PacNW_v1_300ct</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" t="s">
+        <v>603</v>
+      </c>
+      <c r="C20" s="138" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A20&amp;"!A1",A20)</f>
+        <v>MetricMetadata</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{8F502A2B-2E20-4B5B-956C-AB0494C2FECF}">
+      <formula1>""</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{BF09373F-C691-4FF1-AC3E-B1B30DFD8428}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;D&amp;CPage &amp;P of &amp;N&amp;R&amp;F</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -2430,12 +3983,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -2454,10 +4007,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="102"/>
+      <c r="C7" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="156"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -2476,10 +4029,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="103"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -2524,10 +4077,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -2546,10 +4099,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -2568,10 +4121,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -2590,10 +4143,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -2612,10 +4165,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -2636,10 +4189,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -2654,12 +4207,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -2679,10 +4232,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -2693,10 +4246,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -2715,10 +4268,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -2737,10 +4290,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -2759,10 +4312,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -2807,10 +4360,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="142"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -2869,19 +4422,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="144" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="148" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2895,13 +4448,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="90"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="144"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="95"/>
+      <c r="E27" s="149"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2913,12 +4466,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -2937,10 +4490,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="86"/>
+      <c r="D29" s="140"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2959,10 +4512,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="92"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3002,10 +4555,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="86"/>
+      <c r="D33" s="140"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3015,10 +4568,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="142"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -3045,19 +4598,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="142"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3067,10 +4620,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="99"/>
+      <c r="D38" s="153"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -3080,10 +4633,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="86"/>
+      <c r="D39" s="140"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -3095,10 +4648,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="86"/>
+      <c r="D40" s="140"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,10 +4661,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="86"/>
+      <c r="D41" s="140"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3121,10 +4674,10 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="86"/>
+      <c r="D42" s="140"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
@@ -3175,8 +4728,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -3257,7 +4810,7 @@
       <c r="L2" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="87" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="60" t="s">
@@ -4000,7 +5553,7 @@
       <c r="C13" s="11">
         <v>3</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="86" t="s">
         <v>156</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -4037,7 +5590,7 @@
       <c r="O13" s="54">
         <v>3</v>
       </c>
-      <c r="P13" s="107" t="s">
+      <c r="P13" s="88" t="s">
         <v>155</v>
       </c>
       <c r="Q13" s="11" t="s">
@@ -4072,7 +5625,7 @@
       <c r="C14" s="11">
         <v>3</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="85" t="s">
         <v>157</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -4109,7 +5662,7 @@
       <c r="O14" s="54">
         <v>3</v>
       </c>
-      <c r="P14" s="105" t="s">
+      <c r="P14" s="86" t="s">
         <v>156</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -4144,7 +5697,7 @@
       <c r="C15" s="11">
         <v>3</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="88" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -4181,7 +5734,7 @@
       <c r="O15" s="54">
         <v>3</v>
       </c>
-      <c r="P15" s="104" t="s">
+      <c r="P15" s="85" t="s">
         <v>157</v>
       </c>
       <c r="Q15" s="11" t="s">
@@ -6166,7 +7719,7 @@
       <c r="C45" s="11">
         <v>3</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D45" s="86" t="s">
         <v>156</v>
       </c>
       <c r="G45" s="54">
@@ -6197,7 +7750,7 @@
       <c r="O45" s="54">
         <v>3</v>
       </c>
-      <c r="P45" s="107" t="s">
+      <c r="P45" s="88" t="s">
         <v>155</v>
       </c>
       <c r="Q45" s="11" t="s">
@@ -6232,7 +7785,7 @@
       <c r="C46" s="11">
         <v>3</v>
       </c>
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="85" t="s">
         <v>157</v>
       </c>
       <c r="G46" s="54">
@@ -6263,7 +7816,7 @@
       <c r="O46" s="54">
         <v>3</v>
       </c>
-      <c r="P46" s="105" t="s">
+      <c r="P46" s="86" t="s">
         <v>156</v>
       </c>
       <c r="Q46" s="11" t="s">
@@ -6298,7 +7851,7 @@
       <c r="C47" s="11">
         <v>3</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="88" t="s">
         <v>158</v>
       </c>
       <c r="G47" s="54">
@@ -6329,7 +7882,7 @@
       <c r="O47" s="54">
         <v>3</v>
       </c>
-      <c r="P47" s="104" t="s">
+      <c r="P47" s="85" t="s">
         <v>157</v>
       </c>
       <c r="Q47" s="11" t="s">
@@ -7445,7 +8998,7 @@
       <c r="C65" s="11">
         <v>5</v>
       </c>
-      <c r="D65" s="109" t="s">
+      <c r="D65" s="90" t="s">
         <v>157</v>
       </c>
       <c r="E65" s="11" t="s">
@@ -7482,7 +9035,7 @@
       <c r="O65" s="54">
         <v>5</v>
       </c>
-      <c r="P65" s="108" t="s">
+      <c r="P65" s="89" t="s">
         <v>157</v>
       </c>
       <c r="Q65" s="11" t="s">
@@ -7580,7 +9133,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W66">
+  <autoFilter ref="A2:W66" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Hi"/>
@@ -7598,167 +9151,167 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="I3:I34 I53:I66 I44:I51">
-    <cfRule type="cellIs" dxfId="64" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I43">
-    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U9">
-    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U14">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U16">
-    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U28">
-    <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30:U32">
-    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35:U38">
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U40">
-    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41">
-    <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44:U46">
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49">
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U55">
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U56">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U60">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U59">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62:U64">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U65">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U66">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7767,28 +9320,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="70.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="126.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7827,8 +9383,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>132</v>
+      <c r="A2" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
@@ -7862,8 +9418,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>132</v>
+      <c r="A3" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
@@ -7897,8 +9453,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>132</v>
+      <c r="A4" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
@@ -7932,8 +9488,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>132</v>
+      <c r="A5" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
@@ -7967,8 +9523,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>132</v>
+      <c r="A6" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -8002,8 +9558,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>132</v>
+      <c r="A7" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
@@ -8037,8 +9593,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>132</v>
+      <c r="A8" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
@@ -8072,8 +9628,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>132</v>
+      <c r="A9" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>131</v>
@@ -8107,8 +9663,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>132</v>
+      <c r="A10" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
@@ -8142,8 +9698,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>132</v>
+      <c r="A11" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B11" t="s">
         <v>131</v>
@@ -8177,8 +9733,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>132</v>
+      <c r="A12" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B12" t="s">
         <v>131</v>
@@ -8212,8 +9768,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>132</v>
+      <c r="A13" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
@@ -8247,8 +9803,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>132</v>
+      <c r="A14" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
@@ -8282,8 +9838,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>132</v>
+      <c r="A15" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -8317,8 +9873,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>132</v>
+      <c r="A16" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
@@ -8352,8 +9908,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>132</v>
+      <c r="A17" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
@@ -8387,8 +9943,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>132</v>
+      <c r="A18" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
@@ -8422,8 +9978,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>132</v>
+      <c r="A19" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -8457,8 +10013,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>132</v>
+      <c r="A20" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
@@ -8492,8 +10048,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>132</v>
+      <c r="A21" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
@@ -8527,8 +10083,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>132</v>
+      <c r="A22" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -8562,8 +10118,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>132</v>
+      <c r="A23" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
@@ -8597,8 +10153,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>132</v>
+      <c r="A24" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -8632,8 +10188,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="A25" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
@@ -8667,8 +10223,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>132</v>
+      <c r="A26" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
@@ -8702,8 +10258,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>132</v>
+      <c r="A27" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
@@ -8737,8 +10293,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>132</v>
+      <c r="A28" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -8772,8 +10328,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>132</v>
+      <c r="A29" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -8807,8 +10363,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>132</v>
+      <c r="A30" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -8842,8 +10398,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>132</v>
+      <c r="A31" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
@@ -8877,8 +10433,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>132</v>
+      <c r="A32" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -8912,8 +10468,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>132</v>
+      <c r="A33" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -8947,8 +10503,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>132</v>
+      <c r="A34" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
@@ -8982,8 +10538,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>132</v>
+      <c r="A35" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
@@ -9017,8 +10573,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>132</v>
+      <c r="A36" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
@@ -9052,8 +10608,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>132</v>
+      <c r="A37" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
@@ -9087,8 +10643,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>132</v>
+      <c r="A38" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
@@ -9122,8 +10678,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>132</v>
+      <c r="A39" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -9157,8 +10713,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>132</v>
+      <c r="A40" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -9192,8 +10748,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>132</v>
+      <c r="A41" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
@@ -9227,8 +10783,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>132</v>
+      <c r="A42" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
@@ -9262,8 +10818,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>132</v>
+      <c r="A43" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
@@ -9297,8 +10853,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>132</v>
+      <c r="A44" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -9332,8 +10888,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>132</v>
+      <c r="A45" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -9367,8 +10923,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>132</v>
+      <c r="A46" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -9402,8 +10958,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>132</v>
+      <c r="A47" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
@@ -9437,8 +10993,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>132</v>
+      <c r="A48" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -9472,8 +11028,8 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>132</v>
+      <c r="A49" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
@@ -9507,8 +11063,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>132</v>
+      <c r="A50" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -9542,8 +11098,8 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>132</v>
+      <c r="A51" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
@@ -9577,8 +11133,8 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>132</v>
+      <c r="A52" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -9612,8 +11168,8 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>132</v>
+      <c r="A53" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -9647,8 +11203,8 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>132</v>
+      <c r="A54" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -9682,8 +11238,8 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>132</v>
+      <c r="A55" s="96" t="s">
+        <v>202</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -9717,17 +11273,4708 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55"/>
+  <autoFilter ref="A1:K55" xr:uid="{C7418534-DFF5-46AC-929B-EF1CA90B31E5}"/>
   <conditionalFormatting sqref="I2:I28 I37:I55">
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="126.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="93">
+        <v>24</v>
+      </c>
+      <c r="H2" s="93">
+        <v>34</v>
+      </c>
+      <c r="I2" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="93">
+        <v>1</v>
+      </c>
+      <c r="H3" s="93">
+        <v>5</v>
+      </c>
+      <c r="I3" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="93">
+        <v>7</v>
+      </c>
+      <c r="H8" s="93">
+        <v>17</v>
+      </c>
+      <c r="I8" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="93">
+        <v>13</v>
+      </c>
+      <c r="H10" s="93">
+        <v>23</v>
+      </c>
+      <c r="I10" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="93">
+        <v>3</v>
+      </c>
+      <c r="H15" s="93">
+        <v>7</v>
+      </c>
+      <c r="I15" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="54">
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="93">
+        <v>11</v>
+      </c>
+      <c r="H17" s="93">
+        <v>21</v>
+      </c>
+      <c r="I17" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="I18" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="H19" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="93">
+        <v>0</v>
+      </c>
+      <c r="H21" s="93">
+        <v>2</v>
+      </c>
+      <c r="I21" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="54">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="54">
+        <v>0.45</v>
+      </c>
+      <c r="H23" s="54">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="93">
+        <v>5</v>
+      </c>
+      <c r="H24" s="93">
+        <v>15</v>
+      </c>
+      <c r="I24" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="93">
+        <v>230</v>
+      </c>
+      <c r="H25" s="93">
+        <v>250</v>
+      </c>
+      <c r="I25" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="95">
+        <v>0</v>
+      </c>
+      <c r="H26" s="95">
+        <v>1</v>
+      </c>
+      <c r="I26" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="I27" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="54">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H28" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="I28" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="93">
+        <v>24</v>
+      </c>
+      <c r="H29" s="93">
+        <v>34</v>
+      </c>
+      <c r="I29" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="93">
+        <v>1</v>
+      </c>
+      <c r="H30" s="93">
+        <v>5</v>
+      </c>
+      <c r="I30" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="54">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H31" s="54">
+        <v>0.45</v>
+      </c>
+      <c r="I31" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="H32" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="H33" s="54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I33" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="H34" s="54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I34" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="93">
+        <v>7</v>
+      </c>
+      <c r="H35" s="93">
+        <v>17</v>
+      </c>
+      <c r="I35" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="93">
+        <v>13</v>
+      </c>
+      <c r="H37" s="93">
+        <v>23</v>
+      </c>
+      <c r="I37" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H38" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="I38" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H39" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="I39" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H40" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="I40" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="I41" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="93">
+        <v>3</v>
+      </c>
+      <c r="H42" s="93">
+        <v>7</v>
+      </c>
+      <c r="I42" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="54">
+        <v>0.35</v>
+      </c>
+      <c r="I43" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>172</v>
+      </c>
+      <c r="K43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="93">
+        <v>11</v>
+      </c>
+      <c r="H44" s="93">
+        <v>21</v>
+      </c>
+      <c r="I44" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="I45" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="I46" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="H47" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="I47" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="93">
+        <v>0</v>
+      </c>
+      <c r="H48" s="93">
+        <v>2</v>
+      </c>
+      <c r="I48" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="H49" s="54">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I49" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>176</v>
+      </c>
+      <c r="K49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="H50" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="I50" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>172</v>
+      </c>
+      <c r="K50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="93">
+        <v>5</v>
+      </c>
+      <c r="H51" s="93">
+        <v>15</v>
+      </c>
+      <c r="I51" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="93">
+        <v>230</v>
+      </c>
+      <c r="H52" s="93">
+        <v>250</v>
+      </c>
+      <c r="I52" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="95">
+        <v>0</v>
+      </c>
+      <c r="H53" s="95">
+        <v>1</v>
+      </c>
+      <c r="I53" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="H54" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="I54" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="54">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H55" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="I55" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K55" xr:uid="{4E5F69B8-3D7F-4D3C-B70D-FBE25BBAAB34}"/>
+  <conditionalFormatting sqref="I2:I28 I37:I55">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1AB5C5-A815-4383-B91F-A3F16FE0F605}">
+  <sheetPr filterMode="1">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:F190"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58:B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" style="110" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" style="110" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="112" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="112" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="112" customWidth="1"/>
+    <col min="6" max="6" width="32" style="110" customWidth="1"/>
+    <col min="7" max="7" width="18" style="110" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="110" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="110"/>
+    <col min="10" max="10" width="23.5703125" style="110" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="108"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111">
+        <v>43355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="113">
+        <f>SUBTOTAL(3,A6:A190)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="116"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="116"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="116"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="121"/>
+      <c r="F9" s="120"/>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="119"/>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="119"/>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="123" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="119"/>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="119"/>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="127"/>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="119" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="128"/>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="127"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="127"/>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="127"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="119"/>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="119" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="119"/>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="119" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="119"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="119"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="119"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="119" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="119"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="119"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="119" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="119"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="119" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="119" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="119"/>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="119" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="119" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="119"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="122"/>
+      <c r="F30" s="119"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="119"/>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="119"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="119" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="119"/>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="119"/>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="119" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="119"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="119" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="119" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="119"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="119" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="119"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="130"/>
+      <c r="F38" s="119"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="119" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="119"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="119"/>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="119" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="119" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="119"/>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="119"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="119" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="119" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="119"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="123" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="119" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="119"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="119" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="119" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="119"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="119" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="119"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="119" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="119" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="119"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="119"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="131" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" s="127" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="132" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="119"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="119" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="133" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="119"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="133" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="119"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="119"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" s="134" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="119"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="119" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C54" s="134" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="119"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="119" t="s">
+        <v>328</v>
+      </c>
+      <c r="B55" s="133" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" s="134" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="128"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="133" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="128"/>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="119" t="s">
+        <v>333</v>
+      </c>
+      <c r="B57" s="133" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="128"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="133" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58" s="134" t="s">
+        <v>605</v>
+      </c>
+      <c r="D58" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="122"/>
+      <c r="F58" s="119"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="133" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" s="134" t="s">
+        <v>605</v>
+      </c>
+      <c r="D59" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="122"/>
+      <c r="F59" s="119"/>
+    </row>
+    <row r="60" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" s="133" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60" s="134" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="119"/>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="134" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="124"/>
+      <c r="F61" s="119"/>
+    </row>
+    <row r="62" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" s="133" t="s">
+        <v>341</v>
+      </c>
+      <c r="C62" s="134" t="s">
+        <v>325</v>
+      </c>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="119"/>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="B63" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="C63" s="122" t="s">
+        <v>344</v>
+      </c>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="119"/>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="119" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="119"/>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D65" s="122"/>
+      <c r="E65" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="119"/>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D66" s="122"/>
+      <c r="E66" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="119"/>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="119" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" s="122"/>
+      <c r="E67" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="119"/>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" s="119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C68" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D68" s="122"/>
+      <c r="E68" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="119"/>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="119" t="s">
+        <v>356</v>
+      </c>
+      <c r="B69" s="119" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="122"/>
+      <c r="E69" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="119"/>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="B70" s="119" t="s">
+        <v>359</v>
+      </c>
+      <c r="C70" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="122"/>
+      <c r="E70" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="119"/>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="119" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="C71" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="122"/>
+      <c r="E71" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="119"/>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72" s="119" t="s">
+        <v>363</v>
+      </c>
+      <c r="C72" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D72" s="122"/>
+      <c r="E72" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="119"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="119" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" s="119" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="119"/>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="119" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="119" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D74" s="122"/>
+      <c r="E74" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F74" s="119"/>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="119" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" s="119" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="122"/>
+      <c r="E75" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F75" s="119"/>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B76" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="122"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="119"/>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="119" t="s">
+        <v>372</v>
+      </c>
+      <c r="B77" s="119" t="s">
+        <v>373</v>
+      </c>
+      <c r="C77" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="119"/>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="B78" s="119" t="s">
+        <v>375</v>
+      </c>
+      <c r="C78" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="119"/>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="119" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="C79" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="122"/>
+      <c r="E79" s="122"/>
+      <c r="F79" s="119"/>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="B80" s="129" t="s">
+        <v>379</v>
+      </c>
+      <c r="C80" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" s="130"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="119"/>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="119" t="s">
+        <v>380</v>
+      </c>
+      <c r="B81" s="119" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
+      <c r="F81" s="119"/>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="119" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" s="119" t="s">
+        <v>383</v>
+      </c>
+      <c r="C82" s="122" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="119"/>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="119" t="s">
+        <v>384</v>
+      </c>
+      <c r="B83" s="119" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" s="135" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="122"/>
+      <c r="E83" s="122"/>
+      <c r="F83" s="119"/>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="119" t="s">
+        <v>387</v>
+      </c>
+      <c r="B84" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="C84" s="135" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="119"/>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="119" t="s">
+        <v>389</v>
+      </c>
+      <c r="B85" s="123" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="119"/>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="119" t="s">
+        <v>392</v>
+      </c>
+      <c r="B86" s="123" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="119"/>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87" s="123" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="119"/>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="119" t="s">
+        <v>396</v>
+      </c>
+      <c r="B88" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="119"/>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="119" t="s">
+        <v>398</v>
+      </c>
+      <c r="B89" s="119" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
+      <c r="F89" s="119"/>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="119" t="s">
+        <v>400</v>
+      </c>
+      <c r="B90" s="119" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D90" s="122"/>
+      <c r="E90" s="122"/>
+      <c r="F90" s="119"/>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="B91" s="119" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D91" s="122"/>
+      <c r="E91" s="122"/>
+      <c r="F91" s="119"/>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="119" t="s">
+        <v>404</v>
+      </c>
+      <c r="B92" s="119" t="s">
+        <v>405</v>
+      </c>
+      <c r="C92" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D92" s="122"/>
+      <c r="E92" s="122"/>
+      <c r="F92" s="119"/>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="119" t="s">
+        <v>406</v>
+      </c>
+      <c r="B93" s="119" t="s">
+        <v>407</v>
+      </c>
+      <c r="C93" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" s="122"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="119"/>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="119" t="s">
+        <v>408</v>
+      </c>
+      <c r="B94" s="119" t="s">
+        <v>409</v>
+      </c>
+      <c r="C94" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D94" s="122"/>
+      <c r="E94" s="122"/>
+      <c r="F94" s="119"/>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="119" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" s="119" t="s">
+        <v>411</v>
+      </c>
+      <c r="C95" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="122"/>
+      <c r="E95" s="122"/>
+      <c r="F95" s="119"/>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="B96" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="C96" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" s="122"/>
+      <c r="E96" s="122"/>
+      <c r="F96" s="119"/>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="119" t="s">
+        <v>414</v>
+      </c>
+      <c r="B97" s="119" t="s">
+        <v>415</v>
+      </c>
+      <c r="C97" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="123"/>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="119" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98" s="123" t="s">
+        <v>417</v>
+      </c>
+      <c r="C98" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D98" s="122"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="119"/>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="119" t="s">
+        <v>418</v>
+      </c>
+      <c r="B99" s="123" t="s">
+        <v>419</v>
+      </c>
+      <c r="C99" s="135" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="119"/>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="119" t="s">
+        <v>420</v>
+      </c>
+      <c r="B100" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="C100" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D100" s="122"/>
+      <c r="E100" s="122"/>
+      <c r="F100" s="119"/>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="B101" s="123" t="s">
+        <v>424</v>
+      </c>
+      <c r="C101" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" s="122"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="119"/>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="119" t="s">
+        <v>425</v>
+      </c>
+      <c r="B102" s="119" t="s">
+        <v>426</v>
+      </c>
+      <c r="C102" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="119"/>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="119" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" s="119" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D103" s="124"/>
+      <c r="E103" s="124"/>
+      <c r="F103" s="119"/>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="119" t="s">
+        <v>429</v>
+      </c>
+      <c r="B104" s="119" t="s">
+        <v>430</v>
+      </c>
+      <c r="C104" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D104" s="124"/>
+      <c r="E104" s="124"/>
+      <c r="F104" s="119"/>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="119" t="s">
+        <v>431</v>
+      </c>
+      <c r="B105" s="119" t="s">
+        <v>432</v>
+      </c>
+      <c r="C105" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D105" s="124"/>
+      <c r="E105" s="124"/>
+      <c r="F105" s="119"/>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="B106" s="119" t="s">
+        <v>434</v>
+      </c>
+      <c r="C106" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D106" s="124"/>
+      <c r="E106" s="124"/>
+      <c r="F106" s="119"/>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="119" t="s">
+        <v>435</v>
+      </c>
+      <c r="B107" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="C107" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D107" s="124"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="119"/>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="119" t="s">
+        <v>437</v>
+      </c>
+      <c r="B108" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="C108" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D108" s="124"/>
+      <c r="E108" s="124"/>
+      <c r="F108" s="119"/>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="119" t="s">
+        <v>439</v>
+      </c>
+      <c r="B109" s="119" t="s">
+        <v>440</v>
+      </c>
+      <c r="C109" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D109" s="124"/>
+      <c r="E109" s="124"/>
+      <c r="F109" s="119"/>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="119" t="s">
+        <v>441</v>
+      </c>
+      <c r="B110" s="119" t="s">
+        <v>442</v>
+      </c>
+      <c r="C110" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D110" s="124"/>
+      <c r="E110" s="124"/>
+      <c r="F110" s="119"/>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="119" t="s">
+        <v>443</v>
+      </c>
+      <c r="B111" s="119" t="s">
+        <v>444</v>
+      </c>
+      <c r="C111" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="119"/>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="119" t="s">
+        <v>445</v>
+      </c>
+      <c r="B112" s="123" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D112" s="124"/>
+      <c r="E112" s="124"/>
+      <c r="F112" s="119"/>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="119" t="s">
+        <v>447</v>
+      </c>
+      <c r="B113" s="123" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D113" s="124"/>
+      <c r="E113" s="124"/>
+      <c r="F113" s="119"/>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="119" t="s">
+        <v>449</v>
+      </c>
+      <c r="B114" s="123" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="135" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" s="124"/>
+      <c r="E114" s="124"/>
+      <c r="F114" s="119"/>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="119" t="s">
+        <v>451</v>
+      </c>
+      <c r="B115" s="123" t="s">
+        <v>452</v>
+      </c>
+      <c r="C115" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D115" s="124"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="119"/>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="119" t="s">
+        <v>454</v>
+      </c>
+      <c r="B116" s="119" t="s">
+        <v>455</v>
+      </c>
+      <c r="C116" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D116" s="124"/>
+      <c r="E116" s="124"/>
+      <c r="F116" s="119"/>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="119" t="s">
+        <v>456</v>
+      </c>
+      <c r="B117" s="123" t="s">
+        <v>457</v>
+      </c>
+      <c r="C117" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D117" s="124"/>
+      <c r="E117" s="124"/>
+      <c r="F117" s="119"/>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="119" t="s">
+        <v>458</v>
+      </c>
+      <c r="B118" s="119" t="s">
+        <v>459</v>
+      </c>
+      <c r="C118" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D118" s="124"/>
+      <c r="E118" s="124"/>
+      <c r="F118" s="119"/>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="119" t="s">
+        <v>460</v>
+      </c>
+      <c r="B119" s="119" t="s">
+        <v>461</v>
+      </c>
+      <c r="C119" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D119" s="124"/>
+      <c r="E119" s="124"/>
+      <c r="F119" s="119"/>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="119" t="s">
+        <v>462</v>
+      </c>
+      <c r="B120" s="119" t="s">
+        <v>463</v>
+      </c>
+      <c r="C120" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
+      <c r="F120" s="119"/>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="119" t="s">
+        <v>464</v>
+      </c>
+      <c r="B121" s="119" t="s">
+        <v>465</v>
+      </c>
+      <c r="C121" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D121" s="124"/>
+      <c r="E121" s="124"/>
+      <c r="F121" s="119"/>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="B122" s="123" t="s">
+        <v>467</v>
+      </c>
+      <c r="C122" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D122" s="124"/>
+      <c r="E122" s="124"/>
+      <c r="F122" s="119"/>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="119" t="s">
+        <v>468</v>
+      </c>
+      <c r="B123" s="119" t="s">
+        <v>469</v>
+      </c>
+      <c r="C123" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="119"/>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="B124" s="123" t="s">
+        <v>471</v>
+      </c>
+      <c r="C124" s="124" t="s">
+        <v>472</v>
+      </c>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
+      <c r="F124" s="119"/>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="119" t="s">
+        <v>473</v>
+      </c>
+      <c r="B125" s="119" t="s">
+        <v>474</v>
+      </c>
+      <c r="C125" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D125" s="124"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="119"/>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="119" t="s">
+        <v>476</v>
+      </c>
+      <c r="B126" s="119" t="s">
+        <v>477</v>
+      </c>
+      <c r="C126" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D126" s="124"/>
+      <c r="E126" s="124"/>
+      <c r="F126" s="119"/>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="119" t="s">
+        <v>478</v>
+      </c>
+      <c r="B127" s="119" t="s">
+        <v>479</v>
+      </c>
+      <c r="C127" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D127" s="124"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="119"/>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="119" t="s">
+        <v>480</v>
+      </c>
+      <c r="B128" s="119" t="s">
+        <v>481</v>
+      </c>
+      <c r="C128" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D128" s="124"/>
+      <c r="E128" s="124"/>
+      <c r="F128" s="119"/>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="119" t="s">
+        <v>482</v>
+      </c>
+      <c r="B129" s="119" t="s">
+        <v>483</v>
+      </c>
+      <c r="C129" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D129" s="124"/>
+      <c r="E129" s="124"/>
+      <c r="F129" s="119"/>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="119" t="s">
+        <v>484</v>
+      </c>
+      <c r="B130" s="119" t="s">
+        <v>485</v>
+      </c>
+      <c r="C130" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D130" s="124"/>
+      <c r="E130" s="124"/>
+      <c r="F130" s="119"/>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="119" t="s">
+        <v>486</v>
+      </c>
+      <c r="B131" s="119" t="s">
+        <v>487</v>
+      </c>
+      <c r="C131" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D131" s="124"/>
+      <c r="E131" s="124"/>
+      <c r="F131" s="119"/>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="119" t="s">
+        <v>488</v>
+      </c>
+      <c r="B132" s="119" t="s">
+        <v>489</v>
+      </c>
+      <c r="C132" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D132" s="124"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="119"/>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="119" t="s">
+        <v>490</v>
+      </c>
+      <c r="B133" s="119" t="s">
+        <v>491</v>
+      </c>
+      <c r="C133" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D133" s="124"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="119"/>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="119" t="s">
+        <v>492</v>
+      </c>
+      <c r="B134" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="C134" s="122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D134" s="124"/>
+      <c r="E134" s="124"/>
+      <c r="F134" s="119"/>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="B135" s="119" t="s">
+        <v>496</v>
+      </c>
+      <c r="C135" s="122" t="s">
+        <v>386</v>
+      </c>
+      <c r="D135" s="124"/>
+      <c r="E135" s="124"/>
+      <c r="F135" s="119"/>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="123" t="s">
+        <v>497</v>
+      </c>
+      <c r="B136" s="123" t="s">
+        <v>498</v>
+      </c>
+      <c r="C136" s="122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D136" s="124"/>
+      <c r="E136" s="124"/>
+      <c r="F136" s="119"/>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="119" t="s">
+        <v>499</v>
+      </c>
+      <c r="B137" s="123" t="s">
+        <v>500</v>
+      </c>
+      <c r="C137" s="122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D137" s="124"/>
+      <c r="E137" s="124"/>
+      <c r="F137" s="119"/>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="119" t="s">
+        <v>501</v>
+      </c>
+      <c r="B138" s="123" t="s">
+        <v>502</v>
+      </c>
+      <c r="C138" s="122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D138" s="124"/>
+      <c r="E138" s="124"/>
+      <c r="F138" s="119"/>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="119" t="s">
+        <v>503</v>
+      </c>
+      <c r="B139" s="123" t="s">
+        <v>504</v>
+      </c>
+      <c r="C139" s="122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D139" s="124"/>
+      <c r="E139" s="124"/>
+      <c r="F139" s="119"/>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="119" t="s">
+        <v>505</v>
+      </c>
+      <c r="B140" s="119" t="s">
+        <v>506</v>
+      </c>
+      <c r="C140" s="122" t="s">
+        <v>472</v>
+      </c>
+      <c r="D140" s="124"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="119"/>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="119" t="s">
+        <v>507</v>
+      </c>
+      <c r="B141" s="123" t="s">
+        <v>508</v>
+      </c>
+      <c r="C141" s="122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D141" s="124"/>
+      <c r="E141" s="124"/>
+      <c r="F141" s="119"/>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="119" t="s">
+        <v>509</v>
+      </c>
+      <c r="B142" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C142" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D142" s="124"/>
+      <c r="E142" s="124"/>
+      <c r="F142" s="119"/>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="119" t="s">
+        <v>512</v>
+      </c>
+      <c r="B143" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="C143" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D143" s="124"/>
+      <c r="E143" s="124"/>
+      <c r="F143" s="127"/>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="119" t="s">
+        <v>514</v>
+      </c>
+      <c r="B144" s="119" t="s">
+        <v>515</v>
+      </c>
+      <c r="C144" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D144" s="124"/>
+      <c r="E144" s="124"/>
+      <c r="F144" s="127"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="119" t="s">
+        <v>516</v>
+      </c>
+      <c r="C145" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D145" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E145" s="124"/>
+      <c r="F145" s="127"/>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="119" t="s">
+        <v>517</v>
+      </c>
+      <c r="B146" s="119" t="s">
+        <v>518</v>
+      </c>
+      <c r="C146" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D146" s="124"/>
+      <c r="E146" s="124"/>
+      <c r="F146" s="127"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="119" t="s">
+        <v>519</v>
+      </c>
+      <c r="B147" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D147" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" s="124"/>
+      <c r="F147" s="128"/>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="119" t="s">
+        <v>521</v>
+      </c>
+      <c r="B148" s="119" t="s">
+        <v>522</v>
+      </c>
+      <c r="C148" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D148" s="124"/>
+      <c r="E148" s="124"/>
+      <c r="F148" s="128"/>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="119" t="s">
+        <v>523</v>
+      </c>
+      <c r="B149" s="119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C149" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D149" s="124"/>
+      <c r="E149" s="124"/>
+      <c r="F149" s="128"/>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="119" t="s">
+        <v>525</v>
+      </c>
+      <c r="B150" s="119" t="s">
+        <v>526</v>
+      </c>
+      <c r="C150" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D150" s="124"/>
+      <c r="E150" s="124"/>
+      <c r="F150" s="128"/>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="119" t="s">
+        <v>527</v>
+      </c>
+      <c r="B151" s="119" t="s">
+        <v>528</v>
+      </c>
+      <c r="C151" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D151" s="124"/>
+      <c r="E151" s="124"/>
+      <c r="F151" s="128"/>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="119" t="s">
+        <v>529</v>
+      </c>
+      <c r="B152" s="119" t="s">
+        <v>530</v>
+      </c>
+      <c r="C152" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D152" s="124"/>
+      <c r="E152" s="124"/>
+      <c r="F152" s="128"/>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="119" t="s">
+        <v>531</v>
+      </c>
+      <c r="B153" s="119" t="s">
+        <v>532</v>
+      </c>
+      <c r="C153" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D153" s="124"/>
+      <c r="E153" s="124"/>
+      <c r="F153" s="119"/>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="119" t="s">
+        <v>533</v>
+      </c>
+      <c r="B154" s="119" t="s">
+        <v>534</v>
+      </c>
+      <c r="C154" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D154" s="124"/>
+      <c r="E154" s="124"/>
+      <c r="F154" s="119"/>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="119" t="s">
+        <v>535</v>
+      </c>
+      <c r="B155" s="119" t="s">
+        <v>536</v>
+      </c>
+      <c r="C155" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D155" s="124"/>
+      <c r="E155" s="124"/>
+      <c r="F155" s="119"/>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="119" t="s">
+        <v>537</v>
+      </c>
+      <c r="B156" s="119" t="s">
+        <v>538</v>
+      </c>
+      <c r="C156" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D156" s="124"/>
+      <c r="E156" s="124"/>
+      <c r="F156" s="128"/>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="119" t="s">
+        <v>539</v>
+      </c>
+      <c r="B157" s="123" t="s">
+        <v>540</v>
+      </c>
+      <c r="C157" s="135" t="s">
+        <v>541</v>
+      </c>
+      <c r="D157" s="124"/>
+      <c r="E157" s="124"/>
+      <c r="F157" s="127"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="123" t="s">
+        <v>542</v>
+      </c>
+      <c r="C158" s="135" t="s">
+        <v>541</v>
+      </c>
+      <c r="D158" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E158" s="124"/>
+      <c r="F158" s="127"/>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="119" t="s">
+        <v>543</v>
+      </c>
+      <c r="B159" s="120" t="s">
+        <v>544</v>
+      </c>
+      <c r="C159" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D159" s="124"/>
+      <c r="E159" s="124"/>
+      <c r="F159" s="127"/>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="119" t="s">
+        <v>545</v>
+      </c>
+      <c r="B160" s="120" t="s">
+        <v>546</v>
+      </c>
+      <c r="C160" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D160" s="124"/>
+      <c r="E160" s="124"/>
+      <c r="F160" s="119"/>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="119" t="s">
+        <v>547</v>
+      </c>
+      <c r="B161" s="119" t="s">
+        <v>548</v>
+      </c>
+      <c r="C161" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D161" s="124"/>
+      <c r="E161" s="124"/>
+      <c r="F161" s="119"/>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="119" t="s">
+        <v>549</v>
+      </c>
+      <c r="B162" s="119" t="s">
+        <v>550</v>
+      </c>
+      <c r="C162" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D162" s="124"/>
+      <c r="E162" s="124"/>
+      <c r="F162" s="119"/>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="119" t="s">
+        <v>551</v>
+      </c>
+      <c r="B163" s="119" t="s">
+        <v>552</v>
+      </c>
+      <c r="C163" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D163" s="124"/>
+      <c r="E163" s="124"/>
+      <c r="F163" s="119"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="119" t="s">
+        <v>553</v>
+      </c>
+      <c r="C164" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D164" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E164" s="124"/>
+      <c r="F164" s="119"/>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="119" t="s">
+        <v>554</v>
+      </c>
+      <c r="B165" s="119" t="s">
+        <v>555</v>
+      </c>
+      <c r="C165" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D165" s="124"/>
+      <c r="E165" s="124"/>
+      <c r="F165" s="119"/>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="119" t="s">
+        <v>556</v>
+      </c>
+      <c r="B166" s="119" t="s">
+        <v>557</v>
+      </c>
+      <c r="C166" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D166" s="124"/>
+      <c r="E166" s="124"/>
+      <c r="F166" s="119"/>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="119" t="s">
+        <v>558</v>
+      </c>
+      <c r="B167" s="119" t="s">
+        <v>559</v>
+      </c>
+      <c r="C167" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D167" s="124"/>
+      <c r="E167" s="124"/>
+      <c r="F167" s="119"/>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="119" t="s">
+        <v>560</v>
+      </c>
+      <c r="B168" s="119" t="s">
+        <v>561</v>
+      </c>
+      <c r="C168" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D168" s="124"/>
+      <c r="E168" s="124"/>
+      <c r="F168" s="119"/>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="119" t="s">
+        <v>562</v>
+      </c>
+      <c r="B169" s="119" t="s">
+        <v>563</v>
+      </c>
+      <c r="C169" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D169" s="124"/>
+      <c r="E169" s="124"/>
+      <c r="F169" s="119"/>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="119" t="s">
+        <v>564</v>
+      </c>
+      <c r="B170" s="119" t="s">
+        <v>565</v>
+      </c>
+      <c r="C170" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D170" s="124"/>
+      <c r="E170" s="124"/>
+      <c r="F170" s="119"/>
+    </row>
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="119" t="s">
+        <v>566</v>
+      </c>
+      <c r="B171" s="119" t="s">
+        <v>567</v>
+      </c>
+      <c r="C171" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D171" s="124"/>
+      <c r="E171" s="124"/>
+      <c r="F171" s="119"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" s="119" t="s">
+        <v>568</v>
+      </c>
+      <c r="C172" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D172" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E172" s="124"/>
+      <c r="F172" s="119"/>
+    </row>
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="119" t="s">
+        <v>569</v>
+      </c>
+      <c r="B173" s="119" t="s">
+        <v>570</v>
+      </c>
+      <c r="C173" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D173" s="124"/>
+      <c r="E173" s="124"/>
+      <c r="F173" s="119"/>
+    </row>
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="119" t="s">
+        <v>571</v>
+      </c>
+      <c r="B174" s="123" t="s">
+        <v>572</v>
+      </c>
+      <c r="C174" s="135" t="s">
+        <v>541</v>
+      </c>
+      <c r="D174" s="124"/>
+      <c r="E174" s="124"/>
+      <c r="F174" s="119"/>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="119" t="s">
+        <v>573</v>
+      </c>
+      <c r="B175" s="120" t="s">
+        <v>574</v>
+      </c>
+      <c r="C175" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D175" s="124"/>
+      <c r="E175" s="124"/>
+      <c r="F175" s="119"/>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="119" t="s">
+        <v>575</v>
+      </c>
+      <c r="B176" s="120" t="s">
+        <v>576</v>
+      </c>
+      <c r="C176" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D176" s="124"/>
+      <c r="E176" s="124"/>
+      <c r="F176" s="119"/>
+    </row>
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="119" t="s">
+        <v>577</v>
+      </c>
+      <c r="B177" s="119" t="s">
+        <v>578</v>
+      </c>
+      <c r="C177" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D177" s="124"/>
+      <c r="E177" s="124"/>
+      <c r="F177" s="119"/>
+    </row>
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="119" t="s">
+        <v>579</v>
+      </c>
+      <c r="C178" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D178" s="124"/>
+      <c r="E178" s="124"/>
+      <c r="F178" s="119"/>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="119" t="s">
+        <v>580</v>
+      </c>
+      <c r="B179" s="119" t="s">
+        <v>581</v>
+      </c>
+      <c r="C179" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D179" s="124"/>
+      <c r="E179" s="124"/>
+      <c r="F179" s="119"/>
+    </row>
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="119" t="s">
+        <v>582</v>
+      </c>
+      <c r="C180" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D180" s="124"/>
+      <c r="E180" s="124"/>
+      <c r="F180" s="119"/>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="119" t="s">
+        <v>583</v>
+      </c>
+      <c r="B181" s="119" t="s">
+        <v>584</v>
+      </c>
+      <c r="C181" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D181" s="124"/>
+      <c r="E181" s="124"/>
+      <c r="F181" s="119"/>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="119" t="s">
+        <v>585</v>
+      </c>
+      <c r="B182" s="119" t="s">
+        <v>586</v>
+      </c>
+      <c r="C182" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D182" s="124"/>
+      <c r="E182" s="124"/>
+      <c r="F182" s="119"/>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="119" t="s">
+        <v>587</v>
+      </c>
+      <c r="B183" s="119" t="s">
+        <v>588</v>
+      </c>
+      <c r="C183" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D183" s="124"/>
+      <c r="E183" s="124"/>
+      <c r="F183" s="119"/>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="119" t="s">
+        <v>589</v>
+      </c>
+      <c r="B184" s="119" t="s">
+        <v>590</v>
+      </c>
+      <c r="C184" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D184" s="124"/>
+      <c r="E184" s="124"/>
+      <c r="F184" s="119"/>
+    </row>
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="119" t="s">
+        <v>591</v>
+      </c>
+      <c r="B185" s="119" t="s">
+        <v>592</v>
+      </c>
+      <c r="C185" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D185" s="124"/>
+      <c r="E185" s="124"/>
+      <c r="F185" s="119"/>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="119" t="s">
+        <v>593</v>
+      </c>
+      <c r="B186" s="119" t="s">
+        <v>594</v>
+      </c>
+      <c r="C186" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D186" s="124"/>
+      <c r="E186" s="124"/>
+      <c r="F186" s="119"/>
+    </row>
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="119" t="s">
+        <v>595</v>
+      </c>
+      <c r="B187" s="119" t="s">
+        <v>596</v>
+      </c>
+      <c r="C187" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D187" s="124"/>
+      <c r="E187" s="124"/>
+      <c r="F187" s="119"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" s="119" t="s">
+        <v>597</v>
+      </c>
+      <c r="C188" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D188" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E188" s="124"/>
+      <c r="F188" s="119"/>
+    </row>
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="119" t="s">
+        <v>598</v>
+      </c>
+      <c r="B189" s="119" t="s">
+        <v>599</v>
+      </c>
+      <c r="C189" s="135" t="s">
+        <v>511</v>
+      </c>
+      <c r="D189" s="124"/>
+      <c r="E189" s="124"/>
+      <c r="F189" s="119"/>
+    </row>
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="119" t="s">
+        <v>600</v>
+      </c>
+      <c r="B190" s="123" t="s">
+        <v>601</v>
+      </c>
+      <c r="C190" s="135" t="s">
+        <v>541</v>
+      </c>
+      <c r="D190" s="124"/>
+      <c r="E190" s="124"/>
+      <c r="F190" s="119"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:F190" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;D&amp;CPage &amp;P of &amp;N&amp;R&amp;F</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\R\R-3.4.1\library\BCGcalc\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B623E01-2906-4D85-9FAD-6CA31ED76033}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">abbrev_v1!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Erik W. Leppo</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F211A308-FBD5-4BA7-8258-65B51BE54CAD}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,12 +73,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Leppo, Erik</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E1977202-9C76-4275-8C1D-AA39BF0E3657}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{BAD98A2D-1552-4AEB-ABC0-ABC06D79ED95}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,12 +133,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Stamp, Jen</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1F574BC8-6F05-4545-9B3B-051731947D3B}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="601">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -915,51 +914,6 @@
     <t>change Final name</t>
   </si>
   <si>
-    <t>≥ 29 (24-34)</t>
-  </si>
-  <si>
-    <t>≥ 3 (1-5)</t>
-  </si>
-  <si>
-    <t>≥ 12 (7-17)</t>
-  </si>
-  <si>
-    <t>≥ 18 (13-23)</t>
-  </si>
-  <si>
-    <t>≥ 5 (3-7)</t>
-  </si>
-  <si>
-    <t>≥ 16 (11-21)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1 (0-2)</t>
-    </r>
-  </si>
-  <si>
-    <t>≥ 10 (5-15)</t>
-  </si>
-  <si>
-    <t>≥ 240 (230-250)</t>
-  </si>
-  <si>
     <t>BCG_PacNW_v1_500ct</t>
   </si>
   <si>
@@ -2170,12 +2124,24 @@
   </si>
   <si>
     <t>BCG_Attr, Class</t>
+  </si>
+  <si>
+    <t>&gt; 4 (2-7)</t>
+  </si>
+  <si>
+    <t>&gt; 7 (5-10)</t>
+  </si>
+  <si>
+    <t>≥ 11 (6-16)</t>
+  </si>
+  <si>
+    <t>≥ 290 (280-300)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2500,12 +2466,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2519,6 +2479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2863,14 +2829,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2"/>
@@ -2886,7 +2844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
@@ -2917,13 +2875,13 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2978,22 +2936,46 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3011,47 +2993,71 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{6AE34375-C906-4FD7-B1AC-73AED38CBD33}"/>
+    <cellStyle name="Hyperlink 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title 2" xfId="5" xr:uid="{C35012B2-A608-49D3-B31A-F44D4D1CF5E0}"/>
+    <cellStyle name="Title 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3439,12 +3445,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5CC360D6-FC84-45D1-BD8C-CEE32576C1BA}" name="Table1" displayName="Table1" ref="A15:C20" totalsRowShown="0">
-  <autoFilter ref="A15:C20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A15:C20" totalsRowShown="0">
+  <autoFilter ref="A15:C20"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E96AF8E6-7602-4177-9608-6B2FAAB72D3A}" name="Worksheet"/>
-    <tableColumn id="2" xr3:uid="{7C883C9B-CDE7-4D2F-8A51-301FC729AAC5}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{5733210A-1B2C-42BE-BDA8-55CB7AD23932}" name="Link" dataDxfId="37">
+    <tableColumn id="1" name="Worksheet"/>
+    <tableColumn id="2" name="Descriptions"/>
+    <tableColumn id="3" name="Link" dataDxfId="41">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3714,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5326BCD5-D9A7-412B-A8FC-2C1C6FFD2B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
@@ -3732,147 +3738,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
-        <v>213</v>
+      <c r="A1" s="93" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
-        <v>214</v>
+      <c r="A2" s="94" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
-        <v>215</v>
+      <c r="A4" s="102" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="99">
+      <c r="A5" s="95">
         <v>43369</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="101" t="str">
+      <c r="A7" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="97" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[Rules.xlsx]</v>
+        <v>C:\Programs\R\R-3.4.1\library\BCGcalc\extdata\[Rules.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="101" t="str">
+      <c r="A8" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="97" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
         <v>[Rules.xlsx]</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="102" t="str">
+      <c r="A9" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="98" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
         <v>NOTES</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="103" t="s">
-        <v>207</v>
+      <c r="A11" s="99" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="105" t="str">
+        <v>203</v>
+      </c>
+      <c r="C16" s="101" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
         <v>NOTES</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="136" t="str">
+        <v>210</v>
+      </c>
+      <c r="C17" s="132" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>abbrev_v1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="137" t="str">
+        <v>211</v>
+      </c>
+      <c r="C18" s="133" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
         <v>BCG_PacNW_v1_500ct</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="107" t="str">
+        <v>212</v>
+      </c>
+      <c r="C19" s="103" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
         <v>BCG_PacNW_v1_300ct</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B20" t="s">
-        <v>603</v>
-      </c>
-      <c r="C20" s="138" t="str">
+        <v>594</v>
+      </c>
+      <c r="C20" s="134" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A20&amp;"!A1",A20)</f>
         <v>MetricMetadata</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{8F502A2B-2E20-4B5B-956C-AB0494C2FECF}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
       <formula1>""</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{BF09373F-C691-4FF1-AC3E-B1B30DFD8428}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
@@ -3888,7 +3894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3983,12 +3989,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -4007,10 +4013,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="156"/>
+      <c r="C7" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="144"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -4029,10 +4035,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="146"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -4077,10 +4083,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -4099,10 +4105,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -4121,10 +4127,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -4143,10 +4149,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="144"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -4165,10 +4171,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="141"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -4189,10 +4195,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -4207,12 +4213,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -4246,10 +4252,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="139"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -4312,10 +4318,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="142"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -4360,10 +4366,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="142"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -4422,19 +4428,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="148" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="148" t="s">
+      <c r="E26" s="135" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4448,13 +4454,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="143"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="144"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="149"/>
+      <c r="E27" s="136"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -4466,12 +4472,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -4512,10 +4518,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="146"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4568,10 +4574,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="142" t="s">
+      <c r="C34" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="142"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -4598,19 +4604,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="142"/>
+      <c r="D36" s="152"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4620,10 +4626,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="153"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4684,6 +4690,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -4700,22 +4722,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -4729,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9133,7 +9139,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W66" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A2:W66">
     <filterColumn colId="1">
       <filters>
         <filter val="Hi"/>
@@ -9151,167 +9157,167 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="I3:I34 I53:I66 I44:I51">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I43">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U9">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U14">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U16">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U28">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30:U32">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35:U38">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U40">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44:U46">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U55">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U56">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U60">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U59">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62:U64">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U65">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U66">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M66">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9321,13 +9327,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -9383,8 +9389,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
-        <v>202</v>
+      <c r="A2" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
@@ -9418,8 +9424,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>202</v>
+      <c r="A3" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
@@ -9453,8 +9459,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>202</v>
+      <c r="A4" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
@@ -9488,8 +9494,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>202</v>
+      <c r="A5" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
@@ -9523,8 +9529,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
-        <v>202</v>
+      <c r="A6" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -9558,8 +9564,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
-        <v>202</v>
+      <c r="A7" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
@@ -9593,8 +9599,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
-        <v>202</v>
+      <c r="A8" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
@@ -9628,8 +9634,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>202</v>
+      <c r="A9" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>131</v>
@@ -9663,8 +9669,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
-        <v>202</v>
+      <c r="A10" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
@@ -9698,8 +9704,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
-        <v>202</v>
+      <c r="A11" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>131</v>
@@ -9733,8 +9739,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
-        <v>202</v>
+      <c r="A12" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B12" t="s">
         <v>131</v>
@@ -9768,8 +9774,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
-        <v>202</v>
+      <c r="A13" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
@@ -9803,8 +9809,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
-        <v>202</v>
+      <c r="A14" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
@@ -9838,8 +9844,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
-        <v>202</v>
+      <c r="A15" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -9873,8 +9879,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
-        <v>202</v>
+      <c r="A16" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
@@ -9908,8 +9914,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
-        <v>202</v>
+      <c r="A17" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
@@ -9943,8 +9949,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
-        <v>202</v>
+      <c r="A18" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
@@ -9978,8 +9984,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
-        <v>202</v>
+      <c r="A19" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -10013,8 +10019,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
-        <v>202</v>
+      <c r="A20" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
@@ -10048,8 +10054,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>202</v>
+      <c r="A21" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
@@ -10083,8 +10089,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>202</v>
+      <c r="A22" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -10118,8 +10124,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
-        <v>202</v>
+      <c r="A23" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
@@ -10153,8 +10159,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
-        <v>202</v>
+      <c r="A24" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -10188,8 +10194,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="s">
-        <v>202</v>
+      <c r="A25" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
@@ -10223,8 +10229,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
-        <v>202</v>
+      <c r="A26" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
@@ -10258,8 +10264,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
-        <v>202</v>
+      <c r="A27" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
@@ -10293,8 +10299,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="96" t="s">
-        <v>202</v>
+      <c r="A28" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -10328,8 +10334,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
-        <v>202</v>
+      <c r="A29" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -10363,8 +10369,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
-        <v>202</v>
+      <c r="A30" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -10398,8 +10404,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
-        <v>202</v>
+      <c r="A31" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
@@ -10433,8 +10439,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="96" t="s">
-        <v>202</v>
+      <c r="A32" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -10468,8 +10474,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="s">
-        <v>202</v>
+      <c r="A33" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -10503,8 +10509,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="96" t="s">
-        <v>202</v>
+      <c r="A34" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
@@ -10538,8 +10544,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
-        <v>202</v>
+      <c r="A35" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
@@ -10573,8 +10579,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="96" t="s">
-        <v>202</v>
+      <c r="A36" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
@@ -10608,8 +10614,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
-        <v>202</v>
+      <c r="A37" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
@@ -10643,8 +10649,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
-        <v>202</v>
+      <c r="A38" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
@@ -10678,8 +10684,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="96" t="s">
-        <v>202</v>
+      <c r="A39" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -10713,8 +10719,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="96" t="s">
-        <v>202</v>
+      <c r="A40" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -10748,8 +10754,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="96" t="s">
-        <v>202</v>
+      <c r="A41" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
@@ -10783,8 +10789,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
-        <v>202</v>
+      <c r="A42" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
@@ -10818,8 +10824,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="96" t="s">
-        <v>202</v>
+      <c r="A43" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
@@ -10853,8 +10859,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="96" t="s">
-        <v>202</v>
+      <c r="A44" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -10888,8 +10894,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="96" t="s">
-        <v>202</v>
+      <c r="A45" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -10923,8 +10929,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="96" t="s">
-        <v>202</v>
+      <c r="A46" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -10958,8 +10964,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="96" t="s">
-        <v>202</v>
+      <c r="A47" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
@@ -10993,8 +10999,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="96" t="s">
-        <v>202</v>
+      <c r="A48" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -11028,8 +11034,8 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="96" t="s">
-        <v>202</v>
+      <c r="A49" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
@@ -11063,8 +11069,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="96" t="s">
-        <v>202</v>
+      <c r="A50" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -11098,8 +11104,8 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="96" t="s">
-        <v>202</v>
+      <c r="A51" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
@@ -11133,8 +11139,8 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="96" t="s">
-        <v>202</v>
+      <c r="A52" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -11168,8 +11174,8 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="96" t="s">
-        <v>202</v>
+      <c r="A53" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -11203,8 +11209,8 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="96" t="s">
-        <v>202</v>
+      <c r="A54" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -11238,8 +11244,8 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="96" t="s">
-        <v>202</v>
+      <c r="A55" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -11273,14 +11279,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55" xr:uid="{C7418534-DFF5-46AC-929B-EF1CA90B31E5}"/>
+  <autoFilter ref="A1:K55"/>
   <conditionalFormatting sqref="I2:I28 I37:I55">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11291,27 +11297,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K56"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="54"/>
+    <col min="7" max="7" width="9.140625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="54"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="126.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11350,10 +11355,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C2">
@@ -11362,17 +11367,17 @@
       <c r="D2" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="93" t="s">
+      <c r="E2" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="93">
-        <v>24</v>
-      </c>
-      <c r="H2" s="93">
-        <v>34</v>
+      <c r="G2" s="57">
+        <v>20</v>
+      </c>
+      <c r="H2" s="57">
+        <v>30</v>
       </c>
       <c r="I2" s="46" t="b">
         <v>1</v>
@@ -11385,10 +11390,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C3">
@@ -11397,17 +11402,17 @@
       <c r="D3" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="93">
-        <v>1</v>
-      </c>
-      <c r="H3" s="93">
-        <v>5</v>
+      <c r="E3" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="57">
+        <v>2</v>
+      </c>
+      <c r="H3" s="57">
+        <v>7</v>
       </c>
       <c r="I3" s="46" t="b">
         <v>1</v>
@@ -11420,10 +11425,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C4">
@@ -11455,10 +11460,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C5">
@@ -11490,10 +11495,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C6">
@@ -11525,10 +11530,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C7">
@@ -11560,10 +11565,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C8">
@@ -11572,17 +11577,17 @@
       <c r="D8" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="93" t="s">
+      <c r="E8" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="93">
-        <v>7</v>
-      </c>
-      <c r="H8" s="93">
-        <v>17</v>
+      <c r="G8" s="57">
+        <v>8</v>
+      </c>
+      <c r="H8" s="57">
+        <v>18</v>
       </c>
       <c r="I8" s="46" t="b">
         <v>1</v>
@@ -11595,10 +11600,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C9">
@@ -11630,10 +11635,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C10">
@@ -11642,17 +11647,17 @@
       <c r="D10" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="93" t="s">
+      <c r="E10" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="93">
-        <v>13</v>
-      </c>
-      <c r="H10" s="93">
-        <v>23</v>
+      <c r="G10" s="57">
+        <v>15</v>
+      </c>
+      <c r="H10" s="57">
+        <v>25</v>
       </c>
       <c r="I10" s="46" t="b">
         <v>1</v>
@@ -11665,10 +11670,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C11">
@@ -11700,10 +11705,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C12">
@@ -11735,10 +11740,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C13">
@@ -11770,10 +11775,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C14">
@@ -11805,10 +11810,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C15">
@@ -11817,17 +11822,17 @@
       <c r="D15" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="93">
-        <v>3</v>
-      </c>
-      <c r="H15" s="93">
-        <v>7</v>
+      <c r="E15" s="91" t="s">
+        <v>598</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="57">
+        <v>5</v>
+      </c>
+      <c r="H15" s="57">
+        <v>10</v>
       </c>
       <c r="I15" s="46" t="b">
         <v>1</v>
@@ -11840,10 +11845,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C16">
@@ -11875,10 +11880,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C17">
@@ -11887,17 +11892,17 @@
       <c r="D17" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="93" t="s">
+      <c r="E17" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="93">
-        <v>11</v>
-      </c>
-      <c r="H17" s="93">
-        <v>21</v>
+      <c r="G17" s="57">
+        <v>10</v>
+      </c>
+      <c r="H17" s="57">
+        <v>20</v>
       </c>
       <c r="I17" s="46" t="b">
         <v>1</v>
@@ -11910,10 +11915,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C18">
@@ -11945,10 +11950,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C19">
@@ -11980,10 +11985,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C20">
@@ -12015,29 +12020,29 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="93">
-        <v>0</v>
-      </c>
-      <c r="H21" s="93">
-        <v>2</v>
+      <c r="E21" s="155" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="156" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="156">
+        <v>0</v>
+      </c>
+      <c r="H21" s="156">
+        <v>3</v>
       </c>
       <c r="I21" s="46" t="b">
         <v>1</v>
@@ -12050,10 +12055,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C22">
@@ -12085,10 +12090,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C23">
@@ -12120,10 +12125,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C24">
@@ -12132,17 +12137,17 @@
       <c r="D24" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="93" t="s">
+      <c r="E24" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="93">
-        <v>5</v>
-      </c>
-      <c r="H24" s="93">
-        <v>15</v>
+      <c r="G24" s="57">
+        <v>6</v>
+      </c>
+      <c r="H24" s="57">
+        <v>16</v>
       </c>
       <c r="I24" s="46" t="b">
         <v>1</v>
@@ -12155,10 +12160,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C25">
@@ -12167,17 +12172,17 @@
       <c r="D25" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F25" s="93" t="s">
+      <c r="E25" s="91" t="s">
+        <v>600</v>
+      </c>
+      <c r="F25" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="93">
-        <v>230</v>
-      </c>
-      <c r="H25" s="93">
-        <v>250</v>
+      <c r="G25" s="57">
+        <v>280</v>
+      </c>
+      <c r="H25" s="57">
+        <v>300</v>
       </c>
       <c r="I25" s="46" t="b">
         <v>1</v>
@@ -12190,28 +12195,28 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="95">
-        <v>0</v>
-      </c>
-      <c r="H26" s="95">
+      <c r="G26" s="156">
+        <v>0</v>
+      </c>
+      <c r="H26" s="156">
         <v>1</v>
       </c>
       <c r="I26" s="46" t="b">
@@ -12225,10 +12230,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C27">
@@ -12237,16 +12242,16 @@
       <c r="D27" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="156">
         <v>0.3</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="156">
         <v>0.4</v>
       </c>
       <c r="I27" s="46" t="b">
@@ -12260,10 +12265,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="154" t="s">
         <v>131</v>
       </c>
       <c r="C28">
@@ -12295,10 +12300,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C29">
@@ -12307,17 +12312,17 @@
       <c r="D29" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="93" t="s">
+      <c r="E29" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="93">
-        <v>24</v>
-      </c>
-      <c r="H29" s="93">
-        <v>34</v>
+      <c r="G29" s="57">
+        <v>20</v>
+      </c>
+      <c r="H29" s="57">
+        <v>30</v>
       </c>
       <c r="I29" s="46" t="b">
         <v>1</v>
@@ -12330,10 +12335,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C30">
@@ -12342,17 +12347,17 @@
       <c r="D30" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="93">
-        <v>1</v>
-      </c>
-      <c r="H30" s="93">
-        <v>5</v>
+      <c r="E30" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="57">
+        <v>2</v>
+      </c>
+      <c r="H30" s="57">
+        <v>7</v>
       </c>
       <c r="I30" s="46" t="b">
         <v>1</v>
@@ -12365,10 +12370,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C31">
@@ -12400,10 +12405,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C32">
@@ -12435,10 +12440,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C33">
@@ -12470,10 +12475,10 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C34">
@@ -12505,10 +12510,10 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C35">
@@ -12517,17 +12522,17 @@
       <c r="D35" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="93" t="s">
+      <c r="E35" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="93">
-        <v>7</v>
-      </c>
-      <c r="H35" s="93">
-        <v>17</v>
+      <c r="G35" s="57">
+        <v>8</v>
+      </c>
+      <c r="H35" s="57">
+        <v>18</v>
       </c>
       <c r="I35" s="46" t="b">
         <v>1</v>
@@ -12540,10 +12545,10 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C36">
@@ -12575,10 +12580,10 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C37">
@@ -12587,17 +12592,17 @@
       <c r="D37" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" s="93" t="s">
+      <c r="E37" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="93">
-        <v>13</v>
-      </c>
-      <c r="H37" s="93">
-        <v>23</v>
+      <c r="G37" s="57">
+        <v>15</v>
+      </c>
+      <c r="H37" s="57">
+        <v>25</v>
       </c>
       <c r="I37" s="46" t="b">
         <v>1</v>
@@ -12610,10 +12615,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C38">
@@ -12645,10 +12650,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C39">
@@ -12680,10 +12685,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C40">
@@ -12715,10 +12720,10 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C41">
@@ -12750,10 +12755,10 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C42">
@@ -12762,17 +12767,17 @@
       <c r="D42" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="93">
-        <v>3</v>
-      </c>
-      <c r="H42" s="93">
-        <v>7</v>
+      <c r="E42" s="91" t="s">
+        <v>598</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="57">
+        <v>5</v>
+      </c>
+      <c r="H42" s="57">
+        <v>10</v>
       </c>
       <c r="I42" s="46" t="b">
         <v>1</v>
@@ -12785,10 +12790,10 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C43">
@@ -12820,10 +12825,10 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C44">
@@ -12832,17 +12837,17 @@
       <c r="D44" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="93" t="s">
+      <c r="E44" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G44" s="93">
-        <v>11</v>
-      </c>
-      <c r="H44" s="93">
-        <v>21</v>
+      <c r="G44" s="57">
+        <v>10</v>
+      </c>
+      <c r="H44" s="57">
+        <v>20</v>
       </c>
       <c r="I44" s="51" t="b">
         <v>1</v>
@@ -12855,10 +12860,10 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C45">
@@ -12890,10 +12895,10 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C46">
@@ -12925,10 +12930,10 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C47">
@@ -12960,29 +12965,29 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="D48" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="93">
-        <v>0</v>
-      </c>
-      <c r="H48" s="93">
-        <v>2</v>
+      <c r="E48" s="155" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="156" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="156">
+        <v>0</v>
+      </c>
+      <c r="H48" s="156">
+        <v>3</v>
       </c>
       <c r="I48" s="51" t="b">
         <v>1</v>
@@ -12995,10 +13000,10 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C49">
@@ -13030,10 +13035,10 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C50">
@@ -13065,10 +13070,10 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C51">
@@ -13077,17 +13082,17 @@
       <c r="D51" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="93" t="s">
+      <c r="E51" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="F51" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="93">
-        <v>5</v>
-      </c>
-      <c r="H51" s="93">
-        <v>15</v>
+      <c r="G51" s="57">
+        <v>6</v>
+      </c>
+      <c r="H51" s="57">
+        <v>16</v>
       </c>
       <c r="I51" s="46" t="b">
         <v>1</v>
@@ -13100,10 +13105,10 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C52">
@@ -13112,17 +13117,17 @@
       <c r="D52" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="93" t="s">
+      <c r="E52" s="91" t="s">
+        <v>600</v>
+      </c>
+      <c r="F52" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="93">
-        <v>230</v>
-      </c>
-      <c r="H52" s="93">
-        <v>250</v>
+      <c r="G52" s="57">
+        <v>280</v>
+      </c>
+      <c r="H52" s="57">
+        <v>300</v>
       </c>
       <c r="I52" s="46" t="b">
         <v>1</v>
@@ -13135,28 +13140,28 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53" s="91" t="s">
+      <c r="D53" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="94" t="s">
+      <c r="E53" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="95" t="s">
+      <c r="F53" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="95">
-        <v>0</v>
-      </c>
-      <c r="H53" s="95">
+      <c r="G53" s="156">
+        <v>0</v>
+      </c>
+      <c r="H53" s="156">
         <v>1</v>
       </c>
       <c r="I53" s="46" t="b">
@@ -13170,10 +13175,10 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C54">
@@ -13182,16 +13187,16 @@
       <c r="D54" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="F54" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="54">
+      <c r="G54" s="156">
         <v>0.3</v>
       </c>
-      <c r="H54" s="54">
+      <c r="H54" s="156">
         <v>0.4</v>
       </c>
       <c r="I54" s="46" t="b">
@@ -13205,10 +13210,10 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C55">
@@ -13217,16 +13222,16 @@
       <c r="D55" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="F55" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="54">
+      <c r="G55" s="156">
         <v>0.70000000000000007</v>
       </c>
-      <c r="H55" s="54">
+      <c r="H55" s="156">
         <v>0.8</v>
       </c>
       <c r="I55" s="46" t="b">
@@ -13239,15 +13244,21 @@
         <v>151</v>
       </c>
     </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K55" xr:uid="{4E5F69B8-3D7F-4D3C-B70D-FBE25BBAAB34}"/>
   <conditionalFormatting sqref="I2:I28 I37:I55">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13256,7 +13267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1AB5C5-A815-4383-B91F-A3F16FE0F605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -13271,2698 +13282,2698 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="110" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" style="110" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="112" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="112" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="112" customWidth="1"/>
-    <col min="6" max="6" width="32" style="110" customWidth="1"/>
-    <col min="7" max="7" width="18" style="110" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="110" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="110"/>
-    <col min="10" max="10" width="23.5703125" style="110" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="110"/>
+    <col min="1" max="1" width="31.7109375" style="106" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" style="106" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="108" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="108" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="108" customWidth="1"/>
+    <col min="6" max="6" width="32" style="106" customWidth="1"/>
+    <col min="7" max="7" width="18" style="106" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="106" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="106"/>
+    <col min="10" max="10" width="23.5703125" style="106" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="108"/>
+      <c r="A1" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111">
+      <c r="A2" s="107">
         <v>43355</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="113">
+      <c r="A3" s="109">
         <f>SUBTOTAL(3,A6:A190)</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="112"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="112"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="112"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="117"/>
+      <c r="F9" s="116"/>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="B10" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="C10" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="114" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B11" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="116"/>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="C11" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="115"/>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="116"/>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="B12" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="116"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="120" t="s">
+      <c r="C12" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="121" t="s">
-        <v>604</v>
-      </c>
-      <c r="D9" s="122" t="s">
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="120"/>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119" t="s">
+      <c r="B13" s="119" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="C13" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="115"/>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="B14" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="119"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="C14" s="118" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="115"/>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="119"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119" t="s">
+      <c r="B15" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="C15" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="123" t="s">
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="123"/>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="115" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119" t="s">
+      <c r="B16" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="C16" s="118" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="119"/>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="124"/>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B17" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C17" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="123"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="119"/>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119" t="s">
+      <c r="B18" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="119" t="s">
+      <c r="C18" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="123"/>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="B19" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="127"/>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
+      <c r="C19" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="123"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B20" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C20" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="115"/>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="128"/>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="119" t="s">
+      <c r="B21" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="C21" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="115"/>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="127"/>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
+      <c r="B22" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="C22" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="115"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="127"/>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
+      <c r="B23" s="115" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="C23" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="115"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="115" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="127"/>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="119" t="s">
+      <c r="B24" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="C24" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="115"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="119"/>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+      <c r="B25" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="C25" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="115"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="119"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="119" t="s">
+      <c r="B26" s="115" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="129" t="s">
+      <c r="C26" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="115"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="119"/>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
+      <c r="B27" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="C27" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="115"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="115" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="119"/>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119" t="s">
+      <c r="B28" s="115" t="s">
         <v>266</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="C28" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="115"/>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="119"/>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119" t="s">
+      <c r="B29" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="119" t="s">
+      <c r="C29" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="115"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="115" t="s">
         <v>269</v>
       </c>
-      <c r="C25" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="119"/>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
+      <c r="C30" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="D30" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="118"/>
+      <c r="F30" s="115"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="115" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="119"/>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="119" t="s">
+      <c r="B31" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="119" t="s">
+      <c r="C31" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="115"/>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="119"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119" t="s">
+      <c r="B32" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="119" t="s">
+      <c r="C32" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="115"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="C28" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="119"/>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119" t="s">
+      <c r="B33" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="C33" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="115"/>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="115" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="119"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="119" t="s">
+      <c r="B34" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C34" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="115"/>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="119"/>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119" t="s">
+      <c r="B35" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="B31" s="119" t="s">
+      <c r="C35" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="115"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="119"/>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="119" t="s">
+      <c r="B36" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="C36" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="115"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="115" t="s">
         <v>283</v>
       </c>
-      <c r="C32" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="119"/>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
+      <c r="B37" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="B33" s="119" t="s">
+      <c r="C37" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="115"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="C33" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="119"/>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
+      <c r="C38" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="126"/>
+      <c r="F38" s="115"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="B34" s="119" t="s">
+      <c r="B39" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="C34" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="119"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119" t="s">
+      <c r="C39" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="115"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="B35" s="119" t="s">
+      <c r="B40" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="C35" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="119"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119" t="s">
+      <c r="C40" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="115"/>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="115" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="119" t="s">
+      <c r="B41" s="115" t="s">
         <v>291</v>
       </c>
-      <c r="C36" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="119"/>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="119" t="s">
+      <c r="C41" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="115"/>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="115" t="s">
         <v>292</v>
       </c>
-      <c r="B37" s="119" t="s">
+      <c r="B42" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="119"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="129" t="s">
+      <c r="C42" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="115"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D38" s="130" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="130"/>
-      <c r="F38" s="119"/>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
+      <c r="B43" s="115" t="s">
         <v>295</v>
       </c>
-      <c r="B39" s="119" t="s">
+      <c r="C43" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="115"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="119" t="s">
         <v>296</v>
       </c>
-      <c r="C39" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="119"/>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119" t="s">
+      <c r="B44" s="115" t="s">
         <v>297</v>
       </c>
-      <c r="B40" s="119" t="s">
+      <c r="C44" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="115"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="115" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="119"/>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119" t="s">
+      <c r="B45" s="115" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="C45" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="115"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="119"/>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="119" t="s">
+      <c r="B46" s="115" t="s">
         <v>301</v>
       </c>
-      <c r="B42" s="119" t="s">
+      <c r="C46" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="115"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="C42" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="119"/>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119" t="s">
+      <c r="B47" s="115" t="s">
         <v>303</v>
       </c>
-      <c r="B43" s="119" t="s">
+      <c r="C47" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="115"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="C43" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="119"/>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="123" t="s">
+      <c r="B48" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="B44" s="119" t="s">
+      <c r="C48" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="115"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="127" t="s">
         <v>306</v>
       </c>
-      <c r="C44" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="119"/>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="119" t="s">
+      <c r="B49" s="123" t="s">
         <v>307</v>
       </c>
-      <c r="B45" s="119" t="s">
+      <c r="C49" s="128" t="s">
         <v>308</v>
       </c>
-      <c r="C45" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="119"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="119" t="s">
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="115"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="B46" s="119" t="s">
+      <c r="B50" s="129" t="s">
         <v>310</v>
       </c>
-      <c r="C46" s="122" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="119"/>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="119" t="s">
+      <c r="C50" s="130" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="119" t="s">
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="115"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="129" t="s">
         <v>312</v>
       </c>
-      <c r="C47" s="122" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="119"/>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="119" t="s">
+      <c r="C51" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="115"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="129" t="s">
         <v>313</v>
       </c>
-      <c r="B48" s="119" t="s">
+      <c r="C52" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="115"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="C48" s="122" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="119"/>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="131" t="s">
+      <c r="B53" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="127" t="s">
+      <c r="C53" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="C49" s="132" t="s">
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="115"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="115" t="s">
         <v>317</v>
       </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="119"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="119" t="s">
+      <c r="B54" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="133" t="s">
+      <c r="C54" s="130" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="115"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="115" t="s">
         <v>319</v>
       </c>
-      <c r="C50" s="134" t="s">
+      <c r="B55" s="129" t="s">
         <v>320</v>
       </c>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="119"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="133" t="s">
+      <c r="C55" s="130" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="124"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="115" t="s">
         <v>321</v>
       </c>
-      <c r="C51" s="134" t="s">
-        <v>320</v>
-      </c>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="119"/>
-    </row>
-    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="119" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="133" t="s">
+      <c r="B56" s="129" t="s">
         <v>322</v>
       </c>
-      <c r="C52" s="134" t="s">
-        <v>320</v>
-      </c>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="119"/>
-    </row>
-    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="C56" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="B53" s="133" t="s">
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="124"/>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C53" s="134" t="s">
+      <c r="B57" s="129" t="s">
         <v>325</v>
       </c>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="119"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="119" t="s">
+      <c r="C57" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="124"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="B54" s="133" t="s">
+      <c r="C58" s="130" t="s">
+        <v>596</v>
+      </c>
+      <c r="D58" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="118"/>
+      <c r="F58" s="115"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="C54" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="119"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="119" t="s">
+      <c r="C59" s="130" t="s">
+        <v>596</v>
+      </c>
+      <c r="D59" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="118"/>
+      <c r="F59" s="115"/>
+    </row>
+    <row r="60" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="115" t="s">
         <v>328</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B60" s="129" t="s">
         <v>329</v>
       </c>
-      <c r="C55" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="128"/>
-    </row>
-    <row r="56" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="119" t="s">
+      <c r="C60" s="130" t="s">
+        <v>316</v>
+      </c>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="115"/>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="129" t="s">
         <v>330</v>
       </c>
-      <c r="B56" s="133" t="s">
+      <c r="C61" s="130" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="120"/>
+      <c r="F61" s="115"/>
+    </row>
+    <row r="62" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="115" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="134" t="s">
+      <c r="B62" s="129" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="128"/>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="119" t="s">
+      <c r="C62" s="130" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="115"/>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="115" t="s">
         <v>333</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B63" s="115" t="s">
         <v>334</v>
       </c>
-      <c r="C57" s="134" t="s">
-        <v>320</v>
-      </c>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="128"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="133" t="s">
+      <c r="C63" s="118" t="s">
         <v>335</v>
       </c>
-      <c r="C58" s="134" t="s">
-        <v>605</v>
-      </c>
-      <c r="D58" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58" s="122"/>
-      <c r="F58" s="119"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="133" t="s">
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="115"/>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="C59" s="134" t="s">
-        <v>605</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="122"/>
-      <c r="F59" s="119"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="119" t="s">
+      <c r="B64" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="B60" s="133" t="s">
+      <c r="C64" s="118" t="s">
         <v>338</v>
       </c>
-      <c r="C60" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="119"/>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="119" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="133" t="s">
+      <c r="D64" s="118"/>
+      <c r="E64" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" s="115"/>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="C61" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="D61" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" s="124"/>
-      <c r="F61" s="119"/>
-    </row>
-    <row r="62" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="119" t="s">
+      <c r="B65" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="B62" s="133" t="s">
+      <c r="C65" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" s="115"/>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="C62" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="119"/>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="119" t="s">
+      <c r="B66" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="B63" s="119" t="s">
+      <c r="C66" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="115"/>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="C63" s="122" t="s">
+      <c r="B67" s="115" t="s">
         <v>344</v>
       </c>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="119"/>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="119" t="s">
+      <c r="C67" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="115"/>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="119" t="s">
+      <c r="B68" s="115" t="s">
         <v>346</v>
       </c>
-      <c r="C64" s="122" t="s">
+      <c r="C68" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" s="115"/>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="115" t="s">
         <v>347</v>
       </c>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" s="119"/>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="119" t="s">
+      <c r="B69" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="B65" s="119" t="s">
+      <c r="C69" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="115"/>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="115" t="s">
         <v>349</v>
       </c>
-      <c r="C65" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65" s="119"/>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="119" t="s">
+      <c r="B70" s="115" t="s">
         <v>350</v>
       </c>
-      <c r="B66" s="119" t="s">
+      <c r="C70" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" s="115"/>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="115" t="s">
         <v>351</v>
       </c>
-      <c r="C66" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F66" s="119"/>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="119" t="s">
+      <c r="B71" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="B67" s="119" t="s">
+      <c r="C71" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="115"/>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="115" t="s">
         <v>353</v>
       </c>
-      <c r="C67" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67" s="119"/>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="119" t="s">
+      <c r="B72" s="115" t="s">
         <v>354</v>
       </c>
-      <c r="B68" s="119" t="s">
+      <c r="C72" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="115"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="115" t="s">
         <v>355</v>
       </c>
-      <c r="C68" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D68" s="122"/>
-      <c r="E68" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F68" s="119"/>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="119" t="s">
+      <c r="B73" s="115" t="s">
         <v>356</v>
       </c>
-      <c r="B69" s="119" t="s">
+      <c r="C73" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="115"/>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="115" t="s">
         <v>357</v>
       </c>
-      <c r="C69" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D69" s="122"/>
-      <c r="E69" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F69" s="119"/>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="119" t="s">
+      <c r="B74" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="B70" s="119" t="s">
+      <c r="C74" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D74" s="118"/>
+      <c r="E74" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" s="115"/>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C70" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D70" s="122"/>
-      <c r="E70" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="119"/>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="119" t="s">
+      <c r="B75" s="115" t="s">
         <v>360</v>
       </c>
-      <c r="B71" s="119" t="s">
+      <c r="C75" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="115"/>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="C71" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F71" s="119"/>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="119" t="s">
+      <c r="B76" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="B72" s="119" t="s">
+      <c r="C76" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="115"/>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="115" t="s">
         <v>363</v>
       </c>
-      <c r="C72" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D72" s="122"/>
-      <c r="E72" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" s="119"/>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="119" t="s">
+      <c r="B77" s="115" t="s">
         <v>364</v>
       </c>
-      <c r="B73" s="119" t="s">
+      <c r="C77" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="115"/>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="115" t="s">
         <v>365</v>
       </c>
-      <c r="C73" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D73" s="122"/>
-      <c r="E73" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F73" s="119"/>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="119" t="s">
+      <c r="B78" s="115" t="s">
         <v>366</v>
       </c>
-      <c r="B74" s="119" t="s">
+      <c r="C78" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="115"/>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D74" s="122"/>
-      <c r="E74" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F74" s="119"/>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="119" t="s">
+      <c r="B79" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="119" t="s">
+      <c r="C79" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="115"/>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="F75" s="119"/>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="119" t="s">
+      <c r="B80" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="B76" s="119" t="s">
+      <c r="C80" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="115"/>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="115" t="s">
         <v>371</v>
       </c>
-      <c r="C76" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="119"/>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="119" t="s">
+      <c r="B81" s="115" t="s">
         <v>372</v>
       </c>
-      <c r="B77" s="119" t="s">
+      <c r="C81" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="118"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="115"/>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C77" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="119"/>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="119" t="s">
+      <c r="B82" s="115" t="s">
         <v>374</v>
       </c>
-      <c r="B78" s="119" t="s">
+      <c r="C82" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" s="118"/>
+      <c r="E82" s="118"/>
+      <c r="F82" s="115"/>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="115" t="s">
         <v>375</v>
       </c>
-      <c r="C78" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D78" s="122"/>
-      <c r="E78" s="122"/>
-      <c r="F78" s="119"/>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="119" t="s">
+      <c r="B83" s="115" t="s">
         <v>376</v>
       </c>
-      <c r="B79" s="119" t="s">
+      <c r="C83" s="131" t="s">
         <v>377</v>
       </c>
-      <c r="C79" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79" s="122"/>
-      <c r="E79" s="122"/>
-      <c r="F79" s="119"/>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="119" t="s">
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="115"/>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="115" t="s">
         <v>378</v>
       </c>
-      <c r="B80" s="129" t="s">
+      <c r="B84" s="115" t="s">
         <v>379</v>
       </c>
-      <c r="C80" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" s="130"/>
-      <c r="E80" s="130"/>
-      <c r="F80" s="119"/>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="119" t="s">
+      <c r="C84" s="131" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="115" t="s">
         <v>380</v>
       </c>
-      <c r="B81" s="119" t="s">
+      <c r="B85" s="119" t="s">
         <v>381</v>
       </c>
-      <c r="C81" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D81" s="122"/>
-      <c r="E81" s="122"/>
-      <c r="F81" s="119"/>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="119" t="s">
+      <c r="C85" s="131" t="s">
         <v>382</v>
       </c>
-      <c r="B82" s="119" t="s">
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="115"/>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="115" t="s">
         <v>383</v>
       </c>
-      <c r="C82" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D82" s="122"/>
-      <c r="E82" s="122"/>
-      <c r="F82" s="119"/>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="119" t="s">
+      <c r="B86" s="119" t="s">
         <v>384</v>
       </c>
-      <c r="B83" s="119" t="s">
+      <c r="C86" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="115"/>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="115" t="s">
         <v>385</v>
       </c>
-      <c r="C83" s="135" t="s">
+      <c r="B87" s="119" t="s">
         <v>386</v>
       </c>
-      <c r="D83" s="122"/>
-      <c r="E83" s="122"/>
-      <c r="F83" s="119"/>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="119" t="s">
+      <c r="C87" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="115"/>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="B84" s="119" t="s">
+      <c r="B88" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="C84" s="135" t="s">
-        <v>386</v>
-      </c>
-      <c r="D84" s="122"/>
-      <c r="E84" s="122"/>
-      <c r="F84" s="119"/>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="119" t="s">
+      <c r="C88" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="115"/>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="B85" s="123" t="s">
+      <c r="B89" s="115" t="s">
         <v>390</v>
       </c>
-      <c r="C85" s="135" t="s">
+      <c r="C89" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" s="118"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="115"/>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="119"/>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="119" t="s">
+      <c r="B90" s="115" t="s">
         <v>392</v>
       </c>
-      <c r="B86" s="123" t="s">
+      <c r="C90" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" s="118"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="115"/>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="115" t="s">
         <v>393</v>
       </c>
-      <c r="C86" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="119"/>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="119" t="s">
+      <c r="B91" s="115" t="s">
         <v>394</v>
       </c>
-      <c r="B87" s="123" t="s">
+      <c r="C91" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="115"/>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="115" t="s">
         <v>395</v>
       </c>
-      <c r="C87" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="119"/>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="119" t="s">
+      <c r="B92" s="115" t="s">
         <v>396</v>
       </c>
-      <c r="B88" s="119" t="s">
+      <c r="C92" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="118"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="115"/>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="115" t="s">
         <v>397</v>
       </c>
-      <c r="C88" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="119"/>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="119" t="s">
+      <c r="B93" s="115" t="s">
         <v>398</v>
       </c>
-      <c r="B89" s="119" t="s">
+      <c r="C93" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D93" s="118"/>
+      <c r="E93" s="118"/>
+      <c r="F93" s="115"/>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="C89" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="119"/>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="119" t="s">
+      <c r="B94" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="B90" s="119" t="s">
+      <c r="C94" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D94" s="118"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="115"/>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="115" t="s">
         <v>401</v>
       </c>
-      <c r="C90" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D90" s="122"/>
-      <c r="E90" s="122"/>
-      <c r="F90" s="119"/>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119" t="s">
+      <c r="B95" s="115" t="s">
         <v>402</v>
       </c>
-      <c r="B91" s="119" t="s">
+      <c r="C95" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" s="118"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="115"/>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="115" t="s">
         <v>403</v>
       </c>
-      <c r="C91" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D91" s="122"/>
-      <c r="E91" s="122"/>
-      <c r="F91" s="119"/>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="119" t="s">
+      <c r="B96" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="B92" s="119" t="s">
+      <c r="C96" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D96" s="118"/>
+      <c r="E96" s="118"/>
+      <c r="F96" s="115"/>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="115" t="s">
         <v>405</v>
       </c>
-      <c r="C92" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="119"/>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="119" t="s">
+      <c r="B97" s="115" t="s">
         <v>406</v>
       </c>
-      <c r="B93" s="119" t="s">
+      <c r="C97" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="119"/>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="115" t="s">
         <v>407</v>
       </c>
-      <c r="C93" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D93" s="122"/>
-      <c r="E93" s="122"/>
-      <c r="F93" s="119"/>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="119" t="s">
+      <c r="B98" s="119" t="s">
         <v>408</v>
       </c>
-      <c r="B94" s="119" t="s">
+      <c r="C98" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98" s="118"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="115"/>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="115" t="s">
         <v>409</v>
       </c>
-      <c r="C94" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D94" s="122"/>
-      <c r="E94" s="122"/>
-      <c r="F94" s="119"/>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="119" t="s">
+      <c r="B99" s="119" t="s">
         <v>410</v>
       </c>
-      <c r="B95" s="119" t="s">
+      <c r="C99" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" s="118"/>
+      <c r="E99" s="118"/>
+      <c r="F99" s="115"/>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="C95" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D95" s="122"/>
-      <c r="E95" s="122"/>
-      <c r="F95" s="119"/>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="119" t="s">
+      <c r="B100" s="119" t="s">
         <v>412</v>
       </c>
-      <c r="B96" s="119" t="s">
+      <c r="C100" s="131" t="s">
         <v>413</v>
       </c>
-      <c r="C96" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D96" s="122"/>
-      <c r="E96" s="122"/>
-      <c r="F96" s="119"/>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="119" t="s">
+      <c r="D100" s="118"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="115"/>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="115" t="s">
         <v>414</v>
       </c>
-      <c r="B97" s="119" t="s">
+      <c r="B101" s="119" t="s">
         <v>415</v>
       </c>
-      <c r="C97" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="123"/>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="119" t="s">
+      <c r="C101" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D101" s="118"/>
+      <c r="E101" s="118"/>
+      <c r="F101" s="115"/>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="115" t="s">
         <v>416</v>
       </c>
-      <c r="B98" s="123" t="s">
+      <c r="B102" s="115" t="s">
         <v>417</v>
       </c>
-      <c r="C98" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D98" s="122"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="119"/>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="119" t="s">
+      <c r="C102" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D102" s="120"/>
+      <c r="E102" s="120"/>
+      <c r="F102" s="115"/>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="115" t="s">
         <v>418</v>
       </c>
-      <c r="B99" s="123" t="s">
+      <c r="B103" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="C99" s="135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D99" s="122"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="119"/>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="119" t="s">
+      <c r="C103" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="120"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="115"/>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="115" t="s">
         <v>420</v>
       </c>
-      <c r="B100" s="123" t="s">
+      <c r="B104" s="115" t="s">
         <v>421</v>
       </c>
-      <c r="C100" s="135" t="s">
+      <c r="C104" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D104" s="120"/>
+      <c r="E104" s="120"/>
+      <c r="F104" s="115"/>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="115" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="122"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="119"/>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="119" t="s">
+      <c r="B105" s="115" t="s">
         <v>423</v>
       </c>
-      <c r="B101" s="123" t="s">
+      <c r="C105" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="120"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="115"/>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="115" t="s">
         <v>424</v>
       </c>
-      <c r="C101" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D101" s="122"/>
-      <c r="E101" s="122"/>
-      <c r="F101" s="119"/>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="119" t="s">
+      <c r="B106" s="115" t="s">
         <v>425</v>
       </c>
-      <c r="B102" s="119" t="s">
+      <c r="C106" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D106" s="120"/>
+      <c r="E106" s="120"/>
+      <c r="F106" s="115"/>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="115" t="s">
         <v>426</v>
       </c>
-      <c r="C102" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="119"/>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="119" t="s">
+      <c r="B107" s="115" t="s">
         <v>427</v>
       </c>
-      <c r="B103" s="119" t="s">
+      <c r="C107" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D107" s="120"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="115"/>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="115" t="s">
         <v>428</v>
       </c>
-      <c r="C103" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D103" s="124"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="119"/>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="119" t="s">
+      <c r="B108" s="115" t="s">
         <v>429</v>
       </c>
-      <c r="B104" s="119" t="s">
+      <c r="C108" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D108" s="120"/>
+      <c r="E108" s="120"/>
+      <c r="F108" s="115"/>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="115" t="s">
         <v>430</v>
       </c>
-      <c r="C104" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D104" s="124"/>
-      <c r="E104" s="124"/>
-      <c r="F104" s="119"/>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="119" t="s">
+      <c r="B109" s="115" t="s">
         <v>431</v>
       </c>
-      <c r="B105" s="119" t="s">
+      <c r="C109" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D109" s="120"/>
+      <c r="E109" s="120"/>
+      <c r="F109" s="115"/>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="C105" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="119"/>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="119" t="s">
+      <c r="B110" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="B106" s="119" t="s">
+      <c r="C110" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D110" s="120"/>
+      <c r="E110" s="120"/>
+      <c r="F110" s="115"/>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="C106" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D106" s="124"/>
-      <c r="E106" s="124"/>
-      <c r="F106" s="119"/>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="119" t="s">
+      <c r="B111" s="115" t="s">
         <v>435</v>
       </c>
-      <c r="B107" s="119" t="s">
+      <c r="C111" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" s="120"/>
+      <c r="E111" s="120"/>
+      <c r="F111" s="115"/>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="115" t="s">
         <v>436</v>
       </c>
-      <c r="C107" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D107" s="124"/>
-      <c r="E107" s="124"/>
-      <c r="F107" s="119"/>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="119" t="s">
+      <c r="B112" s="119" t="s">
         <v>437</v>
       </c>
-      <c r="B108" s="119" t="s">
+      <c r="C112" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D112" s="120"/>
+      <c r="E112" s="120"/>
+      <c r="F112" s="115"/>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="115" t="s">
         <v>438</v>
       </c>
-      <c r="C108" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D108" s="124"/>
-      <c r="E108" s="124"/>
-      <c r="F108" s="119"/>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="119" t="s">
+      <c r="B113" s="119" t="s">
         <v>439</v>
       </c>
-      <c r="B109" s="119" t="s">
+      <c r="C113" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D113" s="120"/>
+      <c r="E113" s="120"/>
+      <c r="F113" s="115"/>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="C109" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D109" s="124"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="119"/>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="119" t="s">
+      <c r="B114" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="B110" s="119" t="s">
+      <c r="C114" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D114" s="120"/>
+      <c r="E114" s="120"/>
+      <c r="F114" s="115"/>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="115" t="s">
         <v>442</v>
       </c>
-      <c r="C110" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D110" s="124"/>
-      <c r="E110" s="124"/>
-      <c r="F110" s="119"/>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="119" t="s">
+      <c r="B115" s="119" t="s">
         <v>443</v>
       </c>
-      <c r="B111" s="119" t="s">
+      <c r="C115" s="131" t="s">
         <v>444</v>
       </c>
-      <c r="C111" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
-      <c r="F111" s="119"/>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="119" t="s">
+      <c r="D115" s="120"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="115"/>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="115" t="s">
         <v>445</v>
       </c>
-      <c r="B112" s="123" t="s">
+      <c r="B116" s="115" t="s">
         <v>446</v>
       </c>
-      <c r="C112" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D112" s="124"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="119"/>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="119" t="s">
+      <c r="C116" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D116" s="120"/>
+      <c r="E116" s="120"/>
+      <c r="F116" s="115"/>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="115" t="s">
         <v>447</v>
       </c>
-      <c r="B113" s="123" t="s">
+      <c r="B117" s="119" t="s">
         <v>448</v>
       </c>
-      <c r="C113" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D113" s="124"/>
-      <c r="E113" s="124"/>
-      <c r="F113" s="119"/>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="119" t="s">
+      <c r="C117" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D117" s="120"/>
+      <c r="E117" s="120"/>
+      <c r="F117" s="115"/>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="115" t="s">
         <v>449</v>
       </c>
-      <c r="B114" s="123" t="s">
+      <c r="B118" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="C114" s="135" t="s">
-        <v>422</v>
-      </c>
-      <c r="D114" s="124"/>
-      <c r="E114" s="124"/>
-      <c r="F114" s="119"/>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="119" t="s">
+      <c r="C118" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D118" s="120"/>
+      <c r="E118" s="120"/>
+      <c r="F118" s="115"/>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="115" t="s">
         <v>451</v>
       </c>
-      <c r="B115" s="123" t="s">
+      <c r="B119" s="115" t="s">
         <v>452</v>
       </c>
-      <c r="C115" s="135" t="s">
+      <c r="C119" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D119" s="120"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="115"/>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="115" t="s">
         <v>453</v>
       </c>
-      <c r="D115" s="124"/>
-      <c r="E115" s="124"/>
-      <c r="F115" s="119"/>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="119" t="s">
+      <c r="B120" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="B116" s="119" t="s">
+      <c r="C120" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D120" s="120"/>
+      <c r="E120" s="120"/>
+      <c r="F120" s="115"/>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="115" t="s">
         <v>455</v>
       </c>
-      <c r="C116" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D116" s="124"/>
-      <c r="E116" s="124"/>
-      <c r="F116" s="119"/>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="119" t="s">
+      <c r="B121" s="115" t="s">
         <v>456</v>
       </c>
-      <c r="B117" s="123" t="s">
+      <c r="C121" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" s="120"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="115"/>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="115" t="s">
         <v>457</v>
       </c>
-      <c r="C117" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D117" s="124"/>
-      <c r="E117" s="124"/>
-      <c r="F117" s="119"/>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="119" t="s">
+      <c r="B122" s="119" t="s">
         <v>458</v>
       </c>
-      <c r="B118" s="119" t="s">
+      <c r="C122" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D122" s="120"/>
+      <c r="E122" s="120"/>
+      <c r="F122" s="115"/>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="115" t="s">
         <v>459</v>
       </c>
-      <c r="C118" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D118" s="124"/>
-      <c r="E118" s="124"/>
-      <c r="F118" s="119"/>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="119" t="s">
+      <c r="B123" s="115" t="s">
         <v>460</v>
       </c>
-      <c r="B119" s="119" t="s">
+      <c r="C123" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="D123" s="120"/>
+      <c r="E123" s="120"/>
+      <c r="F123" s="115"/>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="115" t="s">
         <v>461</v>
       </c>
-      <c r="C119" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D119" s="124"/>
-      <c r="E119" s="124"/>
-      <c r="F119" s="119"/>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="119" t="s">
+      <c r="B124" s="119" t="s">
         <v>462</v>
       </c>
-      <c r="B120" s="119" t="s">
+      <c r="C124" s="120" t="s">
         <v>463</v>
       </c>
-      <c r="C120" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D120" s="124"/>
-      <c r="E120" s="124"/>
-      <c r="F120" s="119"/>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="119" t="s">
+      <c r="D124" s="120"/>
+      <c r="E124" s="120"/>
+      <c r="F124" s="115"/>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="115" t="s">
         <v>464</v>
       </c>
-      <c r="B121" s="119" t="s">
+      <c r="B125" s="115" t="s">
         <v>465</v>
       </c>
-      <c r="C121" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D121" s="124"/>
-      <c r="E121" s="124"/>
-      <c r="F121" s="119"/>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="119" t="s">
+      <c r="C125" s="118" t="s">
         <v>466</v>
       </c>
-      <c r="B122" s="123" t="s">
+      <c r="D125" s="120"/>
+      <c r="E125" s="120"/>
+      <c r="F125" s="115"/>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="115" t="s">
         <v>467</v>
       </c>
-      <c r="C122" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D122" s="124"/>
-      <c r="E122" s="124"/>
-      <c r="F122" s="119"/>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="119" t="s">
+      <c r="B126" s="115" t="s">
         <v>468</v>
       </c>
-      <c r="B123" s="119" t="s">
+      <c r="C126" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D126" s="120"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="115"/>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="115" t="s">
         <v>469</v>
       </c>
-      <c r="C123" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="D123" s="124"/>
-      <c r="E123" s="124"/>
-      <c r="F123" s="119"/>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="119" t="s">
+      <c r="B127" s="115" t="s">
         <v>470</v>
       </c>
-      <c r="B124" s="123" t="s">
+      <c r="C127" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D127" s="120"/>
+      <c r="E127" s="120"/>
+      <c r="F127" s="115"/>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="115" t="s">
         <v>471</v>
       </c>
-      <c r="C124" s="124" t="s">
+      <c r="B128" s="115" t="s">
         <v>472</v>
       </c>
-      <c r="D124" s="124"/>
-      <c r="E124" s="124"/>
-      <c r="F124" s="119"/>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="119" t="s">
+      <c r="C128" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D128" s="120"/>
+      <c r="E128" s="120"/>
+      <c r="F128" s="115"/>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="115" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="119" t="s">
+      <c r="B129" s="115" t="s">
         <v>474</v>
       </c>
-      <c r="C125" s="122" t="s">
+      <c r="C129" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D129" s="120"/>
+      <c r="E129" s="120"/>
+      <c r="F129" s="115"/>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="115" t="s">
         <v>475</v>
       </c>
-      <c r="D125" s="124"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="119"/>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="119" t="s">
+      <c r="B130" s="115" t="s">
         <v>476</v>
       </c>
-      <c r="B126" s="119" t="s">
+      <c r="C130" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D130" s="120"/>
+      <c r="E130" s="120"/>
+      <c r="F130" s="115"/>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="115" t="s">
         <v>477</v>
       </c>
-      <c r="C126" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D126" s="124"/>
-      <c r="E126" s="124"/>
-      <c r="F126" s="119"/>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="119" t="s">
+      <c r="B131" s="115" t="s">
         <v>478</v>
       </c>
-      <c r="B127" s="119" t="s">
+      <c r="C131" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D131" s="120"/>
+      <c r="E131" s="120"/>
+      <c r="F131" s="115"/>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="115" t="s">
         <v>479</v>
       </c>
-      <c r="C127" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D127" s="124"/>
-      <c r="E127" s="124"/>
-      <c r="F127" s="119"/>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="119" t="s">
+      <c r="B132" s="115" t="s">
         <v>480</v>
       </c>
-      <c r="B128" s="119" t="s">
+      <c r="C132" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D132" s="120"/>
+      <c r="E132" s="120"/>
+      <c r="F132" s="115"/>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="115" t="s">
         <v>481</v>
       </c>
-      <c r="C128" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D128" s="124"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="119"/>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="119" t="s">
+      <c r="B133" s="115" t="s">
         <v>482</v>
       </c>
-      <c r="B129" s="119" t="s">
+      <c r="C133" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D133" s="120"/>
+      <c r="E133" s="120"/>
+      <c r="F133" s="115"/>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="115" t="s">
         <v>483</v>
       </c>
-      <c r="C129" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D129" s="124"/>
-      <c r="E129" s="124"/>
-      <c r="F129" s="119"/>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="119" t="s">
+      <c r="B134" s="115" t="s">
         <v>484</v>
       </c>
-      <c r="B130" s="119" t="s">
+      <c r="C134" s="118" t="s">
         <v>485</v>
       </c>
-      <c r="C130" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D130" s="124"/>
-      <c r="E130" s="124"/>
-      <c r="F130" s="119"/>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="119" t="s">
+      <c r="D134" s="120"/>
+      <c r="E134" s="120"/>
+      <c r="F134" s="115"/>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="115" t="s">
         <v>486</v>
       </c>
-      <c r="B131" s="119" t="s">
+      <c r="B135" s="115" t="s">
         <v>487</v>
       </c>
-      <c r="C131" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D131" s="124"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="119"/>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="119" t="s">
+      <c r="C135" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="D135" s="120"/>
+      <c r="E135" s="120"/>
+      <c r="F135" s="115"/>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="119" t="s">
         <v>488</v>
       </c>
-      <c r="B132" s="119" t="s">
+      <c r="B136" s="119" t="s">
         <v>489</v>
       </c>
-      <c r="C132" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D132" s="124"/>
-      <c r="E132" s="124"/>
-      <c r="F132" s="119"/>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="119" t="s">
+      <c r="C136" s="118" t="s">
+        <v>485</v>
+      </c>
+      <c r="D136" s="120"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="115"/>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="115" t="s">
         <v>490</v>
       </c>
-      <c r="B133" s="119" t="s">
+      <c r="B137" s="119" t="s">
         <v>491</v>
       </c>
-      <c r="C133" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="D133" s="124"/>
-      <c r="E133" s="124"/>
-      <c r="F133" s="119"/>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="119" t="s">
+      <c r="C137" s="118" t="s">
+        <v>485</v>
+      </c>
+      <c r="D137" s="120"/>
+      <c r="E137" s="120"/>
+      <c r="F137" s="115"/>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="115" t="s">
         <v>492</v>
       </c>
-      <c r="B134" s="119" t="s">
+      <c r="B138" s="119" t="s">
         <v>493</v>
       </c>
-      <c r="C134" s="122" t="s">
+      <c r="C138" s="118" t="s">
+        <v>485</v>
+      </c>
+      <c r="D138" s="120"/>
+      <c r="E138" s="120"/>
+      <c r="F138" s="115"/>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="115" t="s">
         <v>494</v>
       </c>
-      <c r="D134" s="124"/>
-      <c r="E134" s="124"/>
-      <c r="F134" s="119"/>
-    </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="119" t="s">
+      <c r="B139" s="119" t="s">
         <v>495</v>
       </c>
-      <c r="B135" s="119" t="s">
+      <c r="C139" s="118" t="s">
+        <v>485</v>
+      </c>
+      <c r="D139" s="120"/>
+      <c r="E139" s="120"/>
+      <c r="F139" s="115"/>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="115" t="s">
         <v>496</v>
       </c>
-      <c r="C135" s="122" t="s">
-        <v>386</v>
-      </c>
-      <c r="D135" s="124"/>
-      <c r="E135" s="124"/>
-      <c r="F135" s="119"/>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="123" t="s">
+      <c r="B140" s="115" t="s">
         <v>497</v>
       </c>
-      <c r="B136" s="123" t="s">
+      <c r="C140" s="118" t="s">
+        <v>463</v>
+      </c>
+      <c r="D140" s="120"/>
+      <c r="E140" s="120"/>
+      <c r="F140" s="115"/>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="115" t="s">
         <v>498</v>
       </c>
-      <c r="C136" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="D136" s="124"/>
-      <c r="E136" s="124"/>
-      <c r="F136" s="119"/>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="119" t="s">
+      <c r="B141" s="119" t="s">
         <v>499</v>
       </c>
-      <c r="B137" s="123" t="s">
+      <c r="C141" s="118" t="s">
+        <v>485</v>
+      </c>
+      <c r="D141" s="120"/>
+      <c r="E141" s="120"/>
+      <c r="F141" s="115"/>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="115" t="s">
         <v>500</v>
       </c>
-      <c r="C137" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="D137" s="124"/>
-      <c r="E137" s="124"/>
-      <c r="F137" s="119"/>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="119" t="s">
+      <c r="B142" s="116" t="s">
         <v>501</v>
       </c>
-      <c r="B138" s="123" t="s">
+      <c r="C142" s="131" t="s">
         <v>502</v>
       </c>
-      <c r="C138" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="D138" s="124"/>
-      <c r="E138" s="124"/>
-      <c r="F138" s="119"/>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="119" t="s">
+      <c r="D142" s="120"/>
+      <c r="E142" s="120"/>
+      <c r="F142" s="115"/>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="115" t="s">
         <v>503</v>
       </c>
-      <c r="B139" s="123" t="s">
+      <c r="B143" s="116" t="s">
         <v>504</v>
       </c>
-      <c r="C139" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="D139" s="124"/>
-      <c r="E139" s="124"/>
-      <c r="F139" s="119"/>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="119" t="s">
+      <c r="C143" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D143" s="120"/>
+      <c r="E143" s="120"/>
+      <c r="F143" s="123"/>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="115" t="s">
         <v>505</v>
       </c>
-      <c r="B140" s="119" t="s">
+      <c r="B144" s="115" t="s">
         <v>506</v>
       </c>
-      <c r="C140" s="122" t="s">
-        <v>472</v>
-      </c>
-      <c r="D140" s="124"/>
-      <c r="E140" s="124"/>
-      <c r="F140" s="119"/>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="119" t="s">
+      <c r="C144" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D144" s="120"/>
+      <c r="E144" s="120"/>
+      <c r="F144" s="123"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="115" t="s">
         <v>507</v>
       </c>
-      <c r="B141" s="123" t="s">
+      <c r="C145" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D145" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E145" s="120"/>
+      <c r="F145" s="123"/>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="115" t="s">
         <v>508</v>
       </c>
-      <c r="C141" s="122" t="s">
-        <v>494</v>
-      </c>
-      <c r="D141" s="124"/>
-      <c r="E141" s="124"/>
-      <c r="F141" s="119"/>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="119" t="s">
+      <c r="B146" s="115" t="s">
         <v>509</v>
       </c>
-      <c r="B142" s="120" t="s">
+      <c r="C146" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D146" s="120"/>
+      <c r="E146" s="120"/>
+      <c r="F146" s="123"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="115" t="s">
         <v>510</v>
       </c>
-      <c r="C142" s="135" t="s">
+      <c r="B147" s="115" t="s">
         <v>511</v>
       </c>
-      <c r="D142" s="124"/>
-      <c r="E142" s="124"/>
-      <c r="F142" s="119"/>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="119" t="s">
+      <c r="C147" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D147" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E147" s="120"/>
+      <c r="F147" s="124"/>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="115" t="s">
         <v>512</v>
       </c>
-      <c r="B143" s="120" t="s">
+      <c r="B148" s="115" t="s">
         <v>513</v>
       </c>
-      <c r="C143" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D143" s="124"/>
-      <c r="E143" s="124"/>
-      <c r="F143" s="127"/>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="119" t="s">
+      <c r="C148" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D148" s="120"/>
+      <c r="E148" s="120"/>
+      <c r="F148" s="124"/>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="115" t="s">
         <v>514</v>
       </c>
-      <c r="B144" s="119" t="s">
+      <c r="B149" s="115" t="s">
         <v>515</v>
       </c>
-      <c r="C144" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D144" s="124"/>
-      <c r="E144" s="124"/>
-      <c r="F144" s="127"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="B145" s="119" t="s">
+      <c r="C149" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D149" s="120"/>
+      <c r="E149" s="120"/>
+      <c r="F149" s="124"/>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="115" t="s">
         <v>516</v>
       </c>
-      <c r="C145" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D145" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E145" s="124"/>
-      <c r="F145" s="127"/>
-    </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="119" t="s">
+      <c r="B150" s="115" t="s">
         <v>517</v>
       </c>
-      <c r="B146" s="119" t="s">
+      <c r="C150" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D150" s="120"/>
+      <c r="E150" s="120"/>
+      <c r="F150" s="124"/>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="115" t="s">
         <v>518</v>
       </c>
-      <c r="C146" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D146" s="124"/>
-      <c r="E146" s="124"/>
-      <c r="F146" s="127"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="119" t="s">
+      <c r="B151" s="115" t="s">
         <v>519</v>
       </c>
-      <c r="B147" s="119" t="s">
+      <c r="C151" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D151" s="120"/>
+      <c r="E151" s="120"/>
+      <c r="F151" s="124"/>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="115" t="s">
         <v>520</v>
       </c>
-      <c r="C147" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D147" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E147" s="124"/>
-      <c r="F147" s="128"/>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="119" t="s">
+      <c r="B152" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="B148" s="119" t="s">
+      <c r="C152" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D152" s="120"/>
+      <c r="E152" s="120"/>
+      <c r="F152" s="124"/>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="115" t="s">
         <v>522</v>
       </c>
-      <c r="C148" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D148" s="124"/>
-      <c r="E148" s="124"/>
-      <c r="F148" s="128"/>
-    </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="119" t="s">
+      <c r="B153" s="115" t="s">
         <v>523</v>
       </c>
-      <c r="B149" s="119" t="s">
+      <c r="C153" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D153" s="120"/>
+      <c r="E153" s="120"/>
+      <c r="F153" s="115"/>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="115" t="s">
         <v>524</v>
       </c>
-      <c r="C149" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D149" s="124"/>
-      <c r="E149" s="124"/>
-      <c r="F149" s="128"/>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="119" t="s">
+      <c r="B154" s="115" t="s">
         <v>525</v>
       </c>
-      <c r="B150" s="119" t="s">
+      <c r="C154" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D154" s="120"/>
+      <c r="E154" s="120"/>
+      <c r="F154" s="115"/>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="115" t="s">
         <v>526</v>
       </c>
-      <c r="C150" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D150" s="124"/>
-      <c r="E150" s="124"/>
-      <c r="F150" s="128"/>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="119" t="s">
+      <c r="B155" s="115" t="s">
         <v>527</v>
       </c>
-      <c r="B151" s="119" t="s">
+      <c r="C155" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D155" s="120"/>
+      <c r="E155" s="120"/>
+      <c r="F155" s="115"/>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="115" t="s">
         <v>528</v>
       </c>
-      <c r="C151" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D151" s="124"/>
-      <c r="E151" s="124"/>
-      <c r="F151" s="128"/>
-    </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="119" t="s">
+      <c r="B156" s="115" t="s">
         <v>529</v>
       </c>
-      <c r="B152" s="119" t="s">
+      <c r="C156" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D156" s="120"/>
+      <c r="E156" s="120"/>
+      <c r="F156" s="124"/>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="115" t="s">
         <v>530</v>
       </c>
-      <c r="C152" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D152" s="124"/>
-      <c r="E152" s="124"/>
-      <c r="F152" s="128"/>
-    </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="119" t="s">
+      <c r="B157" s="119" t="s">
         <v>531</v>
       </c>
-      <c r="B153" s="119" t="s">
+      <c r="C157" s="131" t="s">
         <v>532</v>
       </c>
-      <c r="C153" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D153" s="124"/>
-      <c r="E153" s="124"/>
-      <c r="F153" s="119"/>
-    </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="119" t="s">
+      <c r="D157" s="120"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="123"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="119" t="s">
         <v>533</v>
       </c>
-      <c r="B154" s="119" t="s">
+      <c r="C158" s="131" t="s">
+        <v>532</v>
+      </c>
+      <c r="D158" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E158" s="120"/>
+      <c r="F158" s="123"/>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="115" t="s">
         <v>534</v>
       </c>
-      <c r="C154" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D154" s="124"/>
-      <c r="E154" s="124"/>
-      <c r="F154" s="119"/>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="119" t="s">
+      <c r="B159" s="116" t="s">
         <v>535</v>
       </c>
-      <c r="B155" s="119" t="s">
+      <c r="C159" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D159" s="120"/>
+      <c r="E159" s="120"/>
+      <c r="F159" s="123"/>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="115" t="s">
         <v>536</v>
       </c>
-      <c r="C155" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D155" s="124"/>
-      <c r="E155" s="124"/>
-      <c r="F155" s="119"/>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="119" t="s">
+      <c r="B160" s="116" t="s">
         <v>537</v>
       </c>
-      <c r="B156" s="119" t="s">
+      <c r="C160" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D160" s="120"/>
+      <c r="E160" s="120"/>
+      <c r="F160" s="115"/>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="115" t="s">
         <v>538</v>
       </c>
-      <c r="C156" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D156" s="124"/>
-      <c r="E156" s="124"/>
-      <c r="F156" s="128"/>
-    </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="119" t="s">
+      <c r="B161" s="115" t="s">
         <v>539</v>
       </c>
-      <c r="B157" s="123" t="s">
+      <c r="C161" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D161" s="120"/>
+      <c r="E161" s="120"/>
+      <c r="F161" s="115"/>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="115" t="s">
         <v>540</v>
       </c>
-      <c r="C157" s="135" t="s">
+      <c r="B162" s="115" t="s">
         <v>541</v>
       </c>
-      <c r="D157" s="124"/>
-      <c r="E157" s="124"/>
-      <c r="F157" s="127"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="119" t="s">
-        <v>147</v>
-      </c>
-      <c r="B158" s="123" t="s">
+      <c r="C162" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D162" s="120"/>
+      <c r="E162" s="120"/>
+      <c r="F162" s="115"/>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="115" t="s">
         <v>542</v>
       </c>
-      <c r="C158" s="135" t="s">
-        <v>541</v>
-      </c>
-      <c r="D158" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E158" s="124"/>
-      <c r="F158" s="127"/>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="119" t="s">
+      <c r="B163" s="115" t="s">
         <v>543</v>
       </c>
-      <c r="B159" s="120" t="s">
+      <c r="C163" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D163" s="120"/>
+      <c r="E163" s="120"/>
+      <c r="F163" s="115"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="115" t="s">
         <v>544</v>
       </c>
-      <c r="C159" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D159" s="124"/>
-      <c r="E159" s="124"/>
-      <c r="F159" s="127"/>
-    </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="119" t="s">
+      <c r="C164" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D164" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E164" s="120"/>
+      <c r="F164" s="115"/>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="115" t="s">
         <v>545</v>
       </c>
-      <c r="B160" s="120" t="s">
+      <c r="B165" s="115" t="s">
         <v>546</v>
       </c>
-      <c r="C160" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D160" s="124"/>
-      <c r="E160" s="124"/>
-      <c r="F160" s="119"/>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="119" t="s">
+      <c r="C165" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D165" s="120"/>
+      <c r="E165" s="120"/>
+      <c r="F165" s="115"/>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="115" t="s">
         <v>547</v>
       </c>
-      <c r="B161" s="119" t="s">
+      <c r="B166" s="115" t="s">
         <v>548</v>
       </c>
-      <c r="C161" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D161" s="124"/>
-      <c r="E161" s="124"/>
-      <c r="F161" s="119"/>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="119" t="s">
+      <c r="C166" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D166" s="120"/>
+      <c r="E166" s="120"/>
+      <c r="F166" s="115"/>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="115" t="s">
         <v>549</v>
       </c>
-      <c r="B162" s="119" t="s">
+      <c r="B167" s="115" t="s">
         <v>550</v>
       </c>
-      <c r="C162" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D162" s="124"/>
-      <c r="E162" s="124"/>
-      <c r="F162" s="119"/>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="119" t="s">
+      <c r="C167" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D167" s="120"/>
+      <c r="E167" s="120"/>
+      <c r="F167" s="115"/>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="115" t="s">
         <v>551</v>
       </c>
-      <c r="B163" s="119" t="s">
+      <c r="B168" s="115" t="s">
         <v>552</v>
       </c>
-      <c r="C163" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D163" s="124"/>
-      <c r="E163" s="124"/>
-      <c r="F163" s="119"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="119" t="s">
-        <v>156</v>
-      </c>
-      <c r="B164" s="119" t="s">
+      <c r="C168" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D168" s="120"/>
+      <c r="E168" s="120"/>
+      <c r="F168" s="115"/>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="115" t="s">
         <v>553</v>
       </c>
-      <c r="C164" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D164" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E164" s="124"/>
-      <c r="F164" s="119"/>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="119" t="s">
+      <c r="B169" s="115" t="s">
         <v>554</v>
       </c>
-      <c r="B165" s="119" t="s">
+      <c r="C169" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D169" s="120"/>
+      <c r="E169" s="120"/>
+      <c r="F169" s="115"/>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="115" t="s">
         <v>555</v>
       </c>
-      <c r="C165" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D165" s="124"/>
-      <c r="E165" s="124"/>
-      <c r="F165" s="119"/>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="119" t="s">
+      <c r="B170" s="115" t="s">
         <v>556</v>
       </c>
-      <c r="B166" s="119" t="s">
+      <c r="C170" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D170" s="120"/>
+      <c r="E170" s="120"/>
+      <c r="F170" s="115"/>
+    </row>
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="115" t="s">
         <v>557</v>
       </c>
-      <c r="C166" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D166" s="124"/>
-      <c r="E166" s="124"/>
-      <c r="F166" s="119"/>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="119" t="s">
+      <c r="B171" s="115" t="s">
         <v>558</v>
       </c>
-      <c r="B167" s="119" t="s">
+      <c r="C171" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D171" s="120"/>
+      <c r="E171" s="120"/>
+      <c r="F171" s="115"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" s="115" t="s">
         <v>559</v>
       </c>
-      <c r="C167" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D167" s="124"/>
-      <c r="E167" s="124"/>
-      <c r="F167" s="119"/>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="119" t="s">
+      <c r="C172" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D172" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E172" s="120"/>
+      <c r="F172" s="115"/>
+    </row>
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="115" t="s">
         <v>560</v>
       </c>
-      <c r="B168" s="119" t="s">
+      <c r="B173" s="115" t="s">
         <v>561</v>
       </c>
-      <c r="C168" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D168" s="124"/>
-      <c r="E168" s="124"/>
-      <c r="F168" s="119"/>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="119" t="s">
+      <c r="C173" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="120"/>
+      <c r="E173" s="120"/>
+      <c r="F173" s="115"/>
+    </row>
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="115" t="s">
         <v>562</v>
       </c>
-      <c r="B169" s="119" t="s">
+      <c r="B174" s="119" t="s">
         <v>563</v>
       </c>
-      <c r="C169" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D169" s="124"/>
-      <c r="E169" s="124"/>
-      <c r="F169" s="119"/>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="119" t="s">
+      <c r="C174" s="131" t="s">
+        <v>532</v>
+      </c>
+      <c r="D174" s="120"/>
+      <c r="E174" s="120"/>
+      <c r="F174" s="115"/>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="115" t="s">
         <v>564</v>
       </c>
-      <c r="B170" s="119" t="s">
+      <c r="B175" s="116" t="s">
         <v>565</v>
       </c>
-      <c r="C170" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D170" s="124"/>
-      <c r="E170" s="124"/>
-      <c r="F170" s="119"/>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="119" t="s">
+      <c r="C175" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D175" s="120"/>
+      <c r="E175" s="120"/>
+      <c r="F175" s="115"/>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="115" t="s">
         <v>566</v>
       </c>
-      <c r="B171" s="119" t="s">
+      <c r="B176" s="116" t="s">
         <v>567</v>
       </c>
-      <c r="C171" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D171" s="124"/>
-      <c r="E171" s="124"/>
-      <c r="F171" s="119"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="B172" s="119" t="s">
+      <c r="C176" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D176" s="120"/>
+      <c r="E176" s="120"/>
+      <c r="F176" s="115"/>
+    </row>
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="115" t="s">
         <v>568</v>
       </c>
-      <c r="C172" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D172" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E172" s="124"/>
-      <c r="F172" s="119"/>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="119" t="s">
+      <c r="B177" s="115" t="s">
         <v>569</v>
       </c>
-      <c r="B173" s="119" t="s">
+      <c r="C177" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D177" s="120"/>
+      <c r="E177" s="120"/>
+      <c r="F177" s="115"/>
+    </row>
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="115" t="s">
         <v>570</v>
       </c>
-      <c r="C173" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D173" s="124"/>
-      <c r="E173" s="124"/>
-      <c r="F173" s="119"/>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="119" t="s">
+      <c r="C178" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D178" s="120"/>
+      <c r="E178" s="120"/>
+      <c r="F178" s="115"/>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="115" t="s">
         <v>571</v>
       </c>
-      <c r="B174" s="123" t="s">
+      <c r="B179" s="115" t="s">
         <v>572</v>
       </c>
-      <c r="C174" s="135" t="s">
-        <v>541</v>
-      </c>
-      <c r="D174" s="124"/>
-      <c r="E174" s="124"/>
-      <c r="F174" s="119"/>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="119" t="s">
+      <c r="C179" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D179" s="120"/>
+      <c r="E179" s="120"/>
+      <c r="F179" s="115"/>
+    </row>
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="115" t="s">
         <v>573</v>
       </c>
-      <c r="B175" s="120" t="s">
+      <c r="C180" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D180" s="120"/>
+      <c r="E180" s="120"/>
+      <c r="F180" s="115"/>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="115" t="s">
         <v>574</v>
       </c>
-      <c r="C175" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D175" s="124"/>
-      <c r="E175" s="124"/>
-      <c r="F175" s="119"/>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="119" t="s">
+      <c r="B181" s="115" t="s">
         <v>575</v>
       </c>
-      <c r="B176" s="120" t="s">
+      <c r="C181" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D181" s="120"/>
+      <c r="E181" s="120"/>
+      <c r="F181" s="115"/>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="115" t="s">
         <v>576</v>
       </c>
-      <c r="C176" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D176" s="124"/>
-      <c r="E176" s="124"/>
-      <c r="F176" s="119"/>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="119" t="s">
+      <c r="B182" s="115" t="s">
         <v>577</v>
       </c>
-      <c r="B177" s="119" t="s">
+      <c r="C182" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D182" s="120"/>
+      <c r="E182" s="120"/>
+      <c r="F182" s="115"/>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="115" t="s">
         <v>578</v>
       </c>
-      <c r="C177" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D177" s="124"/>
-      <c r="E177" s="124"/>
-      <c r="F177" s="119"/>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" s="119" t="s">
+      <c r="B183" s="115" t="s">
         <v>579</v>
       </c>
-      <c r="C178" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D178" s="124"/>
-      <c r="E178" s="124"/>
-      <c r="F178" s="119"/>
-    </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="119" t="s">
+      <c r="C183" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D183" s="120"/>
+      <c r="E183" s="120"/>
+      <c r="F183" s="115"/>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="115" t="s">
         <v>580</v>
       </c>
-      <c r="B179" s="119" t="s">
+      <c r="B184" s="115" t="s">
         <v>581</v>
       </c>
-      <c r="C179" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D179" s="124"/>
-      <c r="E179" s="124"/>
-      <c r="F179" s="119"/>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="119" t="s">
-        <v>155</v>
-      </c>
-      <c r="B180" s="119" t="s">
+      <c r="C184" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D184" s="120"/>
+      <c r="E184" s="120"/>
+      <c r="F184" s="115"/>
+    </row>
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="115" t="s">
         <v>582</v>
       </c>
-      <c r="C180" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D180" s="124"/>
-      <c r="E180" s="124"/>
-      <c r="F180" s="119"/>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="119" t="s">
+      <c r="B185" s="115" t="s">
         <v>583</v>
       </c>
-      <c r="B181" s="119" t="s">
+      <c r="C185" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D185" s="120"/>
+      <c r="E185" s="120"/>
+      <c r="F185" s="115"/>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="115" t="s">
         <v>584</v>
       </c>
-      <c r="C181" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D181" s="124"/>
-      <c r="E181" s="124"/>
-      <c r="F181" s="119"/>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="119" t="s">
+      <c r="B186" s="115" t="s">
         <v>585</v>
       </c>
-      <c r="B182" s="119" t="s">
+      <c r="C186" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D186" s="120"/>
+      <c r="E186" s="120"/>
+      <c r="F186" s="115"/>
+    </row>
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="115" t="s">
         <v>586</v>
       </c>
-      <c r="C182" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D182" s="124"/>
-      <c r="E182" s="124"/>
-      <c r="F182" s="119"/>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="119" t="s">
+      <c r="B187" s="115" t="s">
         <v>587</v>
       </c>
-      <c r="B183" s="119" t="s">
+      <c r="C187" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D187" s="120"/>
+      <c r="E187" s="120"/>
+      <c r="F187" s="115"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" s="115" t="s">
         <v>588</v>
       </c>
-      <c r="C183" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D183" s="124"/>
-      <c r="E183" s="124"/>
-      <c r="F183" s="119"/>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="119" t="s">
+      <c r="C188" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D188" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E188" s="120"/>
+      <c r="F188" s="115"/>
+    </row>
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="115" t="s">
         <v>589</v>
       </c>
-      <c r="B184" s="119" t="s">
+      <c r="B189" s="115" t="s">
         <v>590</v>
       </c>
-      <c r="C184" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D184" s="124"/>
-      <c r="E184" s="124"/>
-      <c r="F184" s="119"/>
-    </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="119" t="s">
+      <c r="C189" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="D189" s="120"/>
+      <c r="E189" s="120"/>
+      <c r="F189" s="115"/>
+    </row>
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="115" t="s">
         <v>591</v>
       </c>
-      <c r="B185" s="119" t="s">
+      <c r="B190" s="119" t="s">
         <v>592</v>
       </c>
-      <c r="C185" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D185" s="124"/>
-      <c r="E185" s="124"/>
-      <c r="F185" s="119"/>
-    </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="119" t="s">
-        <v>593</v>
-      </c>
-      <c r="B186" s="119" t="s">
-        <v>594</v>
-      </c>
-      <c r="C186" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D186" s="124"/>
-      <c r="E186" s="124"/>
-      <c r="F186" s="119"/>
-    </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="119" t="s">
-        <v>595</v>
-      </c>
-      <c r="B187" s="119" t="s">
-        <v>596</v>
-      </c>
-      <c r="C187" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D187" s="124"/>
-      <c r="E187" s="124"/>
-      <c r="F187" s="119"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="B188" s="119" t="s">
-        <v>597</v>
-      </c>
-      <c r="C188" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D188" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E188" s="124"/>
-      <c r="F188" s="119"/>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="119" t="s">
-        <v>598</v>
-      </c>
-      <c r="B189" s="119" t="s">
-        <v>599</v>
-      </c>
-      <c r="C189" s="135" t="s">
-        <v>511</v>
-      </c>
-      <c r="D189" s="124"/>
-      <c r="E189" s="124"/>
-      <c r="F189" s="119"/>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="119" t="s">
-        <v>600</v>
-      </c>
-      <c r="B190" s="123" t="s">
-        <v>601</v>
-      </c>
-      <c r="C190" s="135" t="s">
-        <v>541</v>
-      </c>
-      <c r="D190" s="124"/>
-      <c r="E190" s="124"/>
-      <c r="F190" s="119"/>
+      <c r="C190" s="131" t="s">
+        <v>532</v>
+      </c>
+      <c r="D190" s="120"/>
+      <c r="E190" s="120"/>
+      <c r="F190" s="115"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:F190" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A5:F190">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\R\R-3.4.1\library\BCGcalc\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Current\USEPA\OST\TALU BCG\OR_WA\CodeExample_20181005\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{86F173E3-BCB6-477C-A899-0EBB69C2C8E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="13800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">abbrev_v1!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Erik W. Leppo</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leppo, Erik</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -133,12 +134,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stamp, Jen</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2141,7 +2142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2368,7 +2369,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2482,12 +2483,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2578,7 +2573,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2942,40 +2937,22 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2993,71 +2970,47 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title 2" xfId="5"/>
+    <cellStyle name="Title 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3445,12 +3398,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A15:C20" totalsRowShown="0">
-  <autoFilter ref="A15:C20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A15:C20" totalsRowShown="0">
+  <autoFilter ref="A15:C20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Worksheet"/>
-    <tableColumn id="2" name="Descriptions"/>
-    <tableColumn id="3" name="Link" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="37">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3720,14 +3673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,7 +3708,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="95">
-        <v>43369</v>
+        <v>43381</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,7 +3717,7 @@
       </c>
       <c r="B7" s="97" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Programs\R\R-3.4.1\library\BCGcalc\extdata\[Rules.xlsx]</v>
+        <v>P:\Current\USEPA\OST\TALU BCG\OR_WA\CodeExample_20181005\[Rules_20181008.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3773,7 +3726,7 @@
       </c>
       <c r="B8" s="97" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
-        <v>[Rules.xlsx]</v>
+        <v>[Rules_20181008.xlsx]</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3873,12 +3826,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>""</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
@@ -3894,15 +3847,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E42"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3989,12 +3940,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -4013,10 +3964,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="144" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="144"/>
+      <c r="C7" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="154"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -4035,10 +3986,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="146"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -4083,10 +4034,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -4105,10 +4056,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -4127,10 +4078,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -4149,10 +4100,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="154"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -4171,10 +4122,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="145"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -4195,10 +4146,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="145"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -4213,12 +4164,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -4238,10 +4189,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="140"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -4252,10 +4203,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="153"/>
+      <c r="D18" s="137"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -4274,10 +4225,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="140"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -4296,10 +4247,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="140"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -4318,10 +4269,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="142"/>
+      <c r="D21" s="152"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -4366,10 +4317,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="152"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -4428,19 +4379,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="142" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="146" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4454,13 +4405,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="148"/>
+      <c r="A27" s="141"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="142"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="136"/>
+      <c r="E27" s="147"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -4472,12 +4423,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -4496,10 +4447,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="140"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -4518,10 +4469,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="150"/>
+      <c r="D30" s="144"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4561,10 +4512,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="140"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4574,10 +4525,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="152" t="s">
+      <c r="C34" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="152"/>
+      <c r="D34" s="140"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -4604,19 +4555,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="152" t="s">
+      <c r="C36" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="152"/>
+      <c r="D36" s="140"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="151" t="s">
+      <c r="A37" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4626,10 +4577,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="141" t="s">
+      <c r="C38" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="141"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4639,10 +4590,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="140"/>
+      <c r="D39" s="138"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -4654,10 +4605,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="140" t="s">
+      <c r="C40" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="140"/>
+      <c r="D40" s="138"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4667,10 +4618,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="140" t="s">
+      <c r="C41" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="140"/>
+      <c r="D41" s="138"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4680,32 +4631,16 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="140"/>
+      <c r="D42" s="138"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -4722,6 +4657,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -4735,7 +4686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9139,7 +9090,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W66">
+  <autoFilter ref="A2:W66" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Hi"/>
@@ -9157,167 +9108,167 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="I3:I34 I53:I66 I44:I51">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I43">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U9">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U14">
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:U16">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U28">
-    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30:U32">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35:U38">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U40">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U44:U46">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U55">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U56">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U60">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U59">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62:U64">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U65">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U66">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M66">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9327,15 +9278,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11279,14 +11230,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55"/>
+  <autoFilter ref="A1:K55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="I2:I28 I37:I55">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11297,26 +11248,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="54"/>
-    <col min="7" max="7" width="9.140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="54"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="70.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="126.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11358,7 +11310,7 @@
       <c r="A2" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="154" t="s">
+      <c r="B2" t="s">
         <v>131</v>
       </c>
       <c r="C2">
@@ -11393,7 +11345,7 @@
       <c r="A3" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" t="s">
         <v>131</v>
       </c>
       <c r="C3">
@@ -11428,7 +11380,7 @@
       <c r="A4" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" t="s">
         <v>131</v>
       </c>
       <c r="C4">
@@ -11463,7 +11415,7 @@
       <c r="A5" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" t="s">
         <v>131</v>
       </c>
       <c r="C5">
@@ -11498,7 +11450,7 @@
       <c r="A6" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" t="s">
         <v>131</v>
       </c>
       <c r="C6">
@@ -11533,7 +11485,7 @@
       <c r="A7" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" t="s">
         <v>131</v>
       </c>
       <c r="C7">
@@ -11568,7 +11520,7 @@
       <c r="A8" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" t="s">
         <v>131</v>
       </c>
       <c r="C8">
@@ -11603,7 +11555,7 @@
       <c r="A9" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" t="s">
         <v>131</v>
       </c>
       <c r="C9">
@@ -11638,7 +11590,7 @@
       <c r="A10" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" t="s">
         <v>131</v>
       </c>
       <c r="C10">
@@ -11673,7 +11625,7 @@
       <c r="A11" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" t="s">
         <v>131</v>
       </c>
       <c r="C11">
@@ -11708,7 +11660,7 @@
       <c r="A12" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" t="s">
         <v>131</v>
       </c>
       <c r="C12">
@@ -11743,7 +11695,7 @@
       <c r="A13" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" t="s">
         <v>131</v>
       </c>
       <c r="C13">
@@ -11778,7 +11730,7 @@
       <c r="A14" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" t="s">
         <v>131</v>
       </c>
       <c r="C14">
@@ -11813,7 +11765,7 @@
       <c r="A15" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" t="s">
         <v>131</v>
       </c>
       <c r="C15">
@@ -11848,7 +11800,7 @@
       <c r="A16" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" t="s">
         <v>131</v>
       </c>
       <c r="C16">
@@ -11883,7 +11835,7 @@
       <c r="A17" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B17" t="s">
         <v>131</v>
       </c>
       <c r="C17">
@@ -11918,7 +11870,7 @@
       <c r="A18" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" t="s">
         <v>131</v>
       </c>
       <c r="C18">
@@ -11953,7 +11905,7 @@
       <c r="A19" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" t="s">
         <v>131</v>
       </c>
       <c r="C19">
@@ -11988,7 +11940,7 @@
       <c r="A20" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" t="s">
         <v>131</v>
       </c>
       <c r="C20">
@@ -12023,25 +11975,25 @@
       <c r="A21" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" t="s">
         <v>131</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="155" t="s">
+      <c r="E21" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="156">
-        <v>0</v>
-      </c>
-      <c r="H21" s="156">
+      <c r="G21" s="54">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54">
         <v>3</v>
       </c>
       <c r="I21" s="46" t="b">
@@ -12058,7 +12010,7 @@
       <c r="A22" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" t="s">
         <v>131</v>
       </c>
       <c r="C22">
@@ -12093,7 +12045,7 @@
       <c r="A23" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" t="s">
         <v>131</v>
       </c>
       <c r="C23">
@@ -12128,7 +12080,7 @@
       <c r="A24" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" t="s">
         <v>131</v>
       </c>
       <c r="C24">
@@ -12163,7 +12115,7 @@
       <c r="A25" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="154" t="s">
+      <c r="B25" t="s">
         <v>131</v>
       </c>
       <c r="C25">
@@ -12198,25 +12150,25 @@
       <c r="A26" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" t="s">
         <v>131</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="91" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="156" t="s">
+      <c r="F26" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="156">
-        <v>0</v>
-      </c>
-      <c r="H26" s="156">
+      <c r="G26" s="136">
+        <v>0</v>
+      </c>
+      <c r="H26" s="136">
         <v>1</v>
       </c>
       <c r="I26" s="46" t="b">
@@ -12233,7 +12185,7 @@
       <c r="A27" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="154" t="s">
+      <c r="B27" t="s">
         <v>131</v>
       </c>
       <c r="C27">
@@ -12242,16 +12194,16 @@
       <c r="D27" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="156" t="s">
+      <c r="F27" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="156">
+      <c r="G27" s="54">
         <v>0.3</v>
       </c>
-      <c r="H27" s="156">
+      <c r="H27" s="54">
         <v>0.4</v>
       </c>
       <c r="I27" s="46" t="b">
@@ -12268,7 +12220,7 @@
       <c r="A28" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="154" t="s">
+      <c r="B28" t="s">
         <v>131</v>
       </c>
       <c r="C28">
@@ -12303,7 +12255,7 @@
       <c r="A29" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="157" t="s">
+      <c r="B29" t="s">
         <v>133</v>
       </c>
       <c r="C29">
@@ -12338,7 +12290,7 @@
       <c r="A30" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" t="s">
         <v>133</v>
       </c>
       <c r="C30">
@@ -12373,7 +12325,7 @@
       <c r="A31" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="157" t="s">
+      <c r="B31" t="s">
         <v>133</v>
       </c>
       <c r="C31">
@@ -12408,7 +12360,7 @@
       <c r="A32" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" t="s">
         <v>133</v>
       </c>
       <c r="C32">
@@ -12443,7 +12395,7 @@
       <c r="A33" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="157" t="s">
+      <c r="B33" t="s">
         <v>133</v>
       </c>
       <c r="C33">
@@ -12478,7 +12430,7 @@
       <c r="A34" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" t="s">
         <v>133</v>
       </c>
       <c r="C34">
@@ -12513,7 +12465,7 @@
       <c r="A35" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" t="s">
         <v>133</v>
       </c>
       <c r="C35">
@@ -12548,7 +12500,7 @@
       <c r="A36" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="157" t="s">
+      <c r="B36" t="s">
         <v>133</v>
       </c>
       <c r="C36">
@@ -12583,7 +12535,7 @@
       <c r="A37" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="157" t="s">
+      <c r="B37" t="s">
         <v>133</v>
       </c>
       <c r="C37">
@@ -12618,7 +12570,7 @@
       <c r="A38" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="157" t="s">
+      <c r="B38" t="s">
         <v>133</v>
       </c>
       <c r="C38">
@@ -12653,7 +12605,7 @@
       <c r="A39" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="157" t="s">
+      <c r="B39" t="s">
         <v>133</v>
       </c>
       <c r="C39">
@@ -12688,7 +12640,7 @@
       <c r="A40" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="157" t="s">
+      <c r="B40" t="s">
         <v>133</v>
       </c>
       <c r="C40">
@@ -12723,7 +12675,7 @@
       <c r="A41" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" t="s">
         <v>133</v>
       </c>
       <c r="C41">
@@ -12758,7 +12710,7 @@
       <c r="A42" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="157" t="s">
+      <c r="B42" t="s">
         <v>133</v>
       </c>
       <c r="C42">
@@ -12793,7 +12745,7 @@
       <c r="A43" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="157" t="s">
+      <c r="B43" t="s">
         <v>133</v>
       </c>
       <c r="C43">
@@ -12828,7 +12780,7 @@
       <c r="A44" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B44" s="157" t="s">
+      <c r="B44" t="s">
         <v>133</v>
       </c>
       <c r="C44">
@@ -12863,7 +12815,7 @@
       <c r="A45" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B45" s="157" t="s">
+      <c r="B45" t="s">
         <v>133</v>
       </c>
       <c r="C45">
@@ -12898,7 +12850,7 @@
       <c r="A46" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="157" t="s">
+      <c r="B46" t="s">
         <v>133</v>
       </c>
       <c r="C46">
@@ -12933,7 +12885,7 @@
       <c r="A47" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="157" t="s">
+      <c r="B47" t="s">
         <v>133</v>
       </c>
       <c r="C47">
@@ -12968,25 +12920,25 @@
       <c r="A48" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="157" t="s">
+      <c r="B48" t="s">
         <v>133</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="155" t="s">
+      <c r="E48" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="156" t="s">
+      <c r="F48" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="156">
-        <v>0</v>
-      </c>
-      <c r="H48" s="156">
+      <c r="G48" s="54">
+        <v>0</v>
+      </c>
+      <c r="H48" s="54">
         <v>3</v>
       </c>
       <c r="I48" s="51" t="b">
@@ -13003,7 +12955,7 @@
       <c r="A49" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="157" t="s">
+      <c r="B49" t="s">
         <v>133</v>
       </c>
       <c r="C49">
@@ -13038,7 +12990,7 @@
       <c r="A50" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="157" t="s">
+      <c r="B50" t="s">
         <v>133</v>
       </c>
       <c r="C50">
@@ -13073,7 +13025,7 @@
       <c r="A51" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="157" t="s">
+      <c r="B51" t="s">
         <v>133</v>
       </c>
       <c r="C51">
@@ -13108,7 +13060,7 @@
       <c r="A52" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="157" t="s">
+      <c r="B52" t="s">
         <v>133</v>
       </c>
       <c r="C52">
@@ -13143,25 +13095,25 @@
       <c r="A53" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="157" t="s">
+      <c r="B53" t="s">
         <v>133</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="91" t="s">
         <v>60</v>
       </c>
       <c r="E53" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="156" t="s">
+      <c r="F53" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="156">
-        <v>0</v>
-      </c>
-      <c r="H53" s="156">
+      <c r="G53" s="136">
+        <v>0</v>
+      </c>
+      <c r="H53" s="136">
         <v>1</v>
       </c>
       <c r="I53" s="46" t="b">
@@ -13178,7 +13130,7 @@
       <c r="A54" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B54" s="157" t="s">
+      <c r="B54" t="s">
         <v>133</v>
       </c>
       <c r="C54">
@@ -13187,16 +13139,16 @@
       <c r="D54" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="156" t="s">
+      <c r="F54" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="156">
+      <c r="G54" s="54">
         <v>0.3</v>
       </c>
-      <c r="H54" s="156">
+      <c r="H54" s="54">
         <v>0.4</v>
       </c>
       <c r="I54" s="46" t="b">
@@ -13213,7 +13165,7 @@
       <c r="A55" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="157" t="s">
+      <c r="B55" t="s">
         <v>133</v>
       </c>
       <c r="C55">
@@ -13222,16 +13174,16 @@
       <c r="D55" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="156" t="s">
+      <c r="F55" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="156">
+      <c r="G55" s="54">
         <v>0.70000000000000007</v>
       </c>
-      <c r="H55" s="156">
+      <c r="H55" s="54">
         <v>0.8</v>
       </c>
       <c r="I55" s="46" t="b">
@@ -13244,21 +13196,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K55" xr:uid="{4E213493-3BF7-428E-99C0-C1D7290448E7}"/>
   <conditionalFormatting sqref="I2:I28 I37:I55">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13267,7 +13213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -13277,7 +13223,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58:B59"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15973,7 +15919,7 @@
       <c r="F190" s="115"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:F190">
+  <autoFilter ref="A5:F190" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Current\USEPA\OST\TALU BCG\OR_WA\CodeExample_20181005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{86F173E3-BCB6-477C-A899-0EBB69C2C8E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25BBF6BE-210E-4E14-9F88-C4F86543F083}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14400" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="600">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -816,9 +816,6 @@
     <t>pi_dom02_BCG_att456_nonclump</t>
   </si>
   <si>
-    <t>≤ 20% (25-35)</t>
-  </si>
-  <si>
     <t>≤ 8% (5-10)</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
     <t>pi_NonInsJugaRiss_BCG_att456</t>
   </si>
   <si>
-    <t>≤ 30% (25-55)</t>
-  </si>
-  <si>
     <t>pi_NonIns_BCG_att456</t>
   </si>
   <si>
@@ -2137,6 +2131,9 @@
   </si>
   <si>
     <t>≥ 290 (280-300)</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2366,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,6 +2480,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -2573,7 +2576,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2943,6 +2946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3692,46 +3696,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="95">
-        <v>43381</v>
+        <v>43383</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B7" s="97" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>P:\Current\USEPA\OST\TALU BCG\OR_WA\CodeExample_20181005\[Rules_20181008.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[Rules_20181009.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" s="97" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
-        <v>[Rules_20181008.xlsx]</v>
+        <v>[Rules_20181009.xlsx]</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="98" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
@@ -3740,36 +3744,36 @@
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="100" t="s">
         <v>199</v>
-      </c>
-      <c r="B15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="101" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
@@ -3778,10 +3782,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C17" s="132" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
@@ -3790,10 +3794,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" s="133" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -3802,10 +3806,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" s="103" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
@@ -3814,10 +3818,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C20" s="134" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A20&amp;"!A1",A20)</f>
@@ -3940,12 +3944,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -3964,10 +3968,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="154" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="154"/>
+      <c r="C7" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="155"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -3986,10 +3990,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -4034,10 +4038,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="154"/>
+      <c r="D10" s="155"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -4056,10 +4060,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -4078,10 +4082,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="154"/>
+      <c r="D12" s="155"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -4100,10 +4104,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -4122,10 +4126,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="139"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -4146,10 +4150,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="139"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -4164,12 +4168,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -4189,10 +4193,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="138"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -4203,10 +4207,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="137"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -4225,10 +4229,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="138" t="s">
+      <c r="C19" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="138"/>
+      <c r="D19" s="139"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -4247,10 +4251,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="138"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -4269,10 +4273,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="152"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -4317,10 +4321,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="140"/>
+      <c r="D23" s="141"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -4379,19 +4383,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="143" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="147" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4405,13 +4409,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="141"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="142"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="143"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="147"/>
+      <c r="E27" s="148"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -4423,12 +4427,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -4447,10 +4451,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="138"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -4469,10 +4473,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="144"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4512,10 +4516,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="138"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4525,10 +4529,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="140"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -4555,19 +4559,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="140" t="s">
+      <c r="C36" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="140"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4577,10 +4581,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="151" t="s">
+      <c r="C38" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="151"/>
+      <c r="D38" s="152"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4590,10 +4594,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="138" t="s">
+      <c r="C39" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="138"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -4605,10 +4609,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="138"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4618,10 +4622,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="138" t="s">
+      <c r="C41" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="138"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4631,10 +4635,10 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="138" t="s">
+      <c r="C42" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="138"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
@@ -4722,10 +4726,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="D1" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="56" t="s">
         <v>166</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>167</v>
       </c>
       <c r="O1" s="57"/>
       <c r="P1" s="58"/>
@@ -4735,13 +4739,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="59" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="59" t="s">
         <v>62</v>
@@ -4762,22 +4766,22 @@
         <v>138</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L2" s="84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M2" s="87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O2" s="60" t="s">
         <v>130</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="59" t="s">
         <v>62</v>
@@ -4798,7 +4802,7 @@
         <v>138</v>
       </c>
       <c r="W2" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -4836,7 +4840,7 @@
         <v>151</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M3" s="61" t="b">
         <f>D3=P3</f>
@@ -4908,7 +4912,7 @@
         <v>151</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M4" s="61" t="b">
         <f t="shared" ref="M4:M66" si="0">D4=P4</f>
@@ -4980,7 +4984,7 @@
         <v>151</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M5" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5052,7 +5056,7 @@
         <v>151</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M6" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5124,7 +5128,7 @@
         <v>151</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M7" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5196,7 +5200,7 @@
         <v>151</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M8" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5268,7 +5272,7 @@
         <v>151</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M9" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5340,7 +5344,7 @@
         <v>151</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M10" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5353,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>24</v>
@@ -5371,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>151</v>
@@ -5412,7 +5416,7 @@
         <v>151</v>
       </c>
       <c r="L11" s="70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M11" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5421,7 +5425,7 @@
       <c r="N11" s="68"/>
       <c r="O11" s="68"/>
       <c r="P11" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R11" s="68"/>
       <c r="S11" s="68"/>
@@ -5463,7 +5467,7 @@
         <v>151</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M12" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5535,7 +5539,7 @@
         <v>151</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M13" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5607,7 +5611,7 @@
         <v>151</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M14" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5679,7 +5683,7 @@
         <v>151</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M15" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5751,7 +5755,7 @@
         <v>151</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M16" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5823,7 +5827,7 @@
         <v>151</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M17" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5839,7 +5843,7 @@
         <v>147</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R17" s="54" t="s">
         <v>142</v>
@@ -5895,7 +5899,7 @@
         <v>151</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M18" s="61" t="b">
         <f t="shared" si="0"/>
@@ -5908,7 +5912,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="57" t="s">
         <v>136</v>
@@ -5926,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>151</v>
@@ -5967,7 +5971,7 @@
         <v>152</v>
       </c>
       <c r="L19" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M19" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6009,14 +6013,14 @@
         <v>153</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M20" s="61" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W20" s="76" t="s">
         <v>153</v>
@@ -6054,7 +6058,7 @@
         <v>153</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M21" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6105,7 +6109,7 @@
         <v>151</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M22" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6177,7 +6181,7 @@
         <v>151</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M23" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6249,7 +6253,7 @@
         <v>151</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M24" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6321,7 +6325,7 @@
         <v>151</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M25" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6393,7 +6397,7 @@
         <v>151</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M26" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6465,7 +6469,7 @@
         <v>151</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M27" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6478,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>136</v>
@@ -6496,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W27" s="11" t="s">
         <v>151</v>
@@ -6537,7 +6541,7 @@
         <v>151</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M28" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6550,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>58</v>
@@ -6568,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W28" s="11" t="s">
         <v>151</v>
@@ -6609,14 +6613,14 @@
         <v>151</v>
       </c>
       <c r="L29" s="70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M29" s="61" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P29" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W29" s="66" t="s">
         <v>151</v>
@@ -6657,7 +6661,7 @@
         <v>151</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M30" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6729,7 +6733,7 @@
         <v>151</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M31" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6801,7 +6805,7 @@
         <v>151</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M32" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6873,7 +6877,7 @@
         <v>151</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M33" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6945,7 +6949,7 @@
         <v>151</v>
       </c>
       <c r="L34" s="70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M34" s="61" t="b">
         <f t="shared" si="0"/>
@@ -6958,7 +6962,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q34" s="66" t="s">
         <v>31</v>
@@ -6976,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W34" s="66" t="s">
         <v>151</v>
@@ -7017,7 +7021,7 @@
         <v>151</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M35" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7089,7 +7093,7 @@
         <v>151</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M36" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7158,7 +7162,7 @@
         <v>151</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M37" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7230,7 +7234,7 @@
         <v>151</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M38" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7302,7 +7306,7 @@
         <v>151</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M39" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7374,7 +7378,7 @@
         <v>151</v>
       </c>
       <c r="L40" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M40" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7446,7 +7450,7 @@
         <v>151</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M41" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7518,7 +7522,7 @@
         <v>151</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M42" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7531,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="P42" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>24</v>
@@ -7546,7 +7550,7 @@
         <v>0.2</v>
       </c>
       <c r="V42" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W42" s="11" t="s">
         <v>151</v>
@@ -7587,14 +7591,14 @@
         <v>151</v>
       </c>
       <c r="L43" s="70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M43" s="61" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P43" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W43" s="66" t="s">
         <v>151</v>
@@ -7629,7 +7633,7 @@
         <v>151</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M44" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7695,7 +7699,7 @@
         <v>151</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M45" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7761,7 +7765,7 @@
         <v>151</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M46" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7827,7 +7831,7 @@
         <v>151</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M47" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7893,7 +7897,7 @@
         <v>151</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M48" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7965,7 +7969,7 @@
         <v>151</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M49" s="61" t="b">
         <f t="shared" si="0"/>
@@ -7981,7 +7985,7 @@
         <v>147</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R49" s="54" t="s">
         <v>142</v>
@@ -8031,7 +8035,7 @@
         <v>151</v>
       </c>
       <c r="L50" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M50" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8044,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="P50" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q50" s="58" t="s">
         <v>136</v>
@@ -8062,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>151</v>
@@ -8103,7 +8107,7 @@
         <v>152</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M51" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8148,14 +8152,14 @@
         <v>153</v>
       </c>
       <c r="L52" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M52" s="61" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P52" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W52" s="76" t="s">
         <v>153</v>
@@ -8172,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E53" s="66" t="s">
         <v>54</v>
@@ -8193,7 +8197,7 @@
         <v>153</v>
       </c>
       <c r="L53" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M53" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8238,7 +8242,7 @@
         <v>151</v>
       </c>
       <c r="L54" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M54" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8304,7 +8308,7 @@
         <v>151</v>
       </c>
       <c r="L55" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M55" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8376,7 +8380,7 @@
         <v>151</v>
       </c>
       <c r="L56" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M56" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8448,7 +8452,7 @@
         <v>151</v>
       </c>
       <c r="L57" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M57" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8514,7 +8518,7 @@
         <v>151</v>
       </c>
       <c r="L58" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M58" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8580,7 +8584,7 @@
         <v>151</v>
       </c>
       <c r="L59" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M59" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8593,7 +8597,7 @@
         <v>4</v>
       </c>
       <c r="P59" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>136</v>
@@ -8611,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W59" s="11" t="s">
         <v>151</v>
@@ -8652,7 +8656,7 @@
         <v>151</v>
       </c>
       <c r="L60" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M60" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8665,7 +8669,7 @@
         <v>4</v>
       </c>
       <c r="P60" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>58</v>
@@ -8683,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W60" s="11" t="s">
         <v>151</v>
@@ -8719,14 +8723,14 @@
         <v>151</v>
       </c>
       <c r="L61" s="70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M61" s="61" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P61" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -8764,7 +8768,7 @@
         <v>151</v>
       </c>
       <c r="L62" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M62" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8836,7 +8840,7 @@
         <v>151</v>
       </c>
       <c r="L63" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M63" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8908,7 +8912,7 @@
         <v>151</v>
       </c>
       <c r="L64" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M64" s="61" t="b">
         <f t="shared" si="0"/>
@@ -8980,7 +8984,7 @@
         <v>151</v>
       </c>
       <c r="L65" s="55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M65" s="61" t="b">
         <f t="shared" si="0"/>
@@ -9052,7 +9056,7 @@
         <v>151</v>
       </c>
       <c r="L66" s="70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M66" s="61" t="b">
         <f t="shared" si="0"/>
@@ -9065,7 +9069,7 @@
         <v>5</v>
       </c>
       <c r="P66" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q66" s="66" t="s">
         <v>31</v>
@@ -9083,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W66" s="66" t="s">
         <v>151</v>
@@ -9285,8 +9289,8 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9309,16 +9313,16 @@
         <v>129</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>141</v>
@@ -9336,12 +9340,12 @@
         <v>138</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
@@ -9376,7 +9380,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
@@ -9411,7 +9415,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
@@ -9446,7 +9450,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
@@ -9481,7 +9485,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -9516,7 +9520,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
@@ -9551,7 +9555,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
@@ -9586,7 +9590,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>131</v>
@@ -9595,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -9613,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
         <v>151</v>
@@ -9621,7 +9625,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
@@ -9656,7 +9660,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
         <v>131</v>
@@ -9691,7 +9695,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>131</v>
@@ -9726,7 +9730,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
@@ -9761,7 +9765,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
@@ -9796,7 +9800,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -9808,7 +9812,7 @@
         <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
@@ -9831,7 +9835,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
@@ -9840,10 +9844,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="F16" t="s">
         <v>144</v>
@@ -9858,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
         <v>151</v>
@@ -9866,7 +9870,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
@@ -9901,7 +9905,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
@@ -9936,7 +9940,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -9971,7 +9975,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
@@ -10006,7 +10010,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
@@ -10041,7 +10045,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -10050,7 +10054,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
         <v>136</v>
@@ -10068,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
         <v>151</v>
@@ -10076,7 +10080,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
@@ -10085,7 +10089,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
@@ -10103,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
         <v>151</v>
@@ -10111,7 +10115,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -10146,7 +10150,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
@@ -10181,7 +10185,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
@@ -10216,7 +10220,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
@@ -10251,7 +10255,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -10260,7 +10264,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
         <v>31</v>
@@ -10278,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
         <v>151</v>
@@ -10286,7 +10290,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -10321,7 +10325,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -10356,7 +10360,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
@@ -10391,7 +10395,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -10406,7 +10410,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>599</v>
       </c>
       <c r="G32">
         <v>0.15</v>
@@ -10426,7 +10430,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -10461,7 +10465,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
@@ -10496,7 +10500,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
@@ -10531,7 +10535,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
@@ -10540,7 +10544,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
@@ -10558,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s">
         <v>151</v>
@@ -10566,7 +10570,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
@@ -10601,7 +10605,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
@@ -10636,7 +10640,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -10671,7 +10675,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -10683,7 +10687,7 @@
         <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
         <v>144</v>
@@ -10706,7 +10710,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
@@ -10741,7 +10745,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
@@ -10753,7 +10757,7 @@
         <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
         <v>142</v>
@@ -10776,7 +10780,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
@@ -10785,10 +10789,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E43" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="F43" t="s">
         <v>144</v>
@@ -10803,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K43" t="s">
         <v>151</v>
@@ -10811,7 +10815,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -10822,8 +10826,8 @@
       <c r="D44" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E44" t="s">
-        <v>7</v>
+      <c r="E44" s="91" t="s">
+        <v>22</v>
       </c>
       <c r="F44" t="s">
         <v>142</v>
@@ -10846,7 +10850,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -10881,7 +10885,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -10916,7 +10920,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
@@ -10951,7 +10955,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -10965,13 +10969,13 @@
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="G48" s="52">
+        <v>0</v>
+      </c>
+      <c r="H48" s="52">
         <v>3</v>
       </c>
       <c r="I48" s="51" t="b">
@@ -10986,7 +10990,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
@@ -10995,25 +10999,25 @@
         <v>4</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="52">
         <v>0.25</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="52">
         <v>0.35000000000000003</v>
       </c>
       <c r="I49" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K49" t="s">
         <v>151</v>
@@ -11021,7 +11025,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -11030,25 +11034,25 @@
         <v>4</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="52">
         <v>0.3</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="52">
         <v>0.4</v>
       </c>
       <c r="I50" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K50" t="s">
         <v>151</v>
@@ -11056,7 +11060,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
@@ -11091,7 +11095,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -11126,7 +11130,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -11161,7 +11165,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -11196,7 +11200,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -11205,7 +11209,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
         <v>31</v>
@@ -11223,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s">
         <v>151</v>
@@ -11253,7 +11257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11276,16 +11280,16 @@
         <v>129</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" s="60" t="s">
         <v>141</v>
@@ -11303,12 +11307,12 @@
         <v>138</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
@@ -11343,7 +11347,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
@@ -11355,7 +11359,7 @@
         <v>154</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>143</v>
@@ -11378,7 +11382,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
@@ -11413,7 +11417,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
@@ -11448,7 +11452,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -11483,7 +11487,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
@@ -11518,7 +11522,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
@@ -11553,7 +11557,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>131</v>
@@ -11562,7 +11566,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -11580,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
         <v>151</v>
@@ -11588,7 +11592,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
@@ -11623,7 +11627,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>131</v>
@@ -11658,7 +11662,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>131</v>
@@ -11693,7 +11697,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
@@ -11728,7 +11732,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
@@ -11763,7 +11767,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -11775,7 +11779,7 @@
         <v>147</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>143</v>
@@ -11798,7 +11802,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
@@ -11807,10 +11811,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E16" s="137" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="54" t="s">
         <v>144</v>
@@ -11825,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
         <v>151</v>
@@ -11833,7 +11837,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
@@ -11868,7 +11872,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
@@ -11903,7 +11907,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -11938,7 +11942,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
@@ -11973,7 +11977,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
@@ -12008,7 +12012,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -12017,7 +12021,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
         <v>136</v>
@@ -12035,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
         <v>151</v>
@@ -12043,7 +12047,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
@@ -12052,7 +12056,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
@@ -12070,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
         <v>151</v>
@@ -12078,7 +12082,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -12090,7 +12094,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F24" s="57" t="s">
         <v>142</v>
@@ -12113,7 +12117,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
@@ -12125,7 +12129,7 @@
         <v>59</v>
       </c>
       <c r="E25" s="91" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>142</v>
@@ -12148,7 +12152,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
@@ -12183,7 +12187,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
@@ -12218,7 +12222,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -12227,7 +12231,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
         <v>31</v>
@@ -12245,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
         <v>151</v>
@@ -12253,7 +12257,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -12288,7 +12292,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -12300,7 +12304,7 @@
         <v>154</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F30" s="57" t="s">
         <v>143</v>
@@ -12323,7 +12327,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
@@ -12358,7 +12362,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -12393,7 +12397,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -12428,7 +12432,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
@@ -12463,7 +12467,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
@@ -12498,7 +12502,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
@@ -12507,7 +12511,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
@@ -12525,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s">
         <v>151</v>
@@ -12533,7 +12537,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
@@ -12568,7 +12572,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
@@ -12603,7 +12607,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -12638,7 +12642,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -12650,7 +12654,7 @@
         <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" s="54" t="s">
         <v>144</v>
@@ -12673,7 +12677,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
@@ -12708,7 +12712,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
@@ -12720,7 +12724,7 @@
         <v>147</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F42" s="57" t="s">
         <v>143</v>
@@ -12743,7 +12747,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
@@ -12752,10 +12756,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E43" s="137" t="s">
+        <v>136</v>
       </c>
       <c r="F43" s="54" t="s">
         <v>144</v>
@@ -12770,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K43" t="s">
         <v>151</v>
@@ -12778,7 +12782,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -12813,7 +12817,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -12848,7 +12852,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -12883,7 +12887,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
@@ -12918,7 +12922,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -12953,7 +12957,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
@@ -12961,26 +12965,26 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="54" t="s">
+      <c r="D49" s="137" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="137" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="54">
+      <c r="G49" s="136">
         <v>0.25</v>
       </c>
-      <c r="H49" s="54">
+      <c r="H49" s="136">
         <v>0.35000000000000003</v>
       </c>
       <c r="I49" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K49" t="s">
         <v>151</v>
@@ -12988,7 +12992,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -12997,7 +13001,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
@@ -13015,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K50" t="s">
         <v>151</v>
@@ -13023,7 +13027,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
@@ -13035,7 +13039,7 @@
         <v>34</v>
       </c>
       <c r="E51" s="91" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F51" s="57" t="s">
         <v>142</v>
@@ -13058,7 +13062,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -13070,7 +13074,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="91" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F52" s="57" t="s">
         <v>142</v>
@@ -13093,7 +13097,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -13128,7 +13132,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -13163,7 +13167,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -13172,7 +13176,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
         <v>31</v>
@@ -13190,14 +13194,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55" xr:uid="{4E213493-3BF7-428E-99C0-C1D7290448E7}"/>
+  <autoFilter ref="A1:K55" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="I2:I28 I37:I55">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
@@ -13243,10 +13247,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" s="105"/>
       <c r="D1" s="105"/>
@@ -13266,19 +13270,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="110" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="111" t="s">
         <v>215</v>
-      </c>
-      <c r="D5" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="111" t="s">
-        <v>217</v>
       </c>
       <c r="F5" s="110" t="s">
         <v>75</v>
@@ -13286,10 +13290,10 @@
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
@@ -13298,10 +13302,10 @@
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="114"/>
       <c r="D7" s="114"/>
@@ -13310,10 +13314,10 @@
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8" s="114"/>
       <c r="D8" s="114"/>
@@ -13325,26 +13329,26 @@
         <v>59</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C9" s="117" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E9" s="117"/>
       <c r="F9" s="116"/>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="118" t="s">
         <v>224</v>
-      </c>
-      <c r="B10" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>226</v>
       </c>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
@@ -13352,13 +13356,13 @@
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" s="118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D11" s="120"/>
       <c r="E11" s="120"/>
@@ -13366,29 +13370,29 @@
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" s="122"/>
       <c r="E12" s="122"/>
       <c r="F12" s="119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C13" s="118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="120"/>
       <c r="E13" s="120"/>
@@ -13396,13 +13400,13 @@
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="118" t="s">
         <v>234</v>
-      </c>
-      <c r="B14" s="115" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="118" t="s">
-        <v>236</v>
       </c>
       <c r="D14" s="118"/>
       <c r="E14" s="118"/>
@@ -13410,13 +13414,13 @@
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="118" t="s">
         <v>237</v>
-      </c>
-      <c r="B15" s="115" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>239</v>
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="118"/>
@@ -13424,13 +13428,13 @@
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="118" t="s">
         <v>240</v>
-      </c>
-      <c r="B16" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="118" t="s">
-        <v>242</v>
       </c>
       <c r="D16" s="118"/>
       <c r="E16" s="118"/>
@@ -13438,13 +13442,13 @@
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="115" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D17" s="118"/>
       <c r="E17" s="118"/>
@@ -13452,13 +13456,13 @@
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="115" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" s="118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="118"/>
       <c r="E18" s="118"/>
@@ -13466,13 +13470,13 @@
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="118"/>
@@ -13480,13 +13484,13 @@
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="115" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C20" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" s="118"/>
       <c r="E20" s="118"/>
@@ -13494,13 +13498,13 @@
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="115" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="118"/>
@@ -13508,13 +13512,13 @@
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="126"/>
       <c r="E22" s="126"/>
@@ -13522,13 +13526,13 @@
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="115" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B23" s="115" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D23" s="118"/>
       <c r="E23" s="118"/>
@@ -13536,13 +13540,13 @@
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B24" s="115" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D24" s="118"/>
       <c r="E24" s="118"/>
@@ -13550,13 +13554,13 @@
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="115" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D25" s="118"/>
       <c r="E25" s="118"/>
@@ -13564,13 +13568,13 @@
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="115" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="118"/>
@@ -13578,13 +13582,13 @@
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="115" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B27" s="115" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C27" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27" s="118"/>
       <c r="E27" s="118"/>
@@ -13592,13 +13596,13 @@
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="115" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B28" s="115" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C28" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D28" s="118"/>
       <c r="E28" s="118"/>
@@ -13606,13 +13610,13 @@
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="115" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" s="115" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" s="118"/>
       <c r="E29" s="118"/>
@@ -13623,26 +13627,26 @@
         <v>34</v>
       </c>
       <c r="B30" s="115" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C30" s="118" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D30" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E30" s="118"/>
       <c r="F30" s="115"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="115" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B31" s="115" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C31" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D31" s="118"/>
       <c r="E31" s="118"/>
@@ -13650,13 +13654,13 @@
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="115" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B32" s="115" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C32" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D32" s="118"/>
       <c r="E32" s="118"/>
@@ -13664,13 +13668,13 @@
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B33" s="115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D33" s="118"/>
       <c r="E33" s="118"/>
@@ -13678,13 +13682,13 @@
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B34" s="115" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D34" s="118"/>
       <c r="E34" s="118"/>
@@ -13692,13 +13696,13 @@
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B35" s="115" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C35" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D35" s="118"/>
       <c r="E35" s="118"/>
@@ -13706,13 +13710,13 @@
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B36" s="115" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C36" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D36" s="118"/>
       <c r="E36" s="118"/>
@@ -13720,13 +13724,13 @@
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="115" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B37" s="115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -13737,26 +13741,26 @@
         <v>60</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C38" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D38" s="126" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E38" s="126"/>
       <c r="F38" s="115"/>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" s="115" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C39" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D39" s="118"/>
       <c r="E39" s="118"/>
@@ -13764,13 +13768,13 @@
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="115" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B40" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C40" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
@@ -13778,13 +13782,13 @@
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="115" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B41" s="115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C41" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D41" s="118"/>
       <c r="E41" s="118"/>
@@ -13792,13 +13796,13 @@
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="115" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B42" s="115" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C42" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
@@ -13806,13 +13810,13 @@
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B43" s="115" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C43" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D43" s="118"/>
       <c r="E43" s="118"/>
@@ -13820,13 +13824,13 @@
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="119" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B44" s="115" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C44" s="118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D44" s="118"/>
       <c r="E44" s="118"/>
@@ -13834,13 +13838,13 @@
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="115" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B45" s="115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C45" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D45" s="118"/>
       <c r="E45" s="118"/>
@@ -13848,13 +13852,13 @@
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="115" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B46" s="115" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C46" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D46" s="118"/>
       <c r="E46" s="118"/>
@@ -13862,13 +13866,13 @@
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="115" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B47" s="115" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C47" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D47" s="118"/>
       <c r="E47" s="118"/>
@@ -13876,13 +13880,13 @@
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="115" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B48" s="115" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C48" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
@@ -13890,13 +13894,13 @@
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="127" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" s="123" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="128" t="s">
         <v>306</v>
-      </c>
-      <c r="B49" s="123" t="s">
-        <v>307</v>
-      </c>
-      <c r="C49" s="128" t="s">
-        <v>308</v>
       </c>
       <c r="D49" s="128"/>
       <c r="E49" s="128"/>
@@ -13904,13 +13908,13 @@
     </row>
     <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50" s="129" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="130" t="s">
         <v>309</v>
-      </c>
-      <c r="B50" s="129" t="s">
-        <v>310</v>
-      </c>
-      <c r="C50" s="130" t="s">
-        <v>311</v>
       </c>
       <c r="D50" s="118"/>
       <c r="E50" s="118"/>
@@ -13921,10 +13925,10 @@
         <v>150</v>
       </c>
       <c r="B51" s="129" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C51" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D51" s="120"/>
       <c r="E51" s="120"/>
@@ -13935,10 +13939,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="129" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C52" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D52" s="118"/>
       <c r="E52" s="118"/>
@@ -13946,13 +13950,13 @@
     </row>
     <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="115" t="s">
+        <v>312</v>
+      </c>
+      <c r="B53" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="130" t="s">
         <v>314</v>
-      </c>
-      <c r="B53" s="129" t="s">
-        <v>315</v>
-      </c>
-      <c r="C53" s="130" t="s">
-        <v>316</v>
       </c>
       <c r="D53" s="120"/>
       <c r="E53" s="120"/>
@@ -13960,13 +13964,13 @@
     </row>
     <row r="54" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="115" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B54" s="129" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C54" s="130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D54" s="120"/>
       <c r="E54" s="120"/>
@@ -13974,13 +13978,13 @@
     </row>
     <row r="55" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="115" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B55" s="129" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C55" s="130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D55" s="118"/>
       <c r="E55" s="118"/>
@@ -13988,13 +13992,13 @@
     </row>
     <row r="56" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="115" t="s">
+        <v>319</v>
+      </c>
+      <c r="B56" s="129" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="130" t="s">
         <v>321</v>
-      </c>
-      <c r="B56" s="129" t="s">
-        <v>322</v>
-      </c>
-      <c r="C56" s="130" t="s">
-        <v>323</v>
       </c>
       <c r="D56" s="120"/>
       <c r="E56" s="120"/>
@@ -14002,13 +14006,13 @@
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="115" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B57" s="129" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C57" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D57" s="120"/>
       <c r="E57" s="120"/>
@@ -14016,45 +14020,45 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="115" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B58" s="129" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C58" s="130" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D58" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="115"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C59" s="130" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D59" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E59" s="118"/>
       <c r="F59" s="115"/>
     </row>
     <row r="60" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="115" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B60" s="129" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C60" s="130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D60" s="120"/>
       <c r="E60" s="120"/>
@@ -14062,29 +14066,29 @@
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" s="129" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C61" s="130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D61" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E61" s="120"/>
       <c r="F61" s="115"/>
     </row>
     <row r="62" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B62" s="129" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C62" s="130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D62" s="118"/>
       <c r="E62" s="118"/>
@@ -14092,13 +14096,13 @@
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="115" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="115" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" s="118" t="s">
         <v>333</v>
-      </c>
-      <c r="B63" s="115" t="s">
-        <v>334</v>
-      </c>
-      <c r="C63" s="118" t="s">
-        <v>335</v>
       </c>
       <c r="D63" s="118"/>
       <c r="E63" s="118"/>
@@ -14106,205 +14110,205 @@
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="115" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" s="115" t="s">
+        <v>335</v>
+      </c>
+      <c r="C64" s="118" t="s">
         <v>336</v>
-      </c>
-      <c r="B64" s="115" t="s">
-        <v>337</v>
-      </c>
-      <c r="C64" s="118" t="s">
-        <v>338</v>
       </c>
       <c r="D64" s="118"/>
       <c r="E64" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F64" s="115"/>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="115" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B65" s="115" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C65" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D65" s="118"/>
       <c r="E65" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F65" s="115"/>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B66" s="115" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C66" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D66" s="118"/>
       <c r="E66" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F66" s="115"/>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="115" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B67" s="115" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C67" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D67" s="118"/>
       <c r="E67" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F67" s="115"/>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="115" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B68" s="115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C68" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D68" s="118"/>
       <c r="E68" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F68" s="115"/>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B69" s="115" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C69" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D69" s="118"/>
       <c r="E69" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F69" s="115"/>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="115" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B70" s="115" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C70" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D70" s="118"/>
       <c r="E70" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F70" s="115"/>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="115" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B71" s="115" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C71" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D71" s="118"/>
       <c r="E71" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F71" s="115"/>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="115" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B72" s="115" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C72" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D72" s="118"/>
       <c r="E72" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F72" s="115"/>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B73" s="115" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C73" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D73" s="118"/>
       <c r="E73" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F73" s="115"/>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="115" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B74" s="115" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C74" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D74" s="118"/>
       <c r="E74" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F74" s="115"/>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="115" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B75" s="115" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C75" s="118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D75" s="118"/>
       <c r="E75" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F75" s="115"/>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="115" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B76" s="115" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C76" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D76" s="118"/>
       <c r="E76" s="118"/>
@@ -14312,13 +14316,13 @@
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="115" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B77" s="115" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C77" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D77" s="118"/>
       <c r="E77" s="118"/>
@@ -14326,13 +14330,13 @@
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="115" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B78" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C78" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" s="118"/>
       <c r="E78" s="118"/>
@@ -14340,13 +14344,13 @@
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="115" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B79" s="115" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C79" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" s="118"/>
       <c r="E79" s="118"/>
@@ -14354,13 +14358,13 @@
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="115" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B80" s="125" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C80" s="118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" s="126"/>
       <c r="E80" s="126"/>
@@ -14368,13 +14372,13 @@
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="115" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B81" s="115" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C81" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="118"/>
       <c r="E81" s="118"/>
@@ -14382,13 +14386,13 @@
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="115" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B82" s="115" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C82" s="118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="118"/>
       <c r="E82" s="118"/>
@@ -14396,13 +14400,13 @@
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" s="115" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" s="131" t="s">
         <v>375</v>
-      </c>
-      <c r="B83" s="115" t="s">
-        <v>376</v>
-      </c>
-      <c r="C83" s="131" t="s">
-        <v>377</v>
       </c>
       <c r="D83" s="118"/>
       <c r="E83" s="118"/>
@@ -14410,13 +14414,13 @@
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="115" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B84" s="115" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C84" s="131" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D84" s="118"/>
       <c r="E84" s="118"/>
@@ -14424,13 +14428,13 @@
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="115" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="119" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="131" t="s">
         <v>380</v>
-      </c>
-      <c r="B85" s="119" t="s">
-        <v>381</v>
-      </c>
-      <c r="C85" s="131" t="s">
-        <v>382</v>
       </c>
       <c r="D85" s="118"/>
       <c r="E85" s="118"/>
@@ -14438,13 +14442,13 @@
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="115" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B86" s="119" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C86" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D86" s="118"/>
       <c r="E86" s="118"/>
@@ -14452,13 +14456,13 @@
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="115" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B87" s="119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C87" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D87" s="118"/>
       <c r="E87" s="118"/>
@@ -14466,13 +14470,13 @@
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="115" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B88" s="115" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C88" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D88" s="118"/>
       <c r="E88" s="118"/>
@@ -14480,13 +14484,13 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="115" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B89" s="115" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C89" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D89" s="118"/>
       <c r="E89" s="118"/>
@@ -14494,13 +14498,13 @@
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="115" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B90" s="115" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C90" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D90" s="118"/>
       <c r="E90" s="118"/>
@@ -14508,13 +14512,13 @@
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="115" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B91" s="115" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C91" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D91" s="118"/>
       <c r="E91" s="118"/>
@@ -14522,13 +14526,13 @@
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="115" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B92" s="115" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C92" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D92" s="118"/>
       <c r="E92" s="118"/>
@@ -14536,13 +14540,13 @@
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="115" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B93" s="115" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C93" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D93" s="118"/>
       <c r="E93" s="118"/>
@@ -14550,13 +14554,13 @@
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="115" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B94" s="115" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C94" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D94" s="118"/>
       <c r="E94" s="118"/>
@@ -14564,13 +14568,13 @@
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="115" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B95" s="115" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C95" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D95" s="118"/>
       <c r="E95" s="118"/>
@@ -14578,13 +14582,13 @@
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="115" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B96" s="115" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C96" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D96" s="118"/>
       <c r="E96" s="118"/>
@@ -14592,13 +14596,13 @@
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="115" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B97" s="115" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C97" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D97" s="118"/>
       <c r="E97" s="118"/>
@@ -14606,13 +14610,13 @@
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="115" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B98" s="119" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C98" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D98" s="118"/>
       <c r="E98" s="118"/>
@@ -14620,13 +14624,13 @@
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="115" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B99" s="119" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C99" s="131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D99" s="118"/>
       <c r="E99" s="118"/>
@@ -14634,13 +14638,13 @@
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="115" t="s">
+        <v>409</v>
+      </c>
+      <c r="B100" s="119" t="s">
+        <v>410</v>
+      </c>
+      <c r="C100" s="131" t="s">
         <v>411</v>
-      </c>
-      <c r="B100" s="119" t="s">
-        <v>412</v>
-      </c>
-      <c r="C100" s="131" t="s">
-        <v>413</v>
       </c>
       <c r="D100" s="118"/>
       <c r="E100" s="118"/>
@@ -14648,13 +14652,13 @@
     </row>
     <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="115" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B101" s="119" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C101" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D101" s="118"/>
       <c r="E101" s="118"/>
@@ -14662,13 +14666,13 @@
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="115" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B102" s="115" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C102" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
@@ -14676,13 +14680,13 @@
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="115" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B103" s="115" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C103" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
@@ -14690,13 +14694,13 @@
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="115" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B104" s="115" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D104" s="120"/>
       <c r="E104" s="120"/>
@@ -14704,13 +14708,13 @@
     </row>
     <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="115" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B105" s="115" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C105" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
@@ -14718,13 +14722,13 @@
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="115" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B106" s="115" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C106" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D106" s="120"/>
       <c r="E106" s="120"/>
@@ -14732,13 +14736,13 @@
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="115" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B107" s="115" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C107" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D107" s="120"/>
       <c r="E107" s="120"/>
@@ -14746,13 +14750,13 @@
     </row>
     <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="115" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B108" s="115" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C108" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D108" s="120"/>
       <c r="E108" s="120"/>
@@ -14760,13 +14764,13 @@
     </row>
     <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="115" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B109" s="115" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C109" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D109" s="120"/>
       <c r="E109" s="120"/>
@@ -14774,13 +14778,13 @@
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="115" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B110" s="115" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C110" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D110" s="120"/>
       <c r="E110" s="120"/>
@@ -14788,13 +14792,13 @@
     </row>
     <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="115" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B111" s="115" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C111" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D111" s="120"/>
       <c r="E111" s="120"/>
@@ -14802,13 +14806,13 @@
     </row>
     <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="115" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B112" s="119" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C112" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D112" s="120"/>
       <c r="E112" s="120"/>
@@ -14816,13 +14820,13 @@
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="115" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B113" s="119" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C113" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D113" s="120"/>
       <c r="E113" s="120"/>
@@ -14830,13 +14834,13 @@
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="115" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B114" s="119" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C114" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D114" s="120"/>
       <c r="E114" s="120"/>
@@ -14844,13 +14848,13 @@
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="115" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" s="119" t="s">
+        <v>441</v>
+      </c>
+      <c r="C115" s="131" t="s">
         <v>442</v>
-      </c>
-      <c r="B115" s="119" t="s">
-        <v>443</v>
-      </c>
-      <c r="C115" s="131" t="s">
-        <v>444</v>
       </c>
       <c r="D115" s="120"/>
       <c r="E115" s="120"/>
@@ -14858,13 +14862,13 @@
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="115" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B116" s="115" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C116" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D116" s="120"/>
       <c r="E116" s="120"/>
@@ -14872,13 +14876,13 @@
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="115" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B117" s="119" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C117" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D117" s="120"/>
       <c r="E117" s="120"/>
@@ -14886,13 +14890,13 @@
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="115" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B118" s="115" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C118" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D118" s="120"/>
       <c r="E118" s="120"/>
@@ -14900,13 +14904,13 @@
     </row>
     <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="115" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B119" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C119" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D119" s="120"/>
       <c r="E119" s="120"/>
@@ -14914,13 +14918,13 @@
     </row>
     <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="115" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B120" s="115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C120" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D120" s="120"/>
       <c r="E120" s="120"/>
@@ -14928,13 +14932,13 @@
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="115" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B121" s="115" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C121" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D121" s="120"/>
       <c r="E121" s="120"/>
@@ -14942,13 +14946,13 @@
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="115" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B122" s="119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C122" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
@@ -14956,13 +14960,13 @@
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="115" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B123" s="115" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C123" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
@@ -14970,13 +14974,13 @@
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="115" t="s">
+        <v>459</v>
+      </c>
+      <c r="B124" s="119" t="s">
+        <v>460</v>
+      </c>
+      <c r="C124" s="120" t="s">
         <v>461</v>
-      </c>
-      <c r="B124" s="119" t="s">
-        <v>462</v>
-      </c>
-      <c r="C124" s="120" t="s">
-        <v>463</v>
       </c>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
@@ -14984,13 +14988,13 @@
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="B125" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="C125" s="118" t="s">
         <v>464</v>
-      </c>
-      <c r="B125" s="115" t="s">
-        <v>465</v>
-      </c>
-      <c r="C125" s="118" t="s">
-        <v>466</v>
       </c>
       <c r="D125" s="120"/>
       <c r="E125" s="120"/>
@@ -14998,13 +15002,13 @@
     </row>
     <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="115" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B126" s="115" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C126" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
@@ -15012,13 +15016,13 @@
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="115" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B127" s="115" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C127" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D127" s="120"/>
       <c r="E127" s="120"/>
@@ -15026,13 +15030,13 @@
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B128" s="115" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C128" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
@@ -15040,13 +15044,13 @@
     </row>
     <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="115" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B129" s="115" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C129" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
@@ -15054,13 +15058,13 @@
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="115" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B130" s="115" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C130" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
@@ -15068,13 +15072,13 @@
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="115" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B131" s="115" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C131" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
@@ -15082,13 +15086,13 @@
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="115" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B132" s="115" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C132" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
@@ -15096,13 +15100,13 @@
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="115" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B133" s="115" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C133" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
@@ -15110,13 +15114,13 @@
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="115" t="s">
+        <v>481</v>
+      </c>
+      <c r="B134" s="115" t="s">
+        <v>482</v>
+      </c>
+      <c r="C134" s="118" t="s">
         <v>483</v>
-      </c>
-      <c r="B134" s="115" t="s">
-        <v>484</v>
-      </c>
-      <c r="C134" s="118" t="s">
-        <v>485</v>
       </c>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
@@ -15124,13 +15128,13 @@
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="115" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B135" s="115" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C135" s="118" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D135" s="120"/>
       <c r="E135" s="120"/>
@@ -15138,13 +15142,13 @@
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="119" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B136" s="119" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C136" s="118" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D136" s="120"/>
       <c r="E136" s="120"/>
@@ -15152,13 +15156,13 @@
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="115" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B137" s="119" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C137" s="118" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D137" s="120"/>
       <c r="E137" s="120"/>
@@ -15166,13 +15170,13 @@
     </row>
     <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="115" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B138" s="119" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C138" s="118" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D138" s="120"/>
       <c r="E138" s="120"/>
@@ -15180,13 +15184,13 @@
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="115" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B139" s="119" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C139" s="118" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
@@ -15194,13 +15198,13 @@
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="115" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B140" s="115" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C140" s="118" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
@@ -15208,13 +15212,13 @@
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="115" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B141" s="119" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C141" s="118" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
@@ -15222,13 +15226,13 @@
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="115" t="s">
+        <v>498</v>
+      </c>
+      <c r="B142" s="116" t="s">
+        <v>499</v>
+      </c>
+      <c r="C142" s="131" t="s">
         <v>500</v>
-      </c>
-      <c r="B142" s="116" t="s">
-        <v>501</v>
-      </c>
-      <c r="C142" s="131" t="s">
-        <v>502</v>
       </c>
       <c r="D142" s="120"/>
       <c r="E142" s="120"/>
@@ -15236,13 +15240,13 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="115" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B143" s="116" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C143" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D143" s="120"/>
       <c r="E143" s="120"/>
@@ -15250,13 +15254,13 @@
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="115" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B144" s="115" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C144" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D144" s="120"/>
       <c r="E144" s="120"/>
@@ -15267,26 +15271,26 @@
         <v>154</v>
       </c>
       <c r="B145" s="115" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C145" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D145" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E145" s="120"/>
       <c r="F145" s="123"/>
     </row>
     <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="115" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B146" s="115" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C146" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
@@ -15294,29 +15298,29 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="115" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B147" s="115" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C147" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D147" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E147" s="120"/>
       <c r="F147" s="124"/>
     </row>
     <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="115" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B148" s="115" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C148" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
@@ -15324,13 +15328,13 @@
     </row>
     <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="115" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B149" s="115" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C149" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
@@ -15338,13 +15342,13 @@
     </row>
     <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="115" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B150" s="115" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C150" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
@@ -15352,13 +15356,13 @@
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="115" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B151" s="115" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C151" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
@@ -15366,13 +15370,13 @@
     </row>
     <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="115" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B152" s="115" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C152" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D152" s="120"/>
       <c r="E152" s="120"/>
@@ -15380,13 +15384,13 @@
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="115" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B153" s="115" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C153" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D153" s="120"/>
       <c r="E153" s="120"/>
@@ -15394,13 +15398,13 @@
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="115" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B154" s="115" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C154" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D154" s="120"/>
       <c r="E154" s="120"/>
@@ -15408,13 +15412,13 @@
     </row>
     <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="115" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B155" s="115" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C155" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D155" s="120"/>
       <c r="E155" s="120"/>
@@ -15422,13 +15426,13 @@
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="115" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B156" s="115" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C156" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D156" s="120"/>
       <c r="E156" s="120"/>
@@ -15436,13 +15440,13 @@
     </row>
     <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="115" t="s">
+        <v>528</v>
+      </c>
+      <c r="B157" s="119" t="s">
+        <v>529</v>
+      </c>
+      <c r="C157" s="131" t="s">
         <v>530</v>
-      </c>
-      <c r="B157" s="119" t="s">
-        <v>531</v>
-      </c>
-      <c r="C157" s="131" t="s">
-        <v>532</v>
       </c>
       <c r="D157" s="120"/>
       <c r="E157" s="120"/>
@@ -15453,26 +15457,26 @@
         <v>147</v>
       </c>
       <c r="B158" s="119" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C158" s="131" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D158" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E158" s="120"/>
       <c r="F158" s="123"/>
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="115" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B159" s="116" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C159" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D159" s="120"/>
       <c r="E159" s="120"/>
@@ -15480,13 +15484,13 @@
     </row>
     <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="115" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B160" s="116" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C160" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D160" s="120"/>
       <c r="E160" s="120"/>
@@ -15494,13 +15498,13 @@
     </row>
     <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="115" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B161" s="115" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C161" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D161" s="120"/>
       <c r="E161" s="120"/>
@@ -15508,13 +15512,13 @@
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="115" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B162" s="115" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C162" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D162" s="120"/>
       <c r="E162" s="120"/>
@@ -15522,13 +15526,13 @@
     </row>
     <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="115" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B163" s="115" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C163" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D163" s="120"/>
       <c r="E163" s="120"/>
@@ -15539,26 +15543,26 @@
         <v>156</v>
       </c>
       <c r="B164" s="115" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C164" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D164" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E164" s="120"/>
       <c r="F164" s="115"/>
     </row>
     <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="115" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B165" s="115" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C165" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D165" s="120"/>
       <c r="E165" s="120"/>
@@ -15566,13 +15570,13 @@
     </row>
     <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="115" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B166" s="115" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C166" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D166" s="120"/>
       <c r="E166" s="120"/>
@@ -15580,13 +15584,13 @@
     </row>
     <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="115" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B167" s="115" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C167" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D167" s="120"/>
       <c r="E167" s="120"/>
@@ -15594,13 +15598,13 @@
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="115" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B168" s="115" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C168" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D168" s="120"/>
       <c r="E168" s="120"/>
@@ -15608,13 +15612,13 @@
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="115" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B169" s="115" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C169" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D169" s="120"/>
       <c r="E169" s="120"/>
@@ -15622,13 +15626,13 @@
     </row>
     <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="115" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B170" s="115" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C170" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D170" s="120"/>
       <c r="E170" s="120"/>
@@ -15636,13 +15640,13 @@
     </row>
     <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="115" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B171" s="115" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C171" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D171" s="120"/>
       <c r="E171" s="120"/>
@@ -15653,26 +15657,26 @@
         <v>158</v>
       </c>
       <c r="B172" s="115" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C172" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D172" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E172" s="120"/>
       <c r="F172" s="115"/>
     </row>
     <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="115" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B173" s="115" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C173" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D173" s="120"/>
       <c r="E173" s="120"/>
@@ -15680,13 +15684,13 @@
     </row>
     <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="115" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B174" s="119" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C174" s="131" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D174" s="120"/>
       <c r="E174" s="120"/>
@@ -15694,13 +15698,13 @@
     </row>
     <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="115" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B175" s="116" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C175" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D175" s="120"/>
       <c r="E175" s="120"/>
@@ -15708,13 +15712,13 @@
     </row>
     <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="115" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B176" s="116" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C176" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D176" s="120"/>
       <c r="E176" s="120"/>
@@ -15722,13 +15726,13 @@
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="115" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B177" s="115" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C177" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D177" s="120"/>
       <c r="E177" s="120"/>
@@ -15736,13 +15740,13 @@
     </row>
     <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="115" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C178" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D178" s="120"/>
       <c r="E178" s="120"/>
@@ -15750,13 +15754,13 @@
     </row>
     <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="115" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B179" s="115" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C179" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D179" s="120"/>
       <c r="E179" s="120"/>
@@ -15767,10 +15771,10 @@
         <v>155</v>
       </c>
       <c r="B180" s="115" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C180" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D180" s="120"/>
       <c r="E180" s="120"/>
@@ -15778,13 +15782,13 @@
     </row>
     <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="115" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B181" s="115" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C181" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D181" s="120"/>
       <c r="E181" s="120"/>
@@ -15792,13 +15796,13 @@
     </row>
     <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="115" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B182" s="115" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C182" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D182" s="120"/>
       <c r="E182" s="120"/>
@@ -15806,13 +15810,13 @@
     </row>
     <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="115" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B183" s="115" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C183" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D183" s="120"/>
       <c r="E183" s="120"/>
@@ -15820,13 +15824,13 @@
     </row>
     <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="115" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B184" s="115" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C184" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D184" s="120"/>
       <c r="E184" s="120"/>
@@ -15834,13 +15838,13 @@
     </row>
     <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="115" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B185" s="115" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C185" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D185" s="120"/>
       <c r="E185" s="120"/>
@@ -15848,13 +15852,13 @@
     </row>
     <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="115" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B186" s="115" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C186" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D186" s="120"/>
       <c r="E186" s="120"/>
@@ -15862,13 +15866,13 @@
     </row>
     <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="115" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B187" s="115" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C187" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D187" s="120"/>
       <c r="E187" s="120"/>
@@ -15879,26 +15883,26 @@
         <v>157</v>
       </c>
       <c r="B188" s="115" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C188" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D188" s="118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E188" s="120"/>
       <c r="F188" s="115"/>
     </row>
     <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="115" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B189" s="115" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C189" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D189" s="120"/>
       <c r="E189" s="120"/>
@@ -15906,13 +15910,13 @@
     </row>
     <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="115" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B190" s="119" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C190" s="131" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D190" s="120"/>
       <c r="E190" s="120"/>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25BBF6BE-210E-4E14-9F88-C4F86543F083}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="10_ncr:100000_{25BBF6BE-210E-4E14-9F88-C4F86543F083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DEB2A287-51C4-4EE4-8C73-76AD1829218E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14400" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15600" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="MetricMetadata" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BCG_PacNW_v1_300ct!$A$1:$K$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BCG_PacNW_v1_500ct!$A$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BCG_PacNW_v1_300ct!$A$1:$L$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BCG_PacNW_v1_500ct!$A$1:$L$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MetricMetadata!$A$5:$F$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">v2_edits!$A$2:$W$66</definedName>
     <definedName name="FileName" localSheetId="5">#REF!</definedName>
@@ -30,10 +30,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">abbrev_v1!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -79,7 +84,7 @@
     <author>Leppo, Erik</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="601">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -2134,6 +2139,9 @@
   </si>
   <si>
     <t>]</t>
+  </si>
+  <si>
+    <t>Index_Region</t>
   </si>
 </sst>
 </file>
@@ -3684,7 +3692,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3712,7 +3720,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="95">
-        <v>43383</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,7 +3729,7 @@
       </c>
       <c r="B7" s="97" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[Rules_20181009.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[Rules.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3730,7 +3738,7 @@
       </c>
       <c r="B8" s="97" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
-        <v>[Rules_20181009.xlsx]</v>
+        <v>[Rules.xlsx]</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9286,29 +9294,30 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="126.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="126.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
@@ -9316,1931 +9325,2096 @@
         <v>163</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>142</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>35</v>
       </c>
-      <c r="I2" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
+      <c r="J2" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>154</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>127</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>143</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="I3" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>155</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>142</v>
       </c>
-      <c r="G4">
-        <v>0.3</v>
-      </c>
       <c r="H4">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>156</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>142</v>
       </c>
-      <c r="G5">
-        <v>0.15</v>
-      </c>
       <c r="H5">
-        <v>0.25</v>
-      </c>
-      <c r="I5" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>157</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>144</v>
       </c>
-      <c r="G6">
-        <v>0.03</v>
-      </c>
       <c r="H6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>158</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>144</v>
       </c>
-      <c r="G7">
-        <v>0.03</v>
-      </c>
       <c r="H7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I7" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="E8" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>142</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="I8" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="J8" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="E9" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>144</v>
       </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
       <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>171</v>
       </c>
-      <c r="K9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="E10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>142</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>30</v>
       </c>
-      <c r="I10" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>0</v>
+      <c r="J10" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B11" t="s">
         <v>131</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="E11" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>142</v>
       </c>
-      <c r="G11">
-        <v>0.05</v>
-      </c>
       <c r="H11">
-        <v>0.15</v>
-      </c>
-      <c r="I11" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>131</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="E12" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>144</v>
       </c>
-      <c r="G12">
-        <v>0.05</v>
-      </c>
       <c r="H12">
-        <v>0.15</v>
-      </c>
-      <c r="I12" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="E13" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>145</v>
       </c>
-      <c r="G13">
-        <v>0.05</v>
-      </c>
       <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
+      <c r="J13" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="K13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="E14" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>142</v>
       </c>
-      <c r="G14">
-        <v>0.2</v>
-      </c>
       <c r="H14">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="E15" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>173</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>142</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="I15" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="J15" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="E16" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="F16" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>144</v>
       </c>
-      <c r="G16">
-        <v>0.25</v>
-      </c>
       <c r="H16">
-        <v>0.35</v>
-      </c>
-      <c r="I16" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>171</v>
       </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>142</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>25</v>
       </c>
-      <c r="I17" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>0</v>
+      <c r="J17" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="E18" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>142</v>
       </c>
-      <c r="G18">
-        <v>0.05</v>
-      </c>
       <c r="H18">
-        <v>0.15</v>
-      </c>
-      <c r="I18" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>3</v>
       </c>
-      <c r="K18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="E19" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>144</v>
       </c>
-      <c r="G19">
-        <v>0.15</v>
-      </c>
       <c r="H19">
-        <v>0.25</v>
-      </c>
-      <c r="I19" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>8</v>
       </c>
-      <c r="K19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="E20" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>144</v>
       </c>
-      <c r="G20">
-        <v>0.2</v>
-      </c>
       <c r="H20">
-        <v>0.3</v>
-      </c>
-      <c r="I20" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>10</v>
       </c>
-      <c r="K20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="E21" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>143</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="J21" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="E22" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>144</v>
       </c>
-      <c r="G22">
-        <v>0.25</v>
-      </c>
       <c r="H22">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="I22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+      <c r="J22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>175</v>
       </c>
-      <c r="K22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="E23" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>144</v>
       </c>
-      <c r="G23">
-        <v>0.45</v>
-      </c>
       <c r="H23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23">
+        <v>55</v>
+      </c>
+      <c r="J23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>171</v>
       </c>
-      <c r="K23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="E24" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>142</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>8</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>18</v>
       </c>
-      <c r="I24" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>0</v>
+      <c r="J24" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="E25" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>115</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>142</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>390</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>410</v>
       </c>
-      <c r="I25" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="J25" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="K25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="E26" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>143</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
         <v>29</v>
       </c>
-      <c r="K26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="E27" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>144</v>
       </c>
-      <c r="G27">
-        <v>0.3</v>
-      </c>
       <c r="H27">
-        <v>0.4</v>
-      </c>
-      <c r="I27" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>40</v>
+      </c>
+      <c r="J27" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>8</v>
       </c>
-      <c r="K27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="E28" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>144</v>
       </c>
-      <c r="G28">
-        <v>0.70000000000000007</v>
-      </c>
       <c r="H28">
-        <v>0.8</v>
-      </c>
-      <c r="I28" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>80</v>
+      </c>
+      <c r="J28" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>177</v>
       </c>
-      <c r="K28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="E29" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
       <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
         <v>142</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>25</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>35</v>
       </c>
-      <c r="I29" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>0</v>
+      <c r="J29" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="E30" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>127</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>143</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>8</v>
       </c>
-      <c r="I30" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="J30" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>2</v>
       </c>
-      <c r="K30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="E31" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>142</v>
       </c>
-      <c r="G31">
-        <v>0.35000000000000003</v>
-      </c>
       <c r="H31">
-        <v>0.45</v>
-      </c>
-      <c r="I31" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>45</v>
+      </c>
+      <c r="J31" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>3</v>
       </c>
-      <c r="K31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="E32" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>7</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>599</v>
       </c>
-      <c r="G32">
-        <v>0.15</v>
-      </c>
       <c r="H32">
-        <v>0.25</v>
-      </c>
-      <c r="I32" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>6</v>
       </c>
-      <c r="K32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="E33" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>144</v>
       </c>
-      <c r="G33">
-        <v>0.03</v>
-      </c>
       <c r="H33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I33" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>8</v>
       </c>
-      <c r="K33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="E34" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>144</v>
       </c>
-      <c r="G34">
-        <v>0.03</v>
-      </c>
       <c r="H34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I34" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
         <v>10</v>
       </c>
-      <c r="K34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="E35" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>142</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>10</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>20</v>
       </c>
-      <c r="I35" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="J35" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
         <v>11</v>
       </c>
-      <c r="K35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="E36" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>24</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>144</v>
       </c>
-      <c r="G36">
-        <v>0.1</v>
-      </c>
       <c r="H36">
-        <v>0.2</v>
-      </c>
-      <c r="I36" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="K36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="E37" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>142</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>20</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>30</v>
       </c>
-      <c r="I37" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>0</v>
+      <c r="J37" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="E38" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>142</v>
       </c>
-      <c r="G38">
-        <v>0.05</v>
-      </c>
       <c r="H38">
-        <v>0.15</v>
-      </c>
-      <c r="I38" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>15</v>
+      </c>
+      <c r="J38" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="K38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="E39" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>19</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>144</v>
       </c>
-      <c r="G39">
-        <v>0.05</v>
-      </c>
       <c r="H39">
-        <v>0.15</v>
-      </c>
-      <c r="I39" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
         <v>8</v>
       </c>
-      <c r="K39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="E40" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>160</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>144</v>
       </c>
-      <c r="G40">
-        <v>0.05</v>
-      </c>
       <c r="H40">
-        <v>0.1</v>
-      </c>
-      <c r="I40" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40">
         <v>10</v>
       </c>
+      <c r="J40" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="K40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41">
         <v>3</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="E41" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>142</v>
       </c>
-      <c r="G41">
-        <v>0.2</v>
-      </c>
       <c r="H41">
-        <v>0.3</v>
-      </c>
-      <c r="I41" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>30</v>
+      </c>
+      <c r="J41" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="E42" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>173</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>142</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>6</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>12</v>
       </c>
-      <c r="I42" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="J42" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
         <v>11</v>
       </c>
-      <c r="K42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="E43" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="F43" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>144</v>
       </c>
-      <c r="G43">
-        <v>0.25</v>
-      </c>
       <c r="H43">
-        <v>0.35</v>
-      </c>
-      <c r="I43" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43">
+        <v>35</v>
+      </c>
+      <c r="J43" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
         <v>171</v>
       </c>
-      <c r="K43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="E44" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="91" t="s">
+      <c r="F44" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>142</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>15</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>25</v>
       </c>
-      <c r="I44" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>0</v>
+      <c r="J44" s="51" t="b">
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="E45" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>18</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>142</v>
       </c>
-      <c r="G45">
-        <v>0.05</v>
-      </c>
       <c r="H45">
-        <v>0.15</v>
-      </c>
-      <c r="I45" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
         <v>3</v>
       </c>
-      <c r="K45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="E46" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>144</v>
       </c>
-      <c r="G46">
-        <v>0.1</v>
-      </c>
       <c r="H46">
-        <v>0.2</v>
-      </c>
-      <c r="I46" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+      <c r="J46" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
         <v>8</v>
       </c>
-      <c r="K46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="E47" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>21</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>144</v>
       </c>
-      <c r="G47">
-        <v>0.15</v>
-      </c>
       <c r="H47">
-        <v>0.25</v>
-      </c>
-      <c r="I47" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
         <v>10</v>
       </c>
-      <c r="K47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="E48" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="G48" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="52">
-        <v>0</v>
-      </c>
       <c r="H48" s="52">
+        <v>0</v>
+      </c>
+      <c r="I48" s="52">
         <v>3</v>
       </c>
-      <c r="I48" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="J48" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
         <v>11</v>
       </c>
-      <c r="K48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="E49" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="91" t="s">
+      <c r="F49" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="G49" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="52">
-        <v>0.25</v>
-      </c>
       <c r="H49" s="52">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="I49" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="52">
+        <v>35</v>
+      </c>
+      <c r="J49" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
         <v>175</v>
       </c>
-      <c r="K49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="E50" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="G50" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G50" s="52">
-        <v>0.3</v>
-      </c>
       <c r="H50" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="I50" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="52">
+        <v>40</v>
+      </c>
+      <c r="J50" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>171</v>
       </c>
-      <c r="K50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="E51" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>28</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>142</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>8</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>18</v>
       </c>
-      <c r="I51" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>0</v>
+      <c r="J51" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="E52" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>115</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>142</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>390</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>410</v>
       </c>
-      <c r="I52" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="J52" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
         <v>13</v>
       </c>
-      <c r="K52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="E53" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>30</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>143</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
         <v>29</v>
       </c>
-      <c r="K53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="E54" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>27</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>144</v>
       </c>
-      <c r="G54">
-        <v>0.3</v>
-      </c>
       <c r="H54">
-        <v>0.4</v>
-      </c>
-      <c r="I54" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>40</v>
+      </c>
+      <c r="J54" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
         <v>8</v>
       </c>
-      <c r="K54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="E55" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>31</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>144</v>
       </c>
-      <c r="G55">
-        <v>0.70000000000000007</v>
-      </c>
       <c r="H55">
-        <v>0.8</v>
-      </c>
-      <c r="I55" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>80</v>
+      </c>
+      <c r="J55" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
         <v>177</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="I2:I28 I37:I55">
+  <autoFilter ref="A1:L55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <conditionalFormatting sqref="J2:J28 J37:J55">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I36">
+  <conditionalFormatting sqref="J29:J36">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -11253,29 +11427,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="126.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="126.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
@@ -11283,1931 +11458,2096 @@
         <v>163</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="I1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="F2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="G2" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="57">
+      <c r="H2" s="57">
         <v>20</v>
       </c>
-      <c r="H2" s="57">
+      <c r="I2" s="57">
         <v>30</v>
       </c>
-      <c r="I2" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
+      <c r="J2" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="E3" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="F3" s="91" t="s">
         <v>595</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="G3" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="57">
+      <c r="H3" s="57">
         <v>2</v>
       </c>
-      <c r="H3" s="57">
+      <c r="I3" s="57">
         <v>7</v>
       </c>
-      <c r="I3" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>155</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="G4" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="54">
-        <v>0.3</v>
-      </c>
       <c r="H4" s="54">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="54">
+        <v>40</v>
+      </c>
+      <c r="J4" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>156</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="G5" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="54">
+      <c r="H5" s="54">
         <v>0.15</v>
       </c>
-      <c r="H5" s="54">
+      <c r="I5" s="54">
         <v>0.25</v>
       </c>
-      <c r="I5" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>157</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="G6" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="54">
-        <v>0.03</v>
-      </c>
       <c r="H6" s="54">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="54">
+        <v>7</v>
+      </c>
+      <c r="J6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>158</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="G7" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="54">
+      <c r="H7" s="54">
         <v>0.03</v>
       </c>
-      <c r="H7" s="54">
+      <c r="I7" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I7" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="J7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="E8" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="F8" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="G8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="57">
+      <c r="H8" s="57">
         <v>8</v>
       </c>
-      <c r="H8" s="57">
+      <c r="I8" s="57">
         <v>18</v>
       </c>
-      <c r="I8" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="J8" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="E9" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="G9" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="54">
+      <c r="H9" s="54">
         <v>0.1</v>
       </c>
-      <c r="H9" s="54">
+      <c r="I9" s="54">
         <v>0.2</v>
       </c>
-      <c r="I9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>171</v>
       </c>
-      <c r="K9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="E10" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="F10" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="G10" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="57">
+      <c r="H10" s="57">
         <v>15</v>
       </c>
-      <c r="H10" s="57">
+      <c r="I10" s="57">
         <v>25</v>
       </c>
-      <c r="I10" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>0</v>
+      <c r="J10" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>131</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="E11" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="G11" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="54">
+      <c r="H11" s="54">
         <v>0.05</v>
       </c>
-      <c r="H11" s="54">
+      <c r="I11" s="54">
         <v>0.15</v>
       </c>
-      <c r="I11" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J11" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>131</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="E12" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="G12" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="54">
-        <v>0.05</v>
-      </c>
       <c r="H12" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="I12" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="54">
+        <v>15</v>
+      </c>
+      <c r="J12" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="E13" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="G13" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="54">
+      <c r="H13" s="54">
         <v>0.05</v>
       </c>
-      <c r="H13" s="54">
+      <c r="I13" s="54">
         <v>0.1</v>
       </c>
-      <c r="I13" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="J13" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="K13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>131</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="E14" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="G14" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="54">
-        <v>0.2</v>
-      </c>
       <c r="H14" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="54">
+        <v>30</v>
+      </c>
+      <c r="J14" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="E15" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="F15" s="91" t="s">
         <v>596</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="G15" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="57">
+      <c r="H15" s="57">
         <v>5</v>
       </c>
-      <c r="H15" s="57">
+      <c r="I15" s="57">
         <v>10</v>
       </c>
-      <c r="I15" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="J15" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B16" t="s">
         <v>131</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="E16" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="137" t="s">
+      <c r="F16" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="G16" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="54">
+      <c r="H16" s="54">
         <v>0.25</v>
       </c>
-      <c r="H16" s="54">
+      <c r="I16" s="54">
         <v>0.35</v>
       </c>
-      <c r="I16" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="J16" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>171</v>
       </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="E17" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="F17" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="G17" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="57">
+      <c r="H17" s="57">
         <v>10</v>
       </c>
-      <c r="H17" s="57">
+      <c r="I17" s="57">
         <v>20</v>
       </c>
-      <c r="I17" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>0</v>
+      <c r="J17" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="E18" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="G18" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="54">
-        <v>0.05</v>
-      </c>
       <c r="H18" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="I18" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="54">
+        <v>15</v>
+      </c>
+      <c r="J18" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>3</v>
       </c>
-      <c r="K18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="E19" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="G19" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="54">
-        <v>0.15</v>
-      </c>
       <c r="H19" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="I19" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="54">
+        <v>25</v>
+      </c>
+      <c r="J19" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>8</v>
       </c>
-      <c r="K19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="E20" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="G20" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="54">
+      <c r="H20" s="54">
         <v>0.2</v>
       </c>
-      <c r="H20" s="54">
+      <c r="I20" s="54">
         <v>0.3</v>
       </c>
-      <c r="I20" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="J20" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>10</v>
       </c>
-      <c r="K20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="E21" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="135" t="s">
+      <c r="F21" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="G21" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="54">
-        <v>0</v>
-      </c>
       <c r="H21" s="54">
+        <v>0</v>
+      </c>
+      <c r="I21" s="54">
         <v>3</v>
       </c>
-      <c r="I21" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="J21" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="E22" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="G22" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="54">
-        <v>0.25</v>
-      </c>
       <c r="H22" s="54">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="I22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="54">
+        <v>35</v>
+      </c>
+      <c r="J22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>175</v>
       </c>
-      <c r="K22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="E23" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="G23" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="54">
+      <c r="H23" s="54">
         <v>0.45</v>
       </c>
-      <c r="H23" s="54">
+      <c r="I23" s="54">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="J23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>171</v>
       </c>
-      <c r="K23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="E24" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="F24" s="91" t="s">
         <v>597</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="G24" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="57">
+      <c r="H24" s="57">
         <v>6</v>
       </c>
-      <c r="H24" s="57">
+      <c r="I24" s="57">
         <v>16</v>
       </c>
-      <c r="I24" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>0</v>
+      <c r="J24" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="E25" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="F25" s="91" t="s">
         <v>598</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="G25" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="57">
+      <c r="H25" s="57">
         <v>280</v>
       </c>
-      <c r="H25" s="57">
+      <c r="I25" s="57">
         <v>300</v>
       </c>
-      <c r="I25" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="J25" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="K25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="E26" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="F26" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="136" t="s">
+      <c r="G26" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="136">
-        <v>0</v>
-      </c>
       <c r="H26" s="136">
-        <v>1</v>
-      </c>
-      <c r="I26" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="136">
+        <v>1</v>
+      </c>
+      <c r="J26" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
         <v>29</v>
       </c>
-      <c r="K26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="E27" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="G27" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="54">
-        <v>0.3</v>
-      </c>
       <c r="H27" s="54">
-        <v>0.4</v>
-      </c>
-      <c r="I27" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="54">
+        <v>40</v>
+      </c>
+      <c r="J27" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>8</v>
       </c>
-      <c r="K27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="E28" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="G28" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="54">
+      <c r="H28" s="54">
         <v>0.70000000000000007</v>
       </c>
-      <c r="H28" s="54">
+      <c r="I28" s="54">
         <v>0.8</v>
       </c>
-      <c r="I28" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="J28" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>177</v>
       </c>
-      <c r="K28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="E29" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="F29" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="G29" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="57">
+      <c r="H29" s="57">
         <v>20</v>
       </c>
-      <c r="H29" s="57">
+      <c r="I29" s="57">
         <v>30</v>
       </c>
-      <c r="I29" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>0</v>
+      <c r="J29" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="E30" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="F30" s="91" t="s">
         <v>595</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="G30" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="57">
+      <c r="H30" s="57">
         <v>2</v>
       </c>
-      <c r="H30" s="57">
+      <c r="I30" s="57">
         <v>7</v>
       </c>
-      <c r="I30" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="J30" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>2</v>
       </c>
-      <c r="K30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="E31" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="G31" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="54">
-        <v>0.35000000000000003</v>
-      </c>
       <c r="H31" s="54">
-        <v>0.45</v>
-      </c>
-      <c r="I31" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="54">
+        <v>45</v>
+      </c>
+      <c r="J31" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>3</v>
       </c>
-      <c r="K31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="E32" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="G32" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="54">
+      <c r="H32" s="54">
         <v>0.15</v>
       </c>
-      <c r="H32" s="54">
+      <c r="I32" s="54">
         <v>0.25</v>
       </c>
-      <c r="I32" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="J32" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>6</v>
       </c>
-      <c r="K32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="E33" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="G33" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G33" s="54">
-        <v>0.03</v>
-      </c>
       <c r="H33" s="54">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I33" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="54">
+        <v>7</v>
+      </c>
+      <c r="J33" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>8</v>
       </c>
-      <c r="K33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="E34" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="G34" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="54">
+      <c r="H34" s="54">
         <v>0.03</v>
       </c>
-      <c r="H34" s="54">
+      <c r="I34" s="54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I34" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="J34" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
         <v>10</v>
       </c>
-      <c r="K34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="D35" s="91" t="s">
+      <c r="E35" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="91" t="s">
+      <c r="F35" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="G35" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="57">
+      <c r="H35" s="57">
         <v>8</v>
       </c>
-      <c r="H35" s="57">
+      <c r="I35" s="57">
         <v>18</v>
       </c>
-      <c r="I35" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="J35" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
         <v>11</v>
       </c>
-      <c r="K35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="E36" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="G36" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G36" s="54">
+      <c r="H36" s="54">
         <v>0.1</v>
       </c>
-      <c r="H36" s="54">
+      <c r="I36" s="54">
         <v>0.2</v>
       </c>
-      <c r="I36" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="J36" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
         <v>171</v>
       </c>
-      <c r="K36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="D37" s="91" t="s">
+      <c r="E37" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="91" t="s">
+      <c r="F37" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="G37" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="57">
+      <c r="H37" s="57">
         <v>15</v>
       </c>
-      <c r="H37" s="57">
+      <c r="I37" s="57">
         <v>25</v>
       </c>
-      <c r="I37" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>0</v>
+      <c r="J37" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="E38" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="G38" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="54">
+      <c r="H38" s="54">
         <v>0.05</v>
       </c>
-      <c r="H38" s="54">
+      <c r="I38" s="54">
         <v>0.15</v>
       </c>
-      <c r="I38" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="J38" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="K38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="E39" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="G39" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="54">
-        <v>0.05</v>
-      </c>
       <c r="H39" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="I39" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="54">
+        <v>15</v>
+      </c>
+      <c r="J39" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
         <v>8</v>
       </c>
-      <c r="K39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="E40" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="G40" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="54">
+      <c r="H40" s="54">
         <v>0.05</v>
       </c>
-      <c r="H40" s="54">
+      <c r="I40" s="54">
         <v>0.1</v>
       </c>
-      <c r="I40" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="J40" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>10</v>
       </c>
-      <c r="K40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41">
         <v>3</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="E41" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="G41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="54">
-        <v>0.2</v>
-      </c>
       <c r="H41" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="I41" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="54">
+        <v>30</v>
+      </c>
+      <c r="J41" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42" s="91" t="s">
+      <c r="E42" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="F42" s="91" t="s">
         <v>596</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="G42" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="57">
+      <c r="H42" s="57">
         <v>5</v>
       </c>
-      <c r="H42" s="57">
+      <c r="I42" s="57">
         <v>10</v>
       </c>
-      <c r="I42" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="J42" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
         <v>11</v>
       </c>
-      <c r="K42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="E43" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="137" t="s">
+      <c r="F43" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="G43" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="54">
+      <c r="H43" s="54">
         <v>0.25</v>
       </c>
-      <c r="H43" s="54">
+      <c r="I43" s="54">
         <v>0.35</v>
       </c>
-      <c r="I43" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="J43" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
         <v>171</v>
       </c>
-      <c r="K43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="D44" s="91" t="s">
+      <c r="E44" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="91" t="s">
+      <c r="F44" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="G44" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G44" s="57">
+      <c r="H44" s="57">
         <v>10</v>
       </c>
-      <c r="H44" s="57">
+      <c r="I44" s="57">
         <v>20</v>
       </c>
-      <c r="I44" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>0</v>
+      <c r="J44" s="51" t="b">
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="E45" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="G45" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="54">
-        <v>0.05</v>
-      </c>
       <c r="H45" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="I45" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="54">
+        <v>15</v>
+      </c>
+      <c r="J45" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
         <v>3</v>
       </c>
-      <c r="K45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="E46" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="G46" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="54">
-        <v>0.1</v>
-      </c>
       <c r="H46" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="I46" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="54">
+        <v>20</v>
+      </c>
+      <c r="J46" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
         <v>8</v>
       </c>
-      <c r="K46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="E47" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="G47" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G47" s="54">
+      <c r="H47" s="54">
         <v>0.15</v>
       </c>
-      <c r="H47" s="54">
+      <c r="I47" s="54">
         <v>0.25</v>
       </c>
-      <c r="I47" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="J47" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
         <v>10</v>
       </c>
-      <c r="K47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="E48" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="135" t="s">
+      <c r="F48" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="54" t="s">
+      <c r="G48" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="54">
-        <v>0</v>
-      </c>
       <c r="H48" s="54">
+        <v>0</v>
+      </c>
+      <c r="I48" s="54">
         <v>3</v>
       </c>
-      <c r="I48" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="J48" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
         <v>11</v>
       </c>
-      <c r="K48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="D49" s="137" t="s">
+      <c r="E49" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="137" t="s">
+      <c r="F49" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="136" t="s">
+      <c r="G49" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="136">
-        <v>0.25</v>
-      </c>
       <c r="H49" s="136">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="I49" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="136">
+        <v>35</v>
+      </c>
+      <c r="J49" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
         <v>175</v>
       </c>
-      <c r="K49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="E50" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="G50" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G50" s="54">
+      <c r="H50" s="54">
         <v>0.3</v>
       </c>
-      <c r="H50" s="54">
+      <c r="I50" s="54">
         <v>0.4</v>
       </c>
-      <c r="I50" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="J50" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>171</v>
       </c>
-      <c r="K50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="D51" s="91" t="s">
+      <c r="E51" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="91" t="s">
+      <c r="F51" s="91" t="s">
         <v>597</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="G51" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="57">
+      <c r="H51" s="57">
         <v>6</v>
       </c>
-      <c r="H51" s="57">
+      <c r="I51" s="57">
         <v>16</v>
       </c>
-      <c r="I51" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>0</v>
+      <c r="J51" s="46" t="b">
+        <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="D52" s="91" t="s">
+      <c r="E52" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="91" t="s">
+      <c r="F52" s="91" t="s">
         <v>598</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="G52" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="57">
+      <c r="H52" s="57">
         <v>280</v>
       </c>
-      <c r="H52" s="57">
+      <c r="I52" s="57">
         <v>300</v>
       </c>
-      <c r="I52" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="J52" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
         <v>13</v>
       </c>
-      <c r="K52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="D53" s="91" t="s">
+      <c r="E53" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="F53" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="136" t="s">
+      <c r="G53" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="136">
-        <v>0</v>
-      </c>
       <c r="H53" s="136">
-        <v>1</v>
-      </c>
-      <c r="I53" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="136">
+        <v>1</v>
+      </c>
+      <c r="J53" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
         <v>29</v>
       </c>
-      <c r="K53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="E54" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="G54" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="54">
-        <v>0.3</v>
-      </c>
       <c r="H54" s="54">
-        <v>0.4</v>
-      </c>
-      <c r="I54" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="54">
+        <v>40</v>
+      </c>
+      <c r="J54" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
         <v>8</v>
       </c>
-      <c r="K54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
         <v>192</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="E55" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="G55" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="54">
+      <c r="H55" s="54">
         <v>0.70000000000000007</v>
       </c>
-      <c r="H55" s="54">
+      <c r="I55" s="54">
         <v>0.8</v>
       </c>
-      <c r="I55" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="J55" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
         <v>177</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <conditionalFormatting sqref="I2:I28 I37:I55">
+  <autoFilter ref="A1:L55" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="J2:J28 J37:J55">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I36">
+  <conditionalFormatting sqref="J29:J36">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE60D8-8348-4721-A0FC-7F2657570DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78431374-C1CB-48EA-8008-67F172BCC4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53880" yWindow="5055" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="688">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -2209,9 +2209,6 @@
     <t>Index_Region</t>
   </si>
   <si>
-    <t>BCG_CT_Bug01</t>
-  </si>
-  <si>
     <t>&gt;110 (100-120)</t>
   </si>
   <si>
@@ -2278,9 +2275,6 @@
     <t>&gt;4 (3-5)</t>
   </si>
   <si>
-    <t>BCG_CT_Fish01</t>
-  </si>
-  <si>
     <t>&lt;5 (3-7)</t>
   </si>
   <si>
@@ -2362,9 +2356,6 @@
     <t>&gt;1.5 (1-2)</t>
   </si>
   <si>
-    <t>BCG_CT_Fish02</t>
-  </si>
-  <si>
     <t>&gt;6 (4-8)</t>
   </si>
   <si>
@@ -2446,9 +2437,6 @@
     <t>&gt;3.5 (2-5)</t>
   </si>
   <si>
-    <t>BCG_CT_Fish03</t>
-  </si>
-  <si>
     <t>&lt;40% (35-45)</t>
   </si>
   <si>
@@ -2465,6 +2453,21 @@
   </si>
   <si>
     <t>Model rules.</t>
+  </si>
+  <si>
+    <t>bug01</t>
+  </si>
+  <si>
+    <t>fish01</t>
+  </si>
+  <si>
+    <t>fish02</t>
+  </si>
+  <si>
+    <t>fish03</t>
+  </si>
+  <si>
+    <t>BCG_CT_2015</t>
   </si>
 </sst>
 </file>
@@ -3349,6 +3352,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3405,12 +3414,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4133,39 +4136,39 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="71.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="93" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="102" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="95">
         <v>44378</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="96" t="s">
         <v>193</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[Rules.xlsx]</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="96" t="s">
         <v>194</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>[Rules.xlsx]</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="96" t="s">
         <v>195</v>
       </c>
@@ -4192,22 +4195,22 @@
         <v>NOTES</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="99" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -4226,23 +4229,23 @@
         <v>201</v>
       </c>
       <c r="C16" s="101" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
+        <f t="shared" ref="C16:C21" ca="1" si="0">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
         <v>NOTES</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B17" t="s">
-        <v>686</v>
-      </c>
-      <c r="C17" s="164" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
+        <v>682</v>
+      </c>
+      <c r="C17" s="145" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Rules</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4250,23 +4253,23 @@
         <v>208</v>
       </c>
       <c r="C18" s="132" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>abbrev_v1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="165" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A19&amp;"!A1",A19)</f>
+      <c r="C19" s="146" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>BCG_PacNW_v1_500ct</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4274,11 +4277,11 @@
         <v>210</v>
       </c>
       <c r="C20" s="103" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A20&amp;"!A1",A20)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>BCG_PacNW_v1_300ct</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>591</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>592</v>
       </c>
       <c r="C21" s="133" t="str">
-        <f ca="1">HYPERLINK(FileName&amp;A21&amp;"!A1",A21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>MetricMetadata</v>
       </c>
     </row>
@@ -4324,30 +4327,30 @@
       <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="11"/>
-    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="54"/>
-    <col min="9" max="9" width="9.140625" style="11"/>
-    <col min="10" max="10" width="36.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.85546875" style="55" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="54"/>
-    <col min="16" max="16" width="21.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="54" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" style="54"/>
-    <col min="22" max="22" width="35.140625" style="11" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="4.1796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="11"/>
+    <col min="3" max="3" width="5.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" style="54" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="54" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="54"/>
+    <col min="9" max="9" width="9.1796875" style="11"/>
+    <col min="10" max="10" width="36.7265625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.81640625" style="55" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="54"/>
+    <col min="16" max="16" width="21.453125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" style="54" customWidth="1"/>
+    <col min="18" max="21" width="9.1796875" style="54"/>
+    <col min="22" max="22" width="35.1796875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
       <c r="D1" s="53" t="s">
         <v>165</v>
       </c>
@@ -4357,7 +4360,7 @@
       <c r="O1" s="57"/>
       <c r="P1" s="58"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59" t="s">
         <v>129</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>132</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>132</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>132</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>132</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>132</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>132</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>132</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>132</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="66" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>132</v>
       </c>
@@ -5055,7 +5058,7 @@
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>132</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>132</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>132</v>
       </c>
@@ -5271,7 +5274,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>132</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>132</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>132</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>132</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>132</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="66" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="66" t="s">
         <v>132</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>132</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>132</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>132</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>132</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>132</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>132</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>132</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="66" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="66" t="s">
         <v>132</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>132</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>132</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>132</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>132</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="66" customFormat="1" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="66" customFormat="1" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="66" t="s">
         <v>132</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>132</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>132</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>132</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>132</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>132</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>132</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>132</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>132</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="66" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="66" t="s">
         <v>132</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>132</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>132</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>132</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>132</v>
       </c>
@@ -7491,7 +7494,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>132</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>132</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>132</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>132</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>132</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="66" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="66" t="s">
         <v>132</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>132</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>132</v>
       </c>
@@ -7968,7 +7971,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>132</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>132</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>132</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>132</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>132</v>
       </c>
@@ -8316,7 +8319,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="66" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="66" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="66" t="s">
         <v>132</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>132</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>132</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>132</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>132</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="66" customFormat="1" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="66" customFormat="1" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="66" t="s">
         <v>132</v>
       </c>
@@ -8911,30 +8914,30 @@
   </sheetPr>
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:L230"/>
+      <selection pane="bottomRight" activeCell="B110" sqref="B110:B230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="126.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="126.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
@@ -8972,7 +8975,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="92" t="s">
         <v>191</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
         <v>191</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="92" t="s">
         <v>191</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="92" t="s">
         <v>191</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="92" t="s">
         <v>191</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="92" t="s">
         <v>191</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="92" t="s">
         <v>191</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="92" t="s">
         <v>191</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="92" t="s">
         <v>191</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>191</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="92" t="s">
         <v>191</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="92" t="s">
         <v>191</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
         <v>191</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="92" t="s">
         <v>191</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="92" t="s">
         <v>191</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="92" t="s">
         <v>191</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="92" t="s">
         <v>191</v>
       </c>
@@ -9618,7 +9621,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
         <v>191</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="92" t="s">
         <v>191</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="92" t="s">
         <v>191</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="92" t="s">
         <v>191</v>
       </c>
@@ -9770,7 +9773,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="92" t="s">
         <v>191</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="92" t="s">
         <v>191</v>
       </c>
@@ -9846,7 +9849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="92" t="s">
         <v>191</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="92" t="s">
         <v>191</v>
       </c>
@@ -9922,7 +9925,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="92" t="s">
         <v>191</v>
       </c>
@@ -9960,7 +9963,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="92" t="s">
         <v>191</v>
       </c>
@@ -9998,7 +10001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="92" t="s">
         <v>191</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="92" t="s">
         <v>191</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="92" t="s">
         <v>191</v>
       </c>
@@ -10112,7 +10115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="92" t="s">
         <v>191</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="92" t="s">
         <v>191</v>
       </c>
@@ -10188,7 +10191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="92" t="s">
         <v>191</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="92" t="s">
         <v>191</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="92" t="s">
         <v>191</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="92" t="s">
         <v>191</v>
       </c>
@@ -10340,7 +10343,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="92" t="s">
         <v>191</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="92" t="s">
         <v>191</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="92" t="s">
         <v>191</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="92" t="s">
         <v>191</v>
       </c>
@@ -10492,7 +10495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="92" t="s">
         <v>191</v>
       </c>
@@ -10530,7 +10533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="92" t="s">
         <v>191</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="92" t="s">
         <v>191</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="92" t="s">
         <v>191</v>
       </c>
@@ -10644,7 +10647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="92" t="s">
         <v>191</v>
       </c>
@@ -10682,7 +10685,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="92" t="s">
         <v>191</v>
       </c>
@@ -10720,7 +10723,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="92" t="s">
         <v>191</v>
       </c>
@@ -10758,7 +10761,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="92" t="s">
         <v>191</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="92" t="s">
         <v>191</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="92" t="s">
         <v>191</v>
       </c>
@@ -10872,7 +10875,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="92" t="s">
         <v>191</v>
       </c>
@@ -10910,7 +10913,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="92" t="s">
         <v>191</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="92" t="s">
         <v>191</v>
       </c>
@@ -10986,7 +10989,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="92" t="s">
         <v>191</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="92" t="s">
         <v>192</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="92" t="s">
         <v>192</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="92" t="s">
         <v>192</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="92" t="s">
         <v>192</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="92" t="s">
         <v>192</v>
       </c>
@@ -11214,7 +11217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="92" t="s">
         <v>192</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="92" t="s">
         <v>192</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="92" t="s">
         <v>192</v>
       </c>
@@ -11328,7 +11331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="92" t="s">
         <v>192</v>
       </c>
@@ -11366,7 +11369,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="92" t="s">
         <v>192</v>
       </c>
@@ -11404,7 +11407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="92" t="s">
         <v>192</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="92" t="s">
         <v>192</v>
       </c>
@@ -11480,7 +11483,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="92" t="s">
         <v>192</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="92" t="s">
         <v>192</v>
       </c>
@@ -11556,7 +11559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="92" t="s">
         <v>192</v>
       </c>
@@ -11594,7 +11597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="92" t="s">
         <v>192</v>
       </c>
@@ -11632,7 +11635,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="92" t="s">
         <v>192</v>
       </c>
@@ -11670,7 +11673,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="92" t="s">
         <v>192</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="92" t="s">
         <v>192</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="92" t="s">
         <v>192</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="92" t="s">
         <v>192</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="92" t="s">
         <v>192</v>
       </c>
@@ -11860,7 +11863,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="92" t="s">
         <v>192</v>
       </c>
@@ -11898,7 +11901,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="92" t="s">
         <v>192</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="92" t="s">
         <v>192</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="92" t="s">
         <v>192</v>
       </c>
@@ -12012,7 +12015,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="92" t="s">
         <v>192</v>
       </c>
@@ -12050,7 +12053,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="92" t="s">
         <v>192</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="92" t="s">
         <v>192</v>
       </c>
@@ -12126,7 +12129,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="92" t="s">
         <v>192</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="92" t="s">
         <v>192</v>
       </c>
@@ -12202,7 +12205,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="92" t="s">
         <v>192</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="92" t="s">
         <v>192</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="92" t="s">
         <v>192</v>
       </c>
@@ -12316,7 +12319,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="92" t="s">
         <v>192</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="92" t="s">
         <v>192</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="92" t="s">
         <v>192</v>
       </c>
@@ -12430,7 +12433,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="92" t="s">
         <v>192</v>
       </c>
@@ -12468,7 +12471,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="92" t="s">
         <v>192</v>
       </c>
@@ -12506,7 +12509,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="92" t="s">
         <v>192</v>
       </c>
@@ -12544,7 +12547,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="92" t="s">
         <v>192</v>
       </c>
@@ -12582,7 +12585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="92" t="s">
         <v>192</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="92" t="s">
         <v>192</v>
       </c>
@@ -12658,7 +12661,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="92" t="s">
         <v>192</v>
       </c>
@@ -12696,7 +12699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="92" t="s">
         <v>192</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="92" t="s">
         <v>192</v>
       </c>
@@ -12772,7 +12775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="92" t="s">
         <v>192</v>
       </c>
@@ -12810,7 +12813,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="92" t="s">
         <v>192</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="92" t="s">
         <v>192</v>
       </c>
@@ -12886,7 +12889,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="92" t="s">
         <v>192</v>
       </c>
@@ -12924,7 +12927,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="92" t="s">
         <v>192</v>
       </c>
@@ -12962,7 +12965,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="92" t="s">
         <v>192</v>
       </c>
@@ -13000,7 +13003,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="92" t="s">
         <v>192</v>
       </c>
@@ -13038,7 +13041,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="92" t="s">
         <v>192</v>
       </c>
@@ -13076,9 +13079,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B110" t="s">
+        <v>683</v>
+      </c>
+      <c r="C110" t="s">
+        <v>683</v>
       </c>
       <c r="D110" s="137">
         <v>4</v>
@@ -13087,7 +13096,7 @@
         <v>59</v>
       </c>
       <c r="F110" s="137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G110" s="138" t="s">
         <v>143</v>
@@ -13105,9 +13114,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B111" t="s">
+        <v>683</v>
+      </c>
+      <c r="C111" t="s">
+        <v>683</v>
       </c>
       <c r="D111" s="137">
         <v>2</v>
@@ -13116,7 +13131,7 @@
         <v>59</v>
       </c>
       <c r="F111" s="137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G111" s="138" t="s">
         <v>143</v>
@@ -13134,9 +13149,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B112" t="s">
+        <v>683</v>
+      </c>
+      <c r="C112" t="s">
+        <v>683</v>
       </c>
       <c r="D112" s="137">
         <v>3</v>
@@ -13145,7 +13166,7 @@
         <v>59</v>
       </c>
       <c r="F112" s="137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G112" s="138" t="s">
         <v>143</v>
@@ -13163,9 +13184,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B113" t="s">
+        <v>683</v>
+      </c>
+      <c r="C113" t="s">
+        <v>683</v>
       </c>
       <c r="D113" s="137">
         <v>2</v>
@@ -13174,7 +13201,7 @@
         <v>59</v>
       </c>
       <c r="F113" s="137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G113" s="138" t="s">
         <v>143</v>
@@ -13192,18 +13219,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B114" t="s">
+        <v>683</v>
+      </c>
+      <c r="C114" t="s">
+        <v>683</v>
       </c>
       <c r="D114" s="137">
         <v>2</v>
       </c>
       <c r="E114" s="138" t="s">
+        <v>602</v>
+      </c>
+      <c r="F114" s="137" t="s">
         <v>603</v>
-      </c>
-      <c r="F114" s="137" t="s">
-        <v>604</v>
       </c>
       <c r="G114" s="138" t="s">
         <v>143</v>
@@ -13221,18 +13254,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B115" t="s">
+        <v>683</v>
+      </c>
+      <c r="C115" t="s">
+        <v>683</v>
       </c>
       <c r="D115" s="137">
         <v>2</v>
       </c>
       <c r="E115" s="138" t="s">
+        <v>602</v>
+      </c>
+      <c r="F115" s="137" t="s">
         <v>603</v>
-      </c>
-      <c r="F115" s="137" t="s">
-        <v>604</v>
       </c>
       <c r="G115" s="138" t="s">
         <v>143</v>
@@ -13250,18 +13289,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B116" t="s">
+        <v>683</v>
+      </c>
+      <c r="C116" t="s">
+        <v>683</v>
       </c>
       <c r="D116" s="137">
         <v>3</v>
       </c>
       <c r="E116" s="138" t="s">
+        <v>604</v>
+      </c>
+      <c r="F116" s="137" t="s">
         <v>605</v>
-      </c>
-      <c r="F116" s="137" t="s">
-        <v>606</v>
       </c>
       <c r="G116" s="138" t="s">
         <v>143</v>
@@ -13279,18 +13324,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B117" t="s">
+        <v>683</v>
+      </c>
+      <c r="C117" t="s">
+        <v>683</v>
       </c>
       <c r="D117" s="137">
         <v>4</v>
       </c>
       <c r="E117" s="138" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F117" s="137" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G117" s="138" t="s">
         <v>143</v>
@@ -13308,9 +13359,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B118" t="s">
+        <v>683</v>
+      </c>
+      <c r="C118" t="s">
+        <v>683</v>
       </c>
       <c r="D118" s="137">
         <v>2</v>
@@ -13319,7 +13376,7 @@
         <v>34</v>
       </c>
       <c r="F118" s="137" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G118" s="138" t="s">
         <v>143</v>
@@ -13337,9 +13394,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B119" t="s">
+        <v>683</v>
+      </c>
+      <c r="C119" t="s">
+        <v>683</v>
       </c>
       <c r="D119" s="137">
         <v>5</v>
@@ -13348,7 +13411,7 @@
         <v>34</v>
       </c>
       <c r="F119" s="137" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G119" s="138" t="s">
         <v>143</v>
@@ -13366,9 +13429,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B120" t="s">
+        <v>683</v>
+      </c>
+      <c r="C120" t="s">
+        <v>683</v>
       </c>
       <c r="D120" s="137">
         <v>4</v>
@@ -13377,7 +13446,7 @@
         <v>34</v>
       </c>
       <c r="F120" s="137" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G120" s="138" t="s">
         <v>143</v>
@@ -13395,9 +13464,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B121" t="s">
+        <v>683</v>
+      </c>
+      <c r="C121" t="s">
+        <v>683</v>
       </c>
       <c r="D121" s="137">
         <v>3</v>
@@ -13406,7 +13481,7 @@
         <v>34</v>
       </c>
       <c r="F121" s="137" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G121" s="138" t="s">
         <v>143</v>
@@ -13424,9 +13499,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B122" t="s">
+        <v>683</v>
+      </c>
+      <c r="C122" t="s">
+        <v>683</v>
       </c>
       <c r="D122" s="137">
         <v>2</v>
@@ -13435,7 +13516,7 @@
         <v>34</v>
       </c>
       <c r="F122" s="137" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G122" s="138" t="s">
         <v>143</v>
@@ -13453,18 +13534,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B123" t="s">
+        <v>683</v>
+      </c>
+      <c r="C123" t="s">
+        <v>683</v>
       </c>
       <c r="D123" s="137">
         <v>4</v>
       </c>
       <c r="E123" s="138" t="s">
+        <v>610</v>
+      </c>
+      <c r="F123" s="137" t="s">
         <v>611</v>
-      </c>
-      <c r="F123" s="137" t="s">
-        <v>612</v>
       </c>
       <c r="G123" s="138" t="s">
         <v>143</v>
@@ -13482,18 +13569,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B124" t="s">
+        <v>683</v>
+      </c>
+      <c r="C124" t="s">
+        <v>683</v>
       </c>
       <c r="D124" s="137">
         <v>3</v>
       </c>
       <c r="E124" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F124" s="137" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G124" s="138" t="s">
         <v>143</v>
@@ -13511,18 +13604,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B125" t="s">
+        <v>683</v>
+      </c>
+      <c r="C125" t="s">
+        <v>683</v>
       </c>
       <c r="D125" s="137">
         <v>2</v>
       </c>
       <c r="E125" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F125" s="137" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G125" s="138" t="s">
         <v>143</v>
@@ -13540,18 +13639,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B126" t="s">
+        <v>683</v>
+      </c>
+      <c r="C126" t="s">
+        <v>683</v>
       </c>
       <c r="D126" s="137">
         <v>4</v>
       </c>
       <c r="E126" s="138" t="s">
+        <v>613</v>
+      </c>
+      <c r="F126" s="137" t="s">
         <v>614</v>
-      </c>
-      <c r="F126" s="137" t="s">
-        <v>615</v>
       </c>
       <c r="G126" s="138" t="s">
         <v>145</v>
@@ -13569,18 +13674,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B127" t="s">
+        <v>683</v>
+      </c>
+      <c r="C127" t="s">
+        <v>683</v>
       </c>
       <c r="D127" s="137">
         <v>2</v>
       </c>
       <c r="E127" s="138" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F127" s="137" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G127" s="138" t="s">
         <v>145</v>
@@ -13598,18 +13709,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B128" t="s">
+        <v>683</v>
+      </c>
+      <c r="C128" t="s">
+        <v>683</v>
       </c>
       <c r="D128" s="137">
         <v>3</v>
       </c>
       <c r="E128" s="138" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F128" s="137" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G128" s="138" t="s">
         <v>145</v>
@@ -13627,18 +13744,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B129" t="s">
+        <v>683</v>
+      </c>
+      <c r="C129" t="s">
+        <v>683</v>
       </c>
       <c r="D129" s="137">
         <v>2</v>
       </c>
       <c r="E129" s="138" t="s">
+        <v>617</v>
+      </c>
+      <c r="F129" s="137" t="s">
         <v>618</v>
-      </c>
-      <c r="F129" s="137" t="s">
-        <v>619</v>
       </c>
       <c r="G129" s="138" t="s">
         <v>143</v>
@@ -13656,18 +13779,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B130" t="s">
+        <v>683</v>
+      </c>
+      <c r="C130" t="s">
+        <v>683</v>
       </c>
       <c r="D130" s="137">
         <v>2</v>
       </c>
       <c r="E130" s="138" t="s">
+        <v>617</v>
+      </c>
+      <c r="F130" s="137" t="s">
         <v>618</v>
-      </c>
-      <c r="F130" s="137" t="s">
-        <v>619</v>
       </c>
       <c r="G130" s="138" t="s">
         <v>143</v>
@@ -13685,9 +13814,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B131" t="s">
+        <v>683</v>
+      </c>
+      <c r="C131" t="s">
+        <v>683</v>
       </c>
       <c r="D131" s="139">
         <v>2</v>
@@ -13696,7 +13831,7 @@
         <v>59</v>
       </c>
       <c r="F131" s="141" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G131" s="140" t="s">
         <v>143</v>
@@ -13711,21 +13846,27 @@
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B132" t="s">
+        <v>683</v>
+      </c>
+      <c r="C132" t="s">
+        <v>683</v>
       </c>
       <c r="D132" s="139">
         <v>2</v>
       </c>
       <c r="E132" s="140" t="s">
+        <v>617</v>
+      </c>
+      <c r="F132" s="141" t="s">
         <v>618</v>
-      </c>
-      <c r="F132" s="141" t="s">
-        <v>619</v>
       </c>
       <c r="G132" s="140" t="s">
         <v>143</v>
@@ -13740,12 +13881,18 @@
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B133" t="s">
+        <v>683</v>
+      </c>
+      <c r="C133" t="s">
+        <v>683</v>
       </c>
       <c r="D133" s="139">
         <v>2</v>
@@ -13754,7 +13901,7 @@
         <v>34</v>
       </c>
       <c r="F133" s="141" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G133" s="140" t="s">
         <v>143</v>
@@ -13769,21 +13916,27 @@
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B134" t="s">
+        <v>683</v>
+      </c>
+      <c r="C134" t="s">
+        <v>683</v>
       </c>
       <c r="D134" s="139">
         <v>2</v>
       </c>
       <c r="E134" s="140" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F134" s="141" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G134" s="140" t="s">
         <v>145</v>
@@ -13798,21 +13951,27 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+      <c r="B135" t="s">
+        <v>683</v>
+      </c>
+      <c r="C135" t="s">
+        <v>683</v>
       </c>
       <c r="D135" s="139">
         <v>2</v>
       </c>
       <c r="E135" s="140" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F135" s="141" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G135" s="140" t="s">
         <v>143</v>
@@ -13827,12 +13986,18 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B136" t="s">
+        <v>684</v>
+      </c>
+      <c r="C136" t="s">
+        <v>684</v>
       </c>
       <c r="D136" s="137">
         <v>1</v>
@@ -13841,7 +14006,7 @@
         <v>34</v>
       </c>
       <c r="F136" s="142" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G136" s="138" t="s">
         <v>145</v>
@@ -13859,18 +14024,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>687</v>
+      </c>
+      <c r="B137" t="s">
+        <v>684</v>
+      </c>
+      <c r="C137" t="s">
+        <v>684</v>
+      </c>
+      <c r="D137" s="137">
+        <v>1</v>
+      </c>
+      <c r="E137" s="138" t="s">
         <v>624</v>
       </c>
-      <c r="D137" s="137">
-        <v>1</v>
-      </c>
-      <c r="E137" s="138" t="s">
-        <v>626</v>
-      </c>
       <c r="F137" s="142" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G137" s="138" t="s">
         <v>143</v>
@@ -13888,18 +14059,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B138" t="s">
+        <v>684</v>
+      </c>
+      <c r="C138" t="s">
+        <v>684</v>
       </c>
       <c r="D138" s="137">
         <v>1</v>
       </c>
       <c r="E138" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F138" s="142" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G138" s="138" t="s">
         <v>143</v>
@@ -13917,18 +14094,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B139" t="s">
+        <v>684</v>
+      </c>
+      <c r="C139" t="s">
+        <v>684</v>
       </c>
       <c r="D139" s="137">
         <v>1</v>
       </c>
       <c r="E139" s="138" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F139" s="142" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G139" s="138" t="s">
         <v>145</v>
@@ -13946,9 +14129,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B140" t="s">
+        <v>684</v>
+      </c>
+      <c r="C140" t="s">
+        <v>684</v>
       </c>
       <c r="D140" s="137">
         <v>2</v>
@@ -13957,7 +14146,7 @@
         <v>34</v>
       </c>
       <c r="F140" s="142" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G140" s="138" t="s">
         <v>145</v>
@@ -13975,18 +14164,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B141" t="s">
+        <v>684</v>
+      </c>
+      <c r="C141" t="s">
+        <v>684</v>
       </c>
       <c r="D141" s="137">
         <v>2</v>
       </c>
       <c r="E141" s="138" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F141" s="142" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G141" s="138" t="s">
         <v>143</v>
@@ -14004,18 +14199,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B142" t="s">
+        <v>684</v>
+      </c>
+      <c r="C142" t="s">
+        <v>684</v>
       </c>
       <c r="D142" s="137">
         <v>2</v>
       </c>
       <c r="E142" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F142" s="142" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G142" s="138" t="s">
         <v>143</v>
@@ -14033,18 +14234,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B143" t="s">
+        <v>684</v>
+      </c>
+      <c r="C143" t="s">
+        <v>684</v>
       </c>
       <c r="D143" s="137">
         <v>2</v>
       </c>
       <c r="E143" s="138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F143" s="142" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G143" s="138" t="s">
         <v>145</v>
@@ -14062,18 +14269,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B144" t="s">
+        <v>684</v>
+      </c>
+      <c r="C144" t="s">
+        <v>684</v>
       </c>
       <c r="D144" s="137">
         <v>2</v>
       </c>
       <c r="E144" s="138" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F144" s="142" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G144" s="138" t="s">
         <v>145</v>
@@ -14091,9 +14304,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B145" t="s">
+        <v>684</v>
+      </c>
+      <c r="C145" t="s">
+        <v>684</v>
       </c>
       <c r="D145" s="137">
         <v>3</v>
@@ -14102,7 +14321,7 @@
         <v>34</v>
       </c>
       <c r="F145" s="142" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G145" s="138" t="s">
         <v>145</v>
@@ -14120,18 +14339,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B146" t="s">
+        <v>684</v>
+      </c>
+      <c r="C146" t="s">
+        <v>684</v>
       </c>
       <c r="D146" s="137">
         <v>3</v>
       </c>
       <c r="E146" s="138" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F146" s="142" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G146" s="138" t="s">
         <v>143</v>
@@ -14149,18 +14374,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B147" t="s">
+        <v>684</v>
+      </c>
+      <c r="C147" t="s">
+        <v>684</v>
       </c>
       <c r="D147" s="137">
         <v>3</v>
       </c>
       <c r="E147" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F147" s="142" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G147" s="138" t="s">
         <v>143</v>
@@ -14178,18 +14409,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B148" t="s">
+        <v>684</v>
+      </c>
+      <c r="C148" t="s">
+        <v>684</v>
       </c>
       <c r="D148" s="137">
         <v>3</v>
       </c>
       <c r="E148" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F148" s="142" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G148" s="138" t="s">
         <v>143</v>
@@ -14207,18 +14444,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B149" t="s">
+        <v>684</v>
+      </c>
+      <c r="C149" t="s">
+        <v>684</v>
       </c>
       <c r="D149" s="137">
         <v>3</v>
       </c>
       <c r="E149" s="138" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F149" s="142" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G149" s="138" t="s">
         <v>145</v>
@@ -14236,18 +14479,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B150" t="s">
+        <v>684</v>
+      </c>
+      <c r="C150" t="s">
+        <v>684</v>
       </c>
       <c r="D150" s="137">
         <v>3</v>
       </c>
       <c r="E150" s="138" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F150" s="142" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G150" s="138" t="s">
         <v>145</v>
@@ -14265,9 +14514,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B151" t="s">
+        <v>684</v>
+      </c>
+      <c r="C151" t="s">
+        <v>684</v>
       </c>
       <c r="D151" s="137">
         <v>4</v>
@@ -14276,7 +14531,7 @@
         <v>34</v>
       </c>
       <c r="F151" s="142" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G151" s="138" t="s">
         <v>143</v>
@@ -14294,18 +14549,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B152" t="s">
+        <v>684</v>
+      </c>
+      <c r="C152" t="s">
+        <v>684</v>
       </c>
       <c r="D152" s="137">
         <v>4</v>
       </c>
       <c r="E152" s="138" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F152" s="142" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G152" s="138" t="s">
         <v>143</v>
@@ -14319,18 +14580,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B153" t="s">
+        <v>684</v>
+      </c>
+      <c r="C153" t="s">
+        <v>684</v>
       </c>
       <c r="D153" s="137">
         <v>4</v>
       </c>
       <c r="E153" s="138" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F153" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G153" s="138" t="s">
         <v>143</v>
@@ -14348,18 +14615,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B154" t="s">
+        <v>684</v>
+      </c>
+      <c r="C154" t="s">
+        <v>684</v>
       </c>
       <c r="D154" s="137">
         <v>4</v>
       </c>
       <c r="E154" s="138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F154" s="142" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G154" s="138" t="s">
         <v>143</v>
@@ -14377,18 +14650,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B155" t="s">
+        <v>684</v>
+      </c>
+      <c r="C155" t="s">
+        <v>684</v>
       </c>
       <c r="D155" s="137">
         <v>4</v>
       </c>
       <c r="E155" s="138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F155" s="142" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G155" s="138" t="s">
         <v>143</v>
@@ -14406,18 +14685,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B156" t="s">
+        <v>684</v>
+      </c>
+      <c r="C156" t="s">
+        <v>684</v>
       </c>
       <c r="D156" s="137">
         <v>4</v>
       </c>
       <c r="E156" s="138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F156" s="142" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G156" s="138" t="s">
         <v>145</v>
@@ -14435,18 +14720,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B157" t="s">
+        <v>684</v>
+      </c>
+      <c r="C157" t="s">
+        <v>684</v>
       </c>
       <c r="D157" s="137">
         <v>5</v>
       </c>
       <c r="E157" s="138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F157" s="142" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G157" s="138" t="s">
         <v>143</v>
@@ -14464,18 +14755,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B158" t="s">
+        <v>684</v>
+      </c>
+      <c r="C158" t="s">
+        <v>684</v>
       </c>
       <c r="D158" s="137">
         <v>5</v>
       </c>
       <c r="E158" s="138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F158" s="142" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G158" s="138" t="s">
         <v>143</v>
@@ -14493,9 +14790,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B159" t="s">
+        <v>684</v>
+      </c>
+      <c r="C159" t="s">
+        <v>684</v>
       </c>
       <c r="D159" s="142">
         <v>4</v>
@@ -14504,7 +14807,7 @@
         <v>34</v>
       </c>
       <c r="F159" s="142" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G159" s="144" t="s">
         <v>143</v>
@@ -14519,21 +14822,27 @@
         <v>1</v>
       </c>
       <c r="L159" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>624</v>
+        <v>687</v>
+      </c>
+      <c r="B160" t="s">
+        <v>684</v>
+      </c>
+      <c r="C160" t="s">
+        <v>684</v>
       </c>
       <c r="D160" s="142">
         <v>4</v>
       </c>
       <c r="E160" s="138" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F160" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G160" s="144" t="s">
         <v>143</v>
@@ -14548,12 +14857,18 @@
         <v>1</v>
       </c>
       <c r="L160" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B161" t="s">
+        <v>685</v>
+      </c>
+      <c r="C161" t="s">
+        <v>685</v>
       </c>
       <c r="D161" s="137">
         <v>1</v>
@@ -14562,7 +14877,7 @@
         <v>34</v>
       </c>
       <c r="F161" s="142" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G161" s="138" t="s">
         <v>143</v>
@@ -14580,18 +14895,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B162" t="s">
+        <v>685</v>
+      </c>
+      <c r="C162" t="s">
+        <v>685</v>
       </c>
       <c r="D162" s="137">
         <v>1</v>
       </c>
       <c r="E162" s="138" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F162" s="142" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G162" s="138" t="s">
         <v>143</v>
@@ -14609,18 +14930,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>687</v>
+      </c>
+      <c r="B163" t="s">
+        <v>685</v>
+      </c>
+      <c r="C163" t="s">
+        <v>685</v>
+      </c>
+      <c r="D163" s="137">
+        <v>1</v>
+      </c>
+      <c r="E163" s="138" t="s">
+        <v>617</v>
+      </c>
+      <c r="F163" s="142" t="s">
         <v>652</v>
-      </c>
-      <c r="D163" s="137">
-        <v>1</v>
-      </c>
-      <c r="E163" s="138" t="s">
-        <v>618</v>
-      </c>
-      <c r="F163" s="142" t="s">
-        <v>655</v>
       </c>
       <c r="G163" s="138" t="s">
         <v>143</v>
@@ -14638,18 +14965,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>687</v>
+      </c>
+      <c r="B164" t="s">
+        <v>685</v>
+      </c>
+      <c r="C164" t="s">
+        <v>685</v>
+      </c>
+      <c r="D164" s="137">
+        <v>1</v>
+      </c>
+      <c r="E164" s="138" t="s">
+        <v>610</v>
+      </c>
+      <c r="F164" s="142" t="s">
         <v>652</v>
-      </c>
-      <c r="D164" s="137">
-        <v>1</v>
-      </c>
-      <c r="E164" s="138" t="s">
-        <v>611</v>
-      </c>
-      <c r="F164" s="142" t="s">
-        <v>655</v>
       </c>
       <c r="G164" s="138" t="s">
         <v>143</v>
@@ -14667,18 +15000,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B165" t="s">
+        <v>685</v>
+      </c>
+      <c r="C165" t="s">
+        <v>685</v>
       </c>
       <c r="D165" s="137">
         <v>1</v>
       </c>
       <c r="E165" s="138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F165" s="142" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G165" s="138" t="s">
         <v>145</v>
@@ -14696,18 +15035,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B166" t="s">
+        <v>685</v>
+      </c>
+      <c r="C166" t="s">
+        <v>685</v>
       </c>
       <c r="D166" s="137">
         <v>1</v>
       </c>
       <c r="E166" s="138" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F166" s="142" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G166" s="138" t="s">
         <v>145</v>
@@ -14725,9 +15070,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B167" t="s">
+        <v>685</v>
+      </c>
+      <c r="C167" t="s">
+        <v>685</v>
       </c>
       <c r="D167" s="137">
         <v>2</v>
@@ -14736,7 +15087,7 @@
         <v>34</v>
       </c>
       <c r="F167" s="142" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G167" s="138" t="s">
         <v>143</v>
@@ -14754,18 +15105,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B168" t="s">
+        <v>685</v>
+      </c>
+      <c r="C168" t="s">
+        <v>685</v>
       </c>
       <c r="D168" s="137">
         <v>2</v>
       </c>
       <c r="E168" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F168" s="142" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G168" s="138" t="s">
         <v>143</v>
@@ -14783,18 +15140,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B169" t="s">
+        <v>685</v>
+      </c>
+      <c r="C169" t="s">
+        <v>685</v>
       </c>
       <c r="D169" s="137">
         <v>2</v>
       </c>
       <c r="E169" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F169" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G169" s="138" t="s">
         <v>143</v>
@@ -14812,18 +15175,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B170" t="s">
+        <v>685</v>
+      </c>
+      <c r="C170" t="s">
+        <v>685</v>
       </c>
       <c r="D170" s="137">
         <v>2</v>
       </c>
       <c r="E170" s="138" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F170" s="142" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G170" s="138" t="s">
         <v>145</v>
@@ -14841,18 +15210,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B171" t="s">
+        <v>685</v>
+      </c>
+      <c r="C171" t="s">
+        <v>685</v>
       </c>
       <c r="D171" s="137">
         <v>2</v>
       </c>
       <c r="E171" s="138" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F171" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G171" s="138" t="s">
         <v>143</v>
@@ -14870,18 +15245,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B172" t="s">
+        <v>685</v>
+      </c>
+      <c r="C172" t="s">
+        <v>685</v>
       </c>
       <c r="D172" s="137">
         <v>2</v>
       </c>
       <c r="E172" s="138" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F172" s="142" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G172" s="138" t="s">
         <v>145</v>
@@ -14899,18 +15280,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B173" t="s">
+        <v>685</v>
+      </c>
+      <c r="C173" t="s">
+        <v>685</v>
       </c>
       <c r="D173" s="137">
         <v>2</v>
       </c>
       <c r="E173" s="138" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F173" s="142" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G173" s="138" t="s">
         <v>143</v>
@@ -14924,9 +15311,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B174" t="s">
+        <v>685</v>
+      </c>
+      <c r="C174" t="s">
+        <v>685</v>
       </c>
       <c r="D174" s="137">
         <v>3</v>
@@ -14935,7 +15328,7 @@
         <v>34</v>
       </c>
       <c r="F174" s="142" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G174" s="138" t="s">
         <v>143</v>
@@ -14953,18 +15346,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B175" t="s">
+        <v>685</v>
+      </c>
+      <c r="C175" t="s">
+        <v>685</v>
       </c>
       <c r="D175" s="137">
         <v>3</v>
       </c>
       <c r="E175" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F175" s="142" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G175" s="138" t="s">
         <v>143</v>
@@ -14982,18 +15381,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B176" t="s">
+        <v>685</v>
+      </c>
+      <c r="C176" t="s">
+        <v>685</v>
       </c>
       <c r="D176" s="137">
         <v>3</v>
       </c>
       <c r="E176" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F176" s="142" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G176" s="138" t="s">
         <v>143</v>
@@ -15011,18 +15416,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B177" t="s">
+        <v>685</v>
+      </c>
+      <c r="C177" t="s">
+        <v>685</v>
       </c>
       <c r="D177" s="137">
         <v>3</v>
       </c>
       <c r="E177" s="138" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F177" s="142" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G177" s="138" t="s">
         <v>143</v>
@@ -15040,18 +15451,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B178" t="s">
+        <v>685</v>
+      </c>
+      <c r="C178" t="s">
+        <v>685</v>
       </c>
       <c r="D178" s="137">
         <v>3</v>
       </c>
       <c r="E178" s="138" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F178" s="142" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G178" s="138" t="s">
         <v>143</v>
@@ -15069,18 +15486,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B179" t="s">
+        <v>685</v>
+      </c>
+      <c r="C179" t="s">
+        <v>685</v>
       </c>
       <c r="D179" s="137">
         <v>3</v>
       </c>
       <c r="E179" s="138" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F179" s="142" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G179" s="138" t="s">
         <v>145</v>
@@ -15098,18 +15521,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B180" t="s">
+        <v>685</v>
+      </c>
+      <c r="C180" t="s">
+        <v>685</v>
       </c>
       <c r="D180" s="137">
         <v>3</v>
       </c>
       <c r="E180" s="138" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F180" s="142" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G180" s="138" t="s">
         <v>145</v>
@@ -15127,18 +15556,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B181" t="s">
+        <v>685</v>
+      </c>
+      <c r="C181" t="s">
+        <v>685</v>
       </c>
       <c r="D181" s="137">
         <v>3</v>
       </c>
       <c r="E181" s="138" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F181" s="142" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G181" s="138" t="s">
         <v>143</v>
@@ -15156,18 +15591,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B182" t="s">
+        <v>685</v>
+      </c>
+      <c r="C182" t="s">
+        <v>685</v>
       </c>
       <c r="D182" s="137">
         <v>4</v>
       </c>
       <c r="E182" s="138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F182" s="142" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G182" s="138" t="s">
         <v>143</v>
@@ -15185,18 +15626,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B183" t="s">
+        <v>685</v>
+      </c>
+      <c r="C183" t="s">
+        <v>685</v>
       </c>
       <c r="D183" s="137">
         <v>4</v>
       </c>
       <c r="E183" s="138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F183" s="142" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G183" s="138" t="s">
         <v>143</v>
@@ -15214,18 +15661,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B184" t="s">
+        <v>685</v>
+      </c>
+      <c r="C184" t="s">
+        <v>685</v>
       </c>
       <c r="D184" s="137">
         <v>4</v>
       </c>
       <c r="E184" s="138" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F184" s="142" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G184" s="138" t="s">
         <v>145</v>
@@ -15243,18 +15696,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B185" t="s">
+        <v>685</v>
+      </c>
+      <c r="C185" t="s">
+        <v>685</v>
       </c>
       <c r="D185" s="137">
         <v>4</v>
       </c>
       <c r="E185" s="138" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F185" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G185" s="138" t="s">
         <v>143</v>
@@ -15272,18 +15731,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B186" t="s">
+        <v>685</v>
+      </c>
+      <c r="C186" t="s">
+        <v>685</v>
       </c>
       <c r="D186" s="137">
         <v>4</v>
       </c>
       <c r="E186" s="138" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F186" s="142" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G186" s="138" t="s">
         <v>145</v>
@@ -15301,9 +15766,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B187" t="s">
+        <v>685</v>
+      </c>
+      <c r="C187" t="s">
+        <v>685</v>
       </c>
       <c r="D187" s="137">
         <v>5</v>
@@ -15312,7 +15783,7 @@
         <v>34</v>
       </c>
       <c r="F187" s="142" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G187" s="138" t="s">
         <v>143</v>
@@ -15330,18 +15801,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B188" t="s">
+        <v>685</v>
+      </c>
+      <c r="C188" t="s">
+        <v>685</v>
       </c>
       <c r="D188" s="137">
         <v>5</v>
       </c>
       <c r="E188" s="138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F188" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G188" s="138" t="s">
         <v>143</v>
@@ -15359,18 +15836,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B189" t="s">
+        <v>685</v>
+      </c>
+      <c r="C189" t="s">
+        <v>685</v>
       </c>
       <c r="D189" s="137">
         <v>5</v>
       </c>
       <c r="E189" s="138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F189" s="142" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G189" s="138" t="s">
         <v>143</v>
@@ -15388,18 +15871,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B190" t="s">
+        <v>685</v>
+      </c>
+      <c r="C190" t="s">
+        <v>685</v>
       </c>
       <c r="D190" s="137">
         <v>2</v>
       </c>
       <c r="E190" s="138" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F190" s="142" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G190" s="138" t="s">
         <v>145</v>
@@ -15414,21 +15903,27 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B191" t="s">
+        <v>685</v>
+      </c>
+      <c r="C191" t="s">
+        <v>685</v>
       </c>
       <c r="D191" s="137">
         <v>2</v>
       </c>
       <c r="E191" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F191" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G191" s="138" t="s">
         <v>143</v>
@@ -15443,21 +15938,27 @@
         <v>1</v>
       </c>
       <c r="L191" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B192" t="s">
+        <v>685</v>
+      </c>
+      <c r="C192" t="s">
+        <v>685</v>
       </c>
       <c r="D192" s="137">
         <v>2</v>
       </c>
       <c r="E192" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F192" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G192" s="138" t="s">
         <v>143</v>
@@ -15472,21 +15973,27 @@
         <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B193" t="s">
+        <v>685</v>
+      </c>
+      <c r="C193" t="s">
+        <v>685</v>
       </c>
       <c r="D193" s="137">
         <v>2</v>
       </c>
       <c r="E193" s="138" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F193" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G193" s="138" t="s">
         <v>143</v>
@@ -15501,12 +16008,18 @@
         <v>1</v>
       </c>
       <c r="L193" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B194" t="s">
+        <v>685</v>
+      </c>
+      <c r="C194" t="s">
+        <v>685</v>
       </c>
       <c r="D194" s="137">
         <v>2</v>
@@ -15515,7 +16028,7 @@
         <v>34</v>
       </c>
       <c r="F194" s="142" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G194" s="138" t="s">
         <v>143</v>
@@ -15530,21 +16043,27 @@
         <v>1</v>
       </c>
       <c r="L194" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>652</v>
+        <v>687</v>
+      </c>
+      <c r="B195" t="s">
+        <v>685</v>
+      </c>
+      <c r="C195" t="s">
+        <v>685</v>
       </c>
       <c r="D195" s="137">
         <v>2</v>
       </c>
       <c r="E195" s="138" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F195" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G195" s="138" t="s">
         <v>143</v>
@@ -15559,12 +16078,18 @@
         <v>1</v>
       </c>
       <c r="L195" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B196" t="s">
+        <v>686</v>
+      </c>
+      <c r="C196" t="s">
+        <v>686</v>
       </c>
       <c r="D196" s="137">
         <v>1</v>
@@ -15573,7 +16098,7 @@
         <v>34</v>
       </c>
       <c r="F196" s="142" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G196" s="138" t="s">
         <v>143</v>
@@ -15591,18 +16116,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B197" t="s">
+        <v>686</v>
+      </c>
+      <c r="C197" t="s">
+        <v>686</v>
       </c>
       <c r="D197" s="137">
         <v>1</v>
       </c>
       <c r="E197" s="138" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F197" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G197" s="138" t="s">
         <v>143</v>
@@ -15620,18 +16151,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B198" t="s">
+        <v>686</v>
+      </c>
+      <c r="C198" t="s">
+        <v>686</v>
       </c>
       <c r="D198" s="137">
         <v>1</v>
       </c>
       <c r="E198" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F198" s="142" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G198" s="138" t="s">
         <v>143</v>
@@ -15649,18 +16186,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B199" t="s">
+        <v>686</v>
+      </c>
+      <c r="C199" t="s">
+        <v>686</v>
       </c>
       <c r="D199" s="137">
         <v>1</v>
       </c>
       <c r="E199" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F199" s="142" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G199" s="138" t="s">
         <v>143</v>
@@ -15678,18 +16221,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B200" t="s">
+        <v>686</v>
+      </c>
+      <c r="C200" t="s">
+        <v>686</v>
       </c>
       <c r="D200" s="137">
         <v>1</v>
       </c>
       <c r="E200" s="138" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F200" s="142" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G200" s="138" t="s">
         <v>145</v>
@@ -15707,18 +16256,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B201" t="s">
+        <v>686</v>
+      </c>
+      <c r="C201" t="s">
+        <v>686</v>
       </c>
       <c r="D201" s="137">
         <v>1</v>
       </c>
       <c r="E201" s="138" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F201" s="142" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G201" s="138" t="s">
         <v>145</v>
@@ -15736,9 +16291,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B202" t="s">
+        <v>686</v>
+      </c>
+      <c r="C202" t="s">
+        <v>686</v>
       </c>
       <c r="D202" s="137">
         <v>2</v>
@@ -15747,7 +16308,7 @@
         <v>34</v>
       </c>
       <c r="F202" s="142" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G202" s="138" t="s">
         <v>143</v>
@@ -15765,18 +16326,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B203" t="s">
+        <v>686</v>
+      </c>
+      <c r="C203" t="s">
+        <v>686</v>
       </c>
       <c r="D203" s="137">
         <v>2</v>
       </c>
       <c r="E203" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F203" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G203" s="138" t="s">
         <v>143</v>
@@ -15794,18 +16361,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B204" t="s">
+        <v>686</v>
+      </c>
+      <c r="C204" t="s">
+        <v>686</v>
       </c>
       <c r="D204" s="137">
         <v>2</v>
       </c>
       <c r="E204" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F204" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G204" s="138" t="s">
         <v>143</v>
@@ -15823,18 +16396,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B205" t="s">
+        <v>686</v>
+      </c>
+      <c r="C205" t="s">
+        <v>686</v>
       </c>
       <c r="D205" s="137">
         <v>2</v>
       </c>
       <c r="E205" s="138" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F205" s="142" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G205" s="138" t="s">
         <v>145</v>
@@ -15852,18 +16431,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B206" t="s">
+        <v>686</v>
+      </c>
+      <c r="C206" t="s">
+        <v>686</v>
       </c>
       <c r="D206" s="137">
         <v>2</v>
       </c>
       <c r="E206" s="138" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F206" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G206" s="138" t="s">
         <v>143</v>
@@ -15881,18 +16466,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B207" t="s">
+        <v>686</v>
+      </c>
+      <c r="C207" t="s">
+        <v>686</v>
       </c>
       <c r="D207" s="137">
         <v>2</v>
       </c>
       <c r="E207" s="138" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F207" s="142" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G207" s="138" t="s">
         <v>145</v>
@@ -15910,18 +16501,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B208" t="s">
+        <v>686</v>
+      </c>
+      <c r="C208" t="s">
+        <v>686</v>
       </c>
       <c r="D208" s="137">
         <v>2</v>
       </c>
       <c r="E208" s="138" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F208" s="142" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G208" s="138" t="s">
         <v>143</v>
@@ -15935,9 +16532,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B209" t="s">
+        <v>686</v>
+      </c>
+      <c r="C209" t="s">
+        <v>686</v>
       </c>
       <c r="D209" s="137">
         <v>3</v>
@@ -15946,7 +16549,7 @@
         <v>34</v>
       </c>
       <c r="F209" s="142" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G209" s="138" t="s">
         <v>143</v>
@@ -15964,18 +16567,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B210" t="s">
+        <v>686</v>
+      </c>
+      <c r="C210" t="s">
+        <v>686</v>
       </c>
       <c r="D210" s="137">
         <v>3</v>
       </c>
       <c r="E210" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F210" s="142" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G210" s="138" t="s">
         <v>143</v>
@@ -15993,18 +16602,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B211" t="s">
+        <v>686</v>
+      </c>
+      <c r="C211" t="s">
+        <v>686</v>
       </c>
       <c r="D211" s="137">
         <v>3</v>
       </c>
       <c r="E211" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F211" s="142" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G211" s="138" t="s">
         <v>143</v>
@@ -16022,18 +16637,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B212" t="s">
+        <v>686</v>
+      </c>
+      <c r="C212" t="s">
+        <v>686</v>
       </c>
       <c r="D212" s="137">
         <v>3</v>
       </c>
       <c r="E212" s="138" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F212" s="142" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G212" s="138" t="s">
         <v>143</v>
@@ -16051,18 +16672,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B213" t="s">
+        <v>686</v>
+      </c>
+      <c r="C213" t="s">
+        <v>686</v>
       </c>
       <c r="D213" s="137">
         <v>3</v>
       </c>
       <c r="E213" s="138" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F213" s="142" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G213" s="138" t="s">
         <v>143</v>
@@ -16080,18 +16707,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B214" t="s">
+        <v>686</v>
+      </c>
+      <c r="C214" t="s">
+        <v>686</v>
       </c>
       <c r="D214" s="137">
         <v>3</v>
       </c>
       <c r="E214" s="138" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F214" s="142" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G214" s="138" t="s">
         <v>145</v>
@@ -16109,18 +16742,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B215" t="s">
+        <v>686</v>
+      </c>
+      <c r="C215" t="s">
+        <v>686</v>
       </c>
       <c r="D215" s="137">
         <v>3</v>
       </c>
       <c r="E215" s="138" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F215" s="142" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G215" s="138" t="s">
         <v>145</v>
@@ -16138,18 +16777,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B216" t="s">
+        <v>686</v>
+      </c>
+      <c r="C216" t="s">
+        <v>686</v>
       </c>
       <c r="D216" s="137">
         <v>3</v>
       </c>
       <c r="E216" s="138" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F216" s="142" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G216" s="138" t="s">
         <v>143</v>
@@ -16167,18 +16812,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B217" t="s">
+        <v>686</v>
+      </c>
+      <c r="C217" t="s">
+        <v>686</v>
       </c>
       <c r="D217" s="137">
         <v>4</v>
       </c>
       <c r="E217" s="138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F217" s="142" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G217" s="138" t="s">
         <v>143</v>
@@ -16196,18 +16847,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B218" t="s">
+        <v>686</v>
+      </c>
+      <c r="C218" t="s">
+        <v>686</v>
       </c>
       <c r="D218" s="137">
         <v>4</v>
       </c>
       <c r="E218" s="138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F218" s="142" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G218" s="138" t="s">
         <v>143</v>
@@ -16225,18 +16882,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B219" t="s">
+        <v>686</v>
+      </c>
+      <c r="C219" t="s">
+        <v>686</v>
       </c>
       <c r="D219" s="137">
         <v>4</v>
       </c>
       <c r="E219" s="138" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F219" s="142" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G219" s="138" t="s">
         <v>145</v>
@@ -16254,18 +16917,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B220" t="s">
+        <v>686</v>
+      </c>
+      <c r="C220" t="s">
+        <v>686</v>
       </c>
       <c r="D220" s="137">
         <v>4</v>
       </c>
       <c r="E220" s="138" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F220" s="142" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G220" s="138" t="s">
         <v>143</v>
@@ -16283,18 +16952,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B221" t="s">
+        <v>686</v>
+      </c>
+      <c r="C221" t="s">
+        <v>686</v>
       </c>
       <c r="D221" s="137">
         <v>4</v>
       </c>
       <c r="E221" s="138" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F221" s="142" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G221" s="138" t="s">
         <v>145</v>
@@ -16312,9 +16987,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B222" t="s">
+        <v>686</v>
+      </c>
+      <c r="C222" t="s">
+        <v>686</v>
       </c>
       <c r="D222" s="137">
         <v>5</v>
@@ -16323,7 +17004,7 @@
         <v>34</v>
       </c>
       <c r="F222" s="142" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G222" s="138" t="s">
         <v>143</v>
@@ -16341,18 +17022,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B223" t="s">
+        <v>686</v>
+      </c>
+      <c r="C223" t="s">
+        <v>686</v>
       </c>
       <c r="D223" s="137">
         <v>5</v>
       </c>
       <c r="E223" s="138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F223" s="142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G223" s="138" t="s">
         <v>143</v>
@@ -16370,18 +17057,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B224" t="s">
+        <v>686</v>
+      </c>
+      <c r="C224" t="s">
+        <v>686</v>
       </c>
       <c r="D224" s="137">
         <v>5</v>
       </c>
       <c r="E224" s="138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F224" s="142" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G224" s="138" t="s">
         <v>143</v>
@@ -16399,18 +17092,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B225" t="s">
+        <v>686</v>
+      </c>
+      <c r="C225" t="s">
+        <v>686</v>
       </c>
       <c r="D225" s="137">
         <v>2</v>
       </c>
       <c r="E225" s="138" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F225" s="142" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G225" s="138" t="s">
         <v>145</v>
@@ -16425,21 +17124,27 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B226" t="s">
+        <v>686</v>
+      </c>
+      <c r="C226" t="s">
+        <v>686</v>
       </c>
       <c r="D226" s="137">
         <v>2</v>
       </c>
       <c r="E226" s="138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F226" s="142" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G226" s="138" t="s">
         <v>143</v>
@@ -16454,21 +17159,27 @@
         <v>1</v>
       </c>
       <c r="L226" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B227" t="s">
+        <v>686</v>
+      </c>
+      <c r="C227" t="s">
+        <v>686</v>
       </c>
       <c r="D227" s="137">
         <v>2</v>
       </c>
       <c r="E227" s="138" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F227" s="142" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G227" s="138" t="s">
         <v>143</v>
@@ -16483,21 +17194,27 @@
         <v>1</v>
       </c>
       <c r="L227" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B228" t="s">
+        <v>686</v>
+      </c>
+      <c r="C228" t="s">
+        <v>686</v>
       </c>
       <c r="D228" s="137">
         <v>2</v>
       </c>
       <c r="E228" s="138" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F228" s="142" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G228" s="138" t="s">
         <v>143</v>
@@ -16512,12 +17229,18 @@
         <v>1</v>
       </c>
       <c r="L228" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B229" t="s">
+        <v>686</v>
+      </c>
+      <c r="C229" t="s">
+        <v>686</v>
       </c>
       <c r="D229" s="137">
         <v>2</v>
@@ -16526,7 +17249,7 @@
         <v>34</v>
       </c>
       <c r="F229" s="142" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G229" s="138" t="s">
         <v>143</v>
@@ -16541,21 +17264,27 @@
         <v>1</v>
       </c>
       <c r="L229" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>680</v>
+        <v>687</v>
+      </c>
+      <c r="B230" t="s">
+        <v>686</v>
+      </c>
+      <c r="C230" t="s">
+        <v>686</v>
       </c>
       <c r="D230" s="137">
         <v>2</v>
       </c>
       <c r="E230" s="138" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F230" s="142" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G230" s="138" t="s">
         <v>143</v>
@@ -16570,7 +17299,7 @@
         <v>1</v>
       </c>
       <c r="L230" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -16611,26 +17340,26 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="40.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="46.453125" style="38" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="61.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="61.453125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>52</v>
       </c>
@@ -16641,7 +17370,7 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>112</v>
       </c>
@@ -16656,7 +17385,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="G4" s="18" t="s">
@@ -16669,7 +17398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
@@ -16695,13 +17424,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
+    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="A6" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -16713,17 +17442,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="162"/>
+      <c r="C7" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="164"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -16735,17 +17464,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="163"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -16757,7 +17486,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -16783,17 +17512,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -16805,17 +17534,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -16827,17 +17556,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -16849,17 +17578,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="56" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="162"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -16871,17 +17600,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="147"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -16895,17 +17624,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="147" t="s">
+      <c r="C15" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="147"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -16919,13 +17648,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+    <row r="16" spans="1:9" ht="56" x14ac:dyDescent="0.35">
+      <c r="A16" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="161"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -16938,31 +17667,31 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="146"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="145"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -16974,17 +17703,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="146"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -16996,17 +17725,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -17018,17 +17747,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="160" t="s">
+      <c r="C21" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -17040,7 +17769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>116</v>
       </c>
@@ -17066,17 +17795,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="148"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -17088,7 +17817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="29" t="s">
@@ -17110,7 +17839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -17134,20 +17863,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="149" t="s">
+    <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="A26" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="152" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="154" t="s">
+      <c r="E26" s="156" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -17160,14 +17889,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="150"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="151"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="152"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="155"/>
+      <c r="E27" s="157"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -17178,13 +17907,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="151" t="s">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -17196,17 +17925,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="146"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -17218,20 +17947,20 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="152" t="s">
+      <c r="C30" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="152"/>
+      <c r="D30" s="154"/>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -17246,7 +17975,7 @@
       </c>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -17261,35 +17990,35 @@
       </c>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="146"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="35"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="148" t="s">
+      <c r="C34" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="148"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>116</v>
       </c>
@@ -17304,93 +18033,93 @@
       </c>
       <c r="E35" s="35"/>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="148" t="s">
+      <c r="C36" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="148"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="32"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="159" t="s">
+      <c r="C38" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="159"/>
+      <c r="D38" s="161"/>
       <c r="E38" s="43"/>
     </row>
-    <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="168" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="146"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="146"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="35"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="146"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="70" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="146"/>
+      <c r="D42" s="148"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
@@ -17450,23 +18179,23 @@
       <selection pane="bottomLeft" sqref="A1:L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="126.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="126.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
@@ -17504,7 +18233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="92" t="s">
         <v>191</v>
       </c>
@@ -17542,7 +18271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
         <v>191</v>
       </c>
@@ -17580,7 +18309,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="92" t="s">
         <v>191</v>
       </c>
@@ -17618,7 +18347,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="92" t="s">
         <v>191</v>
       </c>
@@ -17656,7 +18385,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="92" t="s">
         <v>191</v>
       </c>
@@ -17694,7 +18423,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="92" t="s">
         <v>191</v>
       </c>
@@ -17732,7 +18461,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="92" t="s">
         <v>191</v>
       </c>
@@ -17770,7 +18499,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="92" t="s">
         <v>191</v>
       </c>
@@ -17808,7 +18537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="92" t="s">
         <v>191</v>
       </c>
@@ -17846,7 +18575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>191</v>
       </c>
@@ -17884,7 +18613,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="92" t="s">
         <v>191</v>
       </c>
@@ -17922,7 +18651,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="92" t="s">
         <v>191</v>
       </c>
@@ -17960,7 +18689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
         <v>191</v>
       </c>
@@ -17998,7 +18727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="92" t="s">
         <v>191</v>
       </c>
@@ -18036,7 +18765,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="92" t="s">
         <v>191</v>
       </c>
@@ -18074,7 +18803,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="92" t="s">
         <v>191</v>
       </c>
@@ -18112,7 +18841,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="92" t="s">
         <v>191</v>
       </c>
@@ -18150,7 +18879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
         <v>191</v>
       </c>
@@ -18188,7 +18917,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="92" t="s">
         <v>191</v>
       </c>
@@ -18226,7 +18955,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="92" t="s">
         <v>191</v>
       </c>
@@ -18264,7 +18993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="92" t="s">
         <v>191</v>
       </c>
@@ -18302,7 +19031,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="92" t="s">
         <v>191</v>
       </c>
@@ -18340,7 +19069,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="92" t="s">
         <v>191</v>
       </c>
@@ -18378,7 +19107,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="92" t="s">
         <v>191</v>
       </c>
@@ -18416,7 +19145,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="92" t="s">
         <v>191</v>
       </c>
@@ -18454,7 +19183,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="92" t="s">
         <v>191</v>
       </c>
@@ -18492,7 +19221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="92" t="s">
         <v>191</v>
       </c>
@@ -18530,7 +19259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="92" t="s">
         <v>191</v>
       </c>
@@ -18568,7 +19297,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="92" t="s">
         <v>191</v>
       </c>
@@ -18606,7 +19335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="92" t="s">
         <v>191</v>
       </c>
@@ -18644,7 +19373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="92" t="s">
         <v>191</v>
       </c>
@@ -18682,7 +19411,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="92" t="s">
         <v>191</v>
       </c>
@@ -18720,7 +19449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="92" t="s">
         <v>191</v>
       </c>
@@ -18758,7 +19487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="92" t="s">
         <v>191</v>
       </c>
@@ -18796,7 +19525,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="92" t="s">
         <v>191</v>
       </c>
@@ -18834,7 +19563,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="92" t="s">
         <v>191</v>
       </c>
@@ -18872,7 +19601,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="92" t="s">
         <v>191</v>
       </c>
@@ -18910,7 +19639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="92" t="s">
         <v>191</v>
       </c>
@@ -18948,7 +19677,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="92" t="s">
         <v>191</v>
       </c>
@@ -18986,7 +19715,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="92" t="s">
         <v>191</v>
       </c>
@@ -19024,7 +19753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="92" t="s">
         <v>191</v>
       </c>
@@ -19062,7 +19791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="92" t="s">
         <v>191</v>
       </c>
@@ -19100,7 +19829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="92" t="s">
         <v>191</v>
       </c>
@@ -19138,7 +19867,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="92" t="s">
         <v>191</v>
       </c>
@@ -19176,7 +19905,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="92" t="s">
         <v>191</v>
       </c>
@@ -19214,7 +19943,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="92" t="s">
         <v>191</v>
       </c>
@@ -19252,7 +19981,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="92" t="s">
         <v>191</v>
       </c>
@@ -19290,7 +20019,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="92" t="s">
         <v>191</v>
       </c>
@@ -19328,7 +20057,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="92" t="s">
         <v>191</v>
       </c>
@@ -19366,7 +20095,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="92" t="s">
         <v>191</v>
       </c>
@@ -19404,7 +20133,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="92" t="s">
         <v>191</v>
       </c>
@@ -19442,7 +20171,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="92" t="s">
         <v>191</v>
       </c>
@@ -19480,7 +20209,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="92" t="s">
         <v>191</v>
       </c>
@@ -19518,7 +20247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="92" t="s">
         <v>191</v>
       </c>
@@ -19583,23 +20312,23 @@
       <selection pane="bottomLeft" sqref="A1:L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="126.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="126.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>129</v>
       </c>
@@ -19637,7 +20366,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="92" t="s">
         <v>192</v>
       </c>
@@ -19675,7 +20404,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
         <v>192</v>
       </c>
@@ -19713,7 +20442,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="92" t="s">
         <v>192</v>
       </c>
@@ -19751,7 +20480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="92" t="s">
         <v>192</v>
       </c>
@@ -19789,7 +20518,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="92" t="s">
         <v>192</v>
       </c>
@@ -19827,7 +20556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="92" t="s">
         <v>192</v>
       </c>
@@ -19865,7 +20594,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="92" t="s">
         <v>192</v>
       </c>
@@ -19903,7 +20632,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="92" t="s">
         <v>192</v>
       </c>
@@ -19941,7 +20670,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="92" t="s">
         <v>192</v>
       </c>
@@ -19979,7 +20708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>192</v>
       </c>
@@ -20017,7 +20746,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="92" t="s">
         <v>192</v>
       </c>
@@ -20055,7 +20784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="92" t="s">
         <v>192</v>
       </c>
@@ -20093,7 +20822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
         <v>192</v>
       </c>
@@ -20131,7 +20860,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="92" t="s">
         <v>192</v>
       </c>
@@ -20169,7 +20898,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="92" t="s">
         <v>192</v>
       </c>
@@ -20207,7 +20936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="92" t="s">
         <v>192</v>
       </c>
@@ -20245,7 +20974,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="92" t="s">
         <v>192</v>
       </c>
@@ -20283,7 +21012,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
         <v>192</v>
       </c>
@@ -20321,7 +21050,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="92" t="s">
         <v>192</v>
       </c>
@@ -20359,7 +21088,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="92" t="s">
         <v>192</v>
       </c>
@@ -20397,7 +21126,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="92" t="s">
         <v>192</v>
       </c>
@@ -20435,7 +21164,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="92" t="s">
         <v>192</v>
       </c>
@@ -20473,7 +21202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="92" t="s">
         <v>192</v>
       </c>
@@ -20511,7 +21240,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="92" t="s">
         <v>192</v>
       </c>
@@ -20549,7 +21278,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="92" t="s">
         <v>192</v>
       </c>
@@ -20587,7 +21316,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="92" t="s">
         <v>192</v>
       </c>
@@ -20625,7 +21354,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="92" t="s">
         <v>192</v>
       </c>
@@ -20663,7 +21392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="92" t="s">
         <v>192</v>
       </c>
@@ -20701,7 +21430,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="92" t="s">
         <v>192</v>
       </c>
@@ -20739,7 +21468,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="92" t="s">
         <v>192</v>
       </c>
@@ -20777,7 +21506,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="92" t="s">
         <v>192</v>
       </c>
@@ -20815,7 +21544,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="92" t="s">
         <v>192</v>
       </c>
@@ -20853,7 +21582,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="92" t="s">
         <v>192</v>
       </c>
@@ -20891,7 +21620,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="92" t="s">
         <v>192</v>
       </c>
@@ -20929,7 +21658,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="92" t="s">
         <v>192</v>
       </c>
@@ -20967,7 +21696,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="92" t="s">
         <v>192</v>
       </c>
@@ -21005,7 +21734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="92" t="s">
         <v>192</v>
       </c>
@@ -21043,7 +21772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="92" t="s">
         <v>192</v>
       </c>
@@ -21081,7 +21810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="92" t="s">
         <v>192</v>
       </c>
@@ -21119,7 +21848,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="92" t="s">
         <v>192</v>
       </c>
@@ -21157,7 +21886,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="92" t="s">
         <v>192</v>
       </c>
@@ -21195,7 +21924,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="92" t="s">
         <v>192</v>
       </c>
@@ -21233,7 +21962,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="92" t="s">
         <v>192</v>
       </c>
@@ -21271,7 +22000,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="92" t="s">
         <v>192</v>
       </c>
@@ -21309,7 +22038,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="92" t="s">
         <v>192</v>
       </c>
@@ -21347,7 +22076,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="92" t="s">
         <v>192</v>
       </c>
@@ -21385,7 +22114,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="92" t="s">
         <v>192</v>
       </c>
@@ -21423,7 +22152,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="92" t="s">
         <v>192</v>
       </c>
@@ -21461,7 +22190,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="92" t="s">
         <v>192</v>
       </c>
@@ -21499,7 +22228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="92" t="s">
         <v>192</v>
       </c>
@@ -21537,7 +22266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="92" t="s">
         <v>192</v>
       </c>
@@ -21575,7 +22304,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="92" t="s">
         <v>192</v>
       </c>
@@ -21613,7 +22342,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="92" t="s">
         <v>192</v>
       </c>
@@ -21651,7 +22380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="92" t="s">
         <v>192</v>
       </c>
@@ -21719,22 +22448,22 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="106" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" style="106" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="108" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="108" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="108" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" style="106" customWidth="1"/>
+    <col min="2" max="2" width="74.7265625" style="106" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="108" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="108" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="108" customWidth="1"/>
     <col min="6" max="6" width="32" style="106" customWidth="1"/>
     <col min="7" max="7" width="18" style="106" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="106" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="106"/>
-    <col min="10" max="10" width="23.5703125" style="106" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="106"/>
+    <col min="8" max="8" width="19.1796875" style="106" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="106"/>
+    <col min="10" max="10" width="23.54296875" style="106" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
         <v>211</v>
       </c>
@@ -21746,18 +22475,18 @@
       <c r="E1" s="105"/>
       <c r="F1" s="104"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="107">
         <v>43355</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="109">
         <f>SUBTOTAL(3,A6:A190)</f>
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="110" t="s">
         <v>168</v>
       </c>
@@ -21777,7 +22506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="112" t="s">
         <v>216</v>
       </c>
@@ -21789,7 +22518,7 @@
       <c r="E6" s="114"/>
       <c r="F6" s="112"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="112" t="s">
         <v>218</v>
       </c>
@@ -21801,7 +22530,7 @@
       <c r="E7" s="114"/>
       <c r="F7" s="112"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="112" t="s">
         <v>219</v>
       </c>
@@ -21813,7 +22542,7 @@
       <c r="E8" s="114"/>
       <c r="F8" s="112"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="115" t="s">
         <v>59</v>
       </c>
@@ -21829,7 +22558,7 @@
       <c r="E9" s="117"/>
       <c r="F9" s="116"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="115" t="s">
         <v>222</v>
       </c>
@@ -21843,7 +22572,7 @@
       <c r="E10" s="120"/>
       <c r="F10" s="115"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="115" t="s">
         <v>225</v>
       </c>
@@ -21857,7 +22586,7 @@
       <c r="E11" s="120"/>
       <c r="F11" s="115"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="115" t="s">
         <v>227</v>
       </c>
@@ -21873,7 +22602,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="115" t="s">
         <v>230</v>
       </c>
@@ -21887,7 +22616,7 @@
       <c r="E13" s="120"/>
       <c r="F13" s="115"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="115" t="s">
         <v>232</v>
       </c>
@@ -21901,7 +22630,7 @@
       <c r="E14" s="118"/>
       <c r="F14" s="115"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="115" t="s">
         <v>235</v>
       </c>
@@ -21915,7 +22644,7 @@
       <c r="E15" s="118"/>
       <c r="F15" s="123"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="115" t="s">
         <v>238</v>
       </c>
@@ -21929,7 +22658,7 @@
       <c r="E16" s="118"/>
       <c r="F16" s="124"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="115" t="s">
         <v>241</v>
       </c>
@@ -21943,7 +22672,7 @@
       <c r="E17" s="118"/>
       <c r="F17" s="123"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="115" t="s">
         <v>243</v>
       </c>
@@ -21957,7 +22686,7 @@
       <c r="E18" s="118"/>
       <c r="F18" s="123"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="115" t="s">
         <v>245</v>
       </c>
@@ -21971,7 +22700,7 @@
       <c r="E19" s="118"/>
       <c r="F19" s="123"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="115" t="s">
         <v>247</v>
       </c>
@@ -21985,7 +22714,7 @@
       <c r="E20" s="118"/>
       <c r="F20" s="115"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="115" t="s">
         <v>249</v>
       </c>
@@ -21999,7 +22728,7 @@
       <c r="E21" s="118"/>
       <c r="F21" s="115"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="115" t="s">
         <v>251</v>
       </c>
@@ -22013,7 +22742,7 @@
       <c r="E22" s="126"/>
       <c r="F22" s="115"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="115" t="s">
         <v>253</v>
       </c>
@@ -22027,7 +22756,7 @@
       <c r="E23" s="118"/>
       <c r="F23" s="115"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="115" t="s">
         <v>255</v>
       </c>
@@ -22041,7 +22770,7 @@
       <c r="E24" s="118"/>
       <c r="F24" s="115"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="115" t="s">
         <v>257</v>
       </c>
@@ -22055,7 +22784,7 @@
       <c r="E25" s="118"/>
       <c r="F25" s="115"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="115" t="s">
         <v>259</v>
       </c>
@@ -22069,7 +22798,7 @@
       <c r="E26" s="118"/>
       <c r="F26" s="115"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="115" t="s">
         <v>261</v>
       </c>
@@ -22083,7 +22812,7 @@
       <c r="E27" s="118"/>
       <c r="F27" s="115"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="115" t="s">
         <v>263</v>
       </c>
@@ -22097,7 +22826,7 @@
       <c r="E28" s="118"/>
       <c r="F28" s="115"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="115" t="s">
         <v>265</v>
       </c>
@@ -22111,7 +22840,7 @@
       <c r="E29" s="118"/>
       <c r="F29" s="115"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="115" t="s">
         <v>34</v>
       </c>
@@ -22127,7 +22856,7 @@
       <c r="E30" s="118"/>
       <c r="F30" s="115"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="115" t="s">
         <v>269</v>
       </c>
@@ -22141,7 +22870,7 @@
       <c r="E31" s="118"/>
       <c r="F31" s="115"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="115" t="s">
         <v>271</v>
       </c>
@@ -22155,7 +22884,7 @@
       <c r="E32" s="118"/>
       <c r="F32" s="115"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="115" t="s">
         <v>273</v>
       </c>
@@ -22169,7 +22898,7 @@
       <c r="E33" s="118"/>
       <c r="F33" s="115"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="115" t="s">
         <v>275</v>
       </c>
@@ -22183,7 +22912,7 @@
       <c r="E34" s="118"/>
       <c r="F34" s="115"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="115" t="s">
         <v>277</v>
       </c>
@@ -22197,7 +22926,7 @@
       <c r="E35" s="118"/>
       <c r="F35" s="115"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="115" t="s">
         <v>279</v>
       </c>
@@ -22211,7 +22940,7 @@
       <c r="E36" s="118"/>
       <c r="F36" s="115"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="115" t="s">
         <v>281</v>
       </c>
@@ -22225,7 +22954,7 @@
       <c r="E37" s="118"/>
       <c r="F37" s="115"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="115" t="s">
         <v>60</v>
       </c>
@@ -22241,7 +22970,7 @@
       <c r="E38" s="126"/>
       <c r="F38" s="115"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="115" t="s">
         <v>284</v>
       </c>
@@ -22255,7 +22984,7 @@
       <c r="E39" s="118"/>
       <c r="F39" s="115"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="115" t="s">
         <v>286</v>
       </c>
@@ -22269,7 +22998,7 @@
       <c r="E40" s="118"/>
       <c r="F40" s="115"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="115" t="s">
         <v>288</v>
       </c>
@@ -22283,7 +23012,7 @@
       <c r="E41" s="118"/>
       <c r="F41" s="115"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="115" t="s">
         <v>290</v>
       </c>
@@ -22297,7 +23026,7 @@
       <c r="E42" s="118"/>
       <c r="F42" s="115"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="115" t="s">
         <v>292</v>
       </c>
@@ -22311,7 +23040,7 @@
       <c r="E43" s="118"/>
       <c r="F43" s="115"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="s">
         <v>294</v>
       </c>
@@ -22325,7 +23054,7 @@
       <c r="E44" s="118"/>
       <c r="F44" s="115"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="115" t="s">
         <v>296</v>
       </c>
@@ -22339,7 +23068,7 @@
       <c r="E45" s="118"/>
       <c r="F45" s="115"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="115" t="s">
         <v>298</v>
       </c>
@@ -22353,7 +23082,7 @@
       <c r="E46" s="118"/>
       <c r="F46" s="115"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="115" t="s">
         <v>300</v>
       </c>
@@ -22367,7 +23096,7 @@
       <c r="E47" s="118"/>
       <c r="F47" s="115"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="115" t="s">
         <v>302</v>
       </c>
@@ -22381,7 +23110,7 @@
       <c r="E48" s="118"/>
       <c r="F48" s="115"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="127" t="s">
         <v>304</v>
       </c>
@@ -22395,7 +23124,7 @@
       <c r="E49" s="128"/>
       <c r="F49" s="115"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="115" t="s">
         <v>307</v>
       </c>
@@ -22409,7 +23138,7 @@
       <c r="E50" s="118"/>
       <c r="F50" s="115"/>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="115" t="s">
         <v>150</v>
       </c>
@@ -22423,7 +23152,7 @@
       <c r="E51" s="120"/>
       <c r="F51" s="115"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="115" t="s">
         <v>149</v>
       </c>
@@ -22437,7 +23166,7 @@
       <c r="E52" s="118"/>
       <c r="F52" s="115"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="115" t="s">
         <v>312</v>
       </c>
@@ -22451,7 +23180,7 @@
       <c r="E53" s="120"/>
       <c r="F53" s="115"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="115" t="s">
         <v>315</v>
       </c>
@@ -22465,7 +23194,7 @@
       <c r="E54" s="120"/>
       <c r="F54" s="115"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="115" t="s">
         <v>317</v>
       </c>
@@ -22479,7 +23208,7 @@
       <c r="E55" s="118"/>
       <c r="F55" s="124"/>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="115" t="s">
         <v>319</v>
       </c>
@@ -22493,7 +23222,7 @@
       <c r="E56" s="120"/>
       <c r="F56" s="124"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="115" t="s">
         <v>322</v>
       </c>
@@ -22507,7 +23236,7 @@
       <c r="E57" s="120"/>
       <c r="F57" s="124"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="115" t="s">
         <v>180</v>
       </c>
@@ -22523,7 +23252,7 @@
       <c r="E58" s="118"/>
       <c r="F58" s="115"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="115" t="s">
         <v>181</v>
       </c>
@@ -22539,7 +23268,7 @@
       <c r="E59" s="118"/>
       <c r="F59" s="115"/>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="115" t="s">
         <v>326</v>
       </c>
@@ -22553,7 +23282,7 @@
       <c r="E60" s="120"/>
       <c r="F60" s="115"/>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="115" t="s">
         <v>179</v>
       </c>
@@ -22569,7 +23298,7 @@
       <c r="E61" s="120"/>
       <c r="F61" s="115"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="115" t="s">
         <v>329</v>
       </c>
@@ -22583,7 +23312,7 @@
       <c r="E62" s="118"/>
       <c r="F62" s="115"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="115" t="s">
         <v>331</v>
       </c>
@@ -22597,7 +23326,7 @@
       <c r="E63" s="118"/>
       <c r="F63" s="115"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="115" t="s">
         <v>334</v>
       </c>
@@ -22613,7 +23342,7 @@
       </c>
       <c r="F64" s="115"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="115" t="s">
         <v>337</v>
       </c>
@@ -22629,7 +23358,7 @@
       </c>
       <c r="F65" s="115"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="115" t="s">
         <v>339</v>
       </c>
@@ -22645,7 +23374,7 @@
       </c>
       <c r="F66" s="115"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="115" t="s">
         <v>341</v>
       </c>
@@ -22661,7 +23390,7 @@
       </c>
       <c r="F67" s="115"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="115" t="s">
         <v>343</v>
       </c>
@@ -22677,7 +23406,7 @@
       </c>
       <c r="F68" s="115"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="115" t="s">
         <v>345</v>
       </c>
@@ -22693,7 +23422,7 @@
       </c>
       <c r="F69" s="115"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="115" t="s">
         <v>347</v>
       </c>
@@ -22709,7 +23438,7 @@
       </c>
       <c r="F70" s="115"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="115" t="s">
         <v>349</v>
       </c>
@@ -22725,7 +23454,7 @@
       </c>
       <c r="F71" s="115"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="115" t="s">
         <v>351</v>
       </c>
@@ -22741,7 +23470,7 @@
       </c>
       <c r="F72" s="115"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="115" t="s">
         <v>353</v>
       </c>
@@ -22757,7 +23486,7 @@
       </c>
       <c r="F73" s="115"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="115" t="s">
         <v>355</v>
       </c>
@@ -22773,7 +23502,7 @@
       </c>
       <c r="F74" s="115"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="115" t="s">
         <v>357</v>
       </c>
@@ -22789,7 +23518,7 @@
       </c>
       <c r="F75" s="115"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="115" t="s">
         <v>359</v>
       </c>
@@ -22803,7 +23532,7 @@
       <c r="E76" s="118"/>
       <c r="F76" s="115"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="115" t="s">
         <v>361</v>
       </c>
@@ -22817,7 +23546,7 @@
       <c r="E77" s="118"/>
       <c r="F77" s="115"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="115" t="s">
         <v>363</v>
       </c>
@@ -22831,7 +23560,7 @@
       <c r="E78" s="118"/>
       <c r="F78" s="115"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="115" t="s">
         <v>365</v>
       </c>
@@ -22845,7 +23574,7 @@
       <c r="E79" s="118"/>
       <c r="F79" s="115"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="115" t="s">
         <v>367</v>
       </c>
@@ -22859,7 +23588,7 @@
       <c r="E80" s="126"/>
       <c r="F80" s="115"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="115" t="s">
         <v>369</v>
       </c>
@@ -22873,7 +23602,7 @@
       <c r="E81" s="118"/>
       <c r="F81" s="115"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="115" t="s">
         <v>371</v>
       </c>
@@ -22887,7 +23616,7 @@
       <c r="E82" s="118"/>
       <c r="F82" s="115"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="115" t="s">
         <v>373</v>
       </c>
@@ -22901,7 +23630,7 @@
       <c r="E83" s="118"/>
       <c r="F83" s="115"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="115" t="s">
         <v>376</v>
       </c>
@@ -22915,7 +23644,7 @@
       <c r="E84" s="118"/>
       <c r="F84" s="115"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="115" t="s">
         <v>378</v>
       </c>
@@ -22929,7 +23658,7 @@
       <c r="E85" s="118"/>
       <c r="F85" s="115"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="115" t="s">
         <v>381</v>
       </c>
@@ -22943,7 +23672,7 @@
       <c r="E86" s="118"/>
       <c r="F86" s="115"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="115" t="s">
         <v>383</v>
       </c>
@@ -22957,7 +23686,7 @@
       <c r="E87" s="118"/>
       <c r="F87" s="115"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="115" t="s">
         <v>385</v>
       </c>
@@ -22971,7 +23700,7 @@
       <c r="E88" s="118"/>
       <c r="F88" s="115"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="115" t="s">
         <v>387</v>
       </c>
@@ -22985,7 +23714,7 @@
       <c r="E89" s="118"/>
       <c r="F89" s="115"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="115" t="s">
         <v>389</v>
       </c>
@@ -22999,7 +23728,7 @@
       <c r="E90" s="118"/>
       <c r="F90" s="115"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="115" t="s">
         <v>391</v>
       </c>
@@ -23013,7 +23742,7 @@
       <c r="E91" s="118"/>
       <c r="F91" s="115"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="115" t="s">
         <v>393</v>
       </c>
@@ -23027,7 +23756,7 @@
       <c r="E92" s="118"/>
       <c r="F92" s="115"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="115" t="s">
         <v>395</v>
       </c>
@@ -23041,7 +23770,7 @@
       <c r="E93" s="118"/>
       <c r="F93" s="115"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="115" t="s">
         <v>397</v>
       </c>
@@ -23055,7 +23784,7 @@
       <c r="E94" s="118"/>
       <c r="F94" s="115"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="115" t="s">
         <v>399</v>
       </c>
@@ -23069,7 +23798,7 @@
       <c r="E95" s="118"/>
       <c r="F95" s="115"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="115" t="s">
         <v>401</v>
       </c>
@@ -23083,7 +23812,7 @@
       <c r="E96" s="118"/>
       <c r="F96" s="115"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="115" t="s">
         <v>403</v>
       </c>
@@ -23097,7 +23826,7 @@
       <c r="E97" s="118"/>
       <c r="F97" s="119"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="115" t="s">
         <v>405</v>
       </c>
@@ -23111,7 +23840,7 @@
       <c r="E98" s="118"/>
       <c r="F98" s="115"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="115" t="s">
         <v>407</v>
       </c>
@@ -23125,7 +23854,7 @@
       <c r="E99" s="118"/>
       <c r="F99" s="115"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="115" t="s">
         <v>409</v>
       </c>
@@ -23139,7 +23868,7 @@
       <c r="E100" s="118"/>
       <c r="F100" s="115"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="115" t="s">
         <v>412</v>
       </c>
@@ -23153,7 +23882,7 @@
       <c r="E101" s="118"/>
       <c r="F101" s="115"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="115" t="s">
         <v>414</v>
       </c>
@@ -23167,7 +23896,7 @@
       <c r="E102" s="120"/>
       <c r="F102" s="115"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="115" t="s">
         <v>416</v>
       </c>
@@ -23181,7 +23910,7 @@
       <c r="E103" s="120"/>
       <c r="F103" s="115"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="115" t="s">
         <v>418</v>
       </c>
@@ -23195,7 +23924,7 @@
       <c r="E104" s="120"/>
       <c r="F104" s="115"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="115" t="s">
         <v>420</v>
       </c>
@@ -23209,7 +23938,7 @@
       <c r="E105" s="120"/>
       <c r="F105" s="115"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="115" t="s">
         <v>422</v>
       </c>
@@ -23223,7 +23952,7 @@
       <c r="E106" s="120"/>
       <c r="F106" s="115"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="115" t="s">
         <v>424</v>
       </c>
@@ -23237,7 +23966,7 @@
       <c r="E107" s="120"/>
       <c r="F107" s="115"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="115" t="s">
         <v>426</v>
       </c>
@@ -23251,7 +23980,7 @@
       <c r="E108" s="120"/>
       <c r="F108" s="115"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="115" t="s">
         <v>428</v>
       </c>
@@ -23265,7 +23994,7 @@
       <c r="E109" s="120"/>
       <c r="F109" s="115"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="115" t="s">
         <v>430</v>
       </c>
@@ -23279,7 +24008,7 @@
       <c r="E110" s="120"/>
       <c r="F110" s="115"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="115" t="s">
         <v>432</v>
       </c>
@@ -23293,7 +24022,7 @@
       <c r="E111" s="120"/>
       <c r="F111" s="115"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="115" t="s">
         <v>434</v>
       </c>
@@ -23307,7 +24036,7 @@
       <c r="E112" s="120"/>
       <c r="F112" s="115"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="115" t="s">
         <v>436</v>
       </c>
@@ -23321,7 +24050,7 @@
       <c r="E113" s="120"/>
       <c r="F113" s="115"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="115" t="s">
         <v>438</v>
       </c>
@@ -23335,7 +24064,7 @@
       <c r="E114" s="120"/>
       <c r="F114" s="115"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="115" t="s">
         <v>440</v>
       </c>
@@ -23349,7 +24078,7 @@
       <c r="E115" s="120"/>
       <c r="F115" s="115"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="115" t="s">
         <v>443</v>
       </c>
@@ -23363,7 +24092,7 @@
       <c r="E116" s="120"/>
       <c r="F116" s="115"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="115" t="s">
         <v>445</v>
       </c>
@@ -23377,7 +24106,7 @@
       <c r="E117" s="120"/>
       <c r="F117" s="115"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="115" t="s">
         <v>447</v>
       </c>
@@ -23391,7 +24120,7 @@
       <c r="E118" s="120"/>
       <c r="F118" s="115"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="115" t="s">
         <v>449</v>
       </c>
@@ -23405,7 +24134,7 @@
       <c r="E119" s="120"/>
       <c r="F119" s="115"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="115" t="s">
         <v>451</v>
       </c>
@@ -23419,7 +24148,7 @@
       <c r="E120" s="120"/>
       <c r="F120" s="115"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="115" t="s">
         <v>453</v>
       </c>
@@ -23433,7 +24162,7 @@
       <c r="E121" s="120"/>
       <c r="F121" s="115"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="115" t="s">
         <v>455</v>
       </c>
@@ -23447,7 +24176,7 @@
       <c r="E122" s="120"/>
       <c r="F122" s="115"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="115" t="s">
         <v>457</v>
       </c>
@@ -23461,7 +24190,7 @@
       <c r="E123" s="120"/>
       <c r="F123" s="115"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="115" t="s">
         <v>459</v>
       </c>
@@ -23475,7 +24204,7 @@
       <c r="E124" s="120"/>
       <c r="F124" s="115"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="115" t="s">
         <v>462</v>
       </c>
@@ -23489,7 +24218,7 @@
       <c r="E125" s="120"/>
       <c r="F125" s="115"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="115" t="s">
         <v>465</v>
       </c>
@@ -23503,7 +24232,7 @@
       <c r="E126" s="120"/>
       <c r="F126" s="115"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="115" t="s">
         <v>467</v>
       </c>
@@ -23517,7 +24246,7 @@
       <c r="E127" s="120"/>
       <c r="F127" s="115"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="115" t="s">
         <v>469</v>
       </c>
@@ -23531,7 +24260,7 @@
       <c r="E128" s="120"/>
       <c r="F128" s="115"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="115" t="s">
         <v>471</v>
       </c>
@@ -23545,7 +24274,7 @@
       <c r="E129" s="120"/>
       <c r="F129" s="115"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="115" t="s">
         <v>473</v>
       </c>
@@ -23559,7 +24288,7 @@
       <c r="E130" s="120"/>
       <c r="F130" s="115"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="115" t="s">
         <v>475</v>
       </c>
@@ -23573,7 +24302,7 @@
       <c r="E131" s="120"/>
       <c r="F131" s="115"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="115" t="s">
         <v>477</v>
       </c>
@@ -23587,7 +24316,7 @@
       <c r="E132" s="120"/>
       <c r="F132" s="115"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="115" t="s">
         <v>479</v>
       </c>
@@ -23601,7 +24330,7 @@
       <c r="E133" s="120"/>
       <c r="F133" s="115"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="115" t="s">
         <v>481</v>
       </c>
@@ -23615,7 +24344,7 @@
       <c r="E134" s="120"/>
       <c r="F134" s="115"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="115" t="s">
         <v>484</v>
       </c>
@@ -23629,7 +24358,7 @@
       <c r="E135" s="120"/>
       <c r="F135" s="115"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="119" t="s">
         <v>486</v>
       </c>
@@ -23643,7 +24372,7 @@
       <c r="E136" s="120"/>
       <c r="F136" s="115"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="115" t="s">
         <v>488</v>
       </c>
@@ -23657,7 +24386,7 @@
       <c r="E137" s="120"/>
       <c r="F137" s="115"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="115" t="s">
         <v>490</v>
       </c>
@@ -23671,7 +24400,7 @@
       <c r="E138" s="120"/>
       <c r="F138" s="115"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="115" t="s">
         <v>492</v>
       </c>
@@ -23685,7 +24414,7 @@
       <c r="E139" s="120"/>
       <c r="F139" s="115"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="115" t="s">
         <v>494</v>
       </c>
@@ -23699,7 +24428,7 @@
       <c r="E140" s="120"/>
       <c r="F140" s="115"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="115" t="s">
         <v>496</v>
       </c>
@@ -23713,7 +24442,7 @@
       <c r="E141" s="120"/>
       <c r="F141" s="115"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="115" t="s">
         <v>498</v>
       </c>
@@ -23727,7 +24456,7 @@
       <c r="E142" s="120"/>
       <c r="F142" s="115"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="115" t="s">
         <v>501</v>
       </c>
@@ -23741,7 +24470,7 @@
       <c r="E143" s="120"/>
       <c r="F143" s="123"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="115" t="s">
         <v>503</v>
       </c>
@@ -23755,7 +24484,7 @@
       <c r="E144" s="120"/>
       <c r="F144" s="123"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="115" t="s">
         <v>154</v>
       </c>
@@ -23771,7 +24500,7 @@
       <c r="E145" s="120"/>
       <c r="F145" s="123"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="115" t="s">
         <v>506</v>
       </c>
@@ -23785,7 +24514,7 @@
       <c r="E146" s="120"/>
       <c r="F146" s="123"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="115" t="s">
         <v>508</v>
       </c>
@@ -23801,7 +24530,7 @@
       <c r="E147" s="120"/>
       <c r="F147" s="124"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="115" t="s">
         <v>510</v>
       </c>
@@ -23815,7 +24544,7 @@
       <c r="E148" s="120"/>
       <c r="F148" s="124"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="115" t="s">
         <v>512</v>
       </c>
@@ -23829,7 +24558,7 @@
       <c r="E149" s="120"/>
       <c r="F149" s="124"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="115" t="s">
         <v>514</v>
       </c>
@@ -23843,7 +24572,7 @@
       <c r="E150" s="120"/>
       <c r="F150" s="124"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="115" t="s">
         <v>516</v>
       </c>
@@ -23857,7 +24586,7 @@
       <c r="E151" s="120"/>
       <c r="F151" s="124"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="115" t="s">
         <v>518</v>
       </c>
@@ -23871,7 +24600,7 @@
       <c r="E152" s="120"/>
       <c r="F152" s="124"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="115" t="s">
         <v>520</v>
       </c>
@@ -23885,7 +24614,7 @@
       <c r="E153" s="120"/>
       <c r="F153" s="115"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="115" t="s">
         <v>522</v>
       </c>
@@ -23899,7 +24628,7 @@
       <c r="E154" s="120"/>
       <c r="F154" s="115"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="115" t="s">
         <v>524</v>
       </c>
@@ -23913,7 +24642,7 @@
       <c r="E155" s="120"/>
       <c r="F155" s="115"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="115" t="s">
         <v>526</v>
       </c>
@@ -23927,7 +24656,7 @@
       <c r="E156" s="120"/>
       <c r="F156" s="124"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="115" t="s">
         <v>528</v>
       </c>
@@ -23941,7 +24670,7 @@
       <c r="E157" s="120"/>
       <c r="F157" s="123"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="115" t="s">
         <v>147</v>
       </c>
@@ -23957,7 +24686,7 @@
       <c r="E158" s="120"/>
       <c r="F158" s="123"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="115" t="s">
         <v>532</v>
       </c>
@@ -23971,7 +24700,7 @@
       <c r="E159" s="120"/>
       <c r="F159" s="123"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="115" t="s">
         <v>534</v>
       </c>
@@ -23985,7 +24714,7 @@
       <c r="E160" s="120"/>
       <c r="F160" s="115"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="115" t="s">
         <v>536</v>
       </c>
@@ -23999,7 +24728,7 @@
       <c r="E161" s="120"/>
       <c r="F161" s="115"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="115" t="s">
         <v>538</v>
       </c>
@@ -24013,7 +24742,7 @@
       <c r="E162" s="120"/>
       <c r="F162" s="115"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="115" t="s">
         <v>540</v>
       </c>
@@ -24027,7 +24756,7 @@
       <c r="E163" s="120"/>
       <c r="F163" s="115"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="115" t="s">
         <v>156</v>
       </c>
@@ -24043,7 +24772,7 @@
       <c r="E164" s="120"/>
       <c r="F164" s="115"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="115" t="s">
         <v>543</v>
       </c>
@@ -24057,7 +24786,7 @@
       <c r="E165" s="120"/>
       <c r="F165" s="115"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="115" t="s">
         <v>545</v>
       </c>
@@ -24071,7 +24800,7 @@
       <c r="E166" s="120"/>
       <c r="F166" s="115"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="115" t="s">
         <v>547</v>
       </c>
@@ -24085,7 +24814,7 @@
       <c r="E167" s="120"/>
       <c r="F167" s="115"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="115" t="s">
         <v>549</v>
       </c>
@@ -24099,7 +24828,7 @@
       <c r="E168" s="120"/>
       <c r="F168" s="115"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="115" t="s">
         <v>551</v>
       </c>
@@ -24113,7 +24842,7 @@
       <c r="E169" s="120"/>
       <c r="F169" s="115"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="115" t="s">
         <v>553</v>
       </c>
@@ -24127,7 +24856,7 @@
       <c r="E170" s="120"/>
       <c r="F170" s="115"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="115" t="s">
         <v>555</v>
       </c>
@@ -24141,7 +24870,7 @@
       <c r="E171" s="120"/>
       <c r="F171" s="115"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="115" t="s">
         <v>158</v>
       </c>
@@ -24157,7 +24886,7 @@
       <c r="E172" s="120"/>
       <c r="F172" s="115"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="115" t="s">
         <v>558</v>
       </c>
@@ -24171,7 +24900,7 @@
       <c r="E173" s="120"/>
       <c r="F173" s="115"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="115" t="s">
         <v>560</v>
       </c>
@@ -24185,7 +24914,7 @@
       <c r="E174" s="120"/>
       <c r="F174" s="115"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="115" t="s">
         <v>562</v>
       </c>
@@ -24199,7 +24928,7 @@
       <c r="E175" s="120"/>
       <c r="F175" s="115"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="115" t="s">
         <v>564</v>
       </c>
@@ -24213,7 +24942,7 @@
       <c r="E176" s="120"/>
       <c r="F176" s="115"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="115" t="s">
         <v>566</v>
       </c>
@@ -24227,7 +24956,7 @@
       <c r="E177" s="120"/>
       <c r="F177" s="115"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="115" t="s">
         <v>178</v>
       </c>
@@ -24241,7 +24970,7 @@
       <c r="E178" s="120"/>
       <c r="F178" s="115"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="115" t="s">
         <v>569</v>
       </c>
@@ -24255,7 +24984,7 @@
       <c r="E179" s="120"/>
       <c r="F179" s="115"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="115" t="s">
         <v>155</v>
       </c>
@@ -24269,7 +24998,7 @@
       <c r="E180" s="120"/>
       <c r="F180" s="115"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="115" t="s">
         <v>572</v>
       </c>
@@ -24283,7 +25012,7 @@
       <c r="E181" s="120"/>
       <c r="F181" s="115"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="115" t="s">
         <v>574</v>
       </c>
@@ -24297,7 +25026,7 @@
       <c r="E182" s="120"/>
       <c r="F182" s="115"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="115" t="s">
         <v>576</v>
       </c>
@@ -24311,7 +25040,7 @@
       <c r="E183" s="120"/>
       <c r="F183" s="115"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="115" t="s">
         <v>578</v>
       </c>
@@ -24325,7 +25054,7 @@
       <c r="E184" s="120"/>
       <c r="F184" s="115"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="115" t="s">
         <v>580</v>
       </c>
@@ -24339,7 +25068,7 @@
       <c r="E185" s="120"/>
       <c r="F185" s="115"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="115" t="s">
         <v>582</v>
       </c>
@@ -24353,7 +25082,7 @@
       <c r="E186" s="120"/>
       <c r="F186" s="115"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="115" t="s">
         <v>584</v>
       </c>
@@ -24367,7 +25096,7 @@
       <c r="E187" s="120"/>
       <c r="F187" s="115"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="115" t="s">
         <v>157</v>
       </c>
@@ -24383,7 +25112,7 @@
       <c r="E188" s="120"/>
       <c r="F188" s="115"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="115" t="s">
         <v>587</v>
       </c>
@@ -24397,7 +25126,7 @@
       <c r="E189" s="120"/>
       <c r="F189" s="115"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="115" t="s">
         <v>589</v>
       </c>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78431374-C1CB-48EA-8008-67F172BCC4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42B856-8AE0-4986-91F3-34F5EBF3BCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53880" yWindow="5055" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1095" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="681">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -2212,15 +2212,9 @@
     <t>&gt;110 (100-120)</t>
   </si>
   <si>
-    <t>nt_att12</t>
-  </si>
-  <si>
     <t>&gt;1 (3-5)</t>
   </si>
   <si>
-    <t>nt_att123</t>
-  </si>
-  <si>
     <t>&gt;1 (8-10)</t>
   </si>
   <si>
@@ -2236,18 +2230,12 @@
     <t>&gt;17(19-23)</t>
   </si>
   <si>
-    <t>pi_att123</t>
-  </si>
-  <si>
     <t>&gt;15%(10-20)</t>
   </si>
   <si>
     <t>&gt;35%(30-40)</t>
   </si>
   <si>
-    <t>pi_att5</t>
-  </si>
-  <si>
     <t>&lt;70% (65-75)</t>
   </si>
   <si>
@@ -2257,9 +2245,6 @@
     <t>&lt;45% (40-50)</t>
   </si>
   <si>
-    <t>pt_att123</t>
-  </si>
-  <si>
     <t>&gt;50% (45-55)</t>
   </si>
   <si>
@@ -2287,9 +2272,6 @@
     <t>&gt;60% (65-75)</t>
   </si>
   <si>
-    <t>pi_att66a6b</t>
-  </si>
-  <si>
     <t>&lt;.5% (0-1)</t>
   </si>
   <si>
@@ -2302,30 +2284,18 @@
     <t>&gt;30% (25-35)</t>
   </si>
   <si>
-    <t>pi_att56a</t>
-  </si>
-  <si>
     <t>&lt;30% (4-8)</t>
   </si>
   <si>
-    <t>pi_att66a</t>
-  </si>
-  <si>
     <t>&lt;12% (9-15)</t>
   </si>
   <si>
     <t>&lt;8 (6-10)</t>
   </si>
   <si>
-    <t>pt_att12</t>
-  </si>
-  <si>
     <t>&gt;5% (3-7)</t>
   </si>
   <si>
-    <t>pi_dom01_att566a</t>
-  </si>
-  <si>
     <t>&lt;50% (45-55)</t>
   </si>
   <si>
@@ -2341,15 +2311,9 @@
     <t>&gt;.5 (0-1)</t>
   </si>
   <si>
-    <t>pt_att12346b</t>
-  </si>
-  <si>
     <t>&gt;40% (35-45)</t>
   </si>
   <si>
-    <t>pi_att12346b</t>
-  </si>
-  <si>
     <t>&lt;25% (20-30)</t>
   </si>
   <si>
@@ -2377,9 +2341,6 @@
     <t>&gt;20 (15-25)</t>
   </si>
   <si>
-    <t>pi_dom01_att4</t>
-  </si>
-  <si>
     <t>&lt;30 (35-45)</t>
   </si>
   <si>
@@ -2392,9 +2353,6 @@
     <t>&lt;2 (0-4)</t>
   </si>
   <si>
-    <t>pi_att12</t>
-  </si>
-  <si>
     <t>&gt;- (-)</t>
   </si>
   <si>
@@ -2404,21 +2362,12 @@
     <t>&gt;3 (1-5)</t>
   </si>
   <si>
-    <t>pt_att1236b</t>
-  </si>
-  <si>
     <t>&gt;13.5 (11-16)</t>
   </si>
   <si>
-    <t>pi_att1236b</t>
-  </si>
-  <si>
     <t>&gt;10 (7-13)</t>
   </si>
   <si>
-    <t>pi_dom01_att5</t>
-  </si>
-  <si>
     <t>&lt;10 (7-13)</t>
   </si>
   <si>
@@ -2468,6 +2417,36 @@
   </si>
   <si>
     <t>BCG_CT_2015</t>
+  </si>
+  <si>
+    <t>pi_BCG_att66a6b</t>
+  </si>
+  <si>
+    <t>pi_BCG_att56a</t>
+  </si>
+  <si>
+    <t>pi_BCG_att66a</t>
+  </si>
+  <si>
+    <t>pi_dom01_BCG_att566a</t>
+  </si>
+  <si>
+    <t>pt_BCG_att12346b</t>
+  </si>
+  <si>
+    <t>pi_BCG_att12346b</t>
+  </si>
+  <si>
+    <t>pi_dom01_BCG_att4</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1236b</t>
+  </si>
+  <si>
+    <t>pi_BCG_att1236b</t>
+  </si>
+  <si>
+    <t>pi_dom01_BCG_att5</t>
   </si>
 </sst>
 </file>
@@ -3358,16 +3337,40 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3385,35 +3388,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4235,10 +4214,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B17" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C17" s="145" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8915,10 +8894,10 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B110" sqref="B110:B230"/>
+      <selection pane="bottomRight" activeCell="E136" sqref="E136:E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13081,13 +13060,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B110" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C110" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D110" s="137">
         <v>4</v>
@@ -13116,13 +13095,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B111" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C111" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D111" s="137">
         <v>2</v>
@@ -13151,13 +13130,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B112" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C112" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D112" s="137">
         <v>3</v>
@@ -13186,13 +13165,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B113" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C113" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D113" s="137">
         <v>2</v>
@@ -13221,22 +13200,22 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B114" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C114" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D114" s="137">
         <v>2</v>
       </c>
       <c r="E114" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="F114" s="137" t="s">
         <v>602</v>
-      </c>
-      <c r="F114" s="137" t="s">
-        <v>603</v>
       </c>
       <c r="G114" s="138" t="s">
         <v>143</v>
@@ -13256,22 +13235,22 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B115" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C115" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D115" s="137">
         <v>2</v>
       </c>
       <c r="E115" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="F115" s="137" t="s">
         <v>602</v>
-      </c>
-      <c r="F115" s="137" t="s">
-        <v>603</v>
       </c>
       <c r="G115" s="138" t="s">
         <v>143</v>
@@ -13291,22 +13270,22 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B116" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C116" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D116" s="137">
         <v>3</v>
       </c>
       <c r="E116" s="138" t="s">
-        <v>604</v>
+        <v>506</v>
       </c>
       <c r="F116" s="137" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G116" s="138" t="s">
         <v>143</v>
@@ -13326,22 +13305,22 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B117" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C117" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D117" s="137">
         <v>4</v>
       </c>
       <c r="E117" s="138" t="s">
-        <v>604</v>
+        <v>506</v>
       </c>
       <c r="F117" s="137" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G117" s="138" t="s">
         <v>143</v>
@@ -13361,13 +13340,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B118" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C118" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D118" s="137">
         <v>2</v>
@@ -13376,7 +13355,7 @@
         <v>34</v>
       </c>
       <c r="F118" s="137" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G118" s="138" t="s">
         <v>143</v>
@@ -13396,13 +13375,13 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B119" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C119" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D119" s="137">
         <v>5</v>
@@ -13411,7 +13390,7 @@
         <v>34</v>
       </c>
       <c r="F119" s="137" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G119" s="138" t="s">
         <v>143</v>
@@ -13431,13 +13410,13 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B120" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C120" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D120" s="137">
         <v>4</v>
@@ -13446,7 +13425,7 @@
         <v>34</v>
       </c>
       <c r="F120" s="137" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G120" s="138" t="s">
         <v>143</v>
@@ -13466,13 +13445,13 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B121" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C121" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D121" s="137">
         <v>3</v>
@@ -13481,7 +13460,7 @@
         <v>34</v>
       </c>
       <c r="F121" s="137" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G121" s="138" t="s">
         <v>143</v>
@@ -13501,13 +13480,13 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B122" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C122" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D122" s="137">
         <v>2</v>
@@ -13516,7 +13495,7 @@
         <v>34</v>
       </c>
       <c r="F122" s="137" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G122" s="138" t="s">
         <v>143</v>
@@ -13536,22 +13515,22 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B123" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C123" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D123" s="137">
         <v>4</v>
       </c>
       <c r="E123" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F123" s="137" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G123" s="138" t="s">
         <v>143</v>
@@ -13571,22 +13550,22 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B124" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C124" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D124" s="137">
         <v>3</v>
       </c>
       <c r="E124" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F124" s="137" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G124" s="138" t="s">
         <v>143</v>
@@ -13606,22 +13585,22 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B125" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C125" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D125" s="137">
         <v>2</v>
       </c>
       <c r="E125" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F125" s="137" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G125" s="138" t="s">
         <v>143</v>
@@ -13641,22 +13620,22 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B126" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C126" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D126" s="137">
         <v>4</v>
       </c>
       <c r="E126" s="138" t="s">
-        <v>613</v>
+        <v>555</v>
       </c>
       <c r="F126" s="137" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G126" s="138" t="s">
         <v>145</v>
@@ -13676,22 +13655,22 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B127" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C127" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D127" s="137">
         <v>2</v>
       </c>
       <c r="E127" s="138" t="s">
-        <v>613</v>
+        <v>555</v>
       </c>
       <c r="F127" s="137" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G127" s="138" t="s">
         <v>145</v>
@@ -13711,22 +13690,22 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B128" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C128" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D128" s="137">
         <v>3</v>
       </c>
       <c r="E128" s="138" t="s">
-        <v>613</v>
+        <v>555</v>
       </c>
       <c r="F128" s="137" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G128" s="138" t="s">
         <v>145</v>
@@ -13746,22 +13725,22 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B129" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C129" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D129" s="137">
         <v>2</v>
       </c>
       <c r="E129" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F129" s="137" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G129" s="138" t="s">
         <v>143</v>
@@ -13781,22 +13760,22 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B130" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C130" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D130" s="137">
         <v>2</v>
       </c>
       <c r="E130" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F130" s="137" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G130" s="138" t="s">
         <v>143</v>
@@ -13816,13 +13795,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B131" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C131" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D131" s="139">
         <v>2</v>
@@ -13846,27 +13825,27 @@
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B132" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C132" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D132" s="139">
         <v>2</v>
       </c>
       <c r="E132" s="140" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F132" s="141" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G132" s="140" t="s">
         <v>143</v>
@@ -13881,18 +13860,18 @@
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B133" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C133" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D133" s="139">
         <v>2</v>
@@ -13901,7 +13880,7 @@
         <v>34</v>
       </c>
       <c r="F133" s="141" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G133" s="140" t="s">
         <v>143</v>
@@ -13916,27 +13895,27 @@
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B134" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C134" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D134" s="139">
         <v>2</v>
       </c>
       <c r="E134" s="140" t="s">
-        <v>613</v>
+        <v>555</v>
       </c>
       <c r="F134" s="141" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G134" s="140" t="s">
         <v>145</v>
@@ -13951,27 +13930,27 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B135" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C135" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D135" s="139">
         <v>2</v>
       </c>
       <c r="E135" s="140" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="F135" s="141" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G135" s="140" t="s">
         <v>143</v>
@@ -13986,18 +13965,18 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B136" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C136" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D136" s="137">
         <v>1</v>
@@ -14006,7 +13985,7 @@
         <v>34</v>
       </c>
       <c r="F136" s="142" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G136" s="138" t="s">
         <v>145</v>
@@ -14026,22 +14005,22 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B137" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C137" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D137" s="137">
         <v>1</v>
       </c>
       <c r="E137" s="138" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F137" s="142" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G137" s="138" t="s">
         <v>143</v>
@@ -14061,22 +14040,22 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B138" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C138" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D138" s="137">
         <v>1</v>
       </c>
       <c r="E138" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F138" s="142" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G138" s="138" t="s">
         <v>143</v>
@@ -14096,22 +14075,22 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B139" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C139" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D139" s="137">
         <v>1</v>
       </c>
       <c r="E139" s="138" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="F139" s="142" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G139" s="138" t="s">
         <v>145</v>
@@ -14131,13 +14110,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B140" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C140" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D140" s="137">
         <v>2</v>
@@ -14146,7 +14125,7 @@
         <v>34</v>
       </c>
       <c r="F140" s="142" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G140" s="138" t="s">
         <v>145</v>
@@ -14166,22 +14145,22 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B141" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C141" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D141" s="137">
         <v>2</v>
       </c>
       <c r="E141" s="138" t="s">
+        <v>619</v>
+      </c>
+      <c r="F141" s="142" t="s">
         <v>624</v>
-      </c>
-      <c r="F141" s="142" t="s">
-        <v>630</v>
       </c>
       <c r="G141" s="138" t="s">
         <v>143</v>
@@ -14201,22 +14180,22 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B142" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C142" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D142" s="137">
         <v>2</v>
       </c>
       <c r="E142" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F142" s="142" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G142" s="138" t="s">
         <v>143</v>
@@ -14236,22 +14215,22 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B143" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C143" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D143" s="137">
         <v>2</v>
       </c>
       <c r="E143" s="138" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="F143" s="142" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G143" s="138" t="s">
         <v>145</v>
@@ -14271,22 +14250,22 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B144" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C144" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D144" s="137">
         <v>2</v>
       </c>
       <c r="E144" s="138" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="F144" s="142" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="G144" s="138" t="s">
         <v>145</v>
@@ -14306,13 +14285,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B145" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C145" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D145" s="137">
         <v>3</v>
@@ -14321,7 +14300,7 @@
         <v>34</v>
       </c>
       <c r="F145" s="142" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G145" s="138" t="s">
         <v>145</v>
@@ -14341,22 +14320,22 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B146" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C146" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D146" s="137">
         <v>3</v>
       </c>
       <c r="E146" s="138" t="s">
-        <v>637</v>
+        <v>566</v>
       </c>
       <c r="F146" s="142" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G146" s="138" t="s">
         <v>143</v>
@@ -14376,22 +14355,22 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B147" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C147" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D147" s="137">
         <v>3</v>
       </c>
       <c r="E147" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F147" s="142" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G147" s="138" t="s">
         <v>143</v>
@@ -14411,22 +14390,22 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B148" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C148" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D148" s="137">
         <v>3</v>
       </c>
       <c r="E148" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F148" s="142" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G148" s="138" t="s">
         <v>143</v>
@@ -14446,22 +14425,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B149" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C149" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D149" s="137">
         <v>3</v>
       </c>
       <c r="E149" s="138" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="F149" s="142" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G149" s="138" t="s">
         <v>145</v>
@@ -14481,22 +14460,22 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B150" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C150" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D150" s="137">
         <v>3</v>
       </c>
       <c r="E150" s="138" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="F150" s="142" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G150" s="138" t="s">
         <v>145</v>
@@ -14516,13 +14495,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B151" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C151" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D151" s="137">
         <v>4</v>
@@ -14531,7 +14510,7 @@
         <v>34</v>
       </c>
       <c r="F151" s="142" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G151" s="138" t="s">
         <v>143</v>
@@ -14551,22 +14530,22 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B152" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C152" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D152" s="137">
         <v>4</v>
       </c>
       <c r="E152" s="138" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="F152" s="142" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="G152" s="138" t="s">
         <v>143</v>
@@ -14582,22 +14561,22 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B153" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C153" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D153" s="137">
         <v>4</v>
       </c>
       <c r="E153" s="138" t="s">
-        <v>604</v>
+        <v>506</v>
       </c>
       <c r="F153" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G153" s="138" t="s">
         <v>143</v>
@@ -14617,22 +14596,22 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B154" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C154" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D154" s="137">
         <v>4</v>
       </c>
       <c r="E154" s="138" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="F154" s="142" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G154" s="138" t="s">
         <v>143</v>
@@ -14652,22 +14631,22 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B155" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C155" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D155" s="137">
         <v>4</v>
       </c>
       <c r="E155" s="138" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="F155" s="142" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G155" s="138" t="s">
         <v>143</v>
@@ -14687,22 +14666,22 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B156" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C156" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D156" s="137">
         <v>4</v>
       </c>
       <c r="E156" s="138" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="F156" s="142" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G156" s="138" t="s">
         <v>145</v>
@@ -14722,22 +14701,22 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B157" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C157" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D157" s="137">
         <v>5</v>
       </c>
       <c r="E157" s="138" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="F157" s="142" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G157" s="138" t="s">
         <v>143</v>
@@ -14757,22 +14736,22 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B158" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C158" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D158" s="137">
         <v>5</v>
       </c>
       <c r="E158" s="138" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="F158" s="142" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G158" s="138" t="s">
         <v>143</v>
@@ -14792,13 +14771,13 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B159" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C159" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D159" s="142">
         <v>4</v>
@@ -14807,7 +14786,7 @@
         <v>34</v>
       </c>
       <c r="F159" s="142" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="G159" s="144" t="s">
         <v>143</v>
@@ -14822,27 +14801,27 @@
         <v>1</v>
       </c>
       <c r="L159" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B160" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C160" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D160" s="142">
         <v>4</v>
       </c>
       <c r="E160" s="138" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="F160" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G160" s="144" t="s">
         <v>143</v>
@@ -14857,18 +14836,18 @@
         <v>1</v>
       </c>
       <c r="L160" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B161" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C161" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D161" s="137">
         <v>1</v>
@@ -14877,7 +14856,7 @@
         <v>34</v>
       </c>
       <c r="F161" s="142" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G161" s="138" t="s">
         <v>143</v>
@@ -14897,22 +14876,22 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B162" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C162" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D162" s="137">
         <v>1</v>
       </c>
       <c r="E162" s="138" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="F162" s="142" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="G162" s="138" t="s">
         <v>143</v>
@@ -14932,22 +14911,22 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B163" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C163" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D163" s="137">
         <v>1</v>
       </c>
       <c r="E163" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F163" s="142" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G163" s="138" t="s">
         <v>143</v>
@@ -14967,22 +14946,22 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B164" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C164" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D164" s="137">
         <v>1</v>
       </c>
       <c r="E164" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F164" s="142" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G164" s="138" t="s">
         <v>143</v>
@@ -15002,22 +14981,22 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B165" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C165" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D165" s="137">
         <v>1</v>
       </c>
       <c r="E165" s="138" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="F165" s="142" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G165" s="138" t="s">
         <v>145</v>
@@ -15037,22 +15016,22 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B166" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C166" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D166" s="137">
         <v>1</v>
       </c>
       <c r="E166" s="138" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="F166" s="142" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G166" s="138" t="s">
         <v>145</v>
@@ -15072,13 +15051,13 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B167" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C167" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D167" s="137">
         <v>2</v>
@@ -15087,7 +15066,7 @@
         <v>34</v>
       </c>
       <c r="F167" s="142" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G167" s="138" t="s">
         <v>143</v>
@@ -15107,22 +15086,22 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B168" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C168" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D168" s="137">
         <v>2</v>
       </c>
       <c r="E168" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F168" s="142" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="G168" s="138" t="s">
         <v>143</v>
@@ -15142,22 +15121,22 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B169" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C169" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D169" s="137">
         <v>2</v>
       </c>
       <c r="E169" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F169" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G169" s="138" t="s">
         <v>143</v>
@@ -15177,22 +15156,22 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B170" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C170" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D170" s="137">
         <v>2</v>
       </c>
       <c r="E170" s="138" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="F170" s="142" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G170" s="138" t="s">
         <v>145</v>
@@ -15212,22 +15191,22 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B171" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C171" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D171" s="137">
         <v>2</v>
       </c>
       <c r="E171" s="138" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F171" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G171" s="138" t="s">
         <v>143</v>
@@ -15247,22 +15226,22 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B172" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C172" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D172" s="137">
         <v>2</v>
       </c>
       <c r="E172" s="138" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F172" s="142" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="G172" s="138" t="s">
         <v>145</v>
@@ -15282,22 +15261,22 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B173" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C173" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D173" s="137">
         <v>2</v>
       </c>
       <c r="E173" s="138" t="s">
-        <v>662</v>
+        <v>536</v>
       </c>
       <c r="F173" s="142" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="G173" s="138" t="s">
         <v>143</v>
@@ -15313,13 +15292,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B174" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C174" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D174" s="137">
         <v>3</v>
@@ -15328,7 +15307,7 @@
         <v>34</v>
       </c>
       <c r="F174" s="142" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G174" s="138" t="s">
         <v>143</v>
@@ -15348,22 +15327,22 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B175" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C175" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D175" s="137">
         <v>3</v>
       </c>
       <c r="E175" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F175" s="142" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G175" s="138" t="s">
         <v>143</v>
@@ -15383,22 +15362,22 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B176" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C176" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D176" s="137">
         <v>3</v>
       </c>
       <c r="E176" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F176" s="142" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="G176" s="138" t="s">
         <v>143</v>
@@ -15418,22 +15397,22 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B177" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C177" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D177" s="137">
         <v>3</v>
       </c>
       <c r="E177" s="138" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="F177" s="142" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="G177" s="138" t="s">
         <v>143</v>
@@ -15453,22 +15432,22 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B178" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C178" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D178" s="137">
         <v>3</v>
       </c>
       <c r="E178" s="138" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="F178" s="142" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G178" s="138" t="s">
         <v>143</v>
@@ -15488,22 +15467,22 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B179" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C179" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D179" s="137">
         <v>3</v>
       </c>
       <c r="E179" s="138" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F179" s="142" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G179" s="138" t="s">
         <v>145</v>
@@ -15523,22 +15502,22 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B180" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C180" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D180" s="137">
         <v>3</v>
       </c>
       <c r="E180" s="138" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F180" s="142" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="G180" s="138" t="s">
         <v>145</v>
@@ -15558,22 +15537,22 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B181" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C181" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D181" s="137">
         <v>3</v>
       </c>
       <c r="E181" s="138" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="F181" s="142" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G181" s="138" t="s">
         <v>143</v>
@@ -15593,22 +15572,22 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B182" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C182" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D182" s="137">
         <v>4</v>
       </c>
       <c r="E182" s="138" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="F182" s="142" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="G182" s="138" t="s">
         <v>143</v>
@@ -15628,22 +15607,22 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B183" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C183" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D183" s="137">
         <v>4</v>
       </c>
       <c r="E183" s="138" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="F183" s="142" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="G183" s="138" t="s">
         <v>143</v>
@@ -15663,22 +15642,22 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B184" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C184" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D184" s="137">
         <v>4</v>
       </c>
       <c r="E184" s="138" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F184" s="142" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="G184" s="138" t="s">
         <v>145</v>
@@ -15698,22 +15677,22 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B185" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C185" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D185" s="137">
         <v>4</v>
       </c>
       <c r="E185" s="138" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="F185" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G185" s="138" t="s">
         <v>143</v>
@@ -15733,22 +15712,22 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B186" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C186" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D186" s="137">
         <v>4</v>
       </c>
       <c r="E186" s="138" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="F186" s="142" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="G186" s="138" t="s">
         <v>145</v>
@@ -15768,13 +15747,13 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B187" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C187" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D187" s="137">
         <v>5</v>
@@ -15783,7 +15762,7 @@
         <v>34</v>
       </c>
       <c r="F187" s="142" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G187" s="138" t="s">
         <v>143</v>
@@ -15803,22 +15782,22 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B188" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C188" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D188" s="137">
         <v>5</v>
       </c>
       <c r="E188" s="138" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="F188" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G188" s="138" t="s">
         <v>143</v>
@@ -15838,22 +15817,22 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B189" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C189" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D189" s="137">
         <v>5</v>
       </c>
       <c r="E189" s="138" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="F189" s="142" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G189" s="138" t="s">
         <v>143</v>
@@ -15873,22 +15852,22 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B190" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C190" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D190" s="137">
         <v>2</v>
       </c>
       <c r="E190" s="138" t="s">
+        <v>677</v>
+      </c>
+      <c r="F190" s="142" t="s">
         <v>657</v>
-      </c>
-      <c r="F190" s="142" t="s">
-        <v>674</v>
       </c>
       <c r="G190" s="138" t="s">
         <v>145</v>
@@ -15903,27 +15882,27 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B191" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C191" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D191" s="137">
         <v>2</v>
       </c>
       <c r="E191" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F191" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G191" s="138" t="s">
         <v>143</v>
@@ -15938,27 +15917,27 @@
         <v>1</v>
       </c>
       <c r="L191" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B192" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C192" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D192" s="137">
         <v>2</v>
       </c>
       <c r="E192" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F192" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G192" s="138" t="s">
         <v>143</v>
@@ -15973,27 +15952,27 @@
         <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B193" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C193" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D193" s="137">
         <v>2</v>
       </c>
       <c r="E193" s="138" t="s">
-        <v>662</v>
+        <v>536</v>
       </c>
       <c r="F193" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G193" s="138" t="s">
         <v>143</v>
@@ -16008,18 +15987,18 @@
         <v>1</v>
       </c>
       <c r="L193" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B194" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C194" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D194" s="137">
         <v>2</v>
@@ -16028,7 +16007,7 @@
         <v>34</v>
       </c>
       <c r="F194" s="142" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G194" s="138" t="s">
         <v>143</v>
@@ -16043,27 +16022,27 @@
         <v>1</v>
       </c>
       <c r="L194" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B195" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C195" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D195" s="137">
         <v>2</v>
       </c>
       <c r="E195" s="138" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F195" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G195" s="138" t="s">
         <v>143</v>
@@ -16078,18 +16057,18 @@
         <v>1</v>
       </c>
       <c r="L195" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B196" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C196" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D196" s="137">
         <v>1</v>
@@ -16098,7 +16077,7 @@
         <v>34</v>
       </c>
       <c r="F196" s="142" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G196" s="138" t="s">
         <v>143</v>
@@ -16118,22 +16097,22 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B197" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C197" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D197" s="137">
         <v>1</v>
       </c>
       <c r="E197" s="138" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="F197" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G197" s="138" t="s">
         <v>143</v>
@@ -16153,22 +16132,22 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B198" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C198" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D198" s="137">
         <v>1</v>
       </c>
       <c r="E198" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F198" s="142" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G198" s="138" t="s">
         <v>143</v>
@@ -16188,22 +16167,22 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B199" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C199" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D199" s="137">
         <v>1</v>
       </c>
       <c r="E199" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F199" s="142" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G199" s="138" t="s">
         <v>143</v>
@@ -16223,22 +16202,22 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B200" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C200" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D200" s="137">
         <v>1</v>
       </c>
       <c r="E200" s="138" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="F200" s="142" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G200" s="138" t="s">
         <v>145</v>
@@ -16258,22 +16237,22 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B201" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C201" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D201" s="137">
         <v>1</v>
       </c>
       <c r="E201" s="138" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="F201" s="142" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G201" s="138" t="s">
         <v>145</v>
@@ -16293,13 +16272,13 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B202" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C202" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D202" s="137">
         <v>2</v>
@@ -16308,7 +16287,7 @@
         <v>34</v>
       </c>
       <c r="F202" s="142" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G202" s="138" t="s">
         <v>143</v>
@@ -16328,22 +16307,22 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B203" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C203" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D203" s="137">
         <v>2</v>
       </c>
       <c r="E203" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F203" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G203" s="138" t="s">
         <v>143</v>
@@ -16363,22 +16342,22 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B204" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C204" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D204" s="137">
         <v>2</v>
       </c>
       <c r="E204" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F204" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G204" s="138" t="s">
         <v>143</v>
@@ -16398,22 +16377,22 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B205" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C205" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D205" s="137">
         <v>2</v>
       </c>
       <c r="E205" s="138" t="s">
+        <v>677</v>
+      </c>
+      <c r="F205" s="142" t="s">
         <v>657</v>
-      </c>
-      <c r="F205" s="142" t="s">
-        <v>674</v>
       </c>
       <c r="G205" s="138" t="s">
         <v>145</v>
@@ -16433,22 +16412,22 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B206" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C206" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D206" s="137">
         <v>2</v>
       </c>
       <c r="E206" s="138" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F206" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G206" s="138" t="s">
         <v>143</v>
@@ -16468,22 +16447,22 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B207" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C207" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D207" s="137">
         <v>2</v>
       </c>
       <c r="E207" s="138" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F207" s="142" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="G207" s="138" t="s">
         <v>145</v>
@@ -16503,22 +16482,22 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B208" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C208" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D208" s="137">
         <v>2</v>
       </c>
       <c r="E208" s="138" t="s">
-        <v>662</v>
+        <v>536</v>
       </c>
       <c r="F208" s="142" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="G208" s="138" t="s">
         <v>143</v>
@@ -16534,13 +16513,13 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B209" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C209" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D209" s="137">
         <v>3</v>
@@ -16549,7 +16528,7 @@
         <v>34</v>
       </c>
       <c r="F209" s="142" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G209" s="138" t="s">
         <v>143</v>
@@ -16569,22 +16548,22 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B210" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C210" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D210" s="137">
         <v>3</v>
       </c>
       <c r="E210" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F210" s="142" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G210" s="138" t="s">
         <v>143</v>
@@ -16604,22 +16583,22 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B211" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C211" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D211" s="137">
         <v>3</v>
       </c>
       <c r="E211" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F211" s="142" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="G211" s="138" t="s">
         <v>143</v>
@@ -16639,22 +16618,22 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B212" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C212" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D212" s="137">
         <v>3</v>
       </c>
       <c r="E212" s="138" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="F212" s="142" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="G212" s="138" t="s">
         <v>143</v>
@@ -16674,22 +16653,22 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B213" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C213" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D213" s="137">
         <v>3</v>
       </c>
       <c r="E213" s="138" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="F213" s="142" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G213" s="138" t="s">
         <v>143</v>
@@ -16709,22 +16688,22 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B214" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C214" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D214" s="137">
         <v>3</v>
       </c>
       <c r="E214" s="138" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F214" s="142" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G214" s="138" t="s">
         <v>145</v>
@@ -16744,22 +16723,22 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B215" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C215" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D215" s="137">
         <v>3</v>
       </c>
       <c r="E215" s="138" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F215" s="142" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="G215" s="138" t="s">
         <v>145</v>
@@ -16779,22 +16758,22 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B216" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C216" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D216" s="137">
         <v>3</v>
       </c>
       <c r="E216" s="138" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="F216" s="142" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G216" s="138" t="s">
         <v>143</v>
@@ -16814,22 +16793,22 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B217" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C217" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D217" s="137">
         <v>4</v>
       </c>
       <c r="E217" s="138" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="F217" s="142" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="G217" s="138" t="s">
         <v>143</v>
@@ -16849,22 +16828,22 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B218" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C218" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D218" s="137">
         <v>4</v>
       </c>
       <c r="E218" s="138" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="F218" s="142" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="G218" s="138" t="s">
         <v>143</v>
@@ -16884,22 +16863,22 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B219" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C219" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D219" s="137">
         <v>4</v>
       </c>
       <c r="E219" s="138" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F219" s="142" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="G219" s="138" t="s">
         <v>145</v>
@@ -16919,22 +16898,22 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B220" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C220" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D220" s="137">
         <v>4</v>
       </c>
       <c r="E220" s="138" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="F220" s="142" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G220" s="138" t="s">
         <v>143</v>
@@ -16954,22 +16933,22 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B221" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C221" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D221" s="137">
         <v>4</v>
       </c>
       <c r="E221" s="138" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="F221" s="142" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="G221" s="138" t="s">
         <v>145</v>
@@ -16989,13 +16968,13 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B222" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C222" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D222" s="137">
         <v>5</v>
@@ -17004,7 +16983,7 @@
         <v>34</v>
       </c>
       <c r="F222" s="142" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G222" s="138" t="s">
         <v>143</v>
@@ -17024,22 +17003,22 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B223" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C223" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D223" s="137">
         <v>5</v>
       </c>
       <c r="E223" s="138" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="F223" s="142" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G223" s="138" t="s">
         <v>143</v>
@@ -17059,22 +17038,22 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B224" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C224" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D224" s="137">
         <v>5</v>
       </c>
       <c r="E224" s="138" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="F224" s="142" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G224" s="138" t="s">
         <v>143</v>
@@ -17094,22 +17073,22 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B225" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C225" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D225" s="137">
         <v>2</v>
       </c>
       <c r="E225" s="138" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="F225" s="142" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="G225" s="138" t="s">
         <v>145</v>
@@ -17124,27 +17103,27 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B226" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C226" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D226" s="137">
         <v>2</v>
       </c>
       <c r="E226" s="138" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="F226" s="142" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G226" s="138" t="s">
         <v>143</v>
@@ -17159,27 +17138,27 @@
         <v>1</v>
       </c>
       <c r="L226" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B227" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C227" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D227" s="137">
         <v>2</v>
       </c>
       <c r="E227" s="138" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="F227" s="142" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G227" s="138" t="s">
         <v>143</v>
@@ -17194,27 +17173,27 @@
         <v>1</v>
       </c>
       <c r="L227" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B228" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C228" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D228" s="137">
         <v>2</v>
       </c>
       <c r="E228" s="138" t="s">
-        <v>662</v>
+        <v>536</v>
       </c>
       <c r="F228" s="142" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G228" s="138" t="s">
         <v>143</v>
@@ -17229,18 +17208,18 @@
         <v>1</v>
       </c>
       <c r="L228" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B229" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C229" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D229" s="137">
         <v>2</v>
@@ -17249,7 +17228,7 @@
         <v>34</v>
       </c>
       <c r="F229" s="142" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="G229" s="138" t="s">
         <v>143</v>
@@ -17264,27 +17243,27 @@
         <v>1</v>
       </c>
       <c r="L229" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B230" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C230" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D230" s="137">
         <v>2</v>
       </c>
       <c r="E230" s="138" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F230" s="142" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G230" s="138" t="s">
         <v>143</v>
@@ -17299,7 +17278,7 @@
         <v>1</v>
       </c>
       <c r="L230" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -17425,12 +17404,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -17449,10 +17428,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="164"/>
+      <c r="C7" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="156"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -17471,10 +17450,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="165"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -17519,10 +17498,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -17541,10 +17520,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="164"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -17563,10 +17542,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="164"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -17585,10 +17564,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="164"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -17607,10 +17586,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="149"/>
+      <c r="D14" s="157"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -17631,10 +17610,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="149"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -17649,12 +17628,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="56" x14ac:dyDescent="0.35">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -17674,10 +17653,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="148"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -17688,10 +17667,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="147"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -17710,10 +17689,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="148"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -17732,10 +17711,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="148"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -17754,10 +17733,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="162"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -17802,10 +17781,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="150"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -17864,19 +17843,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="160" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="156" t="s">
+      <c r="E26" s="147" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -17890,13 +17869,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="151"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="152"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="157"/>
+      <c r="E27" s="148"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -17908,12 +17887,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -17932,10 +17911,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="148"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -17954,10 +17933,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="C30" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="162"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -17997,10 +17976,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="148" t="s">
+      <c r="C33" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="152"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18010,10 +17989,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="150"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -18040,19 +18019,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="150"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="155" t="s">
+      <c r="A37" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -18062,10 +18041,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="161"/>
+      <c r="D38" s="153"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="168" x14ac:dyDescent="0.35">
@@ -18075,10 +18054,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="148" t="s">
+      <c r="C39" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="148"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -18090,10 +18069,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="148" t="s">
+      <c r="C40" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="148"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -18103,10 +18082,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="148"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="70" x14ac:dyDescent="0.35">
@@ -18116,16 +18095,32 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="148"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -18142,22 +18137,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42B856-8AE0-4986-91F3-34F5EBF3BCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C1DE2-6B7C-458F-AE01-C0EE1089239B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1095" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2263,9 +2263,6 @@
     <t>&lt;5 (3-7)</t>
   </si>
   <si>
-    <t>pi_Trout_Brook_Wild</t>
-  </si>
-  <si>
     <t>&gt;60 (55-65)</t>
   </si>
   <si>
@@ -2447,6 +2444,9 @@
   </si>
   <si>
     <t>pi_dom01_BCG_att5</t>
+  </si>
+  <si>
+    <t>pi_brooktrout_wild</t>
   </si>
 </sst>
 </file>
@@ -3337,40 +3337,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3388,11 +3364,35 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4214,10 +4214,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>663</v>
+      </c>
+      <c r="B17" t="s">
         <v>664</v>
-      </c>
-      <c r="B17" t="s">
-        <v>665</v>
       </c>
       <c r="C17" s="145" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8894,10 +8894,10 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E136" sqref="E136:E230"/>
+      <selection pane="bottomRight" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13060,13 +13060,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D110" s="137">
         <v>4</v>
@@ -13095,13 +13095,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B111" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C111" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D111" s="137">
         <v>2</v>
@@ -13130,13 +13130,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B112" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C112" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D112" s="137">
         <v>3</v>
@@ -13165,13 +13165,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D113" s="137">
         <v>2</v>
@@ -13200,13 +13200,13 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B114" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C114" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D114" s="137">
         <v>2</v>
@@ -13235,13 +13235,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B115" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C115" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D115" s="137">
         <v>2</v>
@@ -13270,13 +13270,13 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B116" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C116" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D116" s="137">
         <v>3</v>
@@ -13305,13 +13305,13 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B117" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C117" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D117" s="137">
         <v>4</v>
@@ -13340,13 +13340,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D118" s="137">
         <v>2</v>
@@ -13375,13 +13375,13 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B119" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C119" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D119" s="137">
         <v>5</v>
@@ -13410,13 +13410,13 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B120" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C120" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D120" s="137">
         <v>4</v>
@@ -13445,13 +13445,13 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B121" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C121" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D121" s="137">
         <v>3</v>
@@ -13480,13 +13480,13 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B122" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C122" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D122" s="137">
         <v>2</v>
@@ -13515,13 +13515,13 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D123" s="137">
         <v>4</v>
@@ -13550,13 +13550,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B124" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C124" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D124" s="137">
         <v>3</v>
@@ -13585,13 +13585,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B125" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C125" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D125" s="137">
         <v>2</v>
@@ -13620,13 +13620,13 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B126" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C126" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D126" s="137">
         <v>4</v>
@@ -13655,13 +13655,13 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B127" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C127" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D127" s="137">
         <v>2</v>
@@ -13690,13 +13690,13 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B128" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C128" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D128" s="137">
         <v>3</v>
@@ -13725,13 +13725,13 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B129" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C129" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D129" s="137">
         <v>2</v>
@@ -13760,13 +13760,13 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B130" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C130" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D130" s="137">
         <v>2</v>
@@ -13795,13 +13795,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B131" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C131" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D131" s="139">
         <v>2</v>
@@ -13830,13 +13830,13 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B132" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C132" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D132" s="139">
         <v>2</v>
@@ -13865,13 +13865,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B133" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C133" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D133" s="139">
         <v>2</v>
@@ -13900,13 +13900,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B134" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C134" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D134" s="139">
         <v>2</v>
@@ -13935,13 +13935,13 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B135" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C135" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D135" s="139">
         <v>2</v>
@@ -13970,13 +13970,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B136" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C136" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D136" s="137">
         <v>1</v>
@@ -14005,22 +14005,22 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B137" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C137" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D137" s="137">
         <v>1</v>
       </c>
       <c r="E137" s="138" t="s">
+        <v>680</v>
+      </c>
+      <c r="F137" s="142" t="s">
         <v>619</v>
-      </c>
-      <c r="F137" s="142" t="s">
-        <v>620</v>
       </c>
       <c r="G137" s="138" t="s">
         <v>143</v>
@@ -14040,13 +14040,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B138" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C138" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D138" s="137">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>540</v>
       </c>
       <c r="F138" s="142" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G138" s="138" t="s">
         <v>143</v>
@@ -14075,22 +14075,22 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>669</v>
+      </c>
+      <c r="B139" t="s">
+        <v>666</v>
+      </c>
+      <c r="C139" t="s">
+        <v>666</v>
+      </c>
+      <c r="D139" s="137">
+        <v>1</v>
+      </c>
+      <c r="E139" s="138" t="s">
         <v>670</v>
       </c>
-      <c r="B139" t="s">
-        <v>667</v>
-      </c>
-      <c r="C139" t="s">
-        <v>667</v>
-      </c>
-      <c r="D139" s="137">
-        <v>1</v>
-      </c>
-      <c r="E139" s="138" t="s">
-        <v>671</v>
-      </c>
       <c r="F139" s="142" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G139" s="138" t="s">
         <v>145</v>
@@ -14110,13 +14110,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B140" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C140" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D140" s="137">
         <v>2</v>
@@ -14125,7 +14125,7 @@
         <v>34</v>
       </c>
       <c r="F140" s="142" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G140" s="138" t="s">
         <v>145</v>
@@ -14145,22 +14145,22 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B141" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C141" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D141" s="137">
         <v>2</v>
       </c>
       <c r="E141" s="138" t="s">
-        <v>619</v>
+        <v>680</v>
       </c>
       <c r="F141" s="142" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G141" s="138" t="s">
         <v>143</v>
@@ -14180,13 +14180,13 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B142" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C142" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D142" s="137">
         <v>2</v>
@@ -14195,7 +14195,7 @@
         <v>540</v>
       </c>
       <c r="F142" s="142" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G142" s="138" t="s">
         <v>143</v>
@@ -14215,22 +14215,22 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B143" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C143" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D143" s="137">
         <v>2</v>
       </c>
       <c r="E143" s="138" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F143" s="142" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G143" s="138" t="s">
         <v>145</v>
@@ -14250,22 +14250,22 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B144" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C144" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D144" s="137">
         <v>2</v>
       </c>
       <c r="E144" s="138" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F144" s="142" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G144" s="138" t="s">
         <v>145</v>
@@ -14285,13 +14285,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B145" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C145" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D145" s="137">
         <v>3</v>
@@ -14300,7 +14300,7 @@
         <v>34</v>
       </c>
       <c r="F145" s="142" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G145" s="138" t="s">
         <v>145</v>
@@ -14320,13 +14320,13 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B146" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C146" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D146" s="137">
         <v>3</v>
@@ -14335,7 +14335,7 @@
         <v>566</v>
       </c>
       <c r="F146" s="142" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G146" s="138" t="s">
         <v>143</v>
@@ -14355,13 +14355,13 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B147" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C147" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D147" s="137">
         <v>3</v>
@@ -14370,7 +14370,7 @@
         <v>569</v>
       </c>
       <c r="F147" s="142" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G147" s="138" t="s">
         <v>143</v>
@@ -14390,13 +14390,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B148" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C148" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D148" s="137">
         <v>3</v>
@@ -14405,7 +14405,7 @@
         <v>540</v>
       </c>
       <c r="F148" s="142" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G148" s="138" t="s">
         <v>143</v>
@@ -14425,22 +14425,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B149" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C149" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D149" s="137">
         <v>3</v>
       </c>
       <c r="E149" s="138" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F149" s="142" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G149" s="138" t="s">
         <v>145</v>
@@ -14460,22 +14460,22 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B150" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C150" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D150" s="137">
         <v>3</v>
       </c>
       <c r="E150" s="138" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F150" s="142" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G150" s="138" t="s">
         <v>145</v>
@@ -14495,13 +14495,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B151" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C151" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D151" s="137">
         <v>4</v>
@@ -14510,7 +14510,7 @@
         <v>34</v>
       </c>
       <c r="F151" s="142" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G151" s="138" t="s">
         <v>143</v>
@@ -14530,13 +14530,13 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B152" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C152" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D152" s="137">
         <v>4</v>
@@ -14545,7 +14545,7 @@
         <v>503</v>
       </c>
       <c r="F152" s="142" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G152" s="138" t="s">
         <v>143</v>
@@ -14561,13 +14561,13 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B153" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C153" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D153" s="137">
         <v>4</v>
@@ -14576,7 +14576,7 @@
         <v>506</v>
       </c>
       <c r="F153" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G153" s="138" t="s">
         <v>143</v>
@@ -14596,22 +14596,22 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B154" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C154" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D154" s="137">
         <v>4</v>
       </c>
       <c r="E154" s="138" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F154" s="142" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G154" s="138" t="s">
         <v>143</v>
@@ -14631,22 +14631,22 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B155" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C155" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D155" s="137">
         <v>4</v>
       </c>
       <c r="E155" s="138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F155" s="142" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G155" s="138" t="s">
         <v>143</v>
@@ -14666,22 +14666,22 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B156" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C156" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D156" s="137">
         <v>4</v>
       </c>
       <c r="E156" s="138" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F156" s="142" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G156" s="138" t="s">
         <v>145</v>
@@ -14701,22 +14701,22 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B157" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C157" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D157" s="137">
         <v>5</v>
       </c>
       <c r="E157" s="138" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F157" s="142" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G157" s="138" t="s">
         <v>143</v>
@@ -14736,22 +14736,22 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B158" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C158" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D158" s="137">
         <v>5</v>
       </c>
       <c r="E158" s="138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F158" s="142" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G158" s="138" t="s">
         <v>143</v>
@@ -14771,13 +14771,13 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D159" s="142">
         <v>4</v>
@@ -14786,7 +14786,7 @@
         <v>34</v>
       </c>
       <c r="F159" s="142" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G159" s="144" t="s">
         <v>143</v>
@@ -14806,13 +14806,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B160" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C160" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D160" s="142">
         <v>4</v>
@@ -14821,7 +14821,7 @@
         <v>503</v>
       </c>
       <c r="F160" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G160" s="144" t="s">
         <v>143</v>
@@ -14841,13 +14841,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B161" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C161" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D161" s="137">
         <v>1</v>
@@ -14856,7 +14856,7 @@
         <v>34</v>
       </c>
       <c r="F161" s="142" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G161" s="138" t="s">
         <v>143</v>
@@ -14876,13 +14876,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B162" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C162" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D162" s="137">
         <v>1</v>
@@ -14891,7 +14891,7 @@
         <v>503</v>
       </c>
       <c r="F162" s="142" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G162" s="138" t="s">
         <v>143</v>
@@ -14911,13 +14911,13 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B163" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C163" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D163" s="137">
         <v>1</v>
@@ -14926,7 +14926,7 @@
         <v>569</v>
       </c>
       <c r="F163" s="142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G163" s="138" t="s">
         <v>143</v>
@@ -14946,13 +14946,13 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B164" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C164" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D164" s="137">
         <v>1</v>
@@ -14961,7 +14961,7 @@
         <v>540</v>
       </c>
       <c r="F164" s="142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G164" s="138" t="s">
         <v>143</v>
@@ -14981,19 +14981,19 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B165" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C165" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D165" s="137">
         <v>1</v>
       </c>
       <c r="E165" s="138" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F165" s="142" t="s">
         <v>618</v>
@@ -15016,22 +15016,22 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>669</v>
+      </c>
+      <c r="B166" t="s">
+        <v>667</v>
+      </c>
+      <c r="C166" t="s">
+        <v>667</v>
+      </c>
+      <c r="D166" s="137">
+        <v>1</v>
+      </c>
+      <c r="E166" s="138" t="s">
         <v>670</v>
       </c>
-      <c r="B166" t="s">
-        <v>668</v>
-      </c>
-      <c r="C166" t="s">
-        <v>668</v>
-      </c>
-      <c r="D166" s="137">
-        <v>1</v>
-      </c>
-      <c r="E166" s="138" t="s">
-        <v>671</v>
-      </c>
       <c r="F166" s="142" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G166" s="138" t="s">
         <v>145</v>
@@ -15051,13 +15051,13 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B167" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C167" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D167" s="137">
         <v>2</v>
@@ -15066,7 +15066,7 @@
         <v>34</v>
       </c>
       <c r="F167" s="142" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G167" s="138" t="s">
         <v>143</v>
@@ -15086,13 +15086,13 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B168" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C168" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D168" s="137">
         <v>2</v>
@@ -15101,7 +15101,7 @@
         <v>569</v>
       </c>
       <c r="F168" s="142" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G168" s="138" t="s">
         <v>143</v>
@@ -15121,13 +15121,13 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B169" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C169" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D169" s="137">
         <v>2</v>
@@ -15136,7 +15136,7 @@
         <v>540</v>
       </c>
       <c r="F169" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G169" s="138" t="s">
         <v>143</v>
@@ -15156,22 +15156,22 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B170" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C170" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D170" s="137">
         <v>2</v>
       </c>
       <c r="E170" s="138" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F170" s="142" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G170" s="138" t="s">
         <v>145</v>
@@ -15191,22 +15191,22 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B171" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C171" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D171" s="137">
         <v>2</v>
       </c>
       <c r="E171" s="138" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F171" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G171" s="138" t="s">
         <v>143</v>
@@ -15226,22 +15226,22 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B172" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C172" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D172" s="137">
         <v>2</v>
       </c>
       <c r="E172" s="138" t="s">
+        <v>646</v>
+      </c>
+      <c r="F172" s="142" t="s">
         <v>647</v>
-      </c>
-      <c r="F172" s="142" t="s">
-        <v>648</v>
       </c>
       <c r="G172" s="138" t="s">
         <v>145</v>
@@ -15261,13 +15261,13 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B173" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C173" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D173" s="137">
         <v>2</v>
@@ -15276,7 +15276,7 @@
         <v>536</v>
       </c>
       <c r="F173" s="142" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G173" s="138" t="s">
         <v>143</v>
@@ -15292,13 +15292,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B174" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C174" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D174" s="137">
         <v>3</v>
@@ -15307,7 +15307,7 @@
         <v>34</v>
       </c>
       <c r="F174" s="142" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G174" s="138" t="s">
         <v>143</v>
@@ -15327,13 +15327,13 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B175" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C175" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D175" s="137">
         <v>3</v>
@@ -15342,7 +15342,7 @@
         <v>569</v>
       </c>
       <c r="F175" s="142" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G175" s="138" t="s">
         <v>143</v>
@@ -15362,13 +15362,13 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B176" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C176" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D176" s="137">
         <v>3</v>
@@ -15377,7 +15377,7 @@
         <v>540</v>
       </c>
       <c r="F176" s="142" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G176" s="138" t="s">
         <v>143</v>
@@ -15397,22 +15397,22 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B177" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C177" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D177" s="137">
         <v>3</v>
       </c>
       <c r="E177" s="138" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F177" s="142" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G177" s="138" t="s">
         <v>143</v>
@@ -15432,22 +15432,22 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B178" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C178" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D178" s="137">
         <v>3</v>
       </c>
       <c r="E178" s="138" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F178" s="142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G178" s="138" t="s">
         <v>143</v>
@@ -15467,19 +15467,19 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B179" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C179" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D179" s="137">
         <v>3</v>
       </c>
       <c r="E179" s="138" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F179" s="142" t="s">
         <v>618</v>
@@ -15502,22 +15502,22 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B180" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C180" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D180" s="137">
         <v>3</v>
       </c>
       <c r="E180" s="138" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F180" s="142" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G180" s="138" t="s">
         <v>145</v>
@@ -15537,22 +15537,22 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B181" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C181" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D181" s="137">
         <v>3</v>
       </c>
       <c r="E181" s="138" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F181" s="142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G181" s="138" t="s">
         <v>143</v>
@@ -15572,22 +15572,22 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B182" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C182" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D182" s="137">
         <v>4</v>
       </c>
       <c r="E182" s="138" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F182" s="142" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G182" s="138" t="s">
         <v>143</v>
@@ -15607,22 +15607,22 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B183" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C183" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D183" s="137">
         <v>4</v>
       </c>
       <c r="E183" s="138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F183" s="142" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G183" s="138" t="s">
         <v>143</v>
@@ -15642,22 +15642,22 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B184" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C184" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D184" s="137">
         <v>4</v>
       </c>
       <c r="E184" s="138" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F184" s="142" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G184" s="138" t="s">
         <v>145</v>
@@ -15677,22 +15677,22 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B185" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C185" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D185" s="137">
         <v>4</v>
       </c>
       <c r="E185" s="138" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F185" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G185" s="138" t="s">
         <v>143</v>
@@ -15712,22 +15712,22 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B186" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C186" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D186" s="137">
         <v>4</v>
       </c>
       <c r="E186" s="138" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F186" s="142" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G186" s="138" t="s">
         <v>145</v>
@@ -15747,13 +15747,13 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B187" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C187" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D187" s="137">
         <v>5</v>
@@ -15762,7 +15762,7 @@
         <v>34</v>
       </c>
       <c r="F187" s="142" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G187" s="138" t="s">
         <v>143</v>
@@ -15782,22 +15782,22 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B188" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C188" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D188" s="137">
         <v>5</v>
       </c>
       <c r="E188" s="138" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F188" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G188" s="138" t="s">
         <v>143</v>
@@ -15817,22 +15817,22 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B189" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C189" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D189" s="137">
         <v>5</v>
       </c>
       <c r="E189" s="138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F189" s="142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G189" s="138" t="s">
         <v>143</v>
@@ -15852,22 +15852,22 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B190" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C190" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D190" s="137">
         <v>2</v>
       </c>
       <c r="E190" s="138" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F190" s="142" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G190" s="138" t="s">
         <v>145</v>
@@ -15887,13 +15887,13 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B191" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C191" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D191" s="137">
         <v>2</v>
@@ -15902,7 +15902,7 @@
         <v>569</v>
       </c>
       <c r="F191" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G191" s="138" t="s">
         <v>143</v>
@@ -15922,13 +15922,13 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B192" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C192" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D192" s="137">
         <v>2</v>
@@ -15937,7 +15937,7 @@
         <v>540</v>
       </c>
       <c r="F192" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G192" s="138" t="s">
         <v>143</v>
@@ -15957,13 +15957,13 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B193" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C193" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D193" s="137">
         <v>2</v>
@@ -15972,7 +15972,7 @@
         <v>536</v>
       </c>
       <c r="F193" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G193" s="138" t="s">
         <v>143</v>
@@ -15992,13 +15992,13 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B194" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C194" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D194" s="137">
         <v>2</v>
@@ -16007,7 +16007,7 @@
         <v>34</v>
       </c>
       <c r="F194" s="142" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G194" s="138" t="s">
         <v>143</v>
@@ -16027,22 +16027,22 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B195" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C195" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D195" s="137">
         <v>2</v>
       </c>
       <c r="E195" s="138" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F195" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G195" s="138" t="s">
         <v>143</v>
@@ -16062,13 +16062,13 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B196" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C196" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D196" s="137">
         <v>1</v>
@@ -16077,7 +16077,7 @@
         <v>34</v>
       </c>
       <c r="F196" s="142" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G196" s="138" t="s">
         <v>143</v>
@@ -16097,13 +16097,13 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B197" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C197" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D197" s="137">
         <v>1</v>
@@ -16112,7 +16112,7 @@
         <v>503</v>
       </c>
       <c r="F197" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G197" s="138" t="s">
         <v>143</v>
@@ -16132,13 +16132,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B198" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C198" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D198" s="137">
         <v>1</v>
@@ -16147,7 +16147,7 @@
         <v>569</v>
       </c>
       <c r="F198" s="142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G198" s="138" t="s">
         <v>143</v>
@@ -16167,13 +16167,13 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B199" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C199" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D199" s="137">
         <v>1</v>
@@ -16182,7 +16182,7 @@
         <v>540</v>
       </c>
       <c r="F199" s="142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G199" s="138" t="s">
         <v>143</v>
@@ -16202,19 +16202,19 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B200" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C200" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D200" s="137">
         <v>1</v>
       </c>
       <c r="E200" s="138" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F200" s="142" t="s">
         <v>618</v>
@@ -16237,22 +16237,22 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>669</v>
+      </c>
+      <c r="B201" t="s">
+        <v>668</v>
+      </c>
+      <c r="C201" t="s">
+        <v>668</v>
+      </c>
+      <c r="D201" s="137">
+        <v>1</v>
+      </c>
+      <c r="E201" s="138" t="s">
         <v>670</v>
       </c>
-      <c r="B201" t="s">
-        <v>669</v>
-      </c>
-      <c r="C201" t="s">
-        <v>669</v>
-      </c>
-      <c r="D201" s="137">
-        <v>1</v>
-      </c>
-      <c r="E201" s="138" t="s">
-        <v>671</v>
-      </c>
       <c r="F201" s="142" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G201" s="138" t="s">
         <v>145</v>
@@ -16272,13 +16272,13 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B202" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C202" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D202" s="137">
         <v>2</v>
@@ -16287,7 +16287,7 @@
         <v>34</v>
       </c>
       <c r="F202" s="142" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G202" s="138" t="s">
         <v>143</v>
@@ -16307,13 +16307,13 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B203" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C203" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D203" s="137">
         <v>2</v>
@@ -16322,7 +16322,7 @@
         <v>569</v>
       </c>
       <c r="F203" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G203" s="138" t="s">
         <v>143</v>
@@ -16342,13 +16342,13 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B204" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C204" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D204" s="137">
         <v>2</v>
@@ -16357,7 +16357,7 @@
         <v>540</v>
       </c>
       <c r="F204" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G204" s="138" t="s">
         <v>143</v>
@@ -16377,22 +16377,22 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B205" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C205" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D205" s="137">
         <v>2</v>
       </c>
       <c r="E205" s="138" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F205" s="142" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G205" s="138" t="s">
         <v>145</v>
@@ -16412,22 +16412,22 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B206" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C206" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D206" s="137">
         <v>2</v>
       </c>
       <c r="E206" s="138" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F206" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G206" s="138" t="s">
         <v>143</v>
@@ -16447,22 +16447,22 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B207" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C207" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D207" s="137">
         <v>2</v>
       </c>
       <c r="E207" s="138" t="s">
+        <v>646</v>
+      </c>
+      <c r="F207" s="142" t="s">
         <v>647</v>
-      </c>
-      <c r="F207" s="142" t="s">
-        <v>648</v>
       </c>
       <c r="G207" s="138" t="s">
         <v>145</v>
@@ -16482,13 +16482,13 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B208" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C208" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D208" s="137">
         <v>2</v>
@@ -16497,7 +16497,7 @@
         <v>536</v>
       </c>
       <c r="F208" s="142" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G208" s="138" t="s">
         <v>143</v>
@@ -16513,13 +16513,13 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B209" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C209" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D209" s="137">
         <v>3</v>
@@ -16528,7 +16528,7 @@
         <v>34</v>
       </c>
       <c r="F209" s="142" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G209" s="138" t="s">
         <v>143</v>
@@ -16548,13 +16548,13 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B210" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C210" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D210" s="137">
         <v>3</v>
@@ -16563,7 +16563,7 @@
         <v>569</v>
       </c>
       <c r="F210" s="142" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G210" s="138" t="s">
         <v>143</v>
@@ -16583,13 +16583,13 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B211" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C211" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D211" s="137">
         <v>3</v>
@@ -16598,7 +16598,7 @@
         <v>540</v>
       </c>
       <c r="F211" s="142" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G211" s="138" t="s">
         <v>143</v>
@@ -16618,22 +16618,22 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B212" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C212" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D212" s="137">
         <v>3</v>
       </c>
       <c r="E212" s="138" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F212" s="142" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G212" s="138" t="s">
         <v>143</v>
@@ -16653,22 +16653,22 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B213" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C213" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D213" s="137">
         <v>3</v>
       </c>
       <c r="E213" s="138" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F213" s="142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G213" s="138" t="s">
         <v>143</v>
@@ -16688,19 +16688,19 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B214" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C214" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D214" s="137">
         <v>3</v>
       </c>
       <c r="E214" s="138" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F214" s="142" t="s">
         <v>618</v>
@@ -16723,22 +16723,22 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B215" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C215" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D215" s="137">
         <v>3</v>
       </c>
       <c r="E215" s="138" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F215" s="142" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G215" s="138" t="s">
         <v>145</v>
@@ -16758,22 +16758,22 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B216" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C216" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D216" s="137">
         <v>3</v>
       </c>
       <c r="E216" s="138" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F216" s="142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G216" s="138" t="s">
         <v>143</v>
@@ -16793,22 +16793,22 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B217" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C217" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D217" s="137">
         <v>4</v>
       </c>
       <c r="E217" s="138" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F217" s="142" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G217" s="138" t="s">
         <v>143</v>
@@ -16828,22 +16828,22 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B218" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C218" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D218" s="137">
         <v>4</v>
       </c>
       <c r="E218" s="138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F218" s="142" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G218" s="138" t="s">
         <v>143</v>
@@ -16863,22 +16863,22 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B219" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C219" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D219" s="137">
         <v>4</v>
       </c>
       <c r="E219" s="138" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F219" s="142" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G219" s="138" t="s">
         <v>145</v>
@@ -16898,22 +16898,22 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B220" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C220" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D220" s="137">
         <v>4</v>
       </c>
       <c r="E220" s="138" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F220" s="142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G220" s="138" t="s">
         <v>143</v>
@@ -16933,22 +16933,22 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B221" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C221" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D221" s="137">
         <v>4</v>
       </c>
       <c r="E221" s="138" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F221" s="142" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G221" s="138" t="s">
         <v>145</v>
@@ -16968,13 +16968,13 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B222" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C222" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D222" s="137">
         <v>5</v>
@@ -16983,7 +16983,7 @@
         <v>34</v>
       </c>
       <c r="F222" s="142" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G222" s="138" t="s">
         <v>143</v>
@@ -17003,22 +17003,22 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B223" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C223" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D223" s="137">
         <v>5</v>
       </c>
       <c r="E223" s="138" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F223" s="142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G223" s="138" t="s">
         <v>143</v>
@@ -17038,22 +17038,22 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B224" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C224" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D224" s="137">
         <v>5</v>
       </c>
       <c r="E224" s="138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F224" s="142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G224" s="138" t="s">
         <v>143</v>
@@ -17073,22 +17073,22 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B225" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C225" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D225" s="137">
         <v>2</v>
       </c>
       <c r="E225" s="138" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F225" s="142" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G225" s="138" t="s">
         <v>145</v>
@@ -17108,13 +17108,13 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B226" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C226" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D226" s="137">
         <v>2</v>
@@ -17123,7 +17123,7 @@
         <v>569</v>
       </c>
       <c r="F226" s="142" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G226" s="138" t="s">
         <v>143</v>
@@ -17143,13 +17143,13 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B227" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C227" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D227" s="137">
         <v>2</v>
@@ -17158,7 +17158,7 @@
         <v>540</v>
       </c>
       <c r="F227" s="142" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G227" s="138" t="s">
         <v>143</v>
@@ -17178,13 +17178,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B228" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C228" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D228" s="137">
         <v>2</v>
@@ -17193,7 +17193,7 @@
         <v>536</v>
       </c>
       <c r="F228" s="142" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G228" s="138" t="s">
         <v>143</v>
@@ -17213,13 +17213,13 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B229" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C229" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D229" s="137">
         <v>2</v>
@@ -17228,7 +17228,7 @@
         <v>34</v>
       </c>
       <c r="F229" s="142" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G229" s="138" t="s">
         <v>143</v>
@@ -17248,22 +17248,22 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B230" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C230" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D230" s="137">
         <v>2</v>
       </c>
       <c r="E230" s="138" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F230" s="142" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G230" s="138" t="s">
         <v>143</v>
@@ -17404,12 +17404,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -17428,10 +17428,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="156"/>
+      <c r="C7" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="164"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -17450,10 +17450,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -17498,10 +17498,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -17520,10 +17520,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -17542,10 +17542,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -17564,10 +17564,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -17586,10 +17586,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="157"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -17610,10 +17610,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -17628,12 +17628,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="56" x14ac:dyDescent="0.35">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -17653,10 +17653,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="152"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -17667,10 +17667,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="165" t="s">
+      <c r="C18" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="165"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -17689,10 +17689,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="152"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -17711,10 +17711,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="152"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -17733,10 +17733,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -17781,10 +17781,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="164"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -17843,19 +17843,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="152" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="147" t="s">
+      <c r="E26" s="156" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -17869,13 +17869,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="159"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="160"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="152"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="148"/>
+      <c r="E27" s="157"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -17887,12 +17887,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -17911,10 +17911,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="152" t="s">
+      <c r="C29" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="152"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -17933,10 +17933,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="162"/>
+      <c r="D30" s="154"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -17976,10 +17976,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="152" t="s">
+      <c r="C33" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="152"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17989,10 +17989,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="164" t="s">
+      <c r="C34" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="164"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -18019,19 +18019,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="164" t="s">
+      <c r="C36" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="164"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -18041,10 +18041,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="153"/>
+      <c r="D38" s="161"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="168" x14ac:dyDescent="0.35">
@@ -18054,10 +18054,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="152" t="s">
+      <c r="C39" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="152"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -18069,10 +18069,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="152" t="s">
+      <c r="C40" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="152"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -18082,10 +18082,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="152" t="s">
+      <c r="C41" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="152"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="70" x14ac:dyDescent="0.35">
@@ -18095,32 +18095,16 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="152" t="s">
+      <c r="C42" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="152"/>
+      <c r="D42" s="148"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -18137,6 +18121,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C1DE2-6B7C-458F-AE01-C0EE1089239B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCE2216-CA7D-4B71-9EC2-AF5331C98B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1095" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53880" yWindow="5055" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="682">
   <si>
     <t>Number of total taxa</t>
   </si>
@@ -2447,6 +2447,9 @@
   </si>
   <si>
     <t>pi_brooktrout_wild</t>
+  </si>
+  <si>
+    <t>pi_BCG_att5extra</t>
   </si>
 </sst>
 </file>
@@ -3337,16 +3340,40 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3364,35 +3391,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -8897,7 +8900,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E141" sqref="E141"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13632,7 +13635,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="138" t="s">
-        <v>555</v>
+        <v>681</v>
       </c>
       <c r="F126" s="137" t="s">
         <v>610</v>
@@ -13667,7 +13670,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="138" t="s">
-        <v>555</v>
+        <v>681</v>
       </c>
       <c r="F127" s="137" t="s">
         <v>611</v>
@@ -13702,7 +13705,7 @@
         <v>3</v>
       </c>
       <c r="E128" s="138" t="s">
-        <v>555</v>
+        <v>681</v>
       </c>
       <c r="F128" s="137" t="s">
         <v>612</v>
@@ -13911,8 +13914,8 @@
       <c r="D134" s="139">
         <v>2</v>
       </c>
-      <c r="E134" s="140" t="s">
-        <v>555</v>
+      <c r="E134" s="138" t="s">
+        <v>681</v>
       </c>
       <c r="F134" s="141" t="s">
         <v>616</v>
@@ -17404,12 +17407,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="32"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
@@ -17428,10 +17431,10 @@
       <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="164"/>
+      <c r="C7" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="156"/>
       <c r="E7" s="33"/>
       <c r="G7" s="18" t="s">
         <v>17</v>
@@ -17450,10 +17453,10 @@
       <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="165"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -17498,10 +17501,10 @@
       <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="33"/>
       <c r="G10" s="20" t="s">
         <v>11</v>
@@ -17520,10 +17523,10 @@
       <c r="B11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="164"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="33"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
@@ -17542,10 +17545,10 @@
       <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="164"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="33"/>
       <c r="G12" s="20" t="s">
         <v>116</v>
@@ -17564,10 +17567,10 @@
       <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="164"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="33"/>
       <c r="G13" s="20" t="s">
         <v>117</v>
@@ -17586,10 +17589,10 @@
       <c r="B14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="149"/>
+      <c r="D14" s="157"/>
       <c r="E14" s="34" t="s">
         <v>113</v>
       </c>
@@ -17610,10 +17613,10 @@
       <c r="B15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="149"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="34" t="s">
         <v>114</v>
       </c>
@@ -17628,12 +17631,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="56" x14ac:dyDescent="0.35">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
       <c r="E16" s="32"/>
       <c r="F16" s="11"/>
       <c r="G16" s="20" t="s">
@@ -17653,10 +17656,10 @@
       <c r="B17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="148"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="35"/>
       <c r="I17" s="25"/>
     </row>
@@ -17667,10 +17670,10 @@
       <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="147"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="36"/>
       <c r="G18" s="30" t="s">
         <v>80</v>
@@ -17689,10 +17692,10 @@
       <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="148"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="35"/>
       <c r="G19" s="1" t="s">
         <v>82</v>
@@ -17711,10 +17714,10 @@
       <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="148"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="35"/>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -17733,10 +17736,10 @@
       <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="162"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="35"/>
       <c r="G21" s="1" t="s">
         <v>87</v>
@@ -17781,10 +17784,10 @@
       <c r="B23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="150"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="39"/>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -17843,19 +17846,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="160" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="156" t="s">
+      <c r="E26" s="147" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -17869,13 +17872,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="151"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="152"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="157"/>
+      <c r="E27" s="148"/>
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
@@ -17887,12 +17890,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="32"/>
       <c r="G28" s="1" t="s">
         <v>104</v>
@@ -17911,10 +17914,10 @@
       <c r="B29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="148"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="35"/>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -17933,10 +17936,10 @@
       <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="C30" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="162"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -17976,10 +17979,10 @@
       <c r="B33" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="148" t="s">
+      <c r="C33" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="152"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17989,10 +17992,10 @@
       <c r="B34" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="150"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="34" t="s">
         <v>120</v>
       </c>
@@ -18019,19 +18022,19 @@
       <c r="B36" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="150"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="155" t="s">
+      <c r="A37" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -18041,10 +18044,10 @@
       <c r="B38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="161"/>
+      <c r="D38" s="153"/>
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="168" x14ac:dyDescent="0.35">
@@ -18054,10 +18057,10 @@
       <c r="B39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="148" t="s">
+      <c r="C39" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="148"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
@@ -18069,10 +18072,10 @@
       <c r="B40" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="148" t="s">
+      <c r="C40" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="148"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -18082,10 +18085,10 @@
       <c r="B41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="148"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="70" x14ac:dyDescent="0.35">
@@ -18095,16 +18098,32 @@
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="148"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A6:D6"/>
@@ -18121,22 +18140,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCE2216-CA7D-4B71-9EC2-AF5331C98B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E82B51-B309-4FCB-AECF-0B1AD8570176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53880" yWindow="5055" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -2944,7 +2944,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3340,40 +3340,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3391,12 +3367,37 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3409,7 +3410,227 @@
     <cellStyle name="Normal_Sheet1_1" xfId="8" xr:uid="{3139C4EB-D54A-4868-A157-2F32B623FE47}"/>
     <cellStyle name="Title 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3842,7 +4063,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="41">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="63">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4122,35 +4343,35 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="95">
         <v>44378</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>193</v>
       </c>
@@ -4159,7 +4380,7 @@
         <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[Rules.xlsx]</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>194</v>
       </c>
@@ -4168,7 +4389,7 @@
         <v>[Rules.xlsx]</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>195</v>
       </c>
@@ -4177,22 +4398,22 @@
         <v>NOTES</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="99" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -4203,7 +4424,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -4215,7 +4436,7 @@
         <v>NOTES</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>663</v>
       </c>
@@ -4227,7 +4448,7 @@
         <v>Rules</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4239,7 +4460,7 @@
         <v>abbrev_v1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4251,7 +4472,7 @@
         <v>BCG_PacNW_v1_500ct</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4263,7 +4484,7 @@
         <v>BCG_PacNW_v1_300ct</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>591</v>
       </c>
@@ -4309,30 +4530,30 @@
       <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="11"/>
-    <col min="3" max="3" width="5.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" style="54" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="54" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="54"/>
-    <col min="9" max="9" width="9.1796875" style="11"/>
-    <col min="10" max="10" width="36.7265625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.81640625" style="55" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="54"/>
-    <col min="16" max="16" width="21.453125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" style="54" customWidth="1"/>
-    <col min="18" max="21" width="9.1796875" style="54"/>
-    <col min="22" max="22" width="35.1796875" style="11" customWidth="1"/>
-    <col min="23" max="23" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="4.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="54"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="10" max="10" width="36.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.85546875" style="55" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="54"/>
+    <col min="16" max="16" width="21.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="54" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" style="54"/>
+    <col min="22" max="22" width="35.140625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="D1" s="53" t="s">
         <v>165</v>
       </c>
@@ -4342,7 +4563,7 @@
       <c r="O1" s="57"/>
       <c r="P1" s="58"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>129</v>
       </c>
@@ -4413,7 +4634,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>132</v>
       </c>
@@ -4485,7 +4706,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>132</v>
       </c>
@@ -4557,7 +4778,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>132</v>
      